--- a/sensor/data/H2.xlsx
+++ b/sensor/data/H2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01智能运维\厂家资料\南信大\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F21E590-9D5B-4E51-9B4C-685757EA437C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F49E38-4A7A-49AF-BB03-1FDAB1E71482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21270" yWindow="780" windowWidth="27510" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tb_turnoutActionCurve" sheetId="1" r:id="rId1"/>
@@ -67,766 +67,370 @@
     <t>2021-12-01 09:16:26</t>
   </si>
   <si>
-    <t>0,0,0,61,59,399,222,217,215,214,215,215,215,215,215,215,215,215,215,214,214,214,215,215,209,213,212,212,212,213,213,213,214,214,214,214,214,214,212,212,213,214,213,213,213,213,212,212,212,212,212,212,212,212,212,212,212,212,211,212,212,213,211,211,212,212,211,211,211,211,211,211,211,211,210,210,210,210,210,210,210,210,209,210,209,209,209,210,209,209,209,209,209,209,209,209,208,209,209,209,208,208,208,208,208,208,208,207,208,208,208,208,208,209,209,209,210,211,211,213,213,213,56,55,55,56,57,57,58,58,59,59,60,60,60,60,60,60,61,61,61,61,0,0,0</t>
-  </si>
-  <si>
     <t>DC001</t>
   </si>
   <si>
-    <t>0,0,0,60,59,378,217,218,215,215,215,214,215,214,215,215,215,215,215,214,214,214,213,214,209,214,214,213,213,214,214,214,214,214,214,215,214,214,213,213,213,214,213,213,213,213,212,213,213,213,213,212,212,212,213,212,212,212,211,212,212,212,212,211,212,212,211,211,211,211,210,211,211,210,211,210,211,210,210,210,210,210,210,210,210,209,209,210,210,209,209,210,209,209,209,209,208,208,208,209,208,208,208,208,208,208,208,208,208,208,208,208,208,209,209,210,210,212,212,212,208,208,208,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,0,0,361,210,217,214,215,215,215,214,215,214,215,215,214,215,213,214,213,214,214,209,212,212,212,212,213,213,213,214,214,214,213,213,214,212,212,212,213,212,212,212,212,212,211,212,212,212,212,212,212,211,212,212,212,211,211,211,212,211,210,212,212,210,211,211,211,210,211,211,210,209,210,210,210,209,209,209,209,209,209,209,209,208,208,209,209,209,208,208,208,208,208,208,208,208,208,208,207,207,207,207,207,206,206,207,207,207,208,208,209,208,209,209,210,211,212,212,212,58,57,56,53,53,54,54,55,55,55,55,55,55,56,56,56,56,57,57,57,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,224,167,2292,424,276,305,304,302,303,302,301,300,298,298,297,297,314,312,310,295,290,279,275,272,272,272,260,255,260,254,254,254,252,256,256,282,278,275,260,276,280,278,279,284,284,282,283,284,285,283,285,281,285,284,285,304,300,295,282,300,309,290,295,308,308,300,302,309,311,305,311,318,319,315,320,324,321,321,325,326,324,329,330,333,333,334,337,340,339,344,345,349,350,352,353,356,353,355,359,365,364,366,368,371,370,359,350,344,340,337,331,329,317,317,293,292,294,294,294,207,204,204,204,204,174,175,176,176,177,178,177,178,179,179,178,180,179,179,179,0,0,0</t>
   </si>
   <si>
-    <t>0,0,61,184,249,223,223,223,224,224,225,224,224,224,224,224,223,224,223,224,224,224,223,215,220,221,221,221,222,221,222,222,222,222,222,221,221,221,221,221,221,221,221,221,221,221,221,221,221,221,221,221,219,220,221,221,220,220,220,220,220,220,220,220,220,220,220,219,219,219,219,219,219,219,219,219,219,219,218,218,218,218,218,218,218,218,218,218,218,218,218,218,218,218,218,218,218,217,217,217,217,217,217,218,217,217,217,218,218,218,218,218,218,218,218,219,219,219,220,220,220,55,56,57,58,58,59,59,60,60,60,60,60,60,60,62,63,63,63,0</t>
-  </si>
-  <si>
     <t>DC003</t>
   </si>
   <si>
-    <t>0,0,60,180,289,220,222,223,223,223,222,222,222,223,222,222,223,222,221,222,223,220,221,216,218,220,221,220,221,220,221,220,220,220,221,220,220,220,220,219,220,219,220,220,220,219,220,220,220,220,220,220,218,219,219,219,219,219,219,218,218,219,218,218,218,218,218,218,217,217,217,217,217,218,217,218,217,217,217,217,216,216,216,217,216,217,217,217,216,216,216,216,216,216,216,216,216,216,216,216,216,216,216,216,216,216,216,216,217,217,217,216,216,217,217,218,218,218,219,219,219,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,334,272,225,226,227,227,227,228,226,227,227,227,227,226,227,225,226,227,226,226,216,222,223,224,224,225,224,224,225,225,225,224,224,224,224,224,224,224,224,223,224,224,224,223,224,224,224,224,224,222,223,224,223,223,223,223,223,223,222,223,222,223,222,222,222,222,221,221,222,221,220,221,221,221,221,221,220,220,220,220,220,220,220,220,220,220,220,219,220,220,220,220,220,220,220,220,220,219,219,220,220,219,219,219,219,220,220,220,220,220,221,220,221,221,221,222,222,222,56,57,58,58,59,60,62,62,62,54,55,55,55,55,55,55,55,55,0</t>
-  </si>
-  <si>
     <t>0,0,225,783,823,252,285,277,278,277,278,278,275,273,271,269,271,281,291,286,280,275,277,270,268,267,253,259,246,254,248,251,250,250,256,257,256,262,265,264,263,264,266,266,265,267,266,267,266,267,267,268,300,281,267,276,283,284,283,289,294,293,293,299,303,302,302,305,308,306,307,310,316,314,313,316,320,320,321,321,328,327,327,329,333,331,330,332,338,338,339,339,345,344,345,345,348,349,349,347,349,350,349,349,350,351,336,325,319,315,315,311,310,311,309,294,290,292,289,289,289,205,207,212,216,218,221,217,217,217,177,177,178,178,178,182,190,190,190,0</t>
   </si>
   <si>
     <t>2021-12-01 06:12:05</t>
   </si>
   <si>
-    <t>0,0,0,60,452,198,214,212,212,212,212,211,212,212,212,212,212,213,211,212,210,211,196,208,208,207,209,208,208,208,207,207,206,208,208,207,206,207,206,207,205,207,200,203,203,203,203,202,203,202,202,202,202,202,201,202,202,201,202,201,201,201,201,200,200,201,201,200,200,200,201,200,200,199,199,200,200,200,200,200,199,199,199,199,199,200,200,200,199,199,199,199,199,199,199,199,198,198,198,198,198,198,199,198,199,198,198,198,199,200,200,200,200,200,199,199,200,202,201,205,205,205,56,56,57,58,58,59,60,60,60,61,61,61,61,61,61,61,61,61,0</t>
-  </si>
-  <si>
     <t>DC005</t>
   </si>
   <si>
-    <t>0,0,0,0,399,200,215,212,212,212,212,211,212,212,212,212,212,212,211,211,211,212,195,209,207,207,207,207,207,208,207,206,207,207,207,206,206,207,206,206,205,207,201,203,203,203,203,203,204,202,203,202,202,202,202,202,202,201,202,202,201,201,201,201,201,201,201,201,201,200,201,201,200,200,201,200,200,201,200,200,200,200,200,200,200,200,199,200,200,199,200,200,200,199,200,199,199,199,199,198,199,198,199,198,199,199,199,199,199,200,200,200,200,200,200,200,201,201,202,204,204,204,55,55,54,50,50,50,51,51,51,51,51,51,51,51,52,52,52,52,0</t>
-  </si>
-  <si>
-    <t>0,0,0,60,459,194,217,214,214,214,214,214,214,214,214,214,214,214,213,213,213,214,199,211,209,210,210,209,210,210,210,209,209,209,210,209,209,209,209,209,208,209,203,205,206,206,205,205,206,204,204,204,204,203,203,204,203,204,204,203,204,203,203,203,203,203,202,202,203,202,202,202,202,202,202,202,202,202,202,201,202,202,201,202,201,202,202,201,201,201,201,201,201,201,201,201,201,201,201,201,200,200,200,200,200,200,200,201,201,202,202,202,202,201,201,201,203,203,203,207,207,207,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,225,2518,605,267,289,290,288,284,286,282,281,278,277,279,278,292,295,293,277,228,231,232,235,222,232,231,233,234,256,248,232,240,257,258,259,259,262,261,260,254,258,257,257,270,265,255,278,274,278,277,278,282,284,284,288,289,289,293,296,296,298,299,300,303,304,308,309,310,311,313,313,316,316,318,317,320,320,322,323,326,328,326,328,328,331,333,332,336,337,339,340,341,341,346,348,348,349,350,354,352,355,353,355,355,346,337,331,323,319,315,311,322,316,295,278,277,281,281,281,201,204,209,211,213,214,214,216,217,218,218,218,218,218,218,219,219,219,0</t>
   </si>
   <si>
     <t>2021-12-01 06:12:06</t>
   </si>
   <si>
-    <t>0,0,61,353,208,217,220,220,219,220,219,219,219,219,219,219,219,219,219,219,218,218,203,215,213,214,214,214,214,214,214,214,215,214,214,214,214,214,214,214,213,213,208,212,211,211,211,211,210,210,211,211,210,210,210,210,209,210,210,210,210,209,210,209,209,209,209,208,209,208,209,209,208,208,208,208,208,208,208,208,208,208,207,208,207,207,207,207,207,207,207,207,207,207,207,206,206,206,206,206,207,207,206,206,206,206,206,206,208,208,208,208,208,207,207,209,209,209,209,209,209,56,56,56,57,58,58,59,59,60,60,60,61,61,61,61,61,61,62,62,62,0,0</t>
-  </si>
-  <si>
     <t>DC007</t>
   </si>
   <si>
-    <t>0,0,0,209,245,215,218,218,218,218,217,218,218,218,217,217,218,217,218,217,218,209,204,212,212,212,211,212,212,212,212,212,213,212,212,212,212,212,212,212,211,212,207,210,209,209,209,210,209,209,209,208,208,208,208,208,208,208,208,209,208,208,208,208,208,207,207,207,207,207,207,207,207,207,207,207,207,207,207,207,206,207,207,207,206,206,205,206,206,205,206,206,206,206,206,206,205,205,205,205,205,205,205,205,205,205,205,205,206,206,206,206,206,206,206,207,207,207,207,207,207,56,57,56,53,53,54,54,54,54,55,55,55,55,55,55,55,56,56,56,56,0,0</t>
-  </si>
-  <si>
-    <t>0,0,60,206,265,217,222,221,222,222,221,222,221,221,221,221,221,221,221,220,222,218,205,215,215,217,216,216,216,216,216,216,217,215,217,216,217,216,217,216,216,216,210,213,213,213,212,213,213,212,212,212,210,212,211,212,210,212,212,212,212,211,211,211,211,211,211,210,210,210,210,210,211,210,210,209,210,209,210,210,210,210,209,210,209,209,209,209,209,209,208,209,209,209,209,208,209,208,208,209,208,209,208,209,208,207,208,209,209,209,210,210,209,209,210,211,211,211,211,211,211,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,224,1003,965,267,273,282,281,278,277,277,277,275,275,275,275,281,289,288,278,241,244,235,244,245,244,243,243,245,250,240,225,240,248,245,243,250,253,250,252,247,244,248,249,249,248,248,246,248,248,247,261,260,256,259,268,268,263,264,273,271,271,273,277,278,279,282,281,286,287,287,289,288,289,291,293,295,295,297,296,301,302,305,307,309,312,315,315,317,317,321,323,324,323,326,327,328,328,331,333,336,335,336,336,343,336,323,311,305,305,300,298,302,303,274,266,267,267,267,267,204,208,220,217,219,220,222,223,224,225,226,227,228,228,228,228,229,228,228,228,0,0</t>
   </si>
   <si>
     <t>2021-12-01 10:51:24</t>
   </si>
   <si>
-    <t>0,0,0,60,64,272,210,208,208,206,206,206,206,206,206,206,206,206,206,205,205,205,206,195,199,202,201,201,201,201,201,202,202,201,201,201,201,201,201,201,199,191,194,196,196,196,195,196,196,196,196,195,196,196,195,195,196,196,195,194,187,193,192,193,193,193,192,193,192,192,192,192,192,192,192,192,192,192,191,187,189,190,189,189,189,189,188,189,189,189,188,188,189,189,189,188,188,188,188,188,188,188,188,188,187,187,188,188,188,188,189,189,188,189,189,188,188,190,190,190,190,190,55,54,54,55,56,56,57,57,57,58,58,58,58,59,59,59,59,59,59,59,0</t>
-  </si>
-  <si>
     <t>DC009</t>
   </si>
   <si>
-    <t>0,0,0,60,64,326,206,210,209,208,208,207,207,208,208,208,208,208,208,206,207,206,205,200,200,205,203,204,204,203,203,204,204,204,203,204,203,203,203,203,203,192,195,199,198,198,198,198,198,198,198,198,198,198,198,199,198,198,197,198,191,194,195,195,195,195,195,195,195,195,195,195,195,195,195,194,194,194,194,188,191,192,192,191,192,192,191,191,191,191,191,191,191,191,191,191,191,190,191,191,190,191,190,190,190,190,190,190,191,191,191,191,191,191,191,190,191,192,192,192,192,192,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,0,35,299,212,209,209,207,207,208,207,207,207,207,207,207,207,207,207,206,207,196,199,204,203,203,203,202,203,203,204,203,203,204,202,202,202,202,203,191,195,197,197,197,197,197,197,197,197,197,197,197,197,197,198,197,196,197,188,193,194,194,194,194,194,194,194,194,193,193,194,194,194,194,193,194,194,191,190,191,190,190,190,190,190,190,190,190,190,190,190,190,190,189,189,189,190,189,189,189,189,189,189,189,189,189,189,189,190,190,190,190,189,189,190,191,191,191,188,188,188,54,55,55,56,56,54,54,56,56,56,56,57,57,57,57,57,56,56,56,0</t>
-  </si>
-  <si>
     <t>0,0,0,220,242,1546,253,244,254,281,279,281,280,280,275,276,274,275,271,283,285,282,261,237,236,239,242,237,234,240,235,233,221,228,236,234,236,241,242,242,241,242,230,240,236,238,237,237,239,237,238,239,238,239,252,248,233,244,255,251,247,252,255,253,251,255,258,260,255,258,263,263,261,263,268,267,266,270,270,255,272,271,275,278,278,279,280,285,285,286,288,292,296,294,296,299,300,302,303,306,310,312,313,313,316,318,315,315,307,298,288,280,281,277,286,287,285,285,285,251,208,180,193,192,194,198,200,202,197,183,181,182,182,183,183,184,184,184,184,191,191,191,0</t>
   </si>
   <si>
     <t>2021-12-01 10:51:26</t>
   </si>
   <si>
-    <t>0,0,44,61,380,200,209,208,205,205,206,206,206,206,206,205,206,206,205,205,205,206,205,195,198,201,201,200,200,200,200,201,200,200,200,200,200,200,200,200,197,193,191,196,193,194,194,194,194,194,194,193,194,194,194,194,194,194,194,193,188,191,192,192,191,191,191,192,191,191,191,192,191,191,191,191,191,191,190,182,189,188,189,188,188,188,188,188,188,188,188,188,188,188,188,188,188,188,187,187,188,188,188,188,187,187,188,187,187,188,188,188,188,188,188,188,189,189,189,189,189,189,55,55,55,56,57,57,58,58,59,59,59,59,59,60,59,60,60,58,58,58,0</t>
-  </si>
-  <si>
     <t>DC011</t>
   </si>
   <si>
-    <t>0,0,44,62,371,222,205,206,204,204,204,203,203,203,203,204,203,203,203,202,203,201,200,196,194,200,198,199,199,198,198,199,198,198,198,198,198,198,198,198,197,187,189,194,192,193,193,192,192,192,192,192,192,193,192,193,192,193,192,192,186,189,190,190,190,190,190,189,190,190,190,190,190,190,190,189,189,190,189,182,186,187,187,186,187,187,187,187,187,186,187,186,186,186,186,186,186,186,186,186,186,186,186,186,186,186,186,186,186,186,186,186,187,188,187,187,188,188,188,188,188,188,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,0,392,208,205,207,205,205,205,205,205,205,205,205,205,205,205,204,205,205,205,192,198,200,200,200,200,199,201,200,200,200,199,200,199,199,199,199,200,190,192,195,193,193,194,193,193,194,194,193,194,193,193,193,194,194,194,194,187,191,191,191,192,191,191,191,191,191,191,191,191,191,191,191,191,191,191,185,188,189,188,188,188,188,188,188,188,188,188,188,188,187,188,188,187,187,187,187,187,187,187,186,187,187,187,187,187,188,188,187,188,187,186,186,187,187,187,188,188,188,55,55,56,54,52,53,53,53,54,54,54,54,54,54,54,55,55,55,55,55,0</t>
-  </si>
-  <si>
     <t>0,0,88,225,1993,560,224,205,241,246,246,246,247,243,240,239,239,238,240,253,249,240,233,206,222,216,218,212,209,213,209,213,221,222,223,221,225,222,226,224,220,219,210,213,246,234,231,237,231,233,232,238,228,231,236,233,234,233,234,236,233,237,235,235,231,233,239,238,232,232,238,240,235,239,240,245,242,242,244,230,244,242,248,253,251,251,251,255,257,257,256,257,262,263,264,261,263,269,267,268,266,268,272,271,270,272,271,267,258,251,246,244,243,242,250,252,234,225,227,226,226,226,193,195,197,181,168,168,169,170,170,171,171,172,171,172,171,173,173,173,173,173,0</t>
   </si>
   <si>
     <t>2021-11-27 03:37:55</t>
   </si>
   <si>
-    <t>0,0,56,30,275,215,217,216,214,214,215,215,215,215,215,215,214,214,214,216,217,217,216,213,211,214,213,213,213,213,213,213,213,213,213,213,213,213,213,213,213,213,213,212,213,212,212,212,212,213,213,212,213,212,213,212,212,212,212,212,211,212,211,211,211,211,212,211,211,211,211,211,210,210,210,210,210,210,210,210,210,211,210,209,209,209,209,210,210,209,209,209,209,209,209,209,209,209,209,209,209,209,208,208,208,209,210,210,210,210,210,210,210,210,211,212,212,212,212,56,56,56,57,57,58,58,59,59,60,60,60,60,60,60,60,60,60,58,54,54,54,0</t>
-  </si>
-  <si>
     <t>DC013</t>
   </si>
   <si>
-    <t>0,0,0,160,309,212,214,212,211,212,212,212,212,212,212,213,211,211,211,213,214,214,211,214,208,211,211,210,210,210,211,211,210,210,210,210,210,210,210,210,210,210,210,210,210,210,209,209,210,210,210,209,210,209,209,209,210,209,209,209,209,209,208,208,209,209,209,209,208,208,208,208,207,208,207,208,207,207,208,208,208,208,207,207,206,206,206,206,206,206,206,206,206,206,206,206,206,206,206,206,206,205,205,205,205,206,206,207,207,207,207,207,206,207,208,209,209,209,209,54,54,54,55,56,56,55,54,54,54,55,55,55,55,55,55,55,55,55,55,55,55,0</t>
-  </si>
-  <si>
-    <t>0,0,57,163,266,215,216,215,213,213,213,213,214,213,213,213,213,213,213,214,216,215,214,213,210,213,212,212,212,212,212,212,212,212,212,212,211,211,212,211,212,211,211,211,211,211,211,210,210,211,212,211,212,211,211,211,211,211,211,210,210,211,210,210,210,210,210,210,210,210,210,210,209,209,210,209,209,209,209,209,209,209,209,208,208,208,208,208,208,208,208,208,208,208,208,208,208,208,208,208,208,208,207,208,208,208,209,209,208,208,209,209,208,208,210,210,210,194,194,194,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,172,294,1236,260,243,266,297,296,295,290,290,287,288,284,304,298,299,274,237,245,258,244,248,250,252,248,248,248,243,249,254,251,253,256,257,256,256,256,255,258,255,257,255,257,261,274,263,257,259,273,265,271,271,276,274,276,279,280,279,281,281,283,282,285,285,288,290,289,293,295,299,299,299,301,307,306,307,308,314,313,315,316,321,324,326,326,328,329,332,332,334,333,336,335,339,338,341,340,346,347,352,352,353,340,330,322,319,316,313,311,319,317,292,284,283,283,283,199,199,202,206,209,212,219,221,221,222,223,224,224,224,224,224,224,222,222,222,0,0,0</t>
   </si>
   <si>
-    <t>0,0,0,61,517,221,222,220,220,220,220,220,220,220,221,221,220,220,219,220,220,221,220,221,213,217,218,218,217,217,217,218,217,217,217,217,217,217,217,217,217,217,217,217,217,217,216,217,216,217,217,216,217,217,217,217,217,217,217,216,216,216,216,216,215,216,216,216,216,215,216,216,215,215,215,215,215,215,215,215,215,215,215,214,215,215,214,214,214,214,214,214,214,214,214,214,214,214,214,214,214,214,214,213,213,213,214,215,215,214,214,215,215,215,215,216,216,216,219,219,219,57,57,57,57,58,58,59,59,60,60,61,61,61,61,62,62,62,62,0,0</t>
-  </si>
-  <si>
     <t>DC015</t>
   </si>
   <si>
-    <t>0,0,0,0,474,201,221,218,218,218,218,218,218,218,219,218,219,218,218,218,218,219,218,218,209,215,216,216,216,216,216,216,216,215,216,216,216,216,215,216,215,216,216,216,215,215,215,215,215,215,215,215,216,215,216,215,215,215,215,214,215,215,215,214,214,214,214,215,214,214,214,214,214,214,213,213,214,213,213,214,214,213,213,213,213,213,213,212,212,213,213,213,213,212,212,212,212,212,212,212,212,212,211,211,211,211,211,212,212,212,213,213,213,213,214,214,214,215,216,216,216,56,56,54,52,53,53,54,54,54,54,54,55,55,55,56,55,55,55,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,61,512,213,219,218,218,218,218,218,218,217,218,218,218,217,218,217,218,218,218,218,211,215,216,216,216,215,216,216,215,216,216,215,216,215,215,216,215,215,215,215,215,215,215,215,215,215,215,214,215,214,215,215,216,215,215,215,215,214,215,214,214,214,213,214,214,214,214,214,214,214,213,213,213,213,212,213,214,213,213,213,213,213,212,212,212,213,214,213,213,212,212,212,212,211,212,212,212,211,211,211,211,211,212,213,212,212,213,213,213,213,214,215,214,215,217,217,217,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,211,2940,519,255,261,259,256,258,255,257,252,254,253,253,266,270,268,262,243,237,231,229,226,228,227,228,229,227,223,227,231,232,231,234,238,238,240,240,239,241,238,242,240,243,240,241,241,243,253,248,251,242,249,253,254,252,255,258,257,258,259,264,263,266,268,267,273,273,273,276,277,278,280,282,282,285,289,289,290,291,294,298,297,296,300,302,304,305,307,309,308,309,309,313,316,318,320,320,324,325,327,330,331,326,316,307,303,301,295,289,282,271,261,255,254,260,260,260,206,209,218,217,218,219,221,222,224,224,226,226,226,228,231,228,228,228,0,0</t>
   </si>
   <si>
     <t>2021-11-29 14:23:24</t>
   </si>
   <si>
-    <t>0,0,0,60,438,198,213,214,210,210,210,210,210,210,210,211,211,210,210,210,211,212,212,212,212,212,212,211,211,211,211,211,211,211,211,211,212,211,211,212,211,210,211,210,211,210,211,211,211,211,210,210,211,210,210,210,210,210,210,211,210,210,210,210,210,210,210,210,211,210,210,210,209,209,210,211,211,209,209,208,209,209,209,210,210,209,209,208,208,209,208,208,208,208,208,207,208,208,209,209,208,208,207,207,208,208,208,209,208,209,209,209,210,210,209,210,211,211,211,211,211,57,56,57,58,59,59,60,60,60,61,61,61,61,61,61,59,59,59,0</t>
-  </si>
-  <si>
     <t>DC017</t>
   </si>
   <si>
-    <t>0,0,0,0,423,217,212,214,210,211,210,211,211,211,211,211,211,210,210,210,211,211,212,212,212,212,211,211,211,211,211,211,211,211,211,211,212,211,211,212,212,211,212,211,211,210,211,211,211,211,210,210,210,211,211,210,210,209,210,211,210,210,210,210,210,210,210,210,211,210,210,211,210,209,210,212,211,209,209,209,209,209,208,209,210,209,208,208,209,210,209,209,209,209,208,208,208,208,209,209,208,208,208,208,208,208,207,208,208,209,209,209,210,210,210,210,211,211,211,211,211,57,57,57,58,59,60,61,61,61,53,53,53,53,54,54,54,54,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,60,401,212,211,213,210,210,210,210,210,210,211,210,211,210,210,210,210,211,211,211,212,211,211,211,211,211,211,211,211,212,212,211,212,209,210,211,211,210,211,211,210,210,212,211,211,210,210,210,210,210,210,210,209,209,210,211,210,210,210,210,210,210,209,209,211,210,210,210,210,209,210,211,210,210,208,209,210,209,208,209,209,209,208,208,208,210,209,209,209,209,208,208,208,208,209,209,208,208,208,208,208,208,207,208,209,210,210,210,210,210,210,211,212,212,212,212,212,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,221,2186,629,249,229,284,283,280,278,274,272,268,267,266,277,283,282,268,257,256,254,252,253,253,255,254,253,252,255,252,254,255,253,254,283,272,252,263,276,265,274,279,282,258,263,272,277,286,290,288,283,284,288,296,299,288,275,297,305,295,298,306,316,318,313,287,309,318,309,325,342,334,308,309,336,342,335,319,332,352,341,331,330,353,357,349,328,347,360,354,356,354,367,370,372,354,355,364,369,375,376,366,365,375,359,344,326,332,332,324,322,325,301,285,285,285,285,285,207,207,210,214,216,220,229,221,222,222,224,224,224,224,224,224,224,0,0</t>
   </si>
   <si>
-    <t>0,0,55,31,296,208,209,209,206,206,206,206,206,207,207,207,207,207,206,206,206,208,208,209,209,208,208,208,208,208,208,208,208,208,208,208,208,208,208,207,207,208,208,208,208,208,206,207,208,207,207,207,207,207,207,207,207,207,207,207,207,207,207,207,207,207,207,207,207,207,207,208,207,206,207,208,207,206,207,207,206,206,206,206,206,206,205,206,206,206,205,205,206,206,205,205,205,206,205,205,204,205,205,204,204,205,205,205,205,206,206,206,206,206,206,206,207,208,207,210,210,210,56,56,56,57,58,59,59,59,60,60,60,61,61,61,61,62,63,63,63,0</t>
-  </si>
-  <si>
     <t>DC019</t>
   </si>
   <si>
-    <t>0,0,0,0,364,220,207,208,206,205,205,205,206,206,206,206,206,206,205,206,206,207,207,207,207,207,207,207,207,207,207,206,206,207,207,207,207,207,207,205,206,207,207,208,207,207,205,206,207,206,206,206,206,206,206,205,205,206,206,206,205,206,206,206,206,206,206,206,206,206,207,207,206,206,206,206,206,206,206,206,205,204,204,205,205,204,204,205,205,205,204,204,204,204,204,204,204,205,204,204,204,204,204,203,203,204,204,204,204,205,205,205,206,205,205,205,207,207,207,208,208,208,56,57,57,58,59,60,62,60,59,59,59,60,60,60,60,60,60,60,60,0</t>
-  </si>
-  <si>
-    <t>0,0,56,28,439,212,208,208,206,206,206,206,205,206,206,207,206,206,206,206,206,207,208,208,208,208,208,207,207,206,206,207,206,207,207,207,207,207,207,205,207,207,207,207,207,207,205,206,207,206,206,206,207,207,206,206,206,207,206,206,206,206,206,206,206,207,207,206,206,206,207,206,206,206,206,206,206,206,206,206,205,205,205,205,206,205,205,206,205,205,204,205,205,205,205,204,205,205,204,204,204,204,205,204,204,204,205,205,204,205,206,206,206,206,205,206,207,207,208,210,210,210,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,149,28,2179,406,223,226,268,266,263,261,260,256,254,254,253,255,269,266,261,238,227,221,221,226,229,233,233,234,234,234,237,236,236,237,235,236,235,266,250,238,232,232,235,237,275,249,238,252,262,259,252,250,261,262,262,256,267,274,271,260,265,276,276,272,269,278,284,281,274,278,290,291,284,280,296,300,293,293,300,310,308,300,300,318,320,313,305,317,326,323,314,316,332,334,324,319,329,338,335,327,325,340,344,337,327,330,322,310,302,302,300,305,312,300,272,266,267,273,273,273,204,207,210,213,216,221,230,232,232,233,233,235,235,235,236,239,241,241,241,0</t>
   </si>
   <si>
     <t>2021-12-01 10:56:54</t>
   </si>
   <si>
-    <t>0,0,0,59,441,228,216,217,214,214,214,214,214,214,214,213,214,213,213,213,215,215,214,207,211,213,212,212,212,212,212,212,212,212,212,212,212,212,212,212,212,210,202,210,208,208,208,208,209,209,208,208,208,208,207,208,207,207,207,208,207,201,204,204,204,204,204,204,204,203,203,203,203,203,204,203,203,203,203,203,203,202,202,203,203,202,202,202,202,202,202,202,202,202,202,202,202,202,202,201,202,202,202,202,202,202,201,202,203,203,203,203,203,202,202,204,204,204,204,204,204,55,56,57,58,58,59,59,60,60,60,60,60,60,60,60,60,61,61,61,0,0</t>
-  </si>
-  <si>
     <t>DC021</t>
   </si>
   <si>
-    <t>0,0,0,0,495,223,218,218,214,215,215,215,215,216,216,215,215,215,214,215,216,217,217,205,213,214,214,214,214,214,214,213,213,213,214,213,213,213,213,213,214,210,203,212,209,209,209,210,209,210,209,209,209,209,208,209,209,208,208,207,207,203,205,205,205,205,205,205,205,205,205,205,204,204,204,204,204,204,205,205,205,205,205,204,204,204,204,204,204,204,204,204,204,204,204,204,204,204,203,203,204,203,203,203,203,203,203,203,204,204,204,205,204,205,204,205,205,206,206,206,206,56,57,59,59,59,52,53,53,53,53,53,53,53,53,53,53,53,53,53,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,60,380,214,221,219,216,217,216,217,217,217,217,217,217,216,216,217,217,219,219,208,215,215,215,215,215,215,215,215,215,215,215,215,215,215,215,215,215,213,205,213,211,211,212,211,210,212,210,211,211,210,210,210,210,210,210,210,210,203,206,207,207,207,207,207,207,206,206,207,206,206,206,206,206,206,206,206,206,205,206,205,205,205,205,206,205,205,205,205,205,205,204,205,205,204,204,204,205,205,205,205,205,205,204,205,205,205,206,206,206,205,205,206,207,207,207,207,207,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,212,2473,381,213,216,279,272,270,268,266,263,262,263,262,275,275,269,242,230,231,229,224,230,228,229,233,234,229,233,233,234,230,234,233,233,233,235,234,268,226,228,248,250,244,251,252,240,259,260,258,266,265,265,260,271,273,270,274,270,282,280,279,282,284,284,287,287,287,289,296,298,296,294,303,308,306,294,306,317,310,308,314,319,322,319,321,327,327,328,324,333,335,334,331,339,345,346,340,344,356,354,355,355,344,333,316,304,300,300,310,313,316,316,316,269,267,267,267,201,204,215,212,213,214,215,216,216,216,216,216,217,218,218,218,218,218,218,0,0</t>
   </si>
   <si>
     <t>2021-12-01 10:56:55</t>
   </si>
   <si>
-    <t>0,0,37,55,299,223,212,212,211,211,211,211,210,210,211,211,211,211,211,210,211,209,204,208,209,209,208,209,208,209,209,209,209,209,209,209,209,209,208,208,209,208,203,206,206,205,205,205,205,205,205,206,206,205,205,205,205,205,205,205,195,202,201,202,201,202,202,201,201,201,201,201,201,201,201,201,201,201,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,199,200,200,200,199,199,199,199,199,200,200,200,200,200,201,200,200,201,201,201,202,205,204,204,204,55,56,57,58,58,59,59,59,60,60,60,61,61,61,61,62,62,62,0,0,0</t>
-  </si>
-  <si>
     <t>DC023</t>
   </si>
   <si>
-    <t>0,0,0,0,338,216,214,213,212,212,212,212,212,212,213,212,212,212,212,212,212,212,204,211,210,210,210,210,210,210,211,210,210,210,211,210,210,210,210,210,209,210,204,207,207,206,207,206,207,206,207,207,207,206,206,206,206,205,204,204,195,203,202,203,202,202,203,202,202,202,202,202,202,202,202,202,202,202,202,202,202,202,202,202,201,201,201,201,201,201,201,201,201,201,201,201,201,201,201,201,201,200,200,200,200,200,200,201,201,201,202,201,202,202,202,202,202,203,205,204,204,204,55,55,54,51,52,52,52,53,53,53,53,53,53,53,53,53,53,53,0,0,0</t>
-  </si>
-  <si>
-    <t>0,0,36,55,296,222,213,211,211,211,211,211,211,211,212,211,211,212,211,211,212,211,202,210,209,209,209,209,210,209,209,209,209,209,209,210,209,209,209,209,209,209,203,208,206,206,206,206,206,205,206,207,206,206,205,205,206,205,205,205,194,202,202,202,202,202,203,202,202,202,202,202,202,201,201,201,201,201,201,201,201,201,201,200,200,201,201,201,201,200,201,200,200,200,200,200,200,200,200,200,201,200,200,200,200,200,200,200,201,200,200,201,201,201,202,201,203,202,204,204,204,204,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,62,187,1803,258,228,239,264,261,258,259,255,257,256,256,254,254,261,273,269,260,220,232,232,230,230,231,229,226,226,222,225,231,233,231,234,236,239,237,236,239,229,234,234,232,234,233,236,249,240,233,238,250,248,244,250,256,252,250,247,257,259,258,264,267,261,264,271,274,269,270,275,283,278,278,282,286,285,286,287,290,290,288,291,295,293,292,296,300,300,296,299,308,308,304,305,310,313,313,314,315,317,317,322,327,324,317,304,298,294,291,289,286,279,280,264,255,258,261,261,261,197,200,203,208,212,214,214,216,216,218,218,218,218,219,219,221,221,221,0,0,0</t>
   </si>
   <si>
     <t>2021-12-01 11:42:15</t>
   </si>
   <si>
-    <t>0,0,61,421,219,216,218,215,215,215,216,215,216,216,216,216,215,216,215,215,215,216,217,217,218,218,218,221,219,219,218,218,218,218,218,218,217,217,216,217,217,216,216,217,217,216,216,216,215,216,215,214,214,214,214,215,214,214,214,214,214,214,214,214,214,214,214,214,213,213,213,213,213,213,213,213,213,213,214,213,213,213,212,212,213,213,213,212,213,212,212,212,212,212,213,212,212,212,212,212,211,212,211,212,211,212,211,212,213,213,213,213,213,212,212,213,214,220,218,218,218,218,56,56,58,58,59,59,60,60,60,61,61,61,61,61,61,62,61,56,58,58,58,58,0</t>
-  </si>
-  <si>
     <t>DC025</t>
   </si>
   <si>
-    <t>0,0,0,393,213,217,218,216,216,216,216,216,216,217,217,217,216,216,216,216,216,216,218,218,218,219,218,222,220,220,219,219,219,219,219,219,217,218,218,217,217,217,217,217,217,217,217,217,217,217,216,215,215,215,216,215,215,215,215,215,215,215,215,215,215,215,215,214,214,214,214,214,214,214,214,214,214,214,214,214,214,213,213,213,214,213,213,213,214,214,213,213,213,213,213,213,213,213,213,213,212,212,213,213,212,213,212,213,214,214,214,214,213,212,213,213,215,219,217,217,217,217,56,53,54,55,55,56,56,57,57,57,57,57,57,57,57,58,58,58,58,58,58,58,0</t>
-  </si>
-  <si>
-    <t>0,0,61,393,201,219,218,214,215,215,215,214,215,215,215,215,215,215,214,214,214,215,216,217,216,217,217,219,218,218,217,217,217,217,217,217,216,216,215,215,215,216,215,215,215,215,215,215,214,215,214,213,213,213,213,213,213,213,213,213,213,213,213,212,212,213,212,212,212,212,212,212,212,212,211,212,211,211,212,211,211,211,212,212,212,211,211,211,211,211,211,210,210,211,211,211,210,210,210,210,210,210,210,210,210,210,210,210,211,211,211,211,210,210,211,211,212,216,216,216,216,216,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,226,2159,609,258,242,286,286,285,282,286,284,279,277,279,276,273,290,286,288,268,250,238,233,233,235,196,220,217,233,232,238,233,236,235,261,256,260,261,263,265,264,264,265,265,263,263,276,272,283,299,301,304,306,309,308,309,308,309,309,311,313,313,314,319,318,320,319,323,323,324,325,326,325,330,331,333,331,335,338,339,340,336,341,342,344,345,345,343,343,345,348,351,352,355,358,356,359,359,362,361,366,364,364,368,368,356,345,331,328,327,348,364,359,344,344,344,293,293,293,293,205,205,219,223,226,227,228,229,230,231,232,233,232,232,232,234,234,234,234,196,0,0,0</t>
   </si>
   <si>
     <t>2021-12-01 11:42:14</t>
   </si>
   <si>
-    <t>0,0,4,61,332,222,215,215,211,211,211,212,211,211,212,212,210,211,211,213,215,214,214,215,215,215,215,215,215,216,215,215,214,214,214,214,214,214,214,213,214,213,214,214,214,213,213,214,213,213,213,213,213,211,213,213,213,212,212,212,212,212,212,212,212,211,212,211,211,211,210,211,211,211,211,211,211,211,210,210,210,209,209,210,210,210,210,210,209,209,209,208,208,208,208,208,208,209,208,207,207,208,208,207,207,209,208,209,209,210,210,208,208,208,210,210,210,210,210,57,57,58,59,60,60,61,61,62,62,62,62,62,62,62,62,62,62,62,62,0,0,0,0</t>
-  </si>
-  <si>
     <t>DC027</t>
   </si>
   <si>
-    <t>0,0,0,0,328,224,215,214,211,210,211,211,210,211,211,211,210,211,211,212,215,214,213,214,214,214,213,214,214,214,214,214,214,214,213,214,213,213,213,213,213,213,213,213,213,213,213,213,213,213,213,213,213,211,212,212,212,211,211,212,212,211,211,211,211,210,211,211,211,210,210,210,210,210,210,210,210,210,209,210,209,209,208,209,209,209,209,209,209,209,209,208,208,208,207,208,208,208,208,207,207,207,208,207,207,208,208,208,208,209,210,207,207,207,210,210,210,210,210,55,55,57,57,54,54,54,54,54,55,54,55,55,55,55,55,55,55,55,55,0,0,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,62,320,219,218,217,213,212,212,213,213,213,213,213,212,212,213,214,216,216,215,216,216,216,215,216,216,216,216,216,216,216,215,215,214,214,215,214,214,215,214,215,214,214,215,214,214,214,214,214,214,213,214,213,214,213,212,213,213,213,213,213,213,212,212,212,212,212,212,212,212,211,212,211,211,211,211,211,211,211,211,211,211,210,211,210,210,209,209,209,209,209,209,209,209,209,209,208,208,209,209,208,208,209,209,209,209,210,211,209,208,208,210,211,210,210,210,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,224,1925,331,263,271,329,330,330,323,322,319,317,317,331,331,325,296,268,271,276,277,280,275,275,275,271,268,270,269,276,276,279,280,287,287,287,287,290,294,291,292,293,293,293,295,295,297,294,296,295,325,298,302,300,312,315,310,309,317,316,317,315,321,323,321,322,326,330,330,329,335,337,335,337,338,342,341,342,346,346,350,350,353,357,360,360,361,363,369,370,369,374,379,382,380,376,384,389,387,385,389,395,376,368,358,358,352,344,344,344,387,342,336,337,337,337,206,207,215,226,224,226,226,227,229,229,228,228,229,229,230,230,228,214,214,214,0,0,0,0</t>
   </si>
   <si>
     <t>2021-12-01 04:01:56</t>
   </si>
   <si>
-    <t>0,0,0,59,30,256,211,210,208,207,207,207,207,208,207,207,208,206,207,207,209,210,208,196,201,203,203,203,203,203,204,204,204,203,203,203,203,203,203,203,203,202,194,200,200,200,200,200,200,199,200,200,199,200,200,198,199,199,199,199,199,199,199,199,199,199,198,198,198,198,198,198,198,198,198,198,198,197,198,198,197,198,201,202,202,202,202,202,203,202,202,202,202,202,202,202,202,202,202,203,205,205,208,207,207,207,208,208,209,208,208,209,207,207,208,209,210,210,210,210,57,57,57,58,58,59,60,60,61,61,61,62,62,62,62,63,63,57,58,58,58,0,0</t>
-  </si>
-  <si>
     <t>DC029</t>
   </si>
   <si>
-    <t>0,0,0,0,21,308,206,211,207,208,207,208,208,208,208,208,208,206,208,208,210,210,210,196,202,205,204,204,204,204,205,204,204,204,204,204,203,204,204,204,203,204,193,200,200,201,200,200,200,200,200,200,200,200,200,200,199,200,199,200,200,200,199,199,200,199,199,199,199,199,198,199,199,199,199,198,199,198,198,198,198,197,202,200,201,200,200,200,200,200,200,201,200,200,200,200,200,200,200,203,201,204,208,205,206,205,206,206,206,206,206,206,204,205,207,207,207,207,207,207,57,56,57,58,58,61,59,56,57,57,57,57,57,58,58,57,58,58,59,59,59,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,61,56,286,211,212,209,209,209,209,209,209,209,209,209,208,209,209,211,211,212,199,202,205,205,205,205,205,205,206,205,205,205,205,205,205,204,204,205,204,194,202,201,202,202,201,201,201,201,201,201,201,201,201,201,201,201,201,201,201,200,201,200,201,200,200,200,200,200,200,200,200,200,200,200,200,199,199,199,199,202,203,204,203,204,204,204,204,203,203,203,203,203,203,203,203,203,205,206,206,210,208,208,209,209,209,210,209,209,210,208,209,210,211,211,211,211,211,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,210,52,1133,217,207,251,265,272,270,266,265,265,267,265,285,277,266,225,209,199,190,203,208,206,207,208,199,192,196,200,207,201,206,209,210,211,213,215,215,207,214,217,216,216,216,219,220,220,218,220,219,221,244,236,215,227,233,235,235,236,239,238,238,242,244,245,244,248,249,254,251,253,257,257,259,261,264,266,268,272,279,279,282,281,284,285,287,287,291,291,294,294,295,299,301,304,307,307,309,313,313,314,315,301,296,291,289,285,283,283,283,285,260,257,258,258,258,208,207,209,214,216,224,234,230,232,232,233,234,235,235,236,235,219,219,219,0,0,0,0</t>
   </si>
   <si>
-    <t>0,0,0,59,0,302,210,207,206,205,204,205,205,205,205,205,205,205,205,205,205,205,206,204,191,201,201,201,201,201,201,202,202,202,201,201,201,201,201,201,201,201,199,195,197,198,198,197,198,198,197,198,198,198,197,198,197,197,197,197,197,197,197,197,197,197,196,196,196,196,196,196,196,196,196,196,196,195,195,196,196,195,195,201,200,200,200,200,199,199,199,199,200,199,199,199,199,199,198,199,202,201,201,203,203,203,203,203,204,205,205,205,205,205,205,206,207,207,207,209,209,209,56,56,57,58,58,59,59,59,60,60,60,60,61,61,60,61,61,61,61,0,0,0</t>
-  </si>
-  <si>
     <t>DC031</t>
   </si>
   <si>
-    <t>0,0,0,0,0,302,213,207,206,204,204,205,204,204,205,204,205,205,204,204,204,205,205,204,191,200,200,200,200,200,200,201,201,201,201,200,200,200,200,201,200,200,200,194,196,197,197,197,197,197,197,197,197,197,197,197,197,196,197,196,197,196,196,196,196,196,195,196,196,195,195,195,196,195,195,195,195,195,195,195,195,195,195,199,197,197,197,197,196,197,197,196,197,196,196,196,196,196,196,195,198,198,198,200,200,200,200,200,201,201,202,202,202,202,202,203,203,204,204,205,205,205,55,54,55,56,57,52,52,52,53,53,53,53,53,53,53,54,54,54,54,0,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,60,0,259,215,209,209,207,206,206,206,207,207,207,207,207,207,206,206,207,207,207,194,202,203,203,202,203,202,203,204,203,202,203,203,202,202,202,202,202,202,195,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,198,198,198,198,198,198,198,197,198,198,198,197,197,197,197,197,197,197,197,202,201,201,201,200,200,201,201,200,200,200,200,200,200,200,200,200,203,202,202,205,205,204,204,204,205,206,206,206,206,206,206,207,207,208,208,211,211,211,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,216,0,1573,286,272,284,307,308,308,310,308,308,307,304,306,311,317,315,303,290,284,252,265,267,266,264,265,268,262,252,259,267,266,262,268,271,269,269,275,273,270,272,271,273,271,273,274,274,275,274,274,274,274,274,282,280,281,273,281,282,282,283,287,290,289,290,293,296,297,298,298,300,301,301,304,304,307,307,311,311,320,321,322,322,325,325,328,331,332,332,335,337,339,341,345,345,348,355,358,358,369,369,375,375,369,354,348,344,343,342,339,331,319,311,303,301,307,307,307,203,203,207,210,217,217,218,219,220,220,222,222,222,223,221,225,225,225,225,0,0,0</t>
   </si>
   <si>
-    <t>0,0,0,59,337,200,197,196,195,195,195,195,195,195,195,195,195,195,195,195,195,193,186,195,194,194,194,194,194,194,194,195,194,195,194,195,193,194,195,193,192,194,189,191,191,191,190,191,190,190,190,190,190,190,190,190,190,190,189,190,190,189,190,190,189,189,189,188,188,189,189,188,188,189,189,188,188,188,188,188,187,188,190,189,190,189,190,189,189,189,188,189,189,189,189,189,188,188,188,189,193,192,194,193,193,193,193,193,193,194,195,194,195,194,196,197,197,198,198,200,200,200,57,56,57,58,59,59,60,60,60,61,61,61,61,58,58,58,58,59,59,59,0,0</t>
-  </si>
-  <si>
     <t>DC033</t>
   </si>
   <si>
-    <t>0,0,0,0,365,211,195,194,193,194,194,194,193,194,194,194,194,194,194,194,193,193,186,194,193,194,193,194,193,193,193,193,194,193,193,194,192,193,193,192,191,193,187,190,190,190,190,190,189,189,189,189,189,189,188,189,189,189,189,188,189,188,188,189,188,188,188,188,187,188,188,186,187,187,187,187,187,186,186,186,186,186,188,190,190,190,190,190,190,189,190,189,190,189,189,189,189,189,189,189,194,194,194,193,193,194,194,193,193,194,195,195,194,195,198,196,196,197,197,198,198,198,56,55,56,55,54,54,54,54,55,55,55,55,55,55,55,55,56,56,56,56,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,59,366,203,197,195,194,195,194,194,195,195,195,195,195,195,195,194,194,194,187,194,194,194,193,193,194,194,194,194,194,194,194,194,193,193,194,193,192,193,189,190,191,191,190,190,190,190,190,190,190,190,190,190,190,189,189,189,190,188,189,189,189,188,189,188,188,188,188,188,188,188,188,187,187,188,187,187,187,187,189,190,191,191,191,191,191,191,191,191,191,191,190,190,190,190,190,190,196,196,196,195,194,195,195,195,195,196,197,197,196,196,199,199,199,200,200,200,200,200,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,210,2085,330,216,236,252,251,253,254,256,254,253,252,251,253,259,266,265,257,220,215,213,210,208,212,209,217,212,210,211,214,214,214,241,233,213,231,239,229,220,235,234,233,234,235,234,235,237,237,238,237,237,239,238,242,257,245,240,258,257,249,262,265,258,262,273,266,267,280,279,274,274,288,285,283,290,298,296,297,303,312,308,310,311,313,313,316,318,322,323,325,328,331,329,327,331,334,337,332,336,348,348,340,342,346,329,317,306,308,306,301,298,312,304,291,285,286,286,286,202,201,206,210,217,219,220,222,222,223,224,223,220,220,220,192,194,192,192,192,0,0</t>
   </si>
   <si>
-    <t>0,0,57,169,232,198,204,198,198,199,199,200,199,199,199,199,200,203,203,203,203,201,194,200,201,200,201,201,200,201,200,201,201,201,199,199,200,201,201,199,198,201,195,196,197,197,197,197,197,196,196,196,196,196,196,196,196,196,196,195,196,197,197,196,196,196,195,195,195,195,195,194,195,195,195,194,194,195,195,194,194,194,195,196,196,196,196,196,195,195,195,195,195,195,195,195,195,195,195,195,200,199,201,200,201,201,201,201,198,197,198,201,201,201,199,199,199,55,56,57,58,59,59,59,59,59,59,60,60,60,60,61,62,57,57,57,0,0</t>
-  </si>
-  <si>
     <t>138</t>
   </si>
   <si>
     <t>DC035</t>
   </si>
   <si>
-    <t>0,0,2,267,249,200,205,199,201,201,201,201,202,202,202,201,201,206,206,205,206,204,200,201,203,202,203,202,202,202,203,202,203,203,201,201,202,202,202,201,201,202,195,198,199,199,199,199,199,198,198,198,198,198,198,198,198,198,198,197,198,199,198,197,198,198,198,197,197,197,197,197,197,196,197,196,196,196,196,196,196,196,196,200,200,200,199,200,200,199,199,199,199,198,198,198,199,199,199,198,203,203,204,204,205,204,204,205,202,201,201,205,205,205,203,203,203,57,58,59,55,55,55,55,55,55,55,55,55,55,55,55,55,55,55,55,0,0</t>
-  </si>
-  <si>
-    <t>0,0,57,324,193,200,203,199,198,199,200,200,200,200,199,199,199,203,203,203,204,202,198,199,202,200,200,200,201,201,201,201,201,201,200,199,200,201,201,200,199,200,193,197,198,198,198,197,197,197,196,196,196,196,196,196,196,196,196,196,196,197,197,196,196,196,196,195,195,195,195,195,195,195,195,194,195,195,194,194,194,194,195,198,198,198,198,198,198,198,198,197,197,197,197,197,198,198,198,197,203,202,202,203,203,203,203,204,201,200,200,203,204,203,194,194,194,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,199,1036,840,255,238,312,322,317,307,301,298,299,315,313,304,243,227,226,226,243,229,232,222,235,221,220,221,218,208,222,221,219,241,249,234,220,226,245,243,234,230,241,243,237,237,239,241,244,244,243,243,243,245,244,243,243,244,272,252,243,238,262,265,254,254,263,269,267,266,272,270,273,276,277,280,278,280,290,291,289,295,304,305,304,307,312,315,318,317,317,319,320,321,322,320,321,322,325,331,334,329,318,315,314,314,313,313,313,388,324,309,312,288,288,288,202,207,213,217,219,220,220,220,220,220,222,222,221,222,224,218,218,218,0,0,0</t>
   </si>
   <si>
     <t>2021-12-01 04:01:58</t>
   </si>
   <si>
-    <t>0,0,0,58,294,210,204,204,199,199,199,200,200,200,200,200,198,199,199,201,204,203,202,195,200,200,200,200,201,201,201,201,201,201,200,200,201,201,200,200,200,199,199,199,199,199,199,199,199,199,199,198,199,199,199,199,199,199,197,198,199,198,198,204,203,202,202,202,202,202,202,202,203,202,202,202,202,201,201,201,204,204,204,207,206,206,206,206,206,206,205,205,206,205,205,205,205,205,205,208,211,211,211,210,210,210,211,211,212,212,213,210,209,210,213,213,213,213,213,57,57,59,59,60,61,61,61,61,62,62,62,62,62,62,62,62,62,62,62,0,0</t>
-  </si>
-  <si>
     <t>DC037</t>
   </si>
   <si>
-    <t>0,0,0,0,332,210,203,201,198,198,198,198,199,199,199,199,198,198,199,201,203,202,201,195,198,199,199,199,200,200,200,200,200,199,200,199,200,199,199,199,199,198,198,198,198,198,198,198,197,198,198,197,198,198,198,198,198,197,197,197,198,197,197,201,200,199,199,199,199,199,199,198,199,199,198,198,198,198,198,198,201,200,200,203,203,202,202,202,202,202,202,202,202,202,202,202,201,201,201,203,205,207,207,207,206,207,208,208,208,208,209,205,205,207,209,209,209,209,209,55,55,56,57,58,58,58,57,57,58,58,58,58,58,58,58,58,58,58,58,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,58,279,218,206,205,201,201,201,201,201,202,201,202,200,201,201,202,205,205,204,196,201,201,202,202,203,202,202,203,203,202,202,202,202,202,201,202,202,201,201,201,201,201,201,200,201,200,201,200,200,200,200,200,200,200,199,199,201,200,199,205,204,203,203,203,203,203,203,203,203,203,203,203,202,202,202,202,205,205,205,208,207,207,207,207,207,207,207,207,207,207,207,206,206,207,206,209,211,212,212,212,211,212,212,213,213,213,213,211,210,212,214,214,214,214,214,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,205,1742,286,262,285,337,334,332,329,326,324,322,321,344,338,332,302,259,264,272,269,264,264,263,265,250,249,247,247,246,254,261,262,251,261,269,265,265,271,272,271,273,278,277,277,277,277,277,281,282,281,282,282,284,282,309,294,279,288,299,303,301,305,313,313,309,314,317,319,317,318,323,326,323,326,328,330,336,340,340,347,347,352,352,354,355,358,359,362,365,366,369,370,372,373,373,380,391,397,397,397,399,389,379,370,369,366,363,363,363,388,351,346,348,348,348,207,208,214,216,219,222,225,232,234,235,235,235,235,236,236,236,237,235,235,235,0,0</t>
   </si>
   <si>
     <t>2021-12-01 04:01:57</t>
   </si>
   <si>
-    <t>0,0,0,56,327,200,197,201,198,197,198,198,198,198,198,198,198,197,197,198,200,201,200,192,198,198,199,199,199,199,199,198,198,197,197,197,198,198,197,197,197,197,197,197,197,197,197,197,197,197,197,197,197,197,197,196,197,196,195,196,196,196,196,200,201,200,200,200,200,200,199,199,199,199,199,199,199,199,199,199,201,201,201,204,204,203,203,203,204,204,203,203,203,203,203,203,203,203,203,206,208,207,207,207,207,207,208,208,209,209,208,207,207,208,210,211,210,212,212,212,56,56,57,58,59,59,59,60,60,60,61,61,60,61,61,61,63,63,63,0</t>
-  </si>
-  <si>
     <t>DC039</t>
   </si>
   <si>
-    <t>0,0,0,0,229,232,197,201,196,197,197,198,198,198,198,197,197,196,197,197,199,200,200,190,198,198,198,198,198,199,198,198,197,197,196,196,198,197,196,196,196,197,196,196,196,197,196,196,196,196,196,196,196,196,196,196,196,196,195,195,196,195,194,198,198,198,197,197,197,197,197,196,197,196,196,196,196,196,196,196,198,197,200,203,201,201,201,200,201,201,201,200,201,200,200,200,200,200,200,203,207,203,204,204,205,205,206,206,206,206,205,204,204,205,207,207,208,208,208,208,56,56,57,59,62,55,55,56,56,56,56,56,56,56,57,56,56,56,56,0</t>
-  </si>
-  <si>
-    <t>0,0,0,57,333,208,199,204,200,200,200,200,200,201,200,200,201,200,200,199,201,203,203,194,201,201,201,201,201,201,201,200,200,200,199,199,200,200,199,199,199,200,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,197,198,199,198,198,201,202,202,202,202,202,201,201,201,201,201,201,201,201,201,201,201,202,203,203,207,206,205,205,205,205,205,205,205,205,205,205,205,205,205,205,208,210,209,209,210,209,210,210,211,210,211,210,209,208,210,212,213,212,213,213,213,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,174,1411,967,301,271,315,325,319,316,313,312,311,309,313,325,323,318,288,271,272,254,261,261,262,257,255,252,251,264,267,270,276,276,259,258,272,274,275,270,273,273,274,277,276,277,279,279,278,276,277,279,279,278,278,280,296,285,280,286,292,300,303,302,306,307,308,310,311,313,316,316,316,322,322,324,325,328,333,336,338,347,346,347,349,352,353,353,354,355,357,358,361,364,364,366,367,377,384,387,392,390,394,389,378,372,369,368,379,388,392,381,356,343,344,344,344,344,205,207,213,217,228,227,227,229,229,230,231,231,231,231,233,233,210,210,210,0</t>
   </si>
   <si>
     <t>2021-12-01 04:57:35</t>
   </si>
   <si>
-    <t>0,0,0,61,62,403,207,224,224,219,220,220,219,220,220,220,220,220,220,220,220,220,222,222,209,218,219,219,219,219,219,219,220,219,219,219,219,218,218,219,218,218,218,218,218,218,217,217,218,218,218,218,218,218,218,218,217,218,217,217,217,217,217,216,217,216,217,217,216,216,216,216,216,216,216,216,215,215,215,215,215,215,215,215,215,215,215,214,214,214,214,214,214,214,214,214,214,213,213,213,213,213,213,213,213,213,213,213,214,214,214,214,213,213,213,214,216,216,216,216,216,216,55,56,56,57,58,58,59,59,60,60,60,60,60,60,61,61,62,62,62,0,0,0</t>
-  </si>
-  <si>
     <t>DC041</t>
   </si>
   <si>
-    <t>0,0,0,60,61,462,224,225,224,221,221,221,221,221,222,222,222,222,222,222,221,223,222,222,215,220,220,220,221,220,221,221,221,221,220,221,220,220,220,220,220,219,219,220,220,219,219,219,219,219,219,218,219,219,219,219,219,219,219,218,218,218,218,218,218,218,218,218,217,218,218,218,217,218,218,217,217,217,217,217,217,217,217,217,216,217,216,216,216,216,216,216,216,216,216,216,216,215,215,215,215,215,215,215,215,215,215,215,216,216,216,215,215,215,215,216,218,218,218,217,217,217,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,0,0,550,225,228,227,223,223,223,222,223,223,223,223,223,222,222,222,223,224,225,214,220,221,221,221,221,222,222,222,222,221,221,221,221,221,221,221,221,221,221,221,221,221,221,221,221,221,219,221,221,221,221,220,221,221,220,221,220,221,220,220,220,220,220,220,220,219,220,220,219,220,219,219,219,219,219,218,218,218,218,218,218,218,218,217,217,217,217,217,217,217,217,217,216,216,216,216,216,216,215,216,215,215,216,216,217,217,216,215,215,216,217,219,219,219,219,219,219,57,57,58,58,59,60,60,60,59,59,59,59,60,60,60,60,61,61,61,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,226,229,2862,458,283,284,340,337,335,337,335,332,327,325,326,333,337,335,319,298,290,285,278,282,283,283,281,276,281,271,279,285,281,289,291,292,293,296,299,298,296,299,299,300,300,298,299,298,317,304,299,296,305,310,310,306,310,315,318,314,315,318,319,320,320,322,323,323,326,327,329,328,329,330,331,334,336,339,339,342,343,346,347,350,351,351,352,354,356,358,359,360,363,367,369,372,374,376,376,379,381,386,385,387,376,367,356,355,369,380,386,373,352,324,321,322,320,320,320,208,210,213,216,219,220,220,210,205,204,205,205,205,206,207,210,212,212,212,0,0,0</t>
   </si>
   <si>
-    <t>0,0,0,56,381,205,204,203,201,202,201,202,202,202,202,202,202,202,202,201,201,202,202,195,200,199,199,199,199,199,199,200,199,199,200,199,200,199,199,200,199,198,192,196,195,195,197,197,197,197,195,196,196,196,195,196,195,195,195,195,195,194,194,194,194,194,194,194,194,194,193,193,194,193,193,193,193,193,193,193,193,192,193,193,193,193,193,193,192,192,193,192,192,192,192,192,192,192,192,191,193,194,196,196,196,196,196,195,196,197,198,198,198,198,197,196,197,199,199,199,199,199,56,55,56,57,58,58,59,59,59,59,60,60,60,60,60,60,60,61,61,61,0,0</t>
-  </si>
-  <si>
     <t>DC043</t>
   </si>
   <si>
-    <t>0,0,0,0,441,211,205,203,202,202,202,202,202,202,202,203,203,203,203,202,202,202,201,194,201,200,200,199,200,200,200,200,200,200,200,200,200,200,200,200,198,197,193,196,196,196,197,197,197,197,196,196,197,196,196,196,196,196,195,196,196,195,195,195,195,195,194,195,195,194,195,194,194,194,194,194,194,194,194,194,194,194,194,193,193,193,194,193,193,193,193,193,193,193,193,193,193,192,192,193,193,194,195,195,194,194,194,194,194,195,196,196,196,196,195,195,195,197,197,198,193,193,193,55,56,58,60,55,54,54,55,55,55,55,55,55,55,55,55,54,54,54,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,58,363,195,205,204,202,203,202,202,203,203,203,203,203,203,203,202,202,202,202,196,201,201,200,200,200,200,200,200,200,200,200,200,200,200,200,200,199,199,191,197,195,196,198,198,198,197,196,197,197,196,196,196,196,196,195,195,196,195,195,195,195,195,194,195,195,195,194,194,195,194,194,194,194,194,194,194,194,194,194,194,194,194,194,193,193,193,193,193,192,192,193,193,192,192,193,192,194,195,196,196,196,196,196,196,196,197,197,198,198,199,198,197,197,199,199,200,188,188,188,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,202,2421,453,258,266,281,282,280,278,278,277,275,275,276,276,278,290,287,283,270,244,257,261,265,268,269,268,267,262,270,268,270,269,269,270,269,269,269,282,282,270,296,296,268,260,261,265,291,275,279,284,284,291,288,290,296,293,297,296,296,303,296,302,305,303,309,305,306,313,311,313,312,316,321,319,321,323,326,328,326,334,333,335,336,336,343,342,341,345,350,352,352,354,359,364,361,363,375,374,377,377,382,383,381,384,375,360,341,335,335,332,348,363,350,319,314,315,315,315,202,200,204,210,217,219,219,221,221,221,221,222,222,223,223,223,223,207,207,207,0,0</t>
   </si>
   <si>
     <t>2021-12-01 10:56:57</t>
   </si>
   <si>
-    <t>0,0,0,58,316,206,195,195,196,196,196,196,196,196,196,196,196,196,195,195,195,196,196,189,194,195,195,194,195,195,196,195,196,196,196,196,196,194,195,195,194,194,194,194,193,194,194,194,193,193,193,193,193,193,193,193,193,193,192,193,193,193,192,193,193,192,192,192,192,192,191,192,192,191,192,192,191,191,191,191,191,192,193,195,195,195,195,195,194,194,195,195,195,195,194,195,194,194,194,195,195,194,196,197,197,196,196,197,197,198,198,198,199,199,199,200,200,201,201,201,201,201,54,54,55,55,56,56,56,57,57,57,58,58,58,56,56,56,0</t>
-  </si>
-  <si>
     <t>DC045</t>
   </si>
   <si>
-    <t>0,0,0,59,322,194,196,196,196,197,196,197,196,197,196,197,196,197,195,195,195,195,196,191,195,195,195,195,195,195,196,196,196,196,196,196,196,194,196,196,195,195,195,195,194,194,194,194,194,194,194,194,194,194,194,194,194,194,193,194,194,193,193,193,193,192,192,193,192,192,192,192,192,192,192,192,192,192,192,192,192,192,193,193,194,193,194,193,193,192,193,193,193,192,193,192,192,192,192,192,194,195,195,196,196,196,195,196,197,197,198,198,197,198,198,199,200,200,200,200,200,200,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,0,308,214,194,195,195,195,195,195,194,195,195,195,195,195,194,194,194,195,195,188,193,193,194,194,194,194,195,195,195,195,195,195,194,193,194,194,193,193,193,193,193,193,192,192,193,193,193,193,193,193,192,193,192,192,191,192,193,191,192,192,192,191,191,191,191,191,191,191,190,190,191,190,190,190,190,190,190,191,192,194,194,194,194,193,193,193,193,193,193,193,193,193,193,193,193,192,193,193,196,196,196,195,195,196,197,197,197,197,198,197,198,198,200,200,200,199,199,199,54,53,50,50,50,50,51,51,51,51,51,51,52,52,52,52,0</t>
-  </si>
-  <si>
     <t>0,0,0,213,1630,728,275,293,295,293,296,294,297,295,295,292,292,293,310,305,305,292,280,272,268,268,266,269,266,263,250,249,247,247,248,248,252,276,261,256,266,272,270,272,276,275,278,278,278,277,278,279,280,278,279,280,279,278,303,286,276,295,296,291,296,302,305,301,305,309,309,304,312,315,315,317,323,327,322,323,330,341,334,344,349,350,345,348,351,357,349,351,360,363,357,357,360,365,363,359,363,372,382,374,377,387,387,371,361,360,349,350,344,346,336,326,311,304,303,304,304,304,195,194,181,181,181,160,162,162,162,163,163,163,163,163,163,163,0</t>
   </si>
   <si>
-    <t>0,0,57,59,432,200,196,192,192,192,192,192,192,192,192,192,192,193,191,191,191,192,193,193,193,193,193,193,193,194,193,193,193,194,194,194,193,194,194,194,194,193,194,193,193,193,193,193,193,193,193,192,193,193,193,193,192,192,192,192,192,191,194,195,197,196,196,197,197,196,196,196,196,196,196,195,195,195,195,195,195,195,195,197,197,197,197,196,197,197,197,196,196,197,197,197,197,196,196,196,196,197,197,197,197,197,197,198,198,199,199,199,199,199,198,199,200,200,202,194,194,194,54,54,55,55,56,56,57,57,57,58,58,58,58,58,58,61,60,60,60,0,0</t>
-  </si>
-  <si>
     <t>DC047</t>
   </si>
   <si>
-    <t>0,0,56,57,388,184,196,192,192,192,192,192,191,192,191,192,192,192,191,191,191,192,193,193,194,193,193,193,193,193,193,193,194,194,194,194,193,194,194,193,194,193,193,193,193,192,192,192,193,192,192,192,193,192,192,192,192,192,192,192,192,192,193,194,194,194,194,194,194,194,193,193,193,193,193,192,193,192,192,192,192,194,195,195,196,196,196,196,196,196,196,195,195,195,195,195,195,195,195,195,195,197,198,198,198,198,198,198,199,199,200,200,200,200,199,199,201,201,202,196,196,196,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,0,384,192,197,194,194,194,194,194,194,194,194,194,194,194,193,193,193,194,195,196,196,195,195,195,195,195,196,196,196,196,196,196,195,195,195,196,195,195,195,195,195,195,195,195,195,195,195,194,194,194,194,194,194,194,194,194,194,194,196,196,198,198,197,198,198,197,197,197,197,197,197,197,196,196,196,196,196,197,197,199,199,199,199,198,199,199,198,198,198,199,198,198,198,199,198,198,197,200,200,200,200,200,200,201,201,202,202,202,202,203,202,202,204,203,204,204,204,55,55,55,57,53,52,52,52,52,53,53,53,53,53,53,53,54,54,54,54,0,0</t>
-  </si>
-  <si>
     <t>0,0,203,212,2467,485,252,280,286,286,284,285,285,285,284,282,281,279,295,298,298,287,266,258,259,260,261,259,260,256,257,256,254,249,246,248,258,254,253,253,258,262,256,260,265,269,264,268,269,269,271,274,270,272,271,274,274,275,275,274,275,286,292,283,289,298,298,299,294,300,308,305,306,310,313,313,313,315,319,319,318,320,324,333,331,332,336,339,341,339,342,345,347,347,349,350,350,351,354,357,356,364,367,367,367,368,368,361,351,344,339,337,335,335,345,346,323,320,322,322,322,200,198,199,203,203,203,171,171,172,172,172,174,174,173,173,174,178,173,173,173,0,0</t>
   </si>
   <si>
     <t>2021-11-30 22:02:50</t>
   </si>
   <si>
-    <t>0,0,0,59,57,306,206,214,213,209,209,209,210,209,209,209,209,209,208,208,209,212,213,213,213,212,212,212,212,212,211,213,213,213,211,211,212,211,211,211,211,211,211,211,211,211,211,211,208,210,210,211,211,210,210,209,210,210,210,210,210,210,210,209,209,209,209,208,209,209,209,209,208,208,208,208,208,207,207,207,207,207,207,206,206,207,206,207,206,206,205,205,205,206,205,205,205,205,205,205,208,209,208,208,208,208,209,209,210,210,210,211,209,208,208,210,211,212,212,212,212,54,55,56,56,57,58,58,58,58,59,59,59,59,59,59,60,60,60,60,0,0</t>
-  </si>
-  <si>
     <t>DC051</t>
   </si>
   <si>
-    <t>0,0,0,57,55,335,215,213,212,208,208,208,209,208,208,208,208,208,207,207,208,211,212,212,212,211,211,211,211,211,210,212,212,212,210,210,211,210,210,210,210,210,210,210,210,210,210,210,208,208,208,210,210,209,209,208,209,208,208,208,208,208,208,208,208,208,208,208,208,208,208,208,207,207,207,207,206,206,207,206,205,205,206,206,205,205,205,205,205,205,205,205,204,205,204,204,204,204,204,204,205,206,205,205,205,206,206,207,207,208,208,208,206,206,206,208,211,210,210,210,210,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,0,0,381,221,214,213,209,209,209,209,209,209,210,209,209,208,208,209,212,213,213,213,212,212,212,211,212,211,212,213,212,211,211,212,211,211,211,211,210,211,211,211,211,211,210,209,209,210,210,211,209,209,209,210,209,209,209,209,209,209,208,209,209,208,209,208,208,208,208,208,208,208,208,207,207,207,207,206,206,206,206,206,206,206,206,206,206,205,205,205,205,205,205,205,205,204,205,207,208,207,207,207,207,208,208,209,209,209,210,208,207,208,210,212,211,211,211,211,55,56,57,58,54,55,55,55,55,56,56,56,56,56,56,56,56,56,56,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,215,202,2226,461,317,318,361,360,360,358,356,357,355,355,360,370,366,358,316,306,303,305,315,320,316,318,317,326,314,305,311,328,324,321,326,326,326,327,332,331,330,328,331,329,331,356,343,341,332,327,345,344,346,342,346,348,351,348,350,350,352,353,352,351,355,356,357,355,358,361,363,363,363,367,369,372,373,379,380,383,385,391,388,391,389,395,396,402,402,405,404,409,408,410,408,412,412,419,415,420,419,423,421,415,402,396,389,388,384,405,424,412,383,367,367,368,368,368,204,207,210,195,182,182,183,184,185,184,185,185,184,186,185,187,188,188,188,0,0</t>
   </si>
   <si>
     <t>2021-12-01 05:43:45</t>
   </si>
   <si>
-    <t>0,0,32,60,167,275,205,207,204,205,205,205,205,205,205,205,205,205,205,203,204,204,205,196,204,204,203,204,203,203,203,203,203,203,203,203,203,203,203,202,203,200,202,203,203,203,203,203,203,203,203,203,203,203,202,202,202,202,202,202,201,200,201,202,201,201,201,201,201,201,201,201,201,201,200,201,201,200,200,200,200,200,200,205,203,202,202,202,202,201,201,201,201,201,201,201,200,200,200,202,202,203,203,205,204,204,204,204,204,205,205,205,204,204,204,205,205,208,208,209,209,209,209,54,54,55,55,56,56,57,57,58,58,58,58,59,58,59,59,57,57,57,57,0,0,0,0</t>
-  </si>
-  <si>
     <t>DC053</t>
   </si>
   <si>
-    <t>0,0,32,59,290,220,207,206,202,203,203,203,204,203,204,204,204,204,204,202,203,202,204,195,202,202,202,202,201,201,201,201,201,201,201,201,201,201,201,200,201,198,201,201,201,201,201,201,201,201,201,201,201,201,201,201,201,201,201,201,199,199,200,200,199,200,199,200,199,199,199,199,199,199,198,199,199,199,198,199,198,198,198,203,203,202,202,202,202,201,201,201,201,201,201,201,200,200,200,202,203,203,203,203,203,203,203,203,203,204,205,204,204,204,203,204,204,206,207,208,208,208,208,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,0,232,243,205,206,203,203,204,204,204,204,204,204,204,204,204,203,203,203,205,194,202,202,202,202,202,202,202,202,202,202,202,201,202,201,202,201,202,199,201,201,201,202,202,201,201,201,201,202,202,201,201,201,201,201,201,201,200,200,201,201,200,200,200,200,200,200,200,200,199,200,199,199,199,199,199,199,199,199,199,204,204,203,203,203,203,203,203,203,203,202,202,202,202,202,202,204,204,204,204,204,204,204,204,204,204,205,205,205,204,204,204,205,205,207,208,208,207,207,207,56,56,56,57,56,54,54,55,55,55,55,55,56,56,56,56,56,56,56,56,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,47,218,1002,1226,306,291,334,328,325,324,324,325,322,320,316,315,314,335,330,327,305,271,289,292,294,294,292,296,298,298,299,299,298,301,299,299,299,300,299,326,306,306,298,296,298,296,297,298,298,297,298,301,302,301,301,300,299,302,318,316,305,310,315,315,316,316,319,319,319,320,321,322,326,326,326,330,331,332,336,336,337,348,352,355,355,355,357,360,364,367,366,370,373,374,376,379,380,386,388,392,393,395,396,399,398,399,388,385,380,382,389,391,397,387,375,347,340,340,338,338,338,201,202,205,206,190,179,179,180,180,181,182,182,182,182,183,186,190,189,189,189,0,0,0,0</t>
   </si>
   <si>
     <t>2021-12-01 11:38:44</t>
   </si>
   <si>
-    <t>0,0,0,58,53,330,216,209,208,209,208,209,208,209,208,208,208,207,207,207,209,210,211,211,211,211,212,212,212,212,212,212,212,212,213,213,210,211,211,210,210,210,210,210,210,210,210,210,209,210,210,210,210,209,210,209,209,207,208,209,208,208,207,208,208,207,207,207,207,207,207,207,207,206,206,205,206,205,206,206,206,205,205,205,205,204,204,204,204,204,204,204,204,204,204,204,203,203,203,203,203,203,204,204,203,203,204,205,205,205,205,205,204,205,205,207,207,207,207,207,55,54,55,55,56,56,57,57,58,58,58,58,59,59,58,60,60,60,0</t>
-  </si>
-  <si>
     <t>DC055</t>
   </si>
   <si>
-    <t>0,0,0,59,54,316,213,209,209,209,209,208,209,209,209,209,209,208,208,208,210,210,212,212,212,212,212,212,212,212,212,213,213,212,213,212,210,210,211,210,210,210,210,210,210,210,210,210,210,210,210,210,210,209,209,209,209,207,209,209,208,208,207,208,208,208,208,208,207,207,207,207,207,207,206,206,206,206,206,205,205,205,206,205,205,204,205,204,204,204,204,204,204,204,204,204,204,203,204,204,204,204,204,204,204,203,204,205,205,206,205,204,204,205,206,207,207,207,207,207,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,0,0,323,213,213,212,212,212,212,213,213,213,212,213,211,212,212,213,214,214,215,215,215,216,216,216,216,216,217,216,216,216,216,214,214,215,214,214,214,214,214,214,214,214,213,214,213,213,213,213,213,213,213,213,211,212,213,212,212,211,212,211,212,211,211,211,211,211,210,211,210,209,210,210,210,210,209,209,209,209,209,209,208,209,208,208,208,208,208,208,208,208,207,207,207,207,207,208,208,208,207,207,207,208,208,209,209,209,209,208,208,209,210,210,210,210,210,55,55,53,52,52,52,53,53,53,53,54,54,54,54,54,54,54,54,0</t>
-  </si>
-  <si>
     <t>0,0,0,215,130,1974,416,336,338,336,339,336,335,333,335,335,339,350,346,345,327,316,308,307,303,305,300,301,298,298,298,290,300,301,300,301,325,321,316,323,323,325,323,324,327,324,325,330,333,332,333,331,332,332,331,331,332,354,341,332,340,339,346,340,345,345,350,348,349,355,356,355,356,357,358,363,362,364,364,366,369,370,370,373,373,377,375,378,379,383,384,386,386,389,392,392,394,396,397,400,397,400,397,398,398,399,386,382,374,374,373,376,386,377,361,344,345,344,344,344,199,198,185,170,171,172,173,174,174,175,174,175,175,175,175,177,177,177,0</t>
   </si>
   <si>
     <t>2021-12-01 11:39:01</t>
   </si>
   <si>
-    <t>0,0,0,58,444,199,217,218,213,212,213,213,213,213,213,213,213,212,212,213,215,218,218,218,218,218,217,218,217,217,217,217,218,216,216,216,215,215,216,215,215,215,215,215,215,215,215,215,214,215,215,214,214,213,215,213,213,214,213,213,212,213,212,211,212,211,210,210,210,210,209,210,210,210,210,209,209,209,209,209,209,209,208,209,209,208,208,208,208,208,208,207,206,207,206,207,207,207,206,206,207,206,206,206,206,205,206,207,208,208,209,209,207,206,207,210,211,211,211,211,211,54,55,55,56,57,57,58,58,58,58,59,58,59,59,60,61,61,56,56,56,0,0</t>
-  </si>
-  <si>
     <t>DC057</t>
   </si>
   <si>
-    <t>0,0,0,0,418,197,216,217,210,211,210,210,210,211,211,211,211,210,210,211,214,216,216,216,216,215,214,216,215,215,215,215,215,213,213,213,212,212,213,212,212,213,212,212,212,212,212,213,213,212,212,211,212,211,212,210,211,211,210,211,210,211,210,210,210,209,209,209,208,208,208,208,208,208,208,207,207,207,207,207,206,207,206,206,206,206,206,206,206,206,206,205,205,205,205,205,205,205,205,204,204,205,204,204,204,203,204,205,205,206,207,207,206,204,205,208,209,209,209,209,209,56,56,59,53,53,54,54,54,54,54,54,54,54,54,54,54,54,55,55,55,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,59,432,192,216,218,212,212,212,212,212,213,212,212,213,211,212,212,214,217,217,217,217,217,216,217,216,216,216,216,216,215,215,215,214,215,215,214,214,214,214,214,214,214,213,214,214,214,214,214,214,213,214,212,213,213,213,212,212,212,212,211,211,211,210,210,210,210,210,210,210,209,209,209,209,209,209,209,208,209,208,208,208,208,207,208,208,208,208,207,206,206,206,207,207,207,207,206,206,206,206,206,206,205,205,207,207,208,209,209,207,205,207,209,211,211,210,210,210,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,212,2768,609,325,316,370,380,382,379,377,374,373,374,372,384,382,378,345,316,315,315,315,315,325,315,324,317,323,326,319,335,331,335,342,338,338,343,345,342,344,345,344,350,348,347,347,344,348,353,354,355,344,362,359,354,360,367,371,370,377,383,381,386,393,391,391,397,401,398,401,402,403,405,408,409,413,413,416,420,421,420,421,423,424,427,431,431,434,440,444,442,440,444,449,448,448,450,453,453,455,456,461,467,455,435,428,420,418,415,431,448,431,394,383,383,381,381,381,202,205,214,215,216,217,218,220,220,220,220,220,220,222,224,224,214,214,214,0,0,0</t>
   </si>
   <si>
-    <t>0,0,56,24,260,203,201,200,197,198,198,197,198,197,198,198,198,198,197,197,199,200,200,200,200,200,200,200,200,200,201,201,201,200,200,200,200,199,199,199,199,199,199,199,204,204,204,204,204,203,204,204,203,202,203,203,203,203,202,203,203,205,205,204,208,207,207,207,207,207,207,207,207,207,207,206,207,207,207,206,208,211,212,211,211,211,211,210,210,211,210,210,210,210,210,210,210,210,215,216,215,215,215,215,215,215,216,217,217,217,217,217,217,217,217,220,220,220,220,220,220,57,57,57,58,59,59,60,60,61,61,61,61,61,61,61,62,62,62,0,0</t>
-  </si>
-  <si>
     <t>DC059</t>
   </si>
   <si>
-    <t>0,0,0,10,302,200,200,197,196,197,196,196,196,196,197,197,196,196,195,196,198,198,198,198,198,198,198,198,198,198,199,199,200,199,198,199,198,198,198,198,198,198,198,198,202,201,201,200,200,200,200,200,200,198,200,200,200,199,199,200,199,200,202,201,204,204,204,204,204,203,203,204,203,203,203,203,203,203,202,202,204,206,208,207,208,207,207,207,207,207,206,207,206,206,207,206,206,206,212,209,211,211,211,211,211,211,212,212,213,214,213,214,213,212,212,216,215,217,219,219,219,57,57,58,59,60,62,62,62,53,53,53,53,53,53,53,53,53,53,0,0</t>
-  </si>
-  <si>
-    <t>0,0,57,29,271,204,200,198,196,196,196,196,197,197,197,197,197,196,196,196,198,199,198,199,199,199,199,199,198,199,200,200,200,199,198,199,199,198,198,198,198,198,198,198,203,202,202,202,202,202,202,202,202,199,201,201,201,201,201,201,201,203,203,203,206,205,206,205,205,205,205,205,205,205,205,205,205,205,204,204,206,209,210,209,209,209,209,209,209,209,209,209,209,209,209,208,208,208,214,214,214,214,214,213,213,214,214,215,215,216,215,216,216,215,215,218,218,219,219,219,219,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,186,31,1404,284,263,288,319,319,317,316,315,313,307,305,304,317,321,321,297,275,278,275,275,272,275,274,276,273,256,255,257,268,272,265,272,276,278,280,279,283,284,285,294,292,294,296,296,298,295,296,297,325,308,301,300,312,314,310,312,323,322,324,330,334,336,336,337,340,342,343,345,348,350,349,349,353,356,355,364,373,373,379,381,381,381,383,386,384,388,387,390,388,392,393,395,396,412,416,423,422,423,427,429,430,424,410,400,393,393,387,388,396,403,403,403,360,361,361,361,210,212,216,220,223,238,222,224,225,224,226,226,226,226,227,222,222,222,0,0</t>
   </si>
   <si>
     <t>2021-12-01 06:12:09</t>
   </si>
   <si>
-    <t>0,0,54,13,406,213,219,218,215,215,215,215,215,215,215,215,215,214,214,215,216,218,218,218,218,218,218,216,218,216,217,216,217,216,216,216,216,216,216,216,216,216,215,216,216,215,215,216,214,215,214,214,214,215,214,214,214,214,214,214,214,214,214,213,213,213,213,213,213,213,213,213,213,213,213,213,212,212,212,213,213,216,218,217,217,217,217,218,217,217,217,218,218,217,217,221,220,220,220,220,220,224,223,223,223,223,223,223,224,225,225,225,225,225,225,228,227,228,228,228,56,55,56,56,57,58,58,59,59,59,60,60,60,60,60,62,62,62,0</t>
-  </si>
-  <si>
     <t>DC061</t>
   </si>
   <si>
-    <t>0,0,0,0,482,219,218,217,214,214,214,214,214,214,214,215,214,213,214,214,216,217,218,217,217,217,217,216,217,217,216,216,216,216,215,215,215,216,216,215,215,215,215,215,216,214,215,215,214,214,214,213,214,214,214,214,214,214,214,214,214,213,213,212,213,212,213,213,212,213,212,212,212,212,212,212,212,211,212,212,211,214,216,214,214,214,214,214,214,214,214,214,214,213,213,216,215,214,214,215,216,220,219,219,219,219,220,220,220,221,221,221,221,221,221,224,225,226,226,226,57,56,57,58,60,55,54,55,55,55,55,56,56,56,56,56,56,56,0</t>
-  </si>
-  <si>
-    <t>0,0,54,10,399,206,220,219,216,215,215,215,216,215,215,215,215,214,215,215,216,218,219,219,218,219,218,217,218,217,217,217,217,217,216,216,216,216,216,216,216,216,216,216,216,216,216,216,215,215,215,215,215,215,215,215,215,215,215,214,215,215,214,214,214,214,213,214,213,214,213,214,213,213,213,213,213,213,213,213,213,215,219,218,217,217,217,217,217,217,217,217,217,216,216,219,219,219,219,219,220,222,222,222,222,222,223,223,223,224,224,224,224,224,225,227,226,227,227,227,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,146,6,2568,472,265,264,306,308,305,307,300,302,299,298,299,315,312,307,278,260,253,253,254,253,254,271,256,269,271,273,265,276,279,277,279,278,279,280,279,281,280,279,280,292,289,282,298,299,294,304,296,295,296,302,303,301,303,306,308,308,310,313,314,313,317,316,317,321,322,324,323,329,328,328,330,333,335,336,336,344,349,352,354,357,357,357,359,362,361,365,364,367,369,378,379,381,381,383,382,392,394,396,395,396,383,376,366,362,359,355,356,354,346,321,323,321,321,321,208,206,208,213,220,224,223,225,226,227,228,229,229,230,230,222,222,222,0</t>
   </si>
   <si>
     <t>2021-12-01 10:51:27</t>
   </si>
   <si>
-    <t>0,0,0,57,389,180,191,189,187,187,186,187,186,187,187,187,187,187,186,186,186,187,186,187,184,185,185,185,184,185,184,184,184,184,184,184,184,184,184,183,184,185,184,182,183,184,183,182,182,183,182,182,183,182,182,182,182,181,182,182,182,181,181,181,184,183,183,183,183,183,183,183,182,182,182,182,182,182,182,182,182,182,185,185,187,187,187,187,186,186,186,186,186,186,186,186,188,188,188,188,188,190,193,192,193,193,193,193,193,194,194,194,195,195,195,195,197,197,197,198,198,198,56,56,57,58,58,59,59,60,60,60,60,60,60,60,61,62,62,62,0,0</t>
-  </si>
-  <si>
     <t>DC063</t>
   </si>
   <si>
-    <t>0,0,0,0,413,194,191,190,188,188,187,188,188,188,188,188,188,188,187,187,187,188,188,185,185,187,186,186,186,186,185,185,185,185,185,185,185,185,185,184,185,185,185,184,184,185,184,183,184,185,183,184,184,183,183,183,183,183,182,182,183,183,182,182,185,186,186,186,186,186,186,186,186,185,185,185,185,185,185,185,185,185,189,189,190,189,189,190,189,189,188,188,189,188,188,189,192,190,190,189,190,190,192,191,191,191,191,191,192,192,192,192,192,192,193,193,195,196,196,197,197,197,54,55,56,58,58,58,58,51,51,52,52,52,52,52,52,52,52,52,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,58,462,197,192,189,188,187,187,187,188,188,187,187,188,188,187,187,187,188,189,187,185,186,185,185,186,185,185,185,185,185,185,185,185,185,185,184,185,185,185,184,183,184,183,183,184,183,183,183,183,183,183,183,183,182,182,182,182,182,182,182,184,185,185,185,186,186,186,186,186,186,186,185,185,185,185,185,185,185,189,189,189,190,189,190,189,189,189,189,189,189,189,188,192,191,191,190,190,190,194,192,193,192,193,193,193,194,193,194,194,194,195,194,197,198,198,198,198,198,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,206,2600,514,240,236,269,269,269,268,267,265,267,266,268,265,286,282,278,259,248,224,235,241,247,247,251,251,250,261,260,259,260,258,258,259,261,286,250,253,263,292,275,266,280,285,276,275,287,289,282,286,295,296,294,295,301,305,305,309,313,318,323,328,329,332,328,328,327,329,328,329,334,339,338,337,339,339,342,342,351,349,353,357,355,356,360,361,362,366,363,364,366,368,376,380,382,386,388,389,398,397,396,398,401,398,382,374,370,370,365,361,357,359,333,306,307,307,307,307,199,202,208,213,226,213,214,215,217,217,217,217,217,217,218,218,218,218,0,0</t>
   </si>
   <si>
     <t>2021-12-01 10:51:28</t>
   </si>
   <si>
-    <t>0,0,0,58,443,190,190,189,186,185,186,185,186,186,186,186,186,185,185,185,186,187,187,186,187,186,186,187,186,186,186,186,186,186,185,186,187,186,186,186,187,186,186,186,186,190,188,188,188,188,188,187,187,187,187,187,187,187,187,187,187,187,190,189,189,191,191,192,191,191,191,190,190,191,191,190,190,193,193,192,192,194,195,197,197,197,198,197,197,197,197,197,197,197,197,197,197,197,196,197,198,199,200,199,199,199,200,200,200,200,200,201,201,201,201,203,202,203,203,203,203,55,55,56,57,57,57,58,58,59,59,59,59,60,60,59,61,60,60,60,60,0,0</t>
-  </si>
-  <si>
     <t>DC065</t>
   </si>
   <si>
-    <t>0,0,0,0,412,180,191,190,186,187,186,187,187,187,187,187,187,186,186,187,187,187,187,187,186,187,187,187,187,186,187,186,187,187,186,186,187,187,186,186,186,186,186,186,186,190,190,190,190,190,190,190,189,190,189,189,189,189,189,188,188,188,190,192,192,193,193,193,193,192,192,192,192,192,192,192,193,194,194,194,193,193,194,194,195,195,194,194,194,194,194,194,194,194,194,194,194,195,195,195,195,195,198,198,198,197,198,198,198,199,199,199,199,200,200,201,201,201,201,201,201,54,54,55,56,56,56,53,53,53,53,53,54,54,54,53,54,54,54,54,54,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,58,446,178,191,192,188,189,188,189,189,189,189,190,189,189,188,188,189,189,189,189,189,189,189,189,189,189,189,189,189,189,188,188,189,189,188,188,189,189,189,188,189,192,193,193,193,193,193,193,192,193,192,192,191,191,192,191,191,191,193,196,195,196,196,195,196,196,195,195,195,196,195,195,195,198,197,197,197,198,197,199,199,199,199,199,199,199,199,199,199,199,199,198,199,199,199,199,199,201,201,201,201,200,201,201,201,202,202,203,203,203,203,204,204,205,205,205,205,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,208,2701,644,264,249,294,291,289,287,282,281,279,281,279,292,293,289,276,268,269,272,269,267,266,269,271,269,271,270,270,271,294,279,266,267,281,270,269,273,272,274,275,284,284,285,287,287,289,293,293,294,291,294,296,295,294,298,303,301,305,314,318,319,315,316,321,324,324,328,329,327,328,332,334,335,335,338,339,339,342,350,351,354,356,356,357,358,362,365,367,367,368,371,375,376,375,374,380,386,389,385,388,390,383,370,363,362,359,355,352,349,355,331,323,324,321,321,321,200,200,205,207,210,219,218,218,220,221,221,221,222,221,219,226,223,223,223,223,0,0</t>
   </si>
   <si>
     <t>2021-11-30 04:22:51</t>
   </si>
   <si>
-    <t>0,0,0,58,428,190,204,205,205,205,205,205,205,205,205,205,206,205,204,205,205,206,206,207,207,207,207,206,206,206,206,206,206,206,206,206,206,206,206,206,206,206,206,206,206,206,205,206,206,206,206,205,205,205,205,205,205,205,205,204,204,204,204,204,204,204,204,204,204,203,204,203,203,203,203,203,203,203,203,202,202,202,202,202,202,202,201,202,202,202,201,202,201,201,201,201,201,201,201,201,201,204,203,202,202,202,202,203,203,204,204,204,204,203,202,204,205,205,205,205,205,55,55,56,57,57,58,58,59,59,59,60,60,60,60,60,60,60,60,60,0,0</t>
-  </si>
-  <si>
     <t>DC067</t>
   </si>
   <si>
-    <t>0,0,0,0,337,188,204,204,205,204,205,204,204,205,205,205,205,204,204,204,205,205,205,206,206,206,206,205,205,205,205,205,205,205,206,205,205,205,206,205,205,205,205,205,205,205,203,205,206,206,205,204,204,205,205,204,204,204,204,204,204,204,204,203,203,203,203,203,203,203,203,203,203,202,203,202,202,202,202,202,202,202,202,202,201,201,201,201,201,201,201,201,201,200,200,200,200,200,200,201,201,204,203,203,203,203,203,204,204,204,204,204,204,203,202,204,205,205,205,205,205,54,53,49,50,50,50,50,51,51,51,51,51,51,51,51,51,51,51,51,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,58,395,194,206,206,206,207,207,207,207,207,207,207,207,206,206,206,206,207,208,208,208,208,208,208,208,207,207,207,207,207,207,208,207,207,208,208,207,207,207,207,208,208,206,208,208,208,207,207,207,207,207,206,206,207,206,206,206,206,206,206,205,206,206,205,205,205,205,205,204,205,204,204,204,204,204,204,204,204,204,204,204,203,203,204,204,203,203,203,203,203,202,202,203,203,202,202,203,206,205,205,205,205,205,206,206,207,206,207,207,206,205,207,208,208,208,208,208,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,211,2251,689,335,337,334,331,331,328,330,327,326,325,325,332,339,337,331,316,313,307,308,310,310,309,311,314,317,317,318,317,318,317,319,318,318,321,319,320,319,320,320,319,340,324,318,319,326,328,328,326,328,333,333,332,332,337,337,339,339,342,343,341,344,345,347,348,351,351,353,353,354,356,360,361,360,362,364,367,369,368,370,372,375,377,377,377,380,380,383,382,384,386,388,389,390,389,387,392,392,392,395,397,395,382,379,370,370,367,365,384,393,370,350,352,351,351,351,199,200,205,209,210,212,212,214,214,215,216,216,216,216,217,217,217,217,217,0,0</t>
   </si>
   <si>
     <t>2021-11-27 03:36:31</t>
   </si>
   <si>
-    <t>0,0,0,60,415,200,216,216,216,216,216,216,216,216,216,216,217,215,215,215,217,217,217,217,217,217,217,216,216,217,216,217,217,216,216,215,215,217,216,216,215,215,216,216,215,215,216,216,215,215,215,215,214,214,214,214,214,214,217,215,216,212,214,213,213,213,213,213,213,213,213,213,212,212,212,212,212,213,213,212,212,212,211,211,211,211,211,211,211,211,211,211,211,210,210,211,210,210,210,210,210,210,210,209,209,209,210,211,212,211,204,210,209,210,211,213,213,213,213,213,213,56,56,56,57,57,58,58,59,59,59,60,60,60,61,61,61,61,0,0</t>
-  </si>
-  <si>
     <t>DC069</t>
   </si>
   <si>
-    <t>0,0,0,0,406,191,211,211,213,213,213,213,213,213,213,213,213,211,212,212,213,213,214,214,213,214,214,214,213,214,213,213,213,214,213,211,212,213,213,213,212,212,213,213,212,212,213,213,211,212,211,211,211,211,211,211,210,211,213,211,213,206,210,208,209,208,208,208,209,208,208,208,208,208,207,207,208,209,209,209,209,208,208,208,208,208,208,208,208,208,207,208,208,207,208,208,208,208,207,207,207,207,207,206,206,206,207,208,209,209,202,206,207,207,208,210,210,210,210,210,210,55,55,55,53,53,53,54,54,54,54,55,55,55,55,56,56,56,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,59,477,196,213,214,215,215,215,215,216,215,215,215,216,214,214,214,215,216,215,215,216,216,216,216,215,215,215,216,216,216,216,213,214,216,216,215,215,214,216,215,214,214,215,214,214,214,214,214,213,213,214,213,213,213,216,215,213,210,213,212,212,212,211,211,212,212,212,211,211,211,211,211,211,212,212,211,211,211,211,211,211,211,211,211,211,210,210,210,210,210,210,210,210,209,209,209,209,209,209,209,209,209,209,210,211,211,204,208,209,210,210,212,212,212,212,212,212,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,216,2590,594,334,323,322,321,319,318,315,315,313,313,313,332,329,326,309,307,306,306,307,307,307,304,310,307,309,308,307,307,308,331,319,305,303,313,320,324,313,314,326,324,319,323,332,330,328,331,336,334,333,340,344,345,351,356,344,344,344,350,351,351,353,357,354,357,358,363,362,363,366,370,367,370,371,374,374,376,379,382,382,385,387,389,389,392,393,396,398,402,406,408,407,409,411,412,415,413,415,416,416,419,407,393,381,372,348,363,360,348,332,311,309,308,309,309,309,200,201,208,214,215,217,219,220,221,222,224,223,223,225,228,228,228,0,0</t>
   </si>
   <si>
     <t>2021-11-30 03:31:06</t>
   </si>
   <si>
-    <t>0,0,41,38,301,227,221,220,217,217,217,217,217,217,217,217,217,217,216,217,217,219,220,219,220,220,220,220,220,220,221,221,221,220,220,220,220,220,220,220,219,219,218,219,219,219,219,219,219,219,219,219,219,219,219,219,219,219,218,219,218,218,218,218,218,218,218,218,217,217,217,216,216,216,216,216,216,216,216,216,216,216,216,215,215,215,215,214,215,215,215,215,215,215,214,214,214,214,214,214,214,213,213,213,213,213,213,214,215,215,215,214,212,211,210,212,215,215,214,214,214,56,57,58,59,59,59,60,60,60,60,60,61,61,61,61,61,61,61,61,0</t>
-  </si>
-  <si>
     <t>DC071</t>
   </si>
   <si>
-    <t>0,0,0,0,340,226,221,219,217,217,217,217,217,217,217,218,218,217,217,217,217,220,220,220,220,220,220,220,220,220,220,221,221,220,220,220,220,219,219,220,219,219,219,220,219,220,220,219,219,219,219,219,219,219,218,219,218,218,218,218,217,218,219,218,218,217,218,217,217,217,217,216,216,216,216,216,216,216,216,216,215,216,215,215,215,215,215,215,215,215,215,215,215,214,215,214,214,214,214,214,214,214,213,213,214,213,214,214,215,215,215,213,212,211,211,213,215,215,215,215,215,55,57,58,60,56,56,57,57,57,57,57,57,57,57,57,57,57,57,57,0</t>
-  </si>
-  <si>
-    <t>0,0,43,37,316,232,222,220,217,217,217,218,218,218,218,219,219,218,217,217,218,220,221,221,221,221,221,221,221,221,222,222,222,221,220,221,220,220,220,220,220,220,220,220,220,220,220,220,220,220,220,219,219,219,220,219,219,219,219,219,218,218,219,219,219,219,218,218,217,217,217,217,217,217,217,217,217,217,217,217,217,217,216,216,216,216,216,216,216,216,216,216,216,215,215,215,215,215,215,214,214,214,214,214,214,214,214,215,216,216,216,214,213,212,211,214,216,215,215,215,215,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,82,56,1810,317,278,307,338,337,335,337,336,331,330,328,327,331,344,340,338,304,289,292,290,290,292,294,292,290,287,282,282,287,290,289,290,294,298,297,298,302,301,304,305,305,306,306,306,307,305,306,306,308,307,307,312,313,311,311,323,321,317,319,323,327,329,329,332,333,333,337,340,338,342,343,344,347,347,348,352,350,352,354,356,356,360,361,365,367,367,369,372,371,371,373,376,379,382,385,386,387,389,391,389,391,386,373,366,360,364,383,407,434,442,409,409,409,364,136,204,204,210,216,229,227,227,229,229,229,229,230,231,231,231,232,232,228,228,228,0</t>
   </si>
   <si>
     <t>2021-12-01 05:53:26</t>
   </si>
   <si>
-    <t>0,0,0,57,61,332,215,213,211,210,210,210,210,210,210,210,210,210,210,210,209,209,209,210,199,209,208,208,208,208,208,208,208,208,207,208,207,208,208,207,207,207,207,207,207,208,207,207,207,207,207,207,207,207,207,207,206,207,207,206,207,206,206,206,206,205,205,205,205,205,205,205,205,205,205,205,205,204,204,204,204,204,204,204,204,204,204,204,203,203,203,203,203,203,203,203,203,202,203,202,203,205,208,208,208,208,208,207,207,208,209,209,209,209,210,209,209,210,211,211,211,211,211,56,56,56,57,58,58,59,59,59,60,60,60,60,60,60,60,60,60,55,55,55,0</t>
-  </si>
-  <si>
     <t>DC073</t>
   </si>
   <si>
-    <t>0,0,0,58,61,343,220,215,212,212,211,212,212,212,212,212,212,212,212,211,211,211,211,210,199,210,209,210,209,209,210,209,209,210,209,209,209,210,209,209,208,209,209,208,209,209,208,208,208,208,208,208,208,208,208,208,207,208,209,208,208,208,208,208,207,207,207,207,207,207,206,207,206,206,206,206,206,206,205,205,205,205,205,205,205,205,205,204,205,204,204,204,204,204,204,204,204,203,204,204,203,207,206,206,206,206,206,205,206,207,207,207,207,207,208,207,207,208,209,210,211,211,211,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,0,0,335,223,211,209,209,209,209,209,209,209,209,209,209,210,208,208,207,209,209,197,207,206,207,206,207,207,207,207,207,206,206,206,207,206,206,207,207,206,206,206,206,206,206,205,206,206,206,205,206,206,206,204,205,206,205,206,204,205,205,204,204,204,204,204,204,204,204,204,204,204,204,204,203,203,203,203,203,202,203,202,203,203,203,202,202,202,202,202,202,202,202,202,202,201,202,201,204,206,206,206,206,206,205,205,207,207,207,207,207,207,207,207,208,209,209,210,210,210,55,55,56,57,58,57,54,54,54,55,55,55,55,55,55,55,55,55,55,55,55,0</t>
-  </si>
-  <si>
     <t>0,0,0,213,226,2037,351,279,304,311,312,313,310,314,312,311,312,312,310,321,327,327,319,305,276,283,289,286,286,288,282,282,282,287,294,292,291,284,288,293,293,292,292,297,298,296,299,298,298,299,298,297,298,298,298,296,310,308,303,303,306,317,316,312,315,320,322,320,325,327,327,327,330,332,333,332,334,337,339,339,341,342,344,347,347,350,351,351,354,356,357,359,358,360,362,364,366,365,367,368,367,375,383,382,382,388,390,393,389,377,371,365,365,362,360,366,360,347,330,331,333,333,333,202,204,207,210,214,211,211,211,178,178,179,179,179,179,179,179,179,179,181,181,181,0</t>
   </si>
   <si>
     <t>2021-12-01 09:16:29</t>
   </si>
   <si>
-    <t>0,0,0,59,61,302,221,208,207,204,204,204,204,205,205,204,205,204,203,203,204,205,207,207,207,207,207,207,206,207,206,207,206,206,206,206,206,206,206,206,206,206,206,206,206,206,206,205,205,206,205,205,205,205,205,205,205,205,205,205,205,205,204,204,204,204,204,204,204,204,204,204,204,204,204,203,203,203,203,203,202,203,203,202,202,202,202,202,201,201,201,201,201,201,201,200,200,200,200,200,201,202,203,203,203,203,203,204,204,205,205,205,206,205,204,205,207,208,208,209,209,209,55,56,57,57,58,59,59,60,60,60,60,60,60,60,61,61,62,62,62,0,0</t>
-  </si>
-  <si>
     <t>DC075</t>
   </si>
   <si>
-    <t>0,0,0,58,61,324,211,207,206,203,203,203,203,203,203,202,203,202,201,202,202,202,205,205,205,205,205,204,205,204,204,205,204,204,204,204,203,204,204,204,204,204,204,204,204,204,204,202,203,204,203,203,203,203,203,203,203,203,202,203,202,203,202,202,202,202,202,202,202,202,201,202,202,201,201,201,201,201,201,200,200,200,200,201,200,200,200,200,200,199,199,199,199,198,198,198,198,198,198,199,199,201,202,203,203,203,203,204,204,204,204,204,204,205,204,205,206,207,207,207,207,207,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,0,0,344,218,211,209,207,207,207,207,207,207,207,207,207,205,206,206,207,209,209,209,209,209,209,208,209,208,209,208,208,208,208,208,208,208,208,208,208,208,208,208,208,208,207,207,208,207,207,207,207,207,207,207,207,207,207,206,207,207,206,206,206,206,206,205,205,206,206,205,206,206,205,205,205,205,205,204,205,204,204,204,204,203,203,203,203,202,202,203,202,203,202,202,202,202,202,202,205,207,207,207,207,207,208,209,209,210,210,210,210,209,210,212,212,212,212,212,212,56,56,57,58,59,59,60,61,56,55,55,55,55,55,55,55,55,55,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,216,224,2003,364,291,300,338,336,333,335,334,334,336,337,336,354,349,348,334,304,301,306,307,305,306,308,307,315,308,316,315,315,317,316,316,316,315,318,318,318,319,318,318,319,335,326,317,324,325,326,324,325,325,328,328,328,331,331,333,332,334,335,338,338,338,340,342,345,346,346,346,348,349,352,353,355,356,360,361,362,363,366,369,370,372,373,374,377,377,381,383,385,388,390,392,393,396,398,408,416,413,416,417,418,412,401,393,387,385,381,380,393,386,365,352,353,352,352,352,206,209,213,215,218,220,222,225,225,225,179,179,179,179,180,181,181,181,0,0,0</t>
   </si>
   <si>
     <t>2021-11-29 14:21:06</t>
   </si>
   <si>
-    <t>0,0,0,23,62,464,211,229,228,225,225,225,225,225,225,226,225,225,225,225,227,228,227,227,228,227,227,228,227,228,229,229,228,228,228,228,228,227,227,228,227,228,227,227,226,227,227,226,227,227,227,226,227,226,227,225,225,226,226,226,225,225,225,225,224,225,224,225,224,224,224,224,224,223,223,224,224,223,223,223,224,223,223,223,223,223,223,223,223,223,223,222,222,222,221,222,222,221,222,221,221,221,221,221,221,221,221,222,222,222,222,222,222,222,223,224,224,224,224,224,56,56,56,56,57,58,58,59,59,59,60,60,60,60,60,61,61,61,61,61,0,0</t>
-  </si>
-  <si>
     <t>DC079</t>
   </si>
   <si>
-    <t>0,0,0,22,62,359,221,228,227,223,223,223,224,224,224,224,224,223,223,224,226,226,225,225,226,226,226,226,226,226,227,227,225,226,226,226,225,225,226,226,225,226,225,225,225,225,225,224,225,225,225,224,225,225,225,224,224,224,225,225,224,224,224,223,223,223,223,223,223,223,222,222,222,222,222,222,223,221,221,222,222,221,221,221,221,221,221,221,221,221,221,221,220,220,220,220,220,220,220,220,220,220,220,220,220,221,221,221,221,221,222,222,222,222,223,224,224,224,224,224,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,0,0,472,207,226,225,221,221,221,221,221,222,222,222,221,221,221,223,223,223,223,224,224,223,224,223,224,224,224,223,223,223,224,222,222,223,223,223,223,223,222,222,222,222,221,222,222,222,222,222,222,222,221,221,221,222,222,221,221,221,220,220,220,220,220,220,220,220,220,220,219,219,219,219,219,219,219,219,219,218,218,218,218,218,218,218,218,217,217,217,217,217,217,216,217,217,217,217,217,217,217,216,217,217,218,218,218,218,219,219,219,219,221,220,220,220,220,57,51,52,52,52,53,53,53,54,54,54,54,54,54,54,55,55,55,55,55,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,22,229,2597,538,270,264,327,328,325,320,316,315,311,310,328,322,317,280,270,276,276,272,275,275,276,277,271,257,257,278,277,276,269,282,283,282,283,285,284,285,285,291,290,290,290,290,290,290,301,294,293,288,308,311,300,301,298,310,311,310,314,317,319,318,318,321,329,328,329,329,336,336,338,339,340,343,343,341,346,347,350,349,353,354,358,356,357,360,364,364,367,366,369,371,373,374,378,377,378,380,377,377,373,365,356,350,346,345,339,337,334,316,299,298,297,297,297,204,188,188,188,168,169,171,171,171,171,171,172,172,173,173,175,174,174,174,174,0,0</t>
   </si>
   <si>
     <t>2021-11-25 11:29:51</t>
   </si>
   <si>
-    <t>0,0,0,60,62,413,229,219,219,218,218,218,218,218,219,218,219,219,218,218,218,219,220,220,220,220,220,219,220,219,219,219,219,219,219,219,219,219,219,219,216,219,219,219,219,218,218,219,218,218,218,217,217,217,217,217,217,217,217,217,217,217,217,216,216,216,216,216,215,216,216,215,207,208,209,208,208,208,208,208,208,208,208,208,208,209,208,208,208,209,209,210,210,211,212,211,212,212,212,212,214,217,217,217,217,217,217,217,217,217,216,215,215,215,216,218,221,221,221,221,221,221,56,56,57,58,58,59,59,60,60,61,61,61,61,61,61,63,57,57,57,0,0,0,0</t>
-  </si>
-  <si>
     <t>DC099</t>
   </si>
   <si>
-    <t>0,0,0,59,60,361,215,217,216,216,216,216,216,216,216,216,216,216,215,215,215,216,217,217,217,217,217,216,216,216,216,216,216,216,215,216,216,216,216,216,214,216,216,217,216,215,215,216,216,215,215,215,215,215,215,215,215,215,215,215,215,214,214,215,214,214,214,213,213,213,213,213,205,206,207,206,206,207,206,206,207,206,206,206,206,206,206,207,207,207,207,208,209,209,210,209,209,210,210,210,211,215,213,212,212,212,212,212,212,212,211,210,210,210,211,212,215,216,217,217,217,217,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,0,0,367,228,217,217,217,217,217,217,217,217,217,217,217,217,216,216,218,219,219,219,219,218,218,219,218,218,218,218,218,217,218,218,217,217,218,215,218,218,218,218,217,217,218,217,216,217,216,216,216,216,216,216,217,217,216,216,216,216,215,215,215,215,215,214,214,215,214,207,207,207,207,207,207,207,207,207,207,208,207,207,207,207,207,207,208,208,209,209,210,211,211,211,211,211,212,215,218,216,216,216,216,215,216,216,215,215,214,214,214,215,217,219,220,220,220,220,220,57,56,58,59,57,57,57,57,58,58,58,58,58,58,58,59,59,59,59,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,217,227,2230,357,284,286,288,290,291,289,287,286,286,287,285,298,302,302,285,266,264,267,268,274,278,272,277,279,277,283,282,284,282,282,280,282,283,316,288,279,276,280,290,293,281,288,295,291,295,292,294,295,298,300,299,300,303,305,307,309,313,315,317,318,322,325,325,327,332,324,320,322,326,330,327,330,335,337,335,338,342,344,344,345,349,351,351,356,359,362,364,367,366,368,370,372,374,380,387,388,389,392,394,400,389,391,405,415,424,433,443,432,389,389,389,321,321,321,321,208,209,213,215,196,193,194,194,195,196,197,197,197,197,198,202,201,201,201,0,0,0,0</t>
   </si>
   <si>
     <t>2021-11-25 09:35:29</t>
   </si>
   <si>
-    <t>0,0,0,59,508,209,224,225,221,221,221,221,221,221,221,222,222,222,220,220,220,222,224,223,223,223,222,223,224,223,223,223,223,223,222,223,223,222,222,222,222,222,222,222,222,220,222,222,223,222,222,221,222,221,220,221,221,220,221,220,221,221,220,220,220,220,220,220,220,220,219,219,219,219,219,219,219,219,219,219,218,218,218,218,218,218,218,218,217,217,217,217,217,217,217,217,217,216,216,216,217,216,217,216,216,216,217,217,217,218,218,218,218,216,215,216,220,220,220,220,220,220,56,57,58,59,59,60,60,61,61,61,61,61,61,61,61,61,61,61,61,0,0</t>
-  </si>
-  <si>
     <t>DC101</t>
   </si>
   <si>
-    <t>0,0,0,0,469,207,221,224,220,221,221,221,221,220,221,221,220,221,219,220,220,221,223,223,223,222,222,222,223,223,223,222,223,223,222,222,222,222,221,222,222,221,222,221,222,221,221,222,223,222,221,221,221,221,221,221,221,220,220,220,220,220,220,220,220,220,220,220,219,220,219,219,219,219,219,219,219,219,218,219,218,218,218,218,218,218,218,218,217,217,217,217,217,217,217,217,217,217,217,217,217,217,216,217,217,216,216,217,217,218,218,218,218,217,215,216,219,219,220,219,219,219,55,57,57,57,53,53,53,53,54,53,54,54,54,54,54,54,54,54,54,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,60,390,203,225,226,222,223,223,223,222,223,223,223,223,223,221,221,222,224,225,225,224,224,224,224,225,224,224,224,225,225,224,224,224,224,223,223,223,223,224,223,223,222,223,223,224,223,223,222,223,223,222,222,222,222,222,222,222,222,222,222,222,221,221,222,221,221,220,221,221,221,220,220,220,221,220,220,220,220,220,220,220,220,220,219,219,219,218,218,219,218,219,218,218,218,218,218,218,218,218,218,218,218,218,219,219,219,219,220,220,218,216,218,221,221,221,221,221,221,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,223,2543,701,317,297,339,333,332,331,334,332,329,327,326,326,343,342,337,312,291,297,298,302,306,306,298,301,301,305,300,297,306,306,306,307,310,312,309,313,311,312,312,327,319,315,305,313,322,328,318,324,331,328,327,333,335,334,334,337,340,340,340,342,346,348,345,346,352,352,352,356,357,359,360,361,365,366,368,367,371,371,372,373,378,378,378,377,386,388,390,389,393,394,395,392,395,398,397,398,397,400,400,400,402,391,383,374,375,372,367,393,421,401,401,401,349,349,349,349,205,210,214,216,219,222,224,224,226,224,226,225,226,226,226,226,225,225,225,0,0</t>
   </si>
   <si>
     <t>2021-11-24 11:13:59</t>
   </si>
   <si>
-    <t>0,0,0,58,365,194,209,211,209,209,210,209,210,209,209,210,209,210,210,209,208,209,210,210,211,212,211,211,211,211,212,212,212,212,211,211,211,210,211,211,210,210,210,210,210,210,210,210,210,210,210,210,210,210,210,210,210,210,210,210,208,210,209,209,209,209,208,209,209,209,208,209,209,209,208,208,208,208,208,208,208,208,207,208,207,207,207,208,207,207,207,207,207,206,206,206,207,206,206,206,205,205,205,205,206,205,205,205,206,206,207,207,207,207,206,207,207,208,209,208,208,208,56,55,56,57,57,58,58,59,59,59,60,60,60,60,60,60,62,63,63,63,0,0</t>
-  </si>
-  <si>
     <t>DC103</t>
   </si>
   <si>
-    <t>0,0,0,0,320,224,208,211,209,209,209,209,209,209,209,209,209,209,209,208,208,208,209,210,210,211,211,211,210,211,211,211,211,211,210,210,210,210,210,210,210,209,210,209,209,209,209,209,209,209,209,209,209,209,209,209,209,209,209,209,206,208,208,208,208,208,208,208,207,207,207,208,208,207,207,207,207,207,206,206,206,206,206,205,206,206,206,206,206,205,205,205,205,204,205,205,205,205,204,204,203,203,203,203,203,203,203,203,204,205,205,205,205,206,204,205,206,207,207,207,207,207,56,56,57,57,59,60,57,57,57,58,58,58,59,59,59,59,59,59,59,59,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,60,337,230,206,209,207,207,207,207,207,208,207,208,207,207,207,206,206,206,208,208,209,210,209,209,209,209,210,209,210,210,209,209,209,208,208,209,208,208,208,208,208,208,207,208,208,208,208,208,208,207,208,208,207,208,207,207,206,207,207,207,206,206,206,206,206,206,206,206,207,206,206,206,206,206,205,205,205,205,205,205,205,204,204,204,204,204,204,204,203,204,203,204,203,203,203,203,203,202,202,203,203,203,202,202,203,203,204,204,204,204,203,203,204,206,206,205,205,205,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,216,1797,819,306,292,315,314,310,312,311,312,311,310,307,308,308,323,322,317,304,294,293,286,287,284,285,282,280,280,274,276,288,284,288,292,289,285,294,300,301,299,300,302,302,302,302,301,302,302,307,307,307,307,305,305,304,304,327,307,308,305,313,315,314,313,317,318,320,319,324,328,329,328,327,332,335,334,334,338,340,341,343,344,348,349,350,351,352,354,355,356,358,358,360,362,363,363,364,369,372,371,371,373,376,372,363,355,353,352,349,350,363,355,340,324,323,324,324,324,205,205,208,211,216,224,225,227,228,229,230,232,232,232,232,232,236,234,234,234,0,0</t>
   </si>
   <si>
     <t>2021-11-24 11:20:42</t>
   </si>
   <si>
-    <t>0,0,14,59,426,196,211,211,208,207,207,207,207,207,208,208,208,207,207,207,209,211,209,210,210,210,210,210,210,210,210,210,210,210,209,209,209,209,209,209,209,209,208,209,209,209,208,208,208,208,208,208,208,208,209,208,208,208,208,206,208,208,208,208,208,208,207,207,207,206,206,206,205,206,205,205,205,205,205,204,205,205,205,204,205,205,204,204,204,204,203,204,203,203,203,203,203,203,202,202,202,202,202,202,202,201,202,203,203,202,203,203,203,204,204,205,205,205,205,205,54,54,54,55,56,56,57,57,57,58,58,58,58,58,58,58,57,52,52,52,0,0,0</t>
-  </si>
-  <si>
     <t>DC105</t>
   </si>
   <si>
-    <t>0,0,14,59,417,195,211,211,206,206,207,206,206,206,207,207,208,206,206,206,208,210,209,209,209,209,209,209,209,209,209,210,209,209,208,208,208,208,209,208,207,208,208,208,208,208,207,208,207,208,207,207,207,207,208,208,207,207,207,205,207,207,207,207,207,207,206,206,205,206,206,205,205,205,204,205,205,205,204,204,204,204,205,204,203,204,203,203,203,203,202,203,202,202,202,202,202,202,201,202,202,202,201,201,202,201,201,202,202,202,202,202,203,203,203,205,205,204,201,201,201,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,0,481,184,208,209,205,205,205,205,205,205,206,205,206,205,204,205,207,208,207,208,207,207,207,207,207,207,208,207,207,207,207,207,207,207,207,206,206,206,206,206,206,206,206,206,207,206,206,206,206,206,206,206,206,206,206,203,205,205,206,205,205,205,205,205,204,204,204,204,203,204,203,203,203,203,203,202,202,202,203,202,202,202,202,202,202,202,201,201,201,201,200,201,201,200,200,200,200,200,199,200,200,199,200,200,200,200,200,201,201,201,202,202,203,204,195,195,195,54,54,55,56,57,57,57,55,56,57,57,58,58,58,58,58,58,58,58,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,12,219,2735,633,293,283,324,332,331,333,328,328,325,325,322,338,336,334,311,296,300,290,291,285,288,283,283,279,276,276,284,284,288,287,291,290,286,290,294,295,295,297,300,299,300,301,300,300,302,301,301,305,302,302,301,303,301,331,304,304,305,315,312,309,312,318,316,314,316,321,323,322,323,328,329,328,329,334,335,333,334,337,340,340,342,346,348,348,349,352,355,355,358,360,363,367,370,369,373,372,375,377,379,383,371,364,360,362,364,357,359,344,340,323,321,319,319,319,197,196,200,203,206,209,211,210,205,196,195,195,195,196,195,195,195,195,195,195,0,0,0</t>
   </si>
   <si>
     <t>2021-12-01 11:03:27</t>
   </si>
   <si>
-    <t>0,0,0,312,288,229,225,224,213,218,219,219,219,217,216,217,217,218,219,221,221,222,220,222,222,222,222,222,219,223,222,224,223,223,222,221,222,223,222,223,223,222,222,222,222,222,222,221,219,219,219,214,218,215,220,219,218,218,219,219,216,216,217,217,217,217,217,217,216,216,216,216,215,214,214,214,214,213,213,214,214,214,214,213,213,212,212,212,213,213,212,211,211,211,212,212,211,212,212,213,214,213,211,214,214,214,214,213,215,215,218,215,213,214,217,215,215,214,218,217,215,216,215,218,218,216,217,221,217,218,220,219,219,219,57,59,59,58,58,58,58,58,58,58,58,58,58,58,58,58,58,58,58,58,0,0</t>
-  </si>
-  <si>
     <t>156</t>
   </si>
   <si>
     <t>DC049-J1</t>
   </si>
   <si>
-    <t>0,0,59,333,303,231,224,222,210,217,217,217,218,215,215,216,216,217,217,220,221,221,218,221,221,221,221,221,218,221,221,222,222,222,221,221,221,222,222,222,222,222,222,222,222,221,221,220,218,218,218,213,217,213,219,218,217,217,219,218,215,215,217,216,215,215,215,215,215,215,214,215,213,213,213,213,213,212,212,212,213,213,213,212,212,211,211,211,212,212,211,209,210,210,211,211,210,211,211,211,213,212,211,214,214,213,214,212,214,213,217,213,212,212,216,213,213,214,217,215,215,215,215,217,218,215,216,221,217,218,219,218,218,218,56,58,59,58,59,59,59,59,59,59,59,59,59,59,59,59,59,58,58,58,0,0</t>
-  </si>
-  <si>
-    <t>0,0,59,329,257,227,218,218,207,214,214,214,214,212,212,212,212,213,213,216,217,217,215,217,217,218,217,217,215,216,217,219,219,219,216,217,217,218,217,218,218,217,218,217,217,217,218,216,214,214,214,210,214,210,216,215,213,213,215,214,212,212,213,213,212,211,212,212,212,211,211,211,210,209,209,209,209,209,209,209,210,209,209,209,208,208,207,208,208,209,208,207,207,207,207,208,207,207,208,208,210,209,208,210,210,210,210,208,211,210,213,208,208,209,212,209,210,210,213,211,210,211,211,213,213,211,213,216,213,214,215,213,213,213,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,218,1711,1475,491,499,501,484,494,492,493,493,503,506,501,500,496,489,467,467,467,478,462,462,459,463,463,481,466,461,455,455,455,465,465,463,458,459,457,454,458,458,460,461,464,464,472,485,485,486,518,497,510,476,489,498,495,488,494,505,506,499,501,505,510,510,510,514,517,518,518,525,529,529,527,529,535,535,533,531,531,530,534,541,545,549,542,537,538,549,561,560,554,547,541,547,546,544,540,531,537,541,524,522,526,517,526,511,520,495,518,517,519,501,515,509,510,490,498,500,500,500,489,485,494,489,469,488,480,478,481,481,481,207,213,211,197,195,195,195,195,195,195,195,195,195,196,195,196,197,202,202,202,0,0</t>
   </si>
   <si>
-    <t>0,0,0,0,0,390,230,230,231,231,231,231,231,230,230,231,230,230,228,228,228,227,226,227,228,234,235,235,236,237,235,236,235,234,234,234,234,234,234,233,234,234,233,234,234,234,234,234,234,234,234,234,234,234,234,234,234,234,234,234,234,234,234,234,234,234,234,234,234,234,234,233,233,233,232,232,231,231,231,231,231,231,230,231,230,230,230,231,231,230,231,229,229,229,229,229,229,229,229,227,229,228,225,227,226,224,226,224,223,225,224,225,222,224,224,224,221,221,223,222,223,220,221,219,221,220,219,217,217,222,221,219,219,219,58,58,53,51,51,51,51,51,51,51,51,51,51,51,51,51,52,52,52,0,0</t>
-  </si>
-  <si>
     <t>DC049-J2</t>
-  </si>
-  <si>
-    <t>0,0,0,60,46,399,230,229,229,230,230,229,229,230,229,230,229,229,226,226,226,226,225,226,228,233,233,235,234,236,234,234,234,233,234,233,233,233,233,233,234,234,233,233,233,233,233,233,233,233,233,233,233,233,233,234,233,233,233,233,233,233,233,233,233,233,233,233,233,233,233,233,233,233,232,231,230,230,230,231,230,230,230,230,229,230,230,230,230,229,231,228,229,227,228,228,228,229,227,227,229,227,224,227,224,224,225,223,221,224,223,223,221,222,223,223,220,220,222,220,222,220,220,218,220,219,218,216,215,220,218,217,217,217,58,58,60,59,59,59,59,59,59,59,59,59,59,59,59,59,60,60,60,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,58,44,373,226,225,226,226,226,226,226,226,226,226,226,225,223,223,223,222,221,222,223,227,229,230,230,232,230,231,230,230,229,229,229,229,229,228,229,229,229,229,229,229,229,229,230,229,229,229,229,229,229,229,229,229,229,229,229,229,229,229,229,229,229,229,229,229,229,228,228,228,228,227,226,226,226,226,226,226,226,225,225,225,226,226,226,225,227,224,224,224,224,224,224,225,224,223,224,223,221,224,221,220,221,220,218,221,219,221,218,220,220,220,216,217,220,218,219,216,217,216,216,215,215,213,212,218,217,213,213,213,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
   </si>
   <si>
     <t>0,0,0,217,89,2430,505,501,500,500,499,499,501,501,501,502,501,508,523,525,523,528,533,527,517,483,472,469,473,460,472,471,473,476,477,477,478,478,476,476,475,477,477,475,476,477,476,476,476,476,475,476,477,478,477,476,479,476,478,478,477,477,477,479,479,478,478,478,479,480,477,478,478,480,486,486,493,496,495,496,495,495,495,498,500,499,495,495,496,500,493,504,504,508,508,506,506,504,508,514,504,510,530,516,532,535,525,528,544,538,542,532,553,546,544,544,567,559,551,564,563,577,572,587,581,579,586,602,608,610,617,640,640,640,214,211,211,211,163,164,163,163,163,163,164,164,163,164,164,164,165,165,165,0,0</t>
@@ -1410,6 +1014,534 @@
       </rPr>
       <t>道岔名称</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,61,59,399,222,217,215,206,198,199,229,235,220,196,208,218,230,215,199,217,208,230,205,207,200,211,203,225,221,210,227,230,213,204,225,208,199,219,230,214,197,226,209,227,201,205,211,212,200,203,206,223,217,217,214,224,230,200,216,218,228,192,226,218,203,199,213,206,225,221,224,218,221,221,210,205,222,217,203,203,223,222,203,200,229,214,229,219,193,207,202,222,228,205,228,201,207,208,205,222,205,210,203,203,226,222,213,205,207,199,214,211,193,199,220,230,196,199,220,213,56,55,55,56,57,57,58,58,59,59,60,60,60,60,60,60,61,61,61,61,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,60,59,378,217,218,215,228,204,200,219,197,208,213,221,206,216,228,220,197,228,217,222,211,202,200,201,234,204,196,200,232,207,213,215,221,201,201,230,198,219,225,226,209,225,205,219,231,224,215,209,217,220,198,214,231,201,225,196,196,218,202,204,198,203,228,193,197,224,226,225,216,202,211,200,199,198,199,217,214,229,230,214,208,206,223,206,213,191,224,223,202,194,198,191,191,192,227,213,223,200,209,209,226,215,218,220,221,202,193,216,192,217,218,223,224,207,227,218,208,208,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,361,210,217,214,210,196,206,204,228,228,223,211,225,216,231,201,222,211,224,226,210,227,205,222,230,208,220,219,204,208,217,225,229,207,230,222,199,213,224,222,198,217,231,201,218,212,207,207,207,220,220,223,208,231,222,229,220,200,195,226,227,199,215,226,208,196,210,216,215,207,206,195,211,225,192,219,229,206,193,222,208,213,215,218,215,225,191,189,202,211,217,215,228,208,196,214,207,194,193,194,202,213,202,191,206,189,190,202,204,211,210,204,196,208,204,213,212,58,57,56,53,53,54,54,55,55,55,55,55,55,56,56,56,56,57,57,57,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,61,184,249,223,223,223,205,213,244,222,205,215,235,218,241,207,226,221,232,230,219,202,214,225,219,224,221,232,232,224,242,220,210,216,208,216,217,220,225,228,207,240,221,217,232,215,240,203,229,235,220,240,209,206,209,204,232,208,218,212,216,204,235,239,232,221,225,203,217,223,210,222,209,200,235,223,229,220,238,220,235,219,216,231,236,229,202,216,233,218,231,236,225,226,226,224,200,232,224,237,215,232,201,231,200,232,226,219,220,208,210,205,202,237,217,230,233,203,220,55,56,57,58,58,59,59,60,60,60,60,60,60,60,62,63,63,63,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,60,180,289,220,222,223,235,231,223,217,205,239,222,208,226,208,226,229,223,215,202,216,213,222,238,232,234,239,221,235,236,204,231,208,229,231,218,229,240,233,216,230,205,236,209,217,235,236,210,222,231,228,209,208,226,221,215,221,210,235,213,207,223,234,234,216,214,213,201,216,207,223,200,204,216,201,198,232,197,211,204,219,215,214,229,214,233,204,224,199,219,211,201,236,199,219,215,198,221,230,230,199,206,211,216,216,208,231,224,230,232,231,214,224,213,231,232,203,219,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,334,272,225,226,227,212,242,243,234,231,243,210,216,211,223,233,215,219,233,232,203,238,227,235,234,207,222,213,243,227,220,218,219,210,220,235,235,217,221,242,233,216,215,234,240,214,232,206,242,216,206,219,219,228,221,214,211,241,205,238,216,236,204,203,224,226,213,234,224,230,238,208,218,237,225,232,226,236,225,202,228,224,229,236,201,232,240,229,206,236,209,201,228,216,219,209,220,212,217,215,228,225,209,206,233,233,213,225,212,224,206,218,237,231,221,205,234,222,56,57,58,58,59,60,62,62,62,54,55,55,55,55,55,55,55,55,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,60,452,198,214,212,220,222,210,226,202,202,211,230,195,197,195,198,219,213,216,223,197,197,191,213,212,214,210,189,208,224,213,200,220,200,192,224,213,224,213,187,215,186,194,188,220,194,207,188,212,221,192,221,189,200,198,203,214,221,208,185,214,192,198,208,196,183,195,185,213,202,188,216,203,205,213,195,182,205,187,205,205,196,190,194,211,183,184,184,181,203,196,195,181,200,186,185,203,213,215,193,186,188,216,185,215,201,213,190,217,199,215,180,220,204,200,216,223,205,56,56,57,58,58,59,60,60,60,61,61,61,61,61,61,61,61,61,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,399,200,215,212,198,229,220,224,218,218,209,220,199,218,223,222,207,200,192,205,196,225,223,217,217,206,198,221,226,215,192,192,195,215,223,210,198,188,190,195,196,213,198,213,206,210,196,201,218,220,200,190,220,220,219,221,189,187,211,216,191,198,214,208,214,200,211,208,191,184,207,198,189,218,207,192,190,192,198,185,184,181,191,216,181,207,194,192,219,192,216,209,216,186,219,190,187,198,203,184,182,201,197,187,202,219,187,201,198,214,215,213,197,190,188,201,210,204,55,55,54,50,50,50,51,51,51,51,51,51,51,51,52,52,52,52,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,60,459,194,217,214,230,196,212,231,215,203,196,226,233,202,231,203,215,217,199,201,228,208,204,200,196,203,220,222,228,203,195,201,214,217,225,209,213,204,199,222,206,207,212,206,196,195,195,217,207,196,221,193,206,220,221,188,217,212,201,215,206,195,222,221,207,210,193,195,191,210,207,186,192,199,212,184,192,205,217,183,219,222,207,188,200,195,208,213,202,208,185,213,194,202,192,185,219,204,210,190,218,208,182,220,184,219,192,213,206,203,203,219,192,198,208,215,211,207,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,61,353,208,217,220,221,224,225,201,206,227,209,210,216,234,236,212,205,201,213,190,201,206,215,198,197,207,220,204,206,224,202,231,206,215,210,201,210,196,207,209,217,201,211,205,225,194,220,198,230,222,204,193,199,227,229,225,220,226,215,224,210,200,204,211,220,200,225,201,203,212,220,209,226,220,218,225,194,221,198,192,204,191,201,225,211,214,221,209,205,204,195,226,221,215,222,214,224,226,201,193,212,202,206,194,192,219,215,227,199,190,226,210,226,192,192,201,213,209,56,56,56,57,58,58,59,59,60,60,60,61,61,61,61,61,61,62,62,62,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,209,245,215,218,216,228,213,226,237,200,204,211,200,206,200,199,205,230,226,204,217,211,203,217,197,214,197,203,217,206,230,204,220,196,204,193,198,222,208,189,224,204,205,195,200,206,190,207,198,207,217,199,218,228,227,197,229,226,222,209,200,227,193,202,189,202,208,223,223,225,204,201,203,198,216,227,206,221,198,226,212,223,215,196,204,195,194,213,202,214,192,217,191,225,201,204,220,208,199,190,197,218,212,200,213,217,200,205,213,200,220,215,202,219,196,220,199,207,56,57,56,53,53,54,54,54,54,55,55,55,55,55,55,55,56,56,56,56,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,60,206,265,217,222,239,215,218,211,210,204,226,226,215,206,209,223,210,220,211,212,205,233,218,233,200,222,211,236,201,229,210,210,218,203,234,237,233,208,213,212,219,221,201,208,199,194,208,228,206,202,228,201,221,224,195,212,224,195,204,228,215,224,201,196,228,230,202,202,219,227,211,206,225,192,200,230,203,200,214,221,192,213,203,199,192,226,210,210,195,225,212,196,228,200,228,226,211,204,229,195,213,218,216,202,211,213,229,196,202,210,209,210,207,203,197,218,206,211,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,60,64,272,210,208,208,189,221,215,199,225,196,208,214,201,197,208,187,219,202,193,203,215,205,221,183,183,221,218,206,182,197,205,207,182,211,212,207,194,195,201,194,212,209,186,180,204,193,190,195,194,186,190,191,180,205,181,180,180,200,194,206,194,209,175,211,193,198,194,205,183,180,210,188,208,203,176,202,175,186,185,184,185,180,200,181,189,190,171,172,179,202,177,205,204,199,194,197,186,204,198,191,172,181,203,186,195,189,171,193,173,178,170,196,190,208,196,185,190,55,54,54,55,56,56,57,57,57,58,58,58,58,59,59,59,59,59,59,59,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,60,64,326,206,210,209,199,209,204,197,227,190,217,196,198,220,202,206,196,204,204,188,208,207,188,189,190,223,198,223,199,197,211,216,201,219,206,186,211,184,210,203,189,182,212,201,189,179,218,196,185,203,202,214,208,192,193,176,186,197,202,189,209,196,177,200,176,201,184,181,194,214,200,186,206,209,197,184,203,178,182,173,189,187,173,209,200,209,176,174,181,195,206,188,191,208,192,176,183,195,174,197,194,183,190,200,211,199,199,205,196,181,208,211,189,180,200,178,192,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,35,299,212,209,209,189,205,224,194,190,207,226,210,212,216,223,204,188,211,192,217,212,191,207,218,217,190,184,218,216,195,194,203,189,200,185,223,194,200,207,185,216,193,206,179,184,198,210,197,198,180,195,208,211,180,196,191,195,201,206,206,205,179,211,214,193,182,191,206,214,178,179,187,198,200,182,172,178,189,197,175,210,199,184,184,199,200,208,203,176,197,176,209,205,201,193,200,192,174,194,189,183,196,173,183,204,173,178,201,206,182,195,195,179,193,172,193,188,188,54,55,55,56,56,54,54,56,56,56,56,57,57,57,57,57,56,56,56,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,44,61,380,200,209,208,224,217,212,219,215,211,226,187,194,188,220,187,202,191,196,186,208,210,197,201,216,191,206,207,218,220,198,182,210,190,187,203,181,185,186,182,211,209,184,201,210,212,183,201,183,205,194,186,210,176,176,190,186,176,189,186,211,178,194,175,209,211,197,190,178,178,205,184,183,187,182,191,200,171,203,202,200,199,207,173,197,185,180,205,192,187,187,189,202,200,173,174,177,208,181,186,174,182,199,177,205,201,207,200,204,199,169,171,178,209,207,203,184,189,55,55,55,56,57,57,58,58,59,59,59,59,59,60,59,60,60,58,58,58,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,44,62,371,222,205,206,211,188,221,207,204,189,198,194,221,211,195,219,203,202,218,196,185,192,207,183,202,217,189,191,190,183,197,210,204,216,184,182,201,193,204,181,186,202,182,188,192,190,180,208,206,193,194,206,203,184,189,198,186,204,171,183,173,209,187,175,177,176,197,173,186,204,171,178,202,192,191,199,203,173,173,198,194,204,196,169,188,203,172,202,192,172,169,188,190,183,196,183,191,196,201,201,177,181,205,194,189,178,182,185,186,169,192,173,170,202,186,202,206,188,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,392,208,205,207,193,225,225,214,218,199,191,201,216,215,196,214,186,217,213,178,196,189,188,219,212,192,202,195,202,211,214,216,218,180,207,202,201,185,202,186,196,210,189,180,211,183,175,203,185,176,201,183,194,185,182,194,192,196,184,188,198,196,201,197,180,198,194,207,208,207,184,188,189,175,190,202,175,184,186,195,176,174,206,198,188,188,206,200,180,170,186,178,168,178,181,196,176,190,202,194,171,172,201,194,196,200,198,181,203,185,191,184,179,171,194,207,184,188,55,55,56,54,52,53,53,53,54,54,54,54,54,54,54,55,55,55,55,55,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,56,30,275,215,217,216,219,207,214,198,210,217,197,205,198,220,210,225,233,235,200,213,209,228,213,197,228,229,203,200,216,223,227,230,212,211,195,222,205,200,233,209,233,225,230,211,214,194,203,198,194,230,199,209,215,213,217,229,220,195,210,210,221,196,224,207,195,222,227,193,207,201,214,223,217,219,195,218,200,210,228,199,223,207,219,205,222,226,228,191,219,190,229,222,221,228,212,215,224,209,213,198,218,194,223,204,198,211,210,199,210,210,208,204,232,223,212,56,56,56,57,57,58,58,59,59,60,60,60,60,60,60,60,60,60,58,54,54,54,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,160,309,212,214,212,198,199,214,227,200,223,227,225,225,218,222,219,233,209,217,226,198,219,209,197,212,224,194,210,209,215,222,203,212,207,225,206,211,222,194,214,217,229,198,193,216,196,216,191,207,221,207,204,209,210,199,228,224,216,220,198,197,190,202,191,213,214,204,221,210,213,197,212,220,215,200,214,199,217,210,194,195,195,219,226,203,188,210,191,226,207,192,209,195,203,225,199,191,190,198,214,198,197,196,192,223,190,200,224,206,206,219,217,221,192,209,54,54,54,55,56,56,55,54,54,54,55,55,55,55,55,55,55,55,55,55,55,55,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,57,163,266,215,216,215,209,197,222,232,232,232,198,209,232,195,216,219,231,197,206,203,224,226,195,213,205,197,199,195,202,209,223,213,198,208,227,203,214,226,225,198,195,200,209,213,217,211,212,208,199,202,221,207,216,200,193,202,194,202,196,229,197,227,207,218,230,226,201,198,193,224,219,200,216,217,213,196,206,222,217,218,200,212,222,228,196,199,204,204,208,192,193,216,198,197,213,201,197,201,220,204,214,223,206,202,204,222,228,210,204,212,211,228,221,213,194,194,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,61,517,221,222,220,205,231,238,202,213,205,206,231,208,217,238,209,214,221,235,215,224,215,231,230,217,201,228,220,208,228,202,226,200,230,230,211,224,210,236,206,234,204,202,218,199,223,219,227,227,217,200,212,231,212,200,204,214,227,222,236,221,221,203,217,213,229,222,209,200,215,218,224,201,197,231,230,221,201,209,218,206,224,213,211,200,230,196,222,209,209,227,231,211,209,202,212,203,201,226,201,212,226,223,221,220,197,213,220,229,202,234,219,210,228,226,221,219,57,57,57,57,58,58,59,59,60,60,61,61,61,61,62,62,62,62,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,474,201,221,218,218,204,199,211,205,199,200,210,227,233,237,233,234,213,211,202,215,202,229,233,224,226,223,216,220,211,199,235,233,213,234,202,216,197,212,205,218,234,221,235,204,197,211,233,232,226,223,233,196,210,219,209,207,206,225,222,215,206,233,221,218,197,198,199,229,225,211,215,232,218,221,221,197,230,206,227,223,219,197,204,202,215,194,198,231,199,225,196,229,207,194,229,211,195,223,224,203,198,212,223,202,210,208,218,206,195,200,202,232,228,216,228,216,56,56,54,52,53,53,54,54,54,54,54,55,55,55,56,55,55,55,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,61,512,213,219,218,207,199,203,217,207,209,199,202,236,204,230,227,223,214,215,212,193,204,230,199,217,227,235,202,207,199,212,216,236,235,235,234,204,211,222,209,223,224,210,197,208,205,215,215,199,231,207,198,227,230,200,201,212,207,232,229,212,217,202,204,228,196,227,232,224,208,203,229,201,214,222,195,217,230,198,232,223,195,225,231,196,207,233,231,221,193,212,202,204,210,197,226,222,194,214,231,201,230,212,231,208,225,197,203,200,233,231,211,220,211,207,223,217,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,60,438,198,213,214,218,205,198,228,205,205,218,209,220,217,215,205,221,216,209,217,218,193,222,227,197,196,198,210,216,207,228,196,197,226,212,227,219,225,218,201,219,217,225,208,227,206,210,197,218,202,199,214,219,202,224,223,211,228,225,205,222,207,228,215,198,227,210,220,211,212,214,194,210,209,212,201,202,205,224,225,192,192,216,218,212,209,206,212,222,215,206,212,194,208,198,229,201,210,220,189,216,190,219,212,221,227,194,226,191,230,191,197,227,216,228,227,211,57,56,57,58,59,59,60,60,60,61,61,61,61,61,61,59,59,59,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,423,217,212,214,220,230,228,197,205,196,208,222,207,199,230,223,210,218,213,220,197,206,199,219,212,231,202,228,193,200,201,204,219,209,207,218,213,195,217,202,202,208,223,220,207,204,208,196,208,204,224,224,228,198,227,219,201,207,199,224,216,196,220,225,225,223,210,208,228,213,224,219,229,217,199,193,217,192,219,191,197,222,227,223,196,206,226,203,196,210,213,201,227,215,224,208,205,194,204,201,214,193,218,209,221,229,225,223,191,204,220,228,207,203,209,217,211,57,57,57,58,59,60,61,61,61,53,53,53,53,54,54,54,54,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,60,401,212,211,213,224,228,215,226,193,203,209,204,199,202,193,194,191,204,192,199,216,213,196,231,223,218,195,216,227,196,217,201,209,217,194,192,207,215,196,220,226,194,203,211,212,210,206,192,217,230,214,222,203,208,214,200,200,218,211,202,203,229,209,199,217,218,220,203,223,226,192,193,211,219,209,191,229,219,221,191,228,198,223,205,211,199,223,206,191,212,205,219,219,191,229,198,216,203,195,215,200,225,216,217,201,227,221,206,213,192,201,192,221,202,202,210,212,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,55,31,296,208,209,209,224,210,220,187,187,218,195,214,207,219,225,206,204,207,193,226,227,213,202,204,227,218,192,199,199,221,190,223,194,210,222,190,223,195,217,209,221,203,225,218,202,219,189,225,194,227,214,227,219,216,223,214,217,215,227,219,215,207,208,192,213,201,196,202,197,188,222,225,192,225,227,196,225,219,190,194,214,192,198,196,187,211,206,192,196,189,216,213,203,199,188,220,191,200,200,221,209,190,216,209,218,226,195,223,195,192,214,204,205,219,203,222,197,210,56,56,56,57,58,59,59,59,60,60,60,61,61,61,61,62,63,63,63,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,364,220,207,208,206,209,200,212,204,187,213,216,208,189,200,199,191,224,195,200,203,201,225,196,221,214,196,219,223,219,211,197,196,193,194,194,191,196,209,219,225,191,202,212,223,209,212,197,199,201,209,187,221,214,222,194,203,202,188,190,188,222,199,199,191,191,212,195,196,207,190,220,209,203,219,195,188,207,205,204,204,217,191,220,207,189,210,207,215,198,223,204,209,205,211,186,223,201,185,207,203,212,188,207,195,209,220,212,200,215,197,200,222,189,225,191,217,208,56,57,57,58,59,60,62,60,59,59,59,60,60,60,60,60,60,60,60,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,56,28,439,212,208,208,191,195,201,217,190,224,219,211,188,223,203,198,196,206,213,189,216,226,222,212,209,216,214,210,222,189,224,209,203,199,204,221,200,223,221,205,207,191,216,208,215,218,212,214,196,212,191,191,220,215,187,215,198,217,199,225,224,198,191,222,198,205,192,196,218,193,221,191,218,200,222,214,192,225,209,189,198,197,187,192,200,198,210,213,198,218,198,210,217,197,191,195,201,193,211,211,195,212,197,222,186,206,212,198,218,217,200,204,204,193,227,208,222,210,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,59,441,228,216,217,231,212,228,209,211,231,232,219,203,217,212,214,227,220,228,220,228,211,205,210,214,231,202,207,193,196,231,201,217,225,229,228,212,197,191,196,190,223,194,194,201,218,224,198,194,227,205,221,203,212,218,213,208,190,220,194,189,194,212,185,217,192,214,193,219,198,187,214,210,200,212,200,220,198,204,186,215,215,199,210,211,186,193,191,187,209,186,212,199,209,202,195,212,202,195,198,221,196,200,209,203,209,205,185,194,213,216,224,188,199,216,191,204,55,56,57,58,58,59,59,60,60,60,60,60,60,60,60,60,61,61,61,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,495,223,218,218,226,214,203,200,216,225,200,226,204,217,200,213,203,228,206,201,211,224,215,197,213,231,222,198,227,212,223,213,208,201,198,224,197,204,189,194,218,220,212,230,213,203,213,196,199,193,215,225,229,223,196,219,194,186,202,206,212,221,209,219,194,196,201,196,222,218,215,188,192,193,213,188,209,213,200,222,198,216,189,204,204,187,209,220,221,201,194,186,194,191,201,193,205,223,192,184,214,185,202,221,224,210,195,207,209,196,218,224,204,198,220,204,206,56,57,59,59,59,52,53,53,53,53,53,53,53,53,53,53,53,53,53,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,60,380,214,221,219,197,217,215,198,216,208,206,222,209,209,233,237,228,226,238,190,228,230,216,227,202,218,211,229,199,211,219,225,214,199,197,205,235,208,207,212,204,217,199,216,197,223,223,222,215,225,196,214,203,215,200,222,209,201,210,203,211,191,220,193,210,205,190,215,218,218,225,190,187,211,198,196,195,211,197,216,203,188,194,214,224,223,195,204,212,213,192,189,196,213,210,219,213,192,216,222,214,210,205,219,200,212,216,187,187,222,204,203,209,210,209,201,207,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,37,55,299,223,212,212,196,225,218,204,213,225,193,198,222,203,207,194,213,229,216,226,203,203,221,197,227,224,222,202,191,198,195,191,191,218,214,208,207,204,210,213,220,214,202,225,201,225,202,198,190,207,224,223,206,208,215,206,181,207,191,189,183,206,207,204,211,185,211,208,209,197,209,182,220,184,209,198,189,211,205,210,192,204,198,181,202,210,188,190,190,217,187,210,208,215,184,214,218,201,203,184,210,211,197,183,205,206,218,184,182,212,190,202,191,219,200,211,206,204,55,56,57,58,58,59,59,59,60,60,60,61,61,61,61,62,62,62,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,338,216,214,213,199,197,223,222,205,206,217,227,205,224,214,227,197,212,192,217,227,230,222,192,215,195,221,221,201,198,192,220,218,201,211,222,229,211,205,202,220,196,203,197,194,212,227,194,217,203,225,219,225,225,216,223,201,184,193,212,211,215,192,198,190,185,222,208,216,196,185,184,183,200,195,208,203,185,213,199,220,197,221,205,182,204,215,188,184,208,210,218,203,182,190,182,190,182,216,199,190,193,207,189,221,203,195,193,218,195,217,220,208,208,206,217,219,204,55,55,54,51,52,52,52,53,53,53,53,53,53,53,53,53,53,53,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,36,55,296,222,213,211,198,231,211,212,220,211,207,218,210,217,205,197,210,203,196,206,214,227,201,223,205,197,197,208,226,216,207,198,212,225,218,219,203,227,199,192,212,201,190,211,223,209,188,194,211,187,216,200,187,214,203,187,214,202,194,216,207,219,191,217,200,222,199,201,196,200,217,186,220,199,205,202,220,217,210,195,207,202,199,184,204,220,189,201,194,186,182,204,192,205,201,204,191,194,218,217,217,200,184,201,202,199,217,199,210,204,217,220,185,204,219,214,222,204,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,61,421,219,216,218,202,222,226,226,210,221,214,215,205,219,205,207,234,235,203,228,225,225,230,204,213,218,226,233,200,208,237,233,203,223,235,217,210,221,223,214,237,234,204,213,234,235,203,235,197,226,224,222,196,216,226,196,200,205,219,214,203,210,222,210,225,208,197,225,201,230,211,218,223,229,197,199,204,225,226,195,215,220,222,210,220,224,230,207,214,227,202,221,195,195,215,209,220,198,196,218,218,196,194,205,209,195,213,194,219,216,206,193,200,217,235,205,203,206,218,56,56,58,58,59,59,60,60,60,61,61,61,61,61,61,62,61,56,58,58,58,58,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,393,213,217,218,233,220,209,222,218,235,200,217,213,214,229,217,210,229,209,211,235,209,218,203,214,213,207,234,231,224,212,211,214,230,205,225,217,232,199,214,206,236,198,204,199,228,212,216,235,203,220,234,222,222,218,232,232,234,216,234,219,202,205,206,214,204,202,226,200,206,203,220,199,208,222,197,217,226,215,220,200,211,221,233,216,232,202,221,222,199,232,215,225,216,205,203,205,221,198,210,232,220,223,195,195,219,203,223,218,202,202,205,214,216,203,204,216,220,217,56,53,54,55,55,56,56,57,57,57,57,57,57,57,57,58,58,58,58,58,58,58,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,61,393,201,219,218,217,212,210,215,202,209,216,212,234,203,199,203,215,205,217,199,208,198,230,225,204,207,234,213,208,212,205,208,208,197,207,196,222,203,205,231,205,224,210,206,213,217,201,226,212,204,200,224,214,215,212,231,232,230,213,218,211,232,225,199,206,211,214,217,206,229,220,206,213,221,222,227,199,220,212,210,208,201,204,212,225,195,222,192,203,202,206,197,221,229,214,222,213,215,220,208,218,225,217,192,227,207,194,216,228,226,229,231,207,221,206,219,231,235,216,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,4,61,332,222,215,215,206,227,202,206,202,224,219,224,216,199,206,201,231,211,234,197,234,222,221,203,228,212,226,218,228,217,202,211,227,229,220,229,203,232,223,211,228,232,208,210,219,233,231,196,230,215,208,214,226,215,200,194,213,194,219,228,216,198,219,206,214,204,224,231,216,202,217,197,223,221,209,206,229,224,204,217,217,194,212,194,220,206,208,223,219,215,204,189,214,192,205,225,203,227,214,219,202,223,213,224,223,191,198,222,216,200,193,230,227,211,210,57,57,58,59,60,60,61,61,62,62,62,62,62,62,62,62,62,62,62,62,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,328,224,215,214,196,209,213,222,211,209,210,228,228,205,210,198,224,195,194,200,231,220,218,229,202,197,218,227,195,218,204,212,230,228,224,216,213,224,199,205,206,198,195,220,232,215,202,217,231,217,198,204,199,227,223,224,200,211,219,217,215,219,206,194,210,200,225,191,217,205,204,204,193,196,210,219,209,207,217,203,219,190,191,211,192,198,202,220,219,212,213,220,201,228,192,203,226,205,225,194,192,196,198,189,226,223,218,191,217,191,207,226,197,225,210,55,55,57,57,54,54,54,54,54,55,54,55,55,55,55,55,55,55,55,55,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,62,320,219,218,217,215,223,207,197,198,214,221,224,213,208,198,203,204,220,199,199,208,203,199,233,220,234,211,232,204,220,221,213,201,198,208,202,200,217,230,209,196,233,232,208,220,215,215,217,227,194,225,206,197,202,197,223,212,216,215,231,217,212,215,200,223,209,225,214,222,212,220,226,206,194,210,201,200,226,223,198,203,201,199,214,208,195,219,213,221,209,225,194,212,212,211,200,223,198,199,196,223,190,205,198,215,196,192,203,226,217,209,193,196,229,210,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,59,30,256,211,210,208,227,218,220,198,217,189,214,224,192,216,213,209,198,202,206,204,203,204,218,184,200,187,217,212,211,196,202,205,218,223,223,186,198,198,192,184,214,189,202,196,186,209,186,205,195,208,201,214,207,191,192,202,198,214,219,188,197,195,202,218,203,187,200,179,187,180,194,204,211,218,189,203,183,218,195,215,189,216,215,199,215,193,194,184,212,192,201,188,211,210,198,217,203,211,218,190,197,191,206,193,192,194,217,194,219,189,212,198,230,211,210,57,57,57,58,58,59,60,60,61,61,61,62,62,62,62,63,63,57,58,58,58,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,21,308,206,211,207,203,193,203,209,193,190,193,219,219,193,227,221,208,223,200,190,217,207,195,195,224,225,200,195,220,202,221,211,188,217,195,200,204,200,183,210,190,218,207,198,218,205,197,189,210,183,191,193,183,210,213,204,198,185,198,218,193,202,189,210,193,217,201,200,206,190,194,185,186,184,192,202,199,199,183,193,192,189,209,216,220,202,183,209,195,191,213,184,213,204,218,214,193,215,197,193,199,203,216,198,220,195,196,218,196,201,221,214,214,219,207,57,56,57,58,58,61,59,56,57,57,57,57,57,58,58,57,58,58,59,59,59,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,61,56,286,211,212,209,195,206,219,213,224,213,229,213,213,223,198,222,192,193,184,192,204,194,220,213,199,207,206,195,200,199,192,204,223,193,187,197,216,208,204,183,212,212,213,200,221,194,191,209,219,203,199,190,205,185,184,190,219,220,200,188,216,219,204,198,199,208,189,195,191,199,187,206,194,201,214,212,204,213,213,195,209,192,211,221,198,215,205,205,190,212,185,206,215,205,212,197,187,225,209,208,213,222,207,211,227,207,206,193,193,198,202,229,194,229,211,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,59,0,302,210,207,206,189,193,200,222,204,216,203,208,189,189,193,208,205,216,196,204,191,207,194,207,201,213,222,197,199,203,206,218,191,200,214,205,214,191,210,193,189,213,193,205,208,184,205,182,191,185,189,201,201,202,195,204,217,184,181,196,195,205,182,195,195,194,202,205,190,208,181,198,200,193,186,194,213,196,211,192,219,194,214,189,201,207,193,209,213,212,216,208,212,181,200,193,196,202,195,220,217,192,201,202,207,193,217,196,191,212,193,212,195,218,223,224,209,56,56,57,58,58,59,59,59,60,60,60,60,61,61,60,61,61,61,61,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,302,213,207,206,205,217,192,185,219,215,222,190,188,220,222,185,193,221,188,173,189,208,193,198,193,182,185,208,195,199,190,188,192,210,200,216,211,184,181,216,190,202,215,200,213,201,207,188,192,200,191,194,212,183,216,204,199,188,214,214,197,189,205,202,200,199,183,179,208,213,186,205,186,200,209,206,199,178,216,216,183,196,215,200,203,193,190,215,202,179,216,195,195,181,209,212,199,217,207,208,184,210,195,214,182,193,220,191,201,185,214,203,206,208,197,199,205,55,54,55,56,57,52,52,52,53,53,53,53,53,53,53,54,54,54,54,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,60,0,259,215,209,209,201,197,217,192,212,213,193,204,201,223,198,188,194,227,218,176,189,210,207,189,206,202,189,193,201,188,215,217,197,206,220,221,208,199,195,194,194,193,184,203,195,213,205,210,216,202,204,180,191,191,182,193,189,181,202,214,203,196,193,217,201,192,196,197,187,185,199,213,191,199,205,185,214,185,212,189,183,187,185,183,220,204,191,197,197,193,184,215,213,198,182,204,191,210,209,214,206,212,210,198,215,192,211,212,191,224,213,194,192,196,204,194,211,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,59,337,200,197,196,198,183,202,177,204,198,190,204,200,197,204,196,205,188,201,191,176,179,194,181,212,207,201,176,192,190,202,188,195,183,214,205,212,198,183,211,185,202,188,185,209,196,204,193,207,180,207,180,188,208,178,184,191,174,180,181,185,185,196,207,197,185,194,185,187,184,187,178,169,173,208,174,179,181,210,175,177,188,180,193,183,201,200,173,201,179,182,199,201,176,189,191,180,207,184,202,205,205,191,212,184,183,181,206,195,177,184,205,204,211,214,216,186,200,57,56,57,58,59,59,60,60,60,61,61,61,61,58,58,58,58,59,59,59,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,365,211,195,194,187,197,193,199,176,207,199,179,189,186,182,196,175,193,193,201,196,187,194,212,192,179,213,213,178,202,193,200,199,174,203,180,196,186,172,210,173,204,200,205,187,177,189,184,202,179,191,198,175,200,185,206,196,199,202,182,201,170,169,181,182,179,181,202,176,177,172,203,174,190,206,194,180,201,184,182,171,202,199,199,189,201,209,181,192,180,185,183,194,170,190,170,213,176,204,181,180,208,200,208,182,213,188,183,191,191,200,213,187,204,204,184,191,198,56,55,56,55,54,54,54,54,55,55,55,55,55,55,55,55,56,56,56,56,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,59,366,203,197,195,211,184,195,191,205,215,214,193,187,179,180,190,175,211,177,190,178,204,177,175,210,195,199,185,208,204,176,195,204,174,207,195,199,193,183,177,188,199,176,209,194,177,180,205,203,175,182,184,178,202,174,184,197,197,174,200,202,193,208,197,173,177,190,177,175,192,174,194,179,184,179,195,190,202,197,189,205,191,207,201,188,176,198,199,208,172,194,192,202,179,191,177,184,202,185,211,185,196,186,204,190,191,210,215,201,206,186,197,186,193,186,200,187,200,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,57,169,232,198,204,198,209,192,184,200,203,194,190,214,203,206,201,195,201,206,177,183,221,205,182,204,194,202,188,202,200,194,189,184,190,190,212,213,203,191,189,210,184,208,200,185,189,179,213,206,186,212,184,208,203,212,182,181,205,200,201,205,186,197,212,190,180,211,196,182,184,199,177,201,212,208,212,205,184,181,211,198,215,198,214,204,178,181,198,210,178,191,191,207,210,210,193,209,194,204,199,190,213,203,215,219,184,184,190,197,200,203,183,197,199,55,56,57,58,59,59,59,59,59,59,60,60,60,60,61,62,57,57,57,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,2,267,249,200,205,199,191,220,183,190,205,218,216,220,188,208,220,214,197,208,186,207,205,218,205,200,204,218,197,188,217,194,209,209,207,184,184,195,193,219,194,207,186,193,199,184,208,184,190,184,214,203,192,183,213,202,181,178,182,197,187,206,214,184,198,195,202,190,200,215,184,215,195,190,209,190,209,181,196,197,181,213,217,190,187,191,213,196,219,198,199,218,205,194,191,207,213,194,196,218,209,188,202,188,196,189,203,203,202,211,191,219,209,213,203,57,58,59,55,55,55,55,55,55,55,55,55,55,55,55,55,55,55,55,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,57,324,193,200,203,199,188,217,212,188,215,188,204,213,202,206,213,222,197,214,217,190,213,184,186,190,214,200,215,217,195,213,209,192,207,203,210,203,198,208,188,201,200,205,208,182,187,207,206,213,216,196,191,193,187,200,182,184,213,198,214,194,211,206,206,184,176,205,183,194,196,213,186,208,185,178,178,205,206,208,198,200,202,183,183,209,188,184,192,188,204,196,210,200,210,184,194,194,200,195,207,205,204,186,206,210,184,194,211,200,203,207,193,187,194,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,58,294,210,204,204,198,194,194,202,186,211,185,210,209,216,208,202,200,203,203,177,213,215,210,201,203,200,217,189,191,185,208,203,208,212,198,198,199,188,198,185,196,213,218,191,209,210,217,190,186,203,185,212,200,213,183,218,190,209,194,208,218,196,211,203,183,215,215,211,208,220,215,195,214,199,211,193,219,186,204,197,205,210,225,225,207,194,224,201,225,221,222,211,199,198,223,192,208,205,216,213,229,202,215,217,197,210,217,197,199,199,208,224,201,218,213,57,57,59,59,60,61,61,61,61,62,62,62,62,62,62,62,62,62,62,62,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,332,210,203,201,197,184,215,216,214,194,200,194,208,191,218,211,206,186,208,205,193,199,189,190,220,217,204,196,187,213,192,207,187,201,186,181,218,183,199,208,199,193,198,189,212,182,218,211,199,188,214,188,206,180,188,214,183,212,190,194,193,218,185,181,186,216,217,204,212,196,211,189,180,200,186,199,195,191,194,193,185,204,192,206,205,215,202,221,217,207,184,184,220,217,183,203,204,191,192,223,212,223,193,213,195,201,212,200,193,215,220,209,215,192,209,55,55,56,57,58,58,58,57,57,58,58,58,58,58,58,58,58,58,58,58,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,58,279,218,206,205,200,186,183,215,193,193,183,191,200,212,194,194,223,187,223,189,221,207,190,196,184,199,205,202,213,219,202,213,186,218,202,201,209,209,209,187,202,187,211,193,188,211,213,219,206,189,202,196,182,202,209,217,183,215,219,189,191,214,212,198,220,192,221,216,193,190,215,222,202,218,209,188,199,222,223,197,209,191,188,190,195,203,212,226,203,218,192,189,192,212,212,206,220,225,208,221,214,195,193,219,230,229,209,201,205,201,201,196,200,217,214,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,56,327,200,197,201,203,179,218,202,186,208,183,180,194,186,195,215,200,211,196,202,207,207,215,219,218,218,191,215,186,187,178,178,193,208,213,202,210,207,204,198,189,213,196,217,181,181,205,184,210,217,184,215,205,209,192,196,192,184,204,199,205,203,187,205,181,190,203,190,198,185,200,180,184,194,218,210,206,206,211,201,221,190,202,216,224,186,205,187,208,187,203,214,216,198,187,209,227,191,224,200,208,190,198,204,219,225,199,200,193,209,191,194,206,218,210,212,56,56,57,58,59,59,59,60,60,60,61,61,60,61,61,61,63,63,63,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,229,232,197,201,191,213,209,216,200,193,195,193,214,198,196,185,183,216,201,206,195,196,216,204,194,205,191,200,178,204,192,206,180,208,179,189,213,209,189,179,185,193,200,213,210,215,200,184,205,213,204,195,212,196,201,187,202,203,211,191,185,211,186,184,209,206,191,201,196,206,184,183,204,201,200,214,192,195,205,211,188,216,188,197,199,213,221,220,189,204,192,187,201,212,191,206,202,196,206,193,189,209,192,217,191,210,192,220,191,208,215,217,218,214,212,208,56,56,57,59,62,55,55,56,56,56,56,56,56,56,57,56,56,56,56,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,57,333,208,199,204,202,204,215,190,215,204,213,213,185,194,204,210,182,215,217,191,191,196,210,188,214,185,208,217,202,192,219,187,183,199,188,196,216,196,203,200,205,216,195,185,196,219,194,210,207,182,190,192,201,186,187,211,184,216,199,201,195,187,201,211,199,205,211,204,218,197,215,219,194,213,213,216,188,198,201,213,207,215,219,193,223,188,191,225,200,211,213,211,193,209,191,228,202,226,211,230,206,207,225,219,207,231,209,223,208,221,215,227,201,196,197,213,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,61,62,403,207,224,224,206,234,213,207,209,235,223,220,231,238,237,223,239,231,213,222,216,213,223,214,220,209,229,237,213,232,202,225,212,231,224,202,231,230,218,199,227,235,216,210,208,229,200,227,217,214,223,223,212,200,213,198,219,227,223,200,202,217,219,214,208,227,213,217,221,222,227,223,224,223,207,213,204,232,220,228,214,215,216,206,201,211,220,229,227,227,232,222,224,210,232,228,221,206,195,220,207,195,218,198,231,206,217,211,218,227,195,235,231,208,207,198,216,55,56,56,57,58,58,59,59,60,60,60,60,60,60,61,61,62,62,62,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,60,61,462,224,225,224,206,209,233,203,222,238,213,237,234,238,234,241,212,205,241,223,204,239,227,218,205,238,202,230,241,233,219,234,238,227,233,233,228,204,240,226,230,214,233,221,201,210,235,221,211,205,200,238,237,233,224,234,204,201,206,218,232,224,213,220,200,233,213,214,228,206,231,233,212,231,227,233,223,209,227,220,236,218,231,226,202,198,233,210,201,227,203,215,204,206,211,223,213,202,211,225,230,233,209,233,230,212,198,198,216,217,235,219,227,209,235,228,217,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,550,225,228,227,219,215,209,229,230,242,204,233,237,204,221,207,235,224,243,230,233,237,229,213,231,220,218,221,223,208,203,215,208,220,216,227,232,211,208,206,224,207,223,203,212,214,207,232,222,204,233,212,225,227,231,223,208,209,237,202,207,231,220,203,209,212,221,236,230,232,226,226,238,212,208,207,236,203,212,223,217,227,223,209,234,218,231,231,216,233,215,224,228,225,203,200,225,227,218,227,216,206,227,198,216,231,208,222,214,198,209,225,233,220,208,200,219,57,57,58,58,59,60,60,60,59,59,59,59,60,60,60,60,61,61,61,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,56,381,205,204,203,195,189,217,208,216,186,219,205,199,184,185,207,218,200,207,199,206,193,202,191,219,197,211,203,184,182,206,209,193,193,212,185,209,191,179,207,189,201,187,204,203,182,179,184,194,197,185,204,177,207,215,184,199,182,202,183,207,207,196,204,212,190,187,199,177,175,190,193,176,177,205,205,213,199,189,190,183,175,208,183,193,196,199,196,199,176,195,202,179,189,207,183,210,184,179,181,184,182,207,209,187,198,206,191,212,187,202,179,180,181,214,201,189,199,56,55,56,57,58,58,59,59,59,59,60,60,60,60,60,60,60,61,61,61,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,441,211,205,203,207,212,184,207,185,200,195,192,191,221,223,201,215,197,186,187,190,211,197,200,216,190,194,218,202,197,186,208,199,196,207,185,195,197,197,207,205,196,201,182,198,192,207,207,214,213,201,210,214,197,212,208,190,209,177,198,176,192,207,208,190,185,194,196,214,213,183,202,175,211,208,182,204,204,186,174,186,182,183,175,210,175,199,198,206,193,206,203,195,173,206,195,203,181,178,184,177,190,192,208,194,200,209,184,216,187,214,181,181,191,192,197,206,193,193,55,56,58,60,55,54,54,55,55,55,55,55,55,55,55,55,54,54,54,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,58,363,195,205,204,183,204,185,187,194,207,214,186,207,214,211,194,213,192,187,190,208,192,208,191,216,215,205,202,185,212,209,209,192,220,202,191,215,205,193,205,182,190,181,200,202,207,177,213,195,213,181,191,183,185,202,195,189,194,197,214,190,179,189,189,186,200,206,180,206,189,193,201,195,182,207,189,197,201,196,175,178,207,184,187,182,207,209,182,184,182,197,181,197,185,199,202,192,182,216,202,209,216,197,188,213,192,214,181,200,180,186,213,187,199,190,211,176,188,188,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,58,316,206,195,195,216,196,191,200,199,198,216,212,188,184,180,178,176,179,205,209,182,203,189,191,186,197,210,183,206,205,179,197,207,187,199,197,191,210,211,200,185,206,185,184,186,209,174,186,177,194,184,209,182,188,178,183,191,174,190,187,212,210,196,204,210,192,204,205,176,179,184,192,181,205,209,184,184,191,179,199,203,185,214,192,211,191,205,201,188,188,211,194,210,207,208,204,215,202,187,210,212,199,187,181,209,191,206,203,207,204,198,214,183,205,219,213,221,201,54,54,55,55,56,56,56,57,57,57,58,58,58,56,56,56,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,59,322,194,196,196,206,201,210,180,215,202,198,205,195,201,183,186,183,202,192,187,215,198,207,179,210,187,188,185,192,189,189,181,214,204,212,204,211,189,196,177,184,207,188,185,203,191,188,194,213,182,207,177,182,208,196,199,181,177,206,180,186,187,207,192,211,211,194,199,212,174,173,200,205,198,212,181,189,188,204,213,188,175,185,196,201,204,198,185,206,179,190,198,194,212,173,176,196,176,194,215,206,186,193,182,181,215,184,214,192,186,181,191,194,185,190,202,185,200,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,308,214,194,195,205,202,193,190,191,208,177,211,182,213,194,176,189,211,180,202,197,190,192,194,203,200,194,202,215,185,202,184,197,197,186,200,205,195,193,198,193,210,177,177,212,210,194,201,187,182,201,176,185,200,185,189,196,203,179,193,187,184,203,200,194,203,187,205,192,177,191,210,199,188,175,210,204,197,177,182,209,177,190,191,187,210,206,189,176,197,203,202,199,209,200,199,201,196,177,197,203,197,181,207,195,193,200,191,203,189,201,179,195,190,191,202,180,199,54,53,50,50,50,50,51,51,51,51,51,51,52,52,52,52,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,57,59,432,200,196,192,189,200,182,182,191,175,187,183,177,175,182,190,185,184,190,192,189,210,197,208,187,176,187,205,185,190,183,190,179,209,185,197,186,175,178,189,203,195,204,188,207,191,196,202,211,211,202,210,180,181,178,174,185,186,192,194,194,204,198,212,216,186,210,205,185,204,194,206,188,202,192,213,200,183,209,205,178,180,194,204,209,195,217,195,198,205,187,186,193,187,215,187,193,199,203,191,182,192,195,185,183,191,211,185,181,198,217,182,196,194,213,179,211,194,54,54,55,55,56,56,57,57,57,58,58,58,58,58,58,61,60,60,60,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,56,57,388,184,196,192,191,196,202,207,211,211,191,174,198,175,179,197,193,182,180,200,181,186,175,180,203,189,205,210,213,181,186,209,174,198,212,199,178,184,208,206,186,179,181,195,198,188,206,185,203,209,194,189,174,204,181,189,182,207,206,187,193,183,214,179,200,211,203,197,213,199,174,177,198,193,179,196,187,197,184,198,186,182,180,181,202,197,215,179,209,201,192,189,210,188,180,190,205,215,212,209,208,185,209,208,205,186,205,220,220,217,209,203,220,183,184,195,187,196,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,384,192,197,194,183,208,213,180,201,200,206,194,205,202,192,177,192,198,213,215,182,212,205,207,192,180,196,210,181,182,178,205,192,195,179,205,181,199,208,211,185,192,176,198,189,188,197,187,193,177,191,199,203,191,200,175,183,204,202,198,218,213,179,212,195,217,189,207,190,205,217,210,206,178,180,193,210,200,212,203,193,195,188,195,191,211,209,185,187,211,184,217,211,181,216,206,198,200,197,197,181,219,198,201,187,209,219,199,202,204,187,195,206,184,202,210,222,55,55,55,57,53,52,52,52,52,53,53,53,53,53,53,53,54,54,54,54,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,59,57,306,206,214,213,225,213,204,210,204,193,197,204,209,225,226,193,210,211,205,233,224,216,213,221,215,202,231,227,217,195,205,222,231,199,202,230,222,197,222,205,227,206,198,202,216,209,198,203,217,201,209,191,192,218,217,218,213,216,199,200,197,221,208,227,225,214,190,200,217,222,208,190,189,190,219,220,219,226,221,190,220,189,198,193,204,208,219,216,223,219,221,191,203,208,224,206,221,226,209,192,227,215,198,222,207,199,231,216,222,198,197,217,216,193,207,212,54,55,56,56,57,58,58,58,58,59,59,59,59,59,59,60,60,60,60,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,57,55,335,215,213,212,195,216,227,219,218,221,190,222,219,212,220,227,209,196,221,199,218,212,226,215,223,206,196,227,209,217,207,198,193,202,216,199,223,215,213,209,216,206,191,190,191,197,198,227,204,213,224,202,197,203,205,222,209,211,195,225,203,207,191,189,205,197,203,204,204,217,199,220,207,204,207,214,223,222,197,207,186,202,201,210,217,219,207,203,218,204,204,193,206,189,205,220,202,221,187,196,193,187,218,192,224,206,221,204,200,208,202,220,203,217,205,210,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,381,221,214,213,208,207,224,206,209,202,192,207,192,228,226,214,231,216,232,219,204,227,213,219,229,192,197,221,217,206,217,219,217,201,211,217,221,203,213,219,216,213,211,211,194,192,228,194,227,208,197,215,197,226,221,221,223,194,226,204,200,221,210,212,224,205,203,201,227,210,192,206,222,211,223,189,211,200,190,198,199,198,190,188,203,191,212,213,207,187,199,225,208,213,202,206,201,196,190,194,214,212,205,214,194,204,193,210,220,225,213,232,215,227,226,211,55,56,57,58,54,55,55,55,55,56,56,56,56,56,56,56,56,56,56,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,32,60,167,275,205,207,204,221,209,196,209,214,199,204,190,211,188,189,195,204,198,199,217,223,218,210,184,205,219,208,192,191,217,215,209,189,192,212,185,217,197,198,188,208,217,203,184,195,210,191,185,205,198,213,200,205,194,210,196,220,184,193,214,199,186,196,214,204,184,199,220,206,187,212,195,207,194,203,185,215,181,205,212,222,194,203,194,191,219,191,196,205,217,205,197,218,212,215,189,221,217,199,219,220,195,202,210,216,225,210,201,213,189,225,192,192,224,227,227,212,209,54,54,55,55,56,56,57,57,58,58,58,58,59,58,59,59,57,57,57,57,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,32,59,290,220,207,206,202,194,223,221,191,196,220,207,204,195,213,185,188,220,206,189,208,183,191,222,220,190,194,211,193,188,213,221,203,210,221,189,218,214,196,202,190,217,196,182,196,197,208,204,199,204,189,202,201,220,187,184,216,198,213,207,192,209,202,207,214,193,207,182,214,213,202,196,192,217,195,211,205,188,214,211,219,206,217,191,189,219,219,184,183,209,192,185,203,210,192,215,207,214,212,203,210,185,192,192,204,198,223,192,214,219,197,204,192,205,192,214,220,195,208,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,232,243,205,206,203,197,212,205,191,186,199,201,199,197,189,221,203,197,206,208,212,219,211,201,209,206,217,221,212,202,192,201,186,187,218,184,187,218,195,200,189,218,207,220,187,215,199,209,190,186,184,210,185,216,208,189,194,181,220,200,206,199,191,197,189,190,183,181,189,191,189,205,218,193,218,205,192,185,199,218,197,202,206,216,211,190,208,195,185,208,190,212,200,221,207,221,208,192,189,217,212,216,202,191,219,186,188,199,215,213,209,192,195,204,223,213,226,216,207,56,56,56,57,56,54,54,55,55,55,55,55,56,56,56,56,56,56,56,56,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,58,53,330,216,209,208,208,228,222,191,223,194,204,212,205,200,223,211,201,196,199,202,217,196,223,229,232,208,225,195,207,219,226,213,215,215,201,228,227,230,229,206,208,226,222,203,208,201,222,202,226,205,219,190,194,199,204,209,194,209,222,219,210,219,190,190,219,202,226,213,212,225,222,200,210,201,208,204,225,201,217,220,214,200,201,194,195,192,186,214,187,222,200,203,209,218,199,192,212,200,186,188,185,194,219,205,192,219,188,206,204,220,217,194,204,194,207,55,54,55,55,56,56,57,57,58,58,58,58,59,59,58,60,60,60,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,59,54,316,213,209,209,201,228,210,223,202,228,217,220,211,200,189,191,205,224,213,200,215,206,229,208,204,219,197,228,211,228,199,195,225,214,227,206,207,209,216,218,195,223,200,198,221,223,205,200,197,193,227,229,206,207,196,218,221,188,217,210,200,201,199,226,219,218,220,207,191,216,203,225,213,187,195,197,205,188,223,220,218,196,188,185,222,202,202,200,191,223,215,222,194,188,220,221,211,195,191,188,198,224,206,222,206,215,197,195,197,209,216,222,192,221,207,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,323,213,213,212,207,206,225,218,222,203,218,220,226,212,201,231,216,208,203,216,215,204,209,206,236,234,229,236,207,214,226,197,222,223,219,221,234,216,233,195,209,202,226,215,222,225,198,228,228,207,210,207,231,230,229,204,210,193,210,211,215,220,199,201,207,202,223,206,211,198,212,192,205,203,229,228,211,225,210,215,227,205,207,194,190,197,196,210,207,213,210,198,208,227,208,201,222,218,198,219,217,208,215,208,219,203,190,201,223,227,214,220,223,212,210,55,55,53,52,52,52,53,53,53,53,54,54,54,54,54,54,54,54,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,58,444,199,217,218,208,194,202,218,228,204,199,213,212,217,225,211,231,215,215,224,206,217,237,225,202,198,220,217,219,228,218,207,228,221,228,201,214,225,215,212,223,211,207,218,231,211,228,196,214,226,235,209,208,224,196,206,202,200,219,206,196,231,203,191,224,205,217,226,210,218,201,204,219,200,205,220,212,191,190,200,213,197,210,191,219,213,195,199,216,219,201,227,209,209,224,200,198,205,187,226,207,189,200,224,212,190,206,224,197,198,206,205,201,213,202,222,211,54,55,55,56,57,57,58,58,58,58,59,58,59,59,60,61,61,56,56,56,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,418,197,216,217,230,192,221,203,209,211,209,214,231,203,219,210,211,230,211,230,230,219,204,214,226,226,216,214,216,198,200,210,229,205,200,210,222,212,217,209,222,199,210,224,230,195,215,198,226,208,195,191,216,220,217,218,199,231,221,191,194,222,225,190,210,211,212,194,204,189,227,196,189,223,200,191,211,215,220,190,215,222,222,218,214,217,212,199,205,194,210,188,208,195,202,208,207,188,219,197,210,187,202,199,192,194,215,227,208,188,223,202,221,203,198,197,209,56,56,59,53,53,54,54,54,54,54,54,54,54,54,54,54,54,55,55,55,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,59,432,192,216,218,208,198,222,231,218,196,209,197,202,208,208,228,206,222,214,204,219,221,223,226,233,217,218,203,218,220,214,235,198,200,221,209,205,220,206,198,205,198,213,209,211,207,206,201,226,224,199,203,216,203,209,224,208,227,219,205,194,220,218,215,196,196,221,211,205,229,220,201,212,229,218,196,227,218,211,213,192,223,222,202,224,191,211,190,191,194,191,200,198,219,225,192,201,199,190,192,206,208,186,207,193,219,219,211,189,186,197,212,226,209,210,228,210,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,56,24,260,203,201,200,195,203,200,199,198,195,185,189,190,190,211,207,196,194,189,181,200,190,200,208,215,216,186,194,188,189,202,195,213,212,189,193,208,195,194,182,206,201,219,203,188,220,212,192,190,187,205,208,220,211,212,214,192,189,194,195,214,217,218,194,191,227,201,209,190,220,226,212,217,199,213,198,213,211,205,207,192,222,220,229,213,207,215,216,209,219,225,198,224,219,221,207,203,204,221,210,204,211,215,213,214,220,211,204,235,203,201,233,233,236,206,239,220,57,57,57,58,59,59,60,60,61,61,61,61,61,61,61,62,62,62,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,10,302,200,200,197,204,211,203,192,189,206,178,216,195,190,185,207,208,186,210,215,213,199,194,183,184,203,183,193,195,196,199,215,204,187,218,201,190,193,199,190,205,192,182,214,208,183,206,185,191,204,192,184,196,183,216,194,192,203,217,201,219,220,222,188,199,220,217,189,185,207,203,185,213,194,204,201,210,226,219,212,215,219,222,215,189,195,187,225,204,220,192,217,194,218,232,214,202,206,192,197,231,220,227,228,199,230,202,199,200,224,210,220,233,219,231,228,219,57,57,58,59,60,62,62,62,53,53,53,53,53,53,53,53,53,53,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,57,29,271,204,200,198,183,209,205,197,183,181,211,210,192,190,182,189,202,199,199,201,187,206,211,206,179,208,190,191,203,183,214,181,197,212,203,200,191,190,183,182,223,218,205,217,197,201,187,196,206,200,214,186,215,191,194,193,212,222,222,215,201,220,226,207,194,195,207,207,196,186,190,202,187,190,218,209,220,198,227,225,218,223,224,227,195,220,220,190,207,208,191,225,208,210,222,216,234,217,201,214,206,206,209,226,203,213,232,197,210,213,206,237,212,229,236,218,219,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,54,13,406,213,219,218,218,224,220,235,224,217,222,232,204,225,209,229,205,227,221,205,238,209,230,216,238,231,228,231,199,219,232,225,203,219,219,215,216,231,203,208,223,208,231,219,216,218,229,204,216,200,212,218,195,214,233,213,200,227,201,215,230,232,221,226,226,205,233,226,207,202,202,206,194,214,213,229,201,211,213,207,209,218,218,220,212,226,217,217,219,223,220,220,204,205,208,215,237,215,212,243,242,237,243,227,208,221,209,239,231,244,209,229,243,237,244,228,56,55,56,56,57,58,58,59,59,59,60,60,60,60,60,62,62,62,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,482,219,218,217,198,234,232,216,201,205,195,210,201,213,215,233,198,216,200,199,203,201,229,205,206,233,206,228,201,231,210,220,224,207,221,209,205,233,198,202,234,198,228,215,233,224,232,199,221,202,209,208,213,217,216,223,203,212,222,221,195,198,200,195,221,221,207,202,199,231,215,196,196,224,214,222,228,234,205,234,234,229,215,222,211,204,222,210,205,221,195,232,212,207,229,207,217,229,224,213,220,208,219,220,216,231,209,240,235,210,223,238,217,241,227,226,57,56,57,58,60,55,54,55,55,55,55,56,56,56,56,56,56,56,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,54,10,399,206,220,219,218,196,217,226,205,196,226,207,234,228,203,221,213,232,213,237,231,202,206,227,203,204,214,235,208,222,233,216,233,229,223,199,232,211,220,205,227,205,202,234,234,222,230,217,223,213,199,231,229,206,227,211,198,213,231,216,213,219,232,216,212,211,231,234,212,219,215,215,210,200,200,215,216,211,232,238,208,214,221,218,219,207,228,217,225,228,224,221,228,223,202,206,224,211,224,240,207,227,228,226,212,242,211,205,226,238,231,245,213,229,238,227,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,57,389,180,191,189,206,174,199,173,180,186,206,199,174,171,185,173,181,179,189,190,181,193,168,181,185,182,197,166,188,169,172,178,201,171,185,193,192,205,188,181,171,198,165,185,201,164,172,196,200,187,172,196,180,178,181,186,170,198,178,176,202,174,167,188,168,170,188,185,198,163,201,200,200,177,188,173,191,169,196,184,178,171,173,192,190,187,168,198,192,204,185,205,170,179,203,198,178,198,185,198,176,211,197,186,212,198,211,209,180,193,179,189,190,217,194,179,210,198,56,56,57,58,58,59,59,60,60,60,60,60,60,60,61,62,62,62,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,413,194,191,190,172,179,169,197,173,184,193,197,191,207,201,169,186,171,190,184,191,189,198,196,200,196,179,193,175,166,174,171,193,178,205,201,200,173,174,190,204,171,171,203,191,196,172,199,172,183,190,173,183,193,194,170,177,167,168,190,194,192,171,182,179,205,193,205,197,185,173,197,179,194,176,194,183,171,202,173,173,187,191,198,202,195,173,194,172,183,188,204,182,193,194,200,181,190,177,186,205,187,203,185,184,196,204,206,175,192,179,193,177,204,209,192,214,197,54,55,56,58,58,58,58,51,51,52,52,52,52,52,52,52,52,52,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,58,462,197,192,189,171,175,179,171,191,185,191,173,189,196,169,199,198,197,182,182,167,170,186,185,197,185,185,167,169,175,184,194,177,203,204,169,180,177,205,185,192,165,202,199,187,181,179,165,178,202,183,194,170,202,197,199,182,183,196,187,182,194,178,174,170,205,193,183,196,184,181,190,192,186,175,185,184,190,186,184,197,179,202,207,193,201,186,199,181,186,191,188,204,177,207,204,199,172,191,177,200,200,175,195,210,213,182,200,182,184,214,208,200,210,202,195,193,198,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,58,443,190,190,189,192,202,181,193,189,182,182,176,170,170,196,179,190,178,168,168,193,193,206,198,182,200,202,182,205,184,201,205,185,192,167,175,184,200,206,171,180,183,204,177,192,185,178,170,196,177,177,191,168,192,205,168,195,198,171,196,174,184,196,198,202,208,176,177,175,191,187,207,194,182,174,209,192,200,207,207,182,210,208,181,185,214,212,210,196,179,216,193,196,188,189,214,214,203,211,183,216,196,186,202,220,208,199,217,220,200,219,184,203,209,208,222,203,55,55,56,57,57,57,58,58,59,59,59,59,60,60,59,61,60,60,60,60,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,412,180,191,190,195,206,204,201,190,192,173,185,184,186,187,184,182,200,181,203,205,177,201,176,187,189,191,206,203,197,168,204,203,195,174,190,186,206,191,169,189,196,202,181,193,209,178,183,175,172,180,170,193,189,175,193,204,176,177,192,181,181,199,183,208,199,176,191,211,189,174,198,176,181,202,208,191,188,192,212,198,210,186,205,214,185,189,196,182,202,194,204,191,182,203,184,199,195,212,199,191,198,209,180,210,186,215,182,205,193,198,182,197,214,193,182,201,54,54,55,56,56,56,53,53,53,53,53,54,54,54,53,54,54,54,54,54,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,58,446,178,191,192,197,179,204,193,198,185,193,195,187,196,185,187,179,184,184,187,197,193,203,204,189,185,179,176,173,193,173,172,190,183,208,187,172,184,185,182,209,181,191,193,178,175,210,211,200,182,178,207,185,211,208,172,175,207,191,181,190,191,179,190,190,201,191,183,179,186,207,179,191,216,193,196,194,184,201,194,216,187,217,203,188,198,185,191,189,211,202,190,215,213,216,208,214,197,216,183,210,183,218,215,182,205,206,196,186,199,214,214,194,193,205,220,205,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,58,428,190,204,205,194,222,206,204,186,190,212,218,204,189,191,217,217,207,213,190,211,220,205,197,197,223,215,195,202,191,210,203,223,212,212,200,205,226,198,205,223,199,217,187,212,197,223,186,213,216,195,196,218,217,210,198,190,199,207,206,201,222,187,216,188,186,189,191,193,187,218,212,184,207,219,206,196,194,190,188,212,199,213,211,221,198,217,221,197,206,218,192,192,218,192,206,184,224,200,196,187,185,197,191,205,219,190,185,215,208,199,211,212,201,189,196,205,55,55,56,57,57,58,58,59,59,59,60,60,60,60,60,60,60,60,60,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,337,188,204,204,191,212,199,187,206,211,188,217,187,202,194,217,216,211,218,192,198,221,202,199,204,202,211,220,208,191,223,220,188,223,193,201,195,223,196,208,208,212,198,201,203,203,222,202,196,214,201,208,197,218,188,213,199,213,215,218,203,215,190,207,211,210,209,196,223,220,189,215,189,199,211,210,191,189,214,203,214,198,211,188,206,190,219,198,190,195,188,197,215,210,220,214,197,189,203,195,209,190,188,185,193,195,218,189,186,186,194,220,192,188,219,197,205,54,53,49,50,50,50,50,51,51,51,51,51,51,51,51,51,51,51,51,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,58,395,194,206,206,212,200,200,196,221,208,216,207,188,205,202,211,222,191,211,213,194,190,216,189,208,221,206,220,209,212,218,210,203,221,215,215,222,204,218,196,201,227,209,210,191,198,196,197,199,192,204,222,204,206,196,187,209,196,194,218,198,225,190,208,219,219,189,216,199,203,210,221,219,187,202,222,211,203,198,203,224,201,202,186,190,217,207,208,190,189,197,185,197,206,192,200,223,212,208,218,208,190,193,215,199,207,209,212,215,190,224,218,194,217,206,193,208,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,60,415,200,216,216,202,220,208,202,214,213,222,231,201,227,230,233,236,201,232,205,215,228,234,202,216,198,200,226,202,208,199,197,224,236,199,200,234,232,218,204,213,214,212,230,219,217,218,207,195,214,220,227,208,204,211,211,222,226,228,202,225,205,230,206,222,201,198,225,194,205,215,226,212,230,227,229,206,219,201,204,216,229,223,194,201,214,208,203,200,202,211,230,222,227,214,226,218,209,200,223,224,223,208,214,224,199,212,215,203,222,202,200,198,233,230,217,213,56,56,56,57,57,58,58,59,59,59,60,60,60,61,61,61,61,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,406,191,211,211,224,194,199,216,205,211,223,220,224,214,193,225,218,232,196,213,212,216,207,215,222,213,224,218,218,199,223,225,219,203,196,217,230,211,208,220,227,203,223,224,205,201,205,200,231,208,203,199,212,229,216,218,228,218,209,217,227,228,194,190,204,223,212,197,202,192,204,205,217,196,203,191,197,196,228,217,223,211,191,195,200,190,205,195,192,197,208,189,209,212,209,211,205,193,211,218,188,187,200,209,215,221,198,226,213,199,210,202,221,201,197,216,210,55,55,55,53,53,53,54,54,54,54,55,55,55,55,56,56,56,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,59,477,196,213,214,196,222,224,207,227,206,202,203,221,218,232,226,219,219,229,196,231,197,235,236,198,222,217,214,208,224,212,194,216,232,205,210,208,228,206,210,218,216,199,209,207,219,232,234,209,224,205,227,195,213,227,202,219,199,222,229,210,219,208,210,196,193,220,192,203,222,212,200,206,205,216,223,198,196,231,209,231,195,212,192,221,224,197,192,213,207,203,217,217,199,190,206,190,211,203,192,195,210,228,219,199,210,224,212,215,227,210,217,218,216,220,226,212,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,41,38,301,227,221,220,199,205,208,237,232,235,202,205,221,203,206,213,237,237,227,231,216,201,228,221,208,209,212,231,231,219,206,233,226,204,214,237,201,228,213,228,218,204,206,203,203,225,230,220,211,229,210,239,221,211,233,229,220,217,202,235,201,202,224,219,214,230,223,203,219,212,230,225,232,206,204,207,207,206,208,217,213,223,235,234,210,231,211,230,219,221,225,217,233,196,207,210,203,218,202,211,212,224,221,227,228,207,228,205,215,208,212,222,216,210,203,195,214,56,57,58,59,59,59,60,60,60,60,60,61,61,61,61,61,61,61,61,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,340,226,221,219,235,229,233,200,211,220,212,232,230,234,234,231,213,205,235,203,209,203,240,228,229,210,225,209,210,205,212,222,216,201,213,202,203,215,212,211,239,232,219,212,229,205,200,230,222,218,233,234,222,216,204,214,215,226,231,238,221,232,223,199,226,204,210,230,233,201,235,220,211,211,205,231,225,198,210,200,210,200,218,220,197,230,225,214,209,206,223,226,218,224,210,222,198,210,207,198,196,201,210,197,226,222,203,209,211,215,222,203,214,208,199,230,215,55,57,58,60,56,56,57,57,57,57,57,57,57,57,57,57,57,57,57,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,43,37,316,232,222,220,199,208,231,200,208,204,230,228,233,218,223,198,208,206,212,239,237,208,222,219,215,214,232,224,234,220,234,241,204,224,217,231,237,219,230,210,221,220,233,212,236,221,219,205,237,234,236,223,222,221,238,234,229,218,222,215,236,214,233,233,221,231,217,213,220,209,225,234,220,207,202,221,216,208,228,236,232,207,230,215,201,209,235,209,231,197,208,211,225,223,226,202,205,229,225,205,222,214,227,209,226,233,236,216,224,212,192,219,230,232,205,208,215,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,57,61,332,215,213,211,195,217,228,192,230,224,198,221,197,205,201,229,209,227,202,182,222,210,202,223,221,208,225,216,193,192,204,200,214,210,213,207,226,211,219,189,193,213,194,208,198,193,223,220,205,210,208,212,223,201,204,226,218,205,208,197,225,202,210,191,224,200,193,201,205,216,187,194,207,209,190,215,210,191,209,214,218,203,223,197,202,202,201,215,222,189,193,219,200,211,187,212,213,192,210,222,203,213,188,191,213,210,215,211,225,225,194,193,227,197,207,213,192,211,56,56,56,57,58,58,59,59,59,60,60,60,60,60,60,60,60,60,55,55,55,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,58,61,343,220,215,212,230,224,232,223,212,198,209,195,203,205,194,219,196,195,202,213,206,208,219,195,220,209,228,226,218,194,222,208,207,221,215,215,213,220,212,223,194,228,220,202,189,214,224,211,192,228,219,204,223,205,212,226,223,224,219,212,221,200,193,204,211,197,202,226,202,211,192,222,211,211,209,195,188,218,214,200,206,200,195,220,185,222,208,213,211,195,196,207,212,192,196,206,217,215,189,209,201,199,190,203,197,208,214,206,210,213,188,194,225,196,213,219,220,211,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,335,223,211,209,200,218,213,204,218,227,201,211,195,221,192,190,191,224,193,210,221,191,219,203,221,211,188,206,210,221,223,217,206,212,223,214,214,201,207,220,212,198,206,208,220,209,197,187,224,196,219,207,197,196,214,224,221,217,195,207,220,207,191,186,186,216,190,219,212,222,217,191,203,214,221,202,217,202,203,196,191,203,216,185,218,211,184,187,211,221,201,196,210,218,203,184,216,200,195,212,223,194,216,194,209,223,201,224,218,205,204,197,198,199,228,220,213,210,55,55,56,57,58,57,54,54,54,55,55,55,55,55,55,55,55,55,55,55,55,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,59,61,302,221,208,207,211,198,192,221,192,204,214,196,223,189,188,210,217,215,196,212,227,220,205,211,214,199,220,197,195,209,219,187,193,226,187,223,208,204,200,223,200,220,202,205,212,209,191,186,225,212,205,194,197,207,221,208,188,185,197,215,189,200,192,191,213,203,197,192,209,209,212,194,195,195,221,210,210,198,218,207,200,209,186,203,187,205,190,182,184,216,194,204,220,205,195,185,217,221,211,208,189,198,223,210,201,195,210,197,220,209,216,203,218,201,203,215,209,55,56,57,57,58,59,59,60,60,60,60,60,60,60,61,61,62,62,62,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,58,61,324,211,207,206,202,219,191,222,221,189,206,217,195,218,207,206,210,218,190,194,206,199,194,201,218,198,220,209,205,218,222,214,205,189,203,223,194,197,196,198,224,223,221,216,207,206,194,220,191,198,213,194,209,203,203,192,209,188,185,189,213,205,183,193,191,204,215,209,203,188,211,203,190,209,184,205,217,212,215,214,194,181,192,183,205,206,214,206,212,199,214,198,187,185,201,205,190,183,210,213,198,186,212,202,193,224,201,186,190,210,190,222,188,206,188,194,207,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,344,218,211,209,220,214,207,212,198,223,217,192,209,186,195,223,212,212,224,207,202,212,227,202,221,217,190,198,193,213,211,195,202,191,220,227,226,222,194,195,194,214,212,208,214,218,227,191,212,214,196,225,204,195,222,197,219,227,218,191,217,213,198,198,225,196,226,186,213,190,225,189,187,193,224,192,191,211,223,223,189,220,190,202,218,215,203,193,199,192,198,195,209,201,183,186,199,208,220,188,202,225,200,225,210,192,213,195,205,215,197,216,209,230,198,203,212,56,56,57,58,59,59,60,61,56,55,55,55,55,55,55,55,55,55,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,23,62,464,211,229,228,212,244,207,237,238,238,221,245,208,211,208,219,210,232,240,236,217,217,244,235,224,247,219,211,240,217,235,217,244,236,236,214,237,243,224,221,237,221,240,208,232,237,218,229,244,220,214,207,226,232,216,239,217,241,220,234,245,207,228,226,206,211,227,226,223,229,244,230,225,219,204,225,224,233,231,233,231,212,225,209,217,212,230,228,219,231,232,224,227,204,212,230,220,222,229,206,220,203,226,206,234,206,239,233,220,221,232,230,216,207,224,56,56,56,56,57,58,58,59,59,59,60,60,60,60,60,61,61,61,61,61,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,22,62,359,221,228,227,243,243,243,230,229,212,233,209,207,236,214,240,211,245,241,232,232,242,241,243,239,209,216,222,234,230,216,219,212,218,210,225,208,210,211,244,233,210,212,242,244,237,235,245,221,245,206,207,231,219,239,244,206,228,206,224,218,206,243,210,227,215,212,203,210,215,217,212,227,217,229,232,219,204,232,205,223,221,230,217,222,212,236,203,205,220,232,225,204,221,224,227,227,213,229,220,211,239,205,214,218,216,234,210,231,218,212,221,219,231,224,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,472,207,226,225,231,240,225,219,212,236,237,209,238,220,232,230,221,212,240,224,209,226,229,216,241,216,231,215,215,228,222,238,212,243,212,237,205,234,239,222,229,217,222,229,226,236,212,221,220,210,206,208,216,239,206,226,217,227,225,204,218,235,228,231,232,225,232,239,226,205,213,201,225,208,224,201,239,206,231,224,233,206,227,205,204,208,237,234,226,200,210,229,211,223,235,207,226,199,234,216,227,231,207,201,210,213,235,223,217,204,230,239,223,203,220,57,51,52,52,52,53,53,53,54,54,54,54,54,54,54,55,55,55,55,55,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,60,62,413,229,219,219,206,222,232,214,202,225,202,230,209,213,219,234,211,232,235,239,212,226,213,218,212,238,224,232,227,239,201,230,239,207,215,217,235,217,239,206,229,236,203,231,199,213,213,213,228,226,208,217,207,219,224,203,237,213,211,232,236,207,221,216,229,216,199,195,205,214,215,220,192,204,216,193,190,205,199,228,195,189,208,205,216,217,217,211,222,213,209,227,222,208,202,200,235,201,203,223,201,203,232,208,212,217,206,216,198,235,223,223,215,218,208,203,221,56,56,57,58,58,59,59,60,60,61,61,61,61,61,61,63,57,57,57,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,59,60,361,215,217,216,236,213,218,216,225,205,218,224,206,198,228,230,199,207,216,218,231,220,223,199,226,204,206,198,227,202,224,222,214,227,223,196,211,236,199,212,207,224,231,219,208,203,208,215,196,221,226,217,208,220,209,213,233,220,203,228,204,201,217,218,221,220,228,211,221,192,187,189,204,191,193,225,187,191,189,187,188,202,214,205,209,214,226,216,205,206,217,198,211,212,209,219,196,225,195,217,213,225,216,219,195,200,194,192,210,226,216,234,208,201,231,213,217,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,367,228,217,217,220,217,206,208,200,201,234,205,210,232,211,234,205,203,203,207,220,230,231,233,215,201,221,217,208,215,214,217,229,202,202,211,225,203,227,211,225,227,223,234,233,203,198,230,232,212,230,214,222,231,198,206,203,212,196,202,234,208,231,220,208,225,200,213,217,189,214,209,198,213,211,188,190,211,192,226,217,205,209,208,219,222,219,211,198,220,216,199,226,230,225,234,235,214,197,205,223,209,220,227,199,197,220,219,233,206,228,220,234,222,230,239,220,57,56,58,59,57,57,57,57,58,58,58,58,58,58,58,59,59,59,59,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,59,508,209,224,225,209,216,204,211,216,222,223,233,205,237,215,211,204,237,241,228,225,228,220,242,218,237,211,216,218,243,242,238,211,224,209,238,236,228,214,217,225,232,218,228,220,207,227,225,224,233,206,202,221,236,222,238,227,220,221,233,235,233,208,201,233,209,211,234,219,215,218,230,228,239,220,222,203,235,210,206,203,224,202,214,235,227,218,203,225,231,207,222,233,230,207,225,229,211,199,205,211,215,235,209,201,213,200,234,229,219,222,232,202,223,240,205,228,220,56,57,58,59,59,60,60,61,61,61,61,61,61,61,61,61,61,61,61,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,469,207,221,224,202,219,219,210,202,238,207,225,230,222,237,205,209,210,235,211,216,204,204,222,235,227,215,237,215,222,229,242,215,239,217,234,236,202,205,228,220,214,218,221,240,236,226,204,211,226,213,230,240,202,206,234,222,201,234,225,218,230,228,232,238,213,238,204,238,217,205,234,223,235,201,231,210,218,213,210,218,228,207,205,217,210,211,216,234,209,237,233,202,200,202,236,203,227,207,229,213,206,220,203,236,217,199,225,211,198,201,201,239,206,231,222,208,219,55,57,57,57,53,53,53,53,54,53,54,54,54,54,54,54,54,54,54,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,60,390,203,225,226,208,221,235,215,231,233,228,235,229,226,218,239,216,231,212,227,214,219,241,224,206,228,224,231,232,232,210,219,211,207,237,217,236,219,208,225,241,211,232,237,208,222,236,205,221,217,213,241,207,230,235,206,223,203,222,229,237,225,238,207,211,202,233,228,241,213,236,216,219,222,206,215,221,230,219,228,207,202,237,214,237,201,218,222,223,201,217,220,207,235,234,201,237,215,221,213,212,216,217,231,211,230,206,228,231,201,228,212,208,224,233,202,238,221,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,58,365,194,209,211,197,199,195,203,191,213,229,193,216,230,221,197,217,210,219,209,193,226,217,196,205,200,202,216,216,203,210,206,227,201,229,216,198,210,195,212,192,192,217,218,217,215,217,224,229,193,201,212,206,230,191,212,206,226,198,193,210,211,218,203,214,196,203,195,212,221,207,190,213,206,191,221,221,192,200,220,225,215,226,222,197,208,209,197,218,223,195,216,218,205,222,226,195,205,201,199,202,190,220,188,206,222,191,211,207,192,194,210,191,215,227,222,228,208,56,55,56,57,57,58,58,59,59,59,60,60,60,60,60,60,62,63,63,63,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,320,224,208,211,228,213,223,195,224,195,191,212,211,227,197,218,194,224,226,208,215,225,205,207,194,231,217,196,208,230,194,191,211,200,197,191,203,222,200,217,197,224,209,210,227,207,227,216,219,202,190,226,196,200,223,216,210,202,191,209,222,211,192,199,227,220,204,197,193,218,216,189,213,202,213,219,211,212,202,215,201,219,219,202,210,225,212,187,213,189,215,206,187,208,212,200,208,193,186,208,203,219,216,219,213,203,222,220,210,195,212,197,223,225,209,217,207,207,56,56,57,57,59,60,57,57,57,58,58,58,59,59,59,59,59,59,59,59,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,60,337,230,206,209,219,215,194,224,188,190,210,203,220,199,219,195,219,189,207,189,195,213,223,208,196,214,199,193,209,214,229,193,213,204,189,207,201,216,222,207,203,193,218,204,212,197,201,208,190,211,217,217,221,228,224,211,214,211,196,208,190,194,195,200,197,188,205,203,191,218,191,207,189,223,218,211,210,208,200,205,195,210,186,224,195,191,224,205,219,207,206,203,184,219,217,192,195,215,208,201,187,184,205,209,193,192,197,200,201,221,198,222,198,192,197,203,206,205,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,14,59,426,196,211,211,226,208,203,211,192,219,224,208,201,213,213,196,215,228,227,223,230,195,201,216,227,206,213,211,229,205,207,222,221,212,203,206,210,225,193,214,204,217,190,190,211,221,208,196,205,224,198,189,218,215,211,193,199,224,207,227,218,218,210,220,211,223,200,201,195,209,216,208,202,206,186,208,210,215,194,206,204,218,198,186,212,221,196,200,212,222,196,201,186,219,215,189,188,212,218,203,203,220,192,212,216,215,195,208,211,209,222,204,199,218,215,205,54,54,54,55,56,56,57,57,57,58,58,58,58,58,58,58,57,52,52,52,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,14,59,417,195,211,211,197,223,202,205,199,194,225,224,205,189,192,213,205,203,228,205,203,206,212,193,228,228,201,227,222,224,224,225,205,201,210,192,193,195,221,223,193,205,217,190,192,201,197,205,212,214,200,222,202,218,188,215,218,206,188,205,208,204,218,221,219,192,222,209,187,191,185,200,220,204,211,186,186,213,198,196,209,186,193,186,221,221,200,219,185,205,212,203,195,187,207,195,204,201,193,188,197,188,209,219,189,217,209,207,223,197,223,197,215,187,200,201,201,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,481,184,208,209,208,193,203,222,193,202,220,224,215,209,209,193,188,209,207,205,210,189,192,188,225,209,199,204,213,195,192,211,215,195,219,195,195,224,192,225,215,223,225,213,189,225,188,224,211,202,224,202,192,213,208,206,214,223,201,218,188,189,203,209,217,189,189,193,215,193,216,204,204,194,223,196,220,217,194,217,195,187,210,185,220,186,184,187,207,214,190,188,208,217,192,200,195,202,188,188,203,197,197,191,208,191,214,190,221,217,221,199,208,221,209,195,195,54,54,55,56,57,57,57,55,56,57,57,58,58,58,58,58,58,58,58,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,312,288,229,225,222,223,208,220,208,220,201,220,235,216,216,217,210,209,207,233,208,242,236,207,228,225,236,232,239,232,225,206,234,238,230,233,211,234,210,222,235,205,237,234,232,203,221,210,218,227,212,208,226,205,219,217,207,211,235,202,234,211,201,229,218,200,220,223,223,230,231,219,234,217,199,221,231,222,215,207,221,201,226,224,200,211,220,215,195,195,217,210,215,222,227,202,230,204,231,210,207,219,227,211,222,214,219,209,234,218,200,223,200,223,209,214,210,234,228,224,226,218,214,233,230,234,200,227,201,213,219,57,59,59,58,58,58,58,58,58,58,58,58,58,58,58,58,58,58,58,58,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,59,333,303,231,224,214,206,209,200,216,232,206,230,214,225,227,198,220,227,237,229,225,213,234,227,223,213,219,204,218,239,203,203,219,229,207,219,215,221,223,221,236,242,227,212,204,203,233,214,231,203,219,205,227,214,208,222,220,227,219,205,233,199,197,218,227,215,202,199,212,212,231,218,207,209,225,215,194,226,212,214,211,224,195,211,197,193,196,192,225,210,201,204,198,229,210,217,195,208,231,230,196,209,221,206,216,210,199,210,218,222,224,200,198,210,214,215,207,212,217,225,235,215,209,217,226,219,213,229,231,234,218,56,58,59,58,59,59,59,59,59,59,59,59,59,59,59,59,59,58,58,58,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,59,329,257,227,218,224,224,224,208,198,216,216,217,219,228,215,202,208,225,226,196,230,230,227,200,202,230,200,206,235,200,212,227,233,204,214,205,233,229,228,223,234,221,234,237,217,208,216,202,226,209,228,229,216,229,211,196,203,223,227,207,230,226,217,227,195,210,214,217,231,216,195,221,211,207,191,198,224,226,201,213,199,194,214,222,192,205,226,190,188,226,220,210,220,221,210,206,208,191,205,205,199,195,201,226,189,200,219,218,197,223,229,229,217,209,207,215,214,193,213,193,223,203,205,198,205,224,211,221,232,227,213,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,390,230,230,231,234,243,235,214,232,237,242,218,220,235,248,223,230,224,219,214,254,233,254,224,249,253,219,253,234,253,247,217,251,224,247,219,241,248,224,235,226,216,251,218,247,233,230,215,239,237,231,246,251,220,225,239,223,243,238,241,221,235,254,220,235,253,216,225,232,242,229,236,221,213,228,238,220,217,239,239,211,250,212,234,237,247,246,246,218,227,237,212,247,221,210,210,224,206,211,208,228,241,235,220,221,209,210,226,220,238,231,231,232,241,235,219,228,236,228,241,221,239,237,226,210,222,210,221,219,58,58,53,51,51,51,51,51,51,51,51,51,51,51,51,51,52,52,52,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,60,46,399,230,229,229,246,216,243,240,223,218,216,224,232,222,210,243,226,216,245,235,253,241,230,232,241,221,233,231,225,252,234,249,228,248,252,219,227,235,231,217,229,218,220,219,247,237,217,217,251,226,240,214,220,226,215,249,250,234,227,251,217,236,237,227,249,236,251,221,239,245,223,250,231,233,230,217,229,249,249,225,223,232,225,224,220,212,228,227,230,211,224,219,245,213,242,225,229,207,239,215,238,209,222,225,231,237,209,234,227,229,207,222,216,220,227,239,203,211,204,237,221,232,213,232,222,203,227,235,217,58,58,60,59,59,59,59,59,59,59,59,59,59,59,59,59,60,60,60,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,58,44,373,226,225,226,240,240,232,209,243,220,223,240,216,224,210,243,233,235,220,211,232,240,215,212,222,224,222,242,234,221,245,235,221,240,214,217,238,221,228,232,243,249,226,223,235,226,222,247,231,222,226,215,236,225,218,239,230,241,210,218,219,246,217,220,214,234,239,229,231,222,236,231,228,229,228,223,220,229,206,217,211,232,235,207,208,221,217,243,220,227,233,220,242,225,207,217,212,209,241,205,219,221,215,202,211,233,212,229,232,217,238,219,229,205,235,208,201,213,201,232,200,214,195,231,208,224,204,200,213,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1751,9 +1883,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1770,25 +1902,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="163.5">
       <c r="A1" s="3" t="s">
-        <v>272</v>
+        <v>140</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>274</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>270</v>
+        <v>138</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>271</v>
+        <v>139</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>273</v>
+        <v>141</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>275</v>
+        <v>143</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>276</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1799,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -1811,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1822,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -1834,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1845,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -1857,7 +1989,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1868,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -1880,7 +2012,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1891,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -1903,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1914,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -1926,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1937,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -1949,7 +2081,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1960,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -1972,18 +2104,18 @@
         <v>4</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
@@ -1995,18 +2127,18 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
@@ -2018,18 +2150,18 @@
         <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
@@ -2041,18 +2173,18 @@
         <v>3</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>10</v>
@@ -2064,18 +2196,18 @@
         <v>4</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -2087,18 +2219,18 @@
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -2110,18 +2242,18 @@
         <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -2133,18 +2265,18 @@
         <v>3</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -2156,18 +2288,18 @@
         <v>4</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
@@ -2179,18 +2311,18 @@
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -2202,18 +2334,18 @@
         <v>2</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -2225,18 +2357,18 @@
         <v>3</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
@@ -2248,18 +2380,18 @@
         <v>4</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
@@ -2271,18 +2403,18 @@
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
@@ -2294,18 +2426,18 @@
         <v>2</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -2317,18 +2449,18 @@
         <v>3</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
@@ -2340,18 +2472,18 @@
         <v>4</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>5</v>
@@ -2363,18 +2495,18 @@
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
@@ -2386,18 +2518,18 @@
         <v>2</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>5</v>
@@ -2409,18 +2541,18 @@
         <v>3</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>5</v>
@@ -2432,18 +2564,18 @@
         <v>4</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>10</v>
@@ -2455,18 +2587,18 @@
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>10</v>
@@ -2478,18 +2610,18 @@
         <v>2</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>10</v>
@@ -2501,18 +2633,18 @@
         <v>3</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>10</v>
@@ -2524,18 +2656,18 @@
         <v>4</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>169</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>11</v>
@@ -2547,18 +2679,18 @@
         <v>1</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>11</v>
@@ -2570,18 +2702,18 @@
         <v>2</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>11</v>
@@ -2593,18 +2725,18 @@
         <v>3</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>11</v>
@@ -2616,18 +2748,18 @@
         <v>4</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>5</v>
@@ -2639,18 +2771,18 @@
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>5</v>
@@ -2662,18 +2794,18 @@
         <v>2</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>5</v>
@@ -2685,18 +2817,18 @@
         <v>3</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>5</v>
@@ -2708,18 +2840,18 @@
         <v>4</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>5</v>
@@ -2731,18 +2863,18 @@
         <v>1</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>5</v>
@@ -2754,18 +2886,18 @@
         <v>2</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>5</v>
@@ -2777,18 +2909,18 @@
         <v>3</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>5</v>
@@ -2800,18 +2932,18 @@
         <v>4</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
@@ -2823,18 +2955,18 @@
         <v>1</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
@@ -2846,18 +2978,18 @@
         <v>2</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
@@ -2869,18 +3001,18 @@
         <v>3</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
@@ -2892,18 +3024,18 @@
         <v>4</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>7</v>
@@ -2915,18 +3047,18 @@
         <v>1</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>7</v>
@@ -2938,18 +3070,18 @@
         <v>2</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>7</v>
@@ -2961,18 +3093,18 @@
         <v>3</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>7</v>
@@ -2984,18 +3116,18 @@
         <v>4</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>6</v>
@@ -3007,18 +3139,18 @@
         <v>1</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>6</v>
@@ -3030,18 +3162,18 @@
         <v>2</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>6</v>
@@ -3053,18 +3185,18 @@
         <v>3</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>6</v>
@@ -3076,18 +3208,18 @@
         <v>4</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>6</v>
@@ -3099,18 +3231,18 @@
         <v>1</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>6</v>
@@ -3122,18 +3254,18 @@
         <v>2</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>6</v>
@@ -3145,18 +3277,18 @@
         <v>3</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>6</v>
@@ -3168,18 +3300,18 @@
         <v>4</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>9</v>
@@ -3191,18 +3323,18 @@
         <v>1</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>103</v>
+        <v>191</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>9</v>
@@ -3214,18 +3346,18 @@
         <v>2</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>9</v>
@@ -3237,18 +3369,18 @@
         <v>3</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>9</v>
@@ -3260,18 +3392,18 @@
         <v>4</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>9</v>
@@ -3283,18 +3415,18 @@
         <v>1</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>108</v>
+        <v>194</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>9</v>
@@ -3306,18 +3438,18 @@
         <v>2</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>109</v>
+        <v>195</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>9</v>
@@ -3329,18 +3461,18 @@
         <v>3</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>9</v>
@@ -3352,21 +3484,21 @@
         <v>4</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>1</v>
@@ -3375,21 +3507,21 @@
         <v>1</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>114</v>
+        <v>197</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>1</v>
@@ -3398,21 +3530,21 @@
         <v>2</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>1</v>
@@ -3421,21 +3553,21 @@
         <v>3</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>1</v>
@@ -3444,18 +3576,18 @@
         <v>4</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>10</v>
@@ -3467,18 +3599,18 @@
         <v>1</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>10</v>
@@ -3490,18 +3622,18 @@
         <v>2</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>10</v>
@@ -3513,18 +3645,18 @@
         <v>3</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>10</v>
@@ -3536,18 +3668,18 @@
         <v>4</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>11</v>
@@ -3559,18 +3691,18 @@
         <v>1</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>126</v>
+        <v>203</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>11</v>
@@ -3582,18 +3714,18 @@
         <v>2</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>127</v>
+        <v>204</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>11</v>
@@ -3605,18 +3737,18 @@
         <v>3</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>11</v>
@@ -3628,18 +3760,18 @@
         <v>4</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>9</v>
@@ -3651,18 +3783,18 @@
         <v>1</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>9</v>
@@ -3674,18 +3806,18 @@
         <v>2</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>9</v>
@@ -3697,18 +3829,18 @@
         <v>3</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>9</v>
@@ -3720,18 +3852,18 @@
         <v>4</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>9</v>
@@ -3743,18 +3875,18 @@
         <v>1</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>9</v>
@@ -3766,18 +3898,18 @@
         <v>2</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>9</v>
@@ -3789,18 +3921,18 @@
         <v>3</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>9</v>
@@ -3812,18 +3944,18 @@
         <v>4</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>141</v>
+        <v>211</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>13</v>
@@ -3835,18 +3967,18 @@
         <v>1</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>13</v>
@@ -3858,18 +3990,18 @@
         <v>2</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>144</v>
+        <v>213</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>13</v>
@@ -3881,18 +4013,18 @@
         <v>3</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>13</v>
@@ -3904,18 +4036,18 @@
         <v>4</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>6</v>
@@ -3927,18 +4059,18 @@
         <v>1</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>148</v>
+        <v>215</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>6</v>
@@ -3950,18 +4082,18 @@
         <v>2</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>6</v>
@@ -3973,18 +4105,18 @@
         <v>3</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C97" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>6</v>
@@ -3996,18 +4128,18 @@
         <v>4</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>5</v>
@@ -4019,18 +4151,18 @@
         <v>1</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>5</v>
@@ -4042,18 +4174,18 @@
         <v>2</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>5</v>
@@ -4065,18 +4197,18 @@
         <v>3</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>5</v>
@@ -4088,18 +4220,18 @@
         <v>4</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C102" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>8</v>
@@ -4111,18 +4243,18 @@
         <v>1</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>8</v>
@@ -4134,18 +4266,18 @@
         <v>2</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>8</v>
@@ -4157,18 +4289,18 @@
         <v>3</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>8</v>
@@ -4180,18 +4312,18 @@
         <v>4</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2" t="s">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C106" t="s">
-        <v>164</v>
+        <v>223</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>13</v>
@@ -4203,18 +4335,18 @@
         <v>1</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>165</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2" t="s">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>13</v>
@@ -4226,18 +4358,18 @@
         <v>2</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>165</v>
+        <v>86</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2" t="s">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C108" t="s">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>13</v>
@@ -4249,18 +4381,18 @@
         <v>3</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>165</v>
+        <v>86</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2" t="s">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>13</v>
@@ -4272,18 +4404,18 @@
         <v>4</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>165</v>
+        <v>86</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>170</v>
+        <v>226</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>6</v>
@@ -4295,18 +4427,18 @@
         <v>1</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>6</v>
@@ -4318,18 +4450,18 @@
         <v>2</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>6</v>
@@ -4341,18 +4473,18 @@
         <v>3</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>6</v>
@@ -4364,18 +4496,18 @@
         <v>4</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>10</v>
@@ -4387,18 +4519,18 @@
         <v>1</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>176</v>
+        <v>91</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>10</v>
@@ -4410,18 +4542,18 @@
         <v>2</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>176</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>10</v>
@@ -4433,18 +4565,18 @@
         <v>3</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>176</v>
+        <v>91</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>10</v>
@@ -4456,18 +4588,18 @@
         <v>4</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>176</v>
+        <v>91</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>13</v>
@@ -4479,18 +4611,18 @@
         <v>1</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>13</v>
@@ -4502,18 +4634,18 @@
         <v>2</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>13</v>
@@ -4525,18 +4657,18 @@
         <v>3</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>13</v>
@@ -4548,18 +4680,18 @@
         <v>4</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2" t="s">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>5</v>
@@ -4571,18 +4703,18 @@
         <v>1</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>188</v>
+        <v>97</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2" t="s">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>5</v>
@@ -4594,18 +4726,18 @@
         <v>2</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>188</v>
+        <v>97</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2" t="s">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>5</v>
@@ -4617,18 +4749,18 @@
         <v>3</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>188</v>
+        <v>97</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2" t="s">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>5</v>
@@ -4640,18 +4772,18 @@
         <v>4</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>188</v>
+        <v>97</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2" t="s">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>6</v>
@@ -4663,18 +4795,18 @@
         <v>1</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>194</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2" t="s">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>6</v>
@@ -4686,18 +4818,18 @@
         <v>2</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>194</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2" t="s">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>6</v>
@@ -4709,18 +4841,18 @@
         <v>3</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>194</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2" t="s">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>197</v>
+        <v>101</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>6</v>
@@ -4732,18 +4864,18 @@
         <v>4</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>194</v>
+        <v>100</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2" t="s">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>5</v>
@@ -4755,18 +4887,18 @@
         <v>1</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>200</v>
+        <v>103</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2" t="s">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>5</v>
@@ -4778,18 +4910,18 @@
         <v>2</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>200</v>
+        <v>103</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2" t="s">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>5</v>
@@ -4801,18 +4933,18 @@
         <v>3</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>200</v>
+        <v>103</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2" t="s">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>5</v>
@@ -4824,18 +4956,18 @@
         <v>4</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>200</v>
+        <v>103</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>11</v>
@@ -4847,18 +4979,18 @@
         <v>1</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>206</v>
+        <v>106</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>11</v>
@@ -4870,18 +5002,18 @@
         <v>2</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>206</v>
+        <v>106</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>11</v>
@@ -4893,18 +5025,18 @@
         <v>3</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>206</v>
+        <v>106</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>209</v>
+        <v>107</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>11</v>
@@ -4916,18 +5048,18 @@
         <v>4</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>206</v>
+        <v>106</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2" t="s">
-        <v>210</v>
+        <v>108</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>10</v>
@@ -4939,18 +5071,18 @@
         <v>1</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2" t="s">
-        <v>210</v>
+        <v>108</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>10</v>
@@ -4962,18 +5094,18 @@
         <v>2</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2" t="s">
-        <v>210</v>
+        <v>108</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>10</v>
@@ -4985,18 +5117,18 @@
         <v>3</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2" t="s">
-        <v>210</v>
+        <v>108</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>10</v>
@@ -5008,18 +5140,18 @@
         <v>4</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C142" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>7</v>
@@ -5031,18 +5163,18 @@
         <v>1</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>218</v>
+        <v>112</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C143" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>7</v>
@@ -5054,18 +5186,18 @@
         <v>2</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>218</v>
+        <v>112</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C144" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>7</v>
@@ -5077,18 +5209,18 @@
         <v>3</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>218</v>
+        <v>112</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C145" t="s">
-        <v>221</v>
+        <v>113</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>7</v>
@@ -5100,18 +5232,18 @@
         <v>4</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>218</v>
+        <v>112</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C146" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>6</v>
@@ -5123,18 +5255,18 @@
         <v>1</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>224</v>
+        <v>115</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C147" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>6</v>
@@ -5146,18 +5278,18 @@
         <v>2</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>224</v>
+        <v>115</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C148" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>6</v>
@@ -5169,18 +5301,18 @@
         <v>3</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>224</v>
+        <v>115</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C149" t="s">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>6</v>
@@ -5192,18 +5324,18 @@
         <v>4</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>224</v>
+        <v>115</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2" t="s">
-        <v>228</v>
+        <v>117</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C150" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>5</v>
@@ -5215,18 +5347,18 @@
         <v>1</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2" t="s">
-        <v>228</v>
+        <v>117</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C151" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>5</v>
@@ -5238,18 +5370,18 @@
         <v>2</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2" t="s">
-        <v>228</v>
+        <v>117</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C152" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>5</v>
@@ -5261,18 +5393,18 @@
         <v>3</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2" t="s">
-        <v>228</v>
+        <v>117</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C153" t="s">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>5</v>
@@ -5284,18 +5416,18 @@
         <v>4</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2" t="s">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C154" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>7</v>
@@ -5307,18 +5439,18 @@
         <v>1</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>236</v>
+        <v>121</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2" t="s">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C155" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>7</v>
@@ -5330,18 +5462,18 @@
         <v>2</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>236</v>
+        <v>121</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2" t="s">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C156" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>7</v>
@@ -5353,18 +5485,18 @@
         <v>3</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>236</v>
+        <v>121</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2" t="s">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C157" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>7</v>
@@ -5376,18 +5508,18 @@
         <v>4</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>236</v>
+        <v>121</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2" t="s">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>6</v>
@@ -5399,18 +5531,18 @@
         <v>1</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>242</v>
+        <v>124</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2" t="s">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>6</v>
@@ -5422,18 +5554,18 @@
         <v>2</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>242</v>
+        <v>124</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2" t="s">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>6</v>
@@ -5445,18 +5577,18 @@
         <v>3</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>242</v>
+        <v>124</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2" t="s">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>245</v>
+        <v>125</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>6</v>
@@ -5468,18 +5600,18 @@
         <v>4</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>242</v>
+        <v>124</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2" t="s">
-        <v>246</v>
+        <v>126</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>9</v>
@@ -5491,18 +5623,18 @@
         <v>1</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>248</v>
+        <v>127</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2" t="s">
-        <v>246</v>
+        <v>126</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>9</v>
@@ -5514,18 +5646,18 @@
         <v>2</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>248</v>
+        <v>127</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2" t="s">
-        <v>246</v>
+        <v>126</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>9</v>
@@ -5537,18 +5669,18 @@
         <v>3</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>248</v>
+        <v>127</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2" t="s">
-        <v>246</v>
+        <v>126</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>251</v>
+        <v>128</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>9</v>
@@ -5560,18 +5692,18 @@
         <v>4</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>248</v>
+        <v>127</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2" t="s">
-        <v>252</v>
+        <v>129</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C166" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>6</v>
@@ -5583,18 +5715,18 @@
         <v>1</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>254</v>
+        <v>130</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2" t="s">
-        <v>252</v>
+        <v>129</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C167" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>6</v>
@@ -5606,18 +5738,18 @@
         <v>2</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>254</v>
+        <v>130</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2" t="s">
-        <v>252</v>
+        <v>129</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C168" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>6</v>
@@ -5629,18 +5761,18 @@
         <v>3</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>254</v>
+        <v>130</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2" t="s">
-        <v>252</v>
+        <v>129</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C169" t="s">
-        <v>257</v>
+        <v>131</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>6</v>
@@ -5652,21 +5784,21 @@
         <v>4</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>254</v>
+        <v>130</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2" t="s">
-        <v>258</v>
+        <v>132</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>260</v>
+        <v>133</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>1</v>
@@ -5675,21 +5807,21 @@
         <v>1</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>261</v>
+        <v>134</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="2" t="s">
-        <v>258</v>
+        <v>132</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>260</v>
+        <v>133</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>1</v>
@@ -5698,21 +5830,21 @@
         <v>2</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>261</v>
+        <v>134</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="2" t="s">
-        <v>258</v>
+        <v>132</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>260</v>
+        <v>133</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>1</v>
@@ -5721,21 +5853,21 @@
         <v>3</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>261</v>
+        <v>134</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="2" t="s">
-        <v>258</v>
+        <v>132</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>264</v>
+        <v>135</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>260</v>
+        <v>133</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>1</v>
@@ -5744,18 +5876,18 @@
         <v>4</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>261</v>
+        <v>134</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="2" t="s">
-        <v>258</v>
+        <v>132</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>12</v>
@@ -5767,18 +5899,18 @@
         <v>1</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>266</v>
+        <v>136</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="2" t="s">
-        <v>258</v>
+        <v>132</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>12</v>
@@ -5790,18 +5922,18 @@
         <v>2</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>266</v>
+        <v>136</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="2" t="s">
-        <v>258</v>
+        <v>132</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>12</v>
@@ -5813,18 +5945,18 @@
         <v>3</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>266</v>
+        <v>136</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="2" t="s">
-        <v>258</v>
+        <v>132</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>269</v>
+        <v>137</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>12</v>
@@ -5836,7 +5968,7 @@
         <v>4</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>266</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/sensor/data/H2.xlsx
+++ b/sensor/data/H2.xlsx
@@ -8,19 +8,151 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01智能运维\厂家资料\南信大\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F49E38-4A7A-49AF-BB03-1FDAB1E71482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D553B7F6-2AB7-4A42-B13F-8CA489DBC82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21270" yWindow="780" windowWidth="27510" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tb_turnoutActionCurve" sheetId="1" r:id="rId1"/>
+    <sheet name="c2" sheetId="2" r:id="rId2"/>
+    <sheet name="c3" sheetId="3" r:id="rId3"/>
+    <sheet name="c4" sheetId="4" r:id="rId4"/>
+    <sheet name="c6" sheetId="5" r:id="rId5"/>
+    <sheet name="c7" sheetId="6" r:id="rId6"/>
+    <sheet name="c8" sheetId="7" r:id="rId7"/>
+    <sheet name="c10" sheetId="8" r:id="rId8"/>
+    <sheet name="c11" sheetId="9" r:id="rId9"/>
+    <sheet name="c12" sheetId="10" r:id="rId10"/>
+    <sheet name="c14" sheetId="11" r:id="rId11"/>
+    <sheet name="c15" sheetId="12" r:id="rId12"/>
+    <sheet name="c16" sheetId="13" r:id="rId13"/>
+    <sheet name="c18" sheetId="14" r:id="rId14"/>
+    <sheet name="c19" sheetId="15" r:id="rId15"/>
+    <sheet name="c20" sheetId="16" r:id="rId16"/>
+    <sheet name="c22" sheetId="17" r:id="rId17"/>
+    <sheet name="c23" sheetId="18" r:id="rId18"/>
+    <sheet name="c24" sheetId="19" r:id="rId19"/>
+    <sheet name="c26" sheetId="20" r:id="rId20"/>
+    <sheet name="c27" sheetId="21" r:id="rId21"/>
+    <sheet name="c28" sheetId="22" r:id="rId22"/>
+    <sheet name="c30" sheetId="23" r:id="rId23"/>
+    <sheet name="c31" sheetId="24" r:id="rId24"/>
+    <sheet name="c32" sheetId="25" r:id="rId25"/>
+    <sheet name="c34" sheetId="26" r:id="rId26"/>
+    <sheet name="c35" sheetId="27" r:id="rId27"/>
+    <sheet name="c36" sheetId="28" r:id="rId28"/>
+    <sheet name="c38" sheetId="29" r:id="rId29"/>
+    <sheet name="c39" sheetId="30" r:id="rId30"/>
+    <sheet name="c40" sheetId="31" r:id="rId31"/>
+    <sheet name="c42" sheetId="32" r:id="rId32"/>
+    <sheet name="c43" sheetId="33" r:id="rId33"/>
+    <sheet name="c44" sheetId="34" r:id="rId34"/>
+    <sheet name="c46" sheetId="35" r:id="rId35"/>
+    <sheet name="c47" sheetId="36" r:id="rId36"/>
+    <sheet name="c48" sheetId="37" r:id="rId37"/>
+    <sheet name="c50" sheetId="38" r:id="rId38"/>
+    <sheet name="c51" sheetId="39" r:id="rId39"/>
+    <sheet name="c52" sheetId="40" r:id="rId40"/>
+    <sheet name="c54" sheetId="41" r:id="rId41"/>
+    <sheet name="c55" sheetId="42" r:id="rId42"/>
+    <sheet name="c56" sheetId="43" r:id="rId43"/>
+    <sheet name="c58" sheetId="44" r:id="rId44"/>
+    <sheet name="c59" sheetId="45" r:id="rId45"/>
+    <sheet name="c60" sheetId="46" r:id="rId46"/>
+    <sheet name="c62" sheetId="47" r:id="rId47"/>
+    <sheet name="c63" sheetId="48" r:id="rId48"/>
+    <sheet name="c64" sheetId="49" r:id="rId49"/>
+    <sheet name="c66" sheetId="50" r:id="rId50"/>
+    <sheet name="c67" sheetId="51" r:id="rId51"/>
+    <sheet name="c68" sheetId="52" r:id="rId52"/>
+    <sheet name="c70" sheetId="53" r:id="rId53"/>
+    <sheet name="c71" sheetId="54" r:id="rId54"/>
+    <sheet name="c72" sheetId="55" r:id="rId55"/>
+    <sheet name="c74" sheetId="56" r:id="rId56"/>
+    <sheet name="c75" sheetId="57" r:id="rId57"/>
+    <sheet name="c76" sheetId="58" r:id="rId58"/>
+    <sheet name="c78" sheetId="59" r:id="rId59"/>
+    <sheet name="c79" sheetId="60" r:id="rId60"/>
+    <sheet name="c80" sheetId="61" r:id="rId61"/>
+    <sheet name="c82" sheetId="62" r:id="rId62"/>
+    <sheet name="c83" sheetId="63" r:id="rId63"/>
+    <sheet name="c84" sheetId="64" r:id="rId64"/>
+    <sheet name="c86" sheetId="65" r:id="rId65"/>
+    <sheet name="c87" sheetId="66" r:id="rId66"/>
+    <sheet name="c88" sheetId="67" r:id="rId67"/>
+    <sheet name="c90" sheetId="68" r:id="rId68"/>
+    <sheet name="c91" sheetId="69" r:id="rId69"/>
+    <sheet name="c92" sheetId="70" r:id="rId70"/>
+    <sheet name="c94" sheetId="71" r:id="rId71"/>
+    <sheet name="c95" sheetId="72" r:id="rId72"/>
+    <sheet name="c96" sheetId="73" r:id="rId73"/>
+    <sheet name="c98" sheetId="74" r:id="rId74"/>
+    <sheet name="c99" sheetId="75" r:id="rId75"/>
+    <sheet name="c100" sheetId="76" r:id="rId76"/>
+    <sheet name="c102" sheetId="77" r:id="rId77"/>
+    <sheet name="c103" sheetId="78" r:id="rId78"/>
+    <sheet name="c104" sheetId="79" r:id="rId79"/>
+    <sheet name="c106" sheetId="80" r:id="rId80"/>
+    <sheet name="c107" sheetId="81" r:id="rId81"/>
+    <sheet name="c108" sheetId="82" r:id="rId82"/>
+    <sheet name="c110" sheetId="83" r:id="rId83"/>
+    <sheet name="c111" sheetId="84" r:id="rId84"/>
+    <sheet name="c112" sheetId="85" r:id="rId85"/>
+    <sheet name="c114" sheetId="86" r:id="rId86"/>
+    <sheet name="c115" sheetId="87" r:id="rId87"/>
+    <sheet name="c116" sheetId="88" r:id="rId88"/>
+    <sheet name="c118" sheetId="89" r:id="rId89"/>
+    <sheet name="c119" sheetId="90" r:id="rId90"/>
+    <sheet name="c120" sheetId="91" r:id="rId91"/>
+    <sheet name="c122" sheetId="92" r:id="rId92"/>
+    <sheet name="c123" sheetId="93" r:id="rId93"/>
+    <sheet name="c124" sheetId="94" r:id="rId94"/>
+    <sheet name="c126" sheetId="95" r:id="rId95"/>
+    <sheet name="c127" sheetId="96" r:id="rId96"/>
+    <sheet name="c128" sheetId="97" r:id="rId97"/>
+    <sheet name="c130" sheetId="98" r:id="rId98"/>
+    <sheet name="c131" sheetId="99" r:id="rId99"/>
+    <sheet name="c132" sheetId="100" r:id="rId100"/>
+    <sheet name="c134" sheetId="101" r:id="rId101"/>
+    <sheet name="c135" sheetId="102" r:id="rId102"/>
+    <sheet name="c136" sheetId="103" r:id="rId103"/>
+    <sheet name="c138" sheetId="104" r:id="rId104"/>
+    <sheet name="c139" sheetId="105" r:id="rId105"/>
+    <sheet name="c140" sheetId="106" r:id="rId106"/>
+    <sheet name="c142" sheetId="107" r:id="rId107"/>
+    <sheet name="c143" sheetId="108" r:id="rId108"/>
+    <sheet name="c144" sheetId="109" r:id="rId109"/>
+    <sheet name="c146" sheetId="110" r:id="rId110"/>
+    <sheet name="c147" sheetId="111" r:id="rId111"/>
+    <sheet name="c148" sheetId="112" r:id="rId112"/>
+    <sheet name="c150" sheetId="113" r:id="rId113"/>
+    <sheet name="c151" sheetId="114" r:id="rId114"/>
+    <sheet name="c152" sheetId="115" r:id="rId115"/>
+    <sheet name="c154" sheetId="116" r:id="rId116"/>
+    <sheet name="c155" sheetId="117" r:id="rId117"/>
+    <sheet name="c156" sheetId="118" r:id="rId118"/>
+    <sheet name="c158" sheetId="119" r:id="rId119"/>
+    <sheet name="c159" sheetId="120" r:id="rId120"/>
+    <sheet name="c160" sheetId="121" r:id="rId121"/>
+    <sheet name="c162" sheetId="122" r:id="rId122"/>
+    <sheet name="c163" sheetId="123" r:id="rId123"/>
+    <sheet name="c164" sheetId="124" r:id="rId124"/>
+    <sheet name="c166" sheetId="125" r:id="rId125"/>
+    <sheet name="c167" sheetId="126" r:id="rId126"/>
+    <sheet name="c168" sheetId="127" r:id="rId127"/>
+    <sheet name="c170" sheetId="128" r:id="rId128"/>
+    <sheet name="c171" sheetId="129" r:id="rId129"/>
+    <sheet name="c172" sheetId="130" r:id="rId130"/>
+    <sheet name="c174" sheetId="131" r:id="rId131"/>
+    <sheet name="c175" sheetId="132" r:id="rId132"/>
+    <sheet name="c176" sheetId="133" r:id="rId133"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="409">
   <si>
     <t>0</t>
   </si>
@@ -1017,531 +1149,934 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0,0,0,61,59,399,222,217,215,206,198,199,229,235,220,196,208,218,230,215,199,217,208,230,205,207,200,211,203,225,221,210,227,230,213,204,225,208,199,219,230,214,197,226,209,227,201,205,211,212,200,203,206,223,217,217,214,224,230,200,216,218,228,192,226,218,203,199,213,206,225,221,224,218,221,221,210,205,222,217,203,203,223,222,203,200,229,214,229,219,193,207,202,222,228,205,228,201,207,208,205,222,205,210,203,203,226,222,213,205,207,199,214,211,193,199,220,230,196,199,220,213,56,55,55,56,57,57,58,58,59,59,60,60,60,60,60,60,61,61,61,61,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,60,59,378,217,218,215,228,204,200,219,197,208,213,221,206,216,228,220,197,228,217,222,211,202,200,201,234,204,196,200,232,207,213,215,221,201,201,230,198,219,225,226,209,225,205,219,231,224,215,209,217,220,198,214,231,201,225,196,196,218,202,204,198,203,228,193,197,224,226,225,216,202,211,200,199,198,199,217,214,229,230,214,208,206,223,206,213,191,224,223,202,194,198,191,191,192,227,213,223,200,209,209,226,215,218,220,221,202,193,216,192,217,218,223,224,207,227,218,208,208,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,0,361,210,217,214,210,196,206,204,228,228,223,211,225,216,231,201,222,211,224,226,210,227,205,222,230,208,220,219,204,208,217,225,229,207,230,222,199,213,224,222,198,217,231,201,218,212,207,207,207,220,220,223,208,231,222,229,220,200,195,226,227,199,215,226,208,196,210,216,215,207,206,195,211,225,192,219,229,206,193,222,208,213,215,218,215,225,191,189,202,211,217,215,228,208,196,214,207,194,193,194,202,213,202,191,206,189,190,202,204,211,210,204,196,208,204,213,212,58,57,56,53,53,54,54,55,55,55,55,55,55,56,56,56,56,57,57,57,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,61,184,249,223,223,223,205,213,244,222,205,215,235,218,241,207,226,221,232,230,219,202,214,225,219,224,221,232,232,224,242,220,210,216,208,216,217,220,225,228,207,240,221,217,232,215,240,203,229,235,220,240,209,206,209,204,232,208,218,212,216,204,235,239,232,221,225,203,217,223,210,222,209,200,235,223,229,220,238,220,235,219,216,231,236,229,202,216,233,218,231,236,225,226,226,224,200,232,224,237,215,232,201,231,200,232,226,219,220,208,210,205,202,237,217,230,233,203,220,55,56,57,58,58,59,59,60,60,60,60,60,60,60,62,63,63,63,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,60,180,289,220,222,223,235,231,223,217,205,239,222,208,226,208,226,229,223,215,202,216,213,222,238,232,234,239,221,235,236,204,231,208,229,231,218,229,240,233,216,230,205,236,209,217,235,236,210,222,231,228,209,208,226,221,215,221,210,235,213,207,223,234,234,216,214,213,201,216,207,223,200,204,216,201,198,232,197,211,204,219,215,214,229,214,233,204,224,199,219,211,201,236,199,219,215,198,221,230,230,199,206,211,216,216,208,231,224,230,232,231,214,224,213,231,232,203,219,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,334,272,225,226,227,212,242,243,234,231,243,210,216,211,223,233,215,219,233,232,203,238,227,235,234,207,222,213,243,227,220,218,219,210,220,235,235,217,221,242,233,216,215,234,240,214,232,206,242,216,206,219,219,228,221,214,211,241,205,238,216,236,204,203,224,226,213,234,224,230,238,208,218,237,225,232,226,236,225,202,228,224,229,236,201,232,240,229,206,236,209,201,228,216,219,209,220,212,217,215,228,225,209,206,233,233,213,225,212,224,206,218,237,231,221,205,234,222,56,57,58,58,59,60,62,62,62,54,55,55,55,55,55,55,55,55,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,60,452,198,214,212,220,222,210,226,202,202,211,230,195,197,195,198,219,213,216,223,197,197,191,213,212,214,210,189,208,224,213,200,220,200,192,224,213,224,213,187,215,186,194,188,220,194,207,188,212,221,192,221,189,200,198,203,214,221,208,185,214,192,198,208,196,183,195,185,213,202,188,216,203,205,213,195,182,205,187,205,205,196,190,194,211,183,184,184,181,203,196,195,181,200,186,185,203,213,215,193,186,188,216,185,215,201,213,190,217,199,215,180,220,204,200,216,223,205,56,56,57,58,58,59,60,60,60,61,61,61,61,61,61,61,61,61,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,399,200,215,212,198,229,220,224,218,218,209,220,199,218,223,222,207,200,192,205,196,225,223,217,217,206,198,221,226,215,192,192,195,215,223,210,198,188,190,195,196,213,198,213,206,210,196,201,218,220,200,190,220,220,219,221,189,187,211,216,191,198,214,208,214,200,211,208,191,184,207,198,189,218,207,192,190,192,198,185,184,181,191,216,181,207,194,192,219,192,216,209,216,186,219,190,187,198,203,184,182,201,197,187,202,219,187,201,198,214,215,213,197,190,188,201,210,204,55,55,54,50,50,50,51,51,51,51,51,51,51,51,52,52,52,52,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,60,459,194,217,214,230,196,212,231,215,203,196,226,233,202,231,203,215,217,199,201,228,208,204,200,196,203,220,222,228,203,195,201,214,217,225,209,213,204,199,222,206,207,212,206,196,195,195,217,207,196,221,193,206,220,221,188,217,212,201,215,206,195,222,221,207,210,193,195,191,210,207,186,192,199,212,184,192,205,217,183,219,222,207,188,200,195,208,213,202,208,185,213,194,202,192,185,219,204,210,190,218,208,182,220,184,219,192,213,206,203,203,219,192,198,208,215,211,207,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,61,353,208,217,220,221,224,225,201,206,227,209,210,216,234,236,212,205,201,213,190,201,206,215,198,197,207,220,204,206,224,202,231,206,215,210,201,210,196,207,209,217,201,211,205,225,194,220,198,230,222,204,193,199,227,229,225,220,226,215,224,210,200,204,211,220,200,225,201,203,212,220,209,226,220,218,225,194,221,198,192,204,191,201,225,211,214,221,209,205,204,195,226,221,215,222,214,224,226,201,193,212,202,206,194,192,219,215,227,199,190,226,210,226,192,192,201,213,209,56,56,56,57,58,58,59,59,60,60,60,61,61,61,61,61,61,62,62,62,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,209,245,215,218,216,228,213,226,237,200,204,211,200,206,200,199,205,230,226,204,217,211,203,217,197,214,197,203,217,206,230,204,220,196,204,193,198,222,208,189,224,204,205,195,200,206,190,207,198,207,217,199,218,228,227,197,229,226,222,209,200,227,193,202,189,202,208,223,223,225,204,201,203,198,216,227,206,221,198,226,212,223,215,196,204,195,194,213,202,214,192,217,191,225,201,204,220,208,199,190,197,218,212,200,213,217,200,205,213,200,220,215,202,219,196,220,199,207,56,57,56,53,53,54,54,54,54,55,55,55,55,55,55,55,56,56,56,56,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,60,206,265,217,222,239,215,218,211,210,204,226,226,215,206,209,223,210,220,211,212,205,233,218,233,200,222,211,236,201,229,210,210,218,203,234,237,233,208,213,212,219,221,201,208,199,194,208,228,206,202,228,201,221,224,195,212,224,195,204,228,215,224,201,196,228,230,202,202,219,227,211,206,225,192,200,230,203,200,214,221,192,213,203,199,192,226,210,210,195,225,212,196,228,200,228,226,211,204,229,195,213,218,216,202,211,213,229,196,202,210,209,210,207,203,197,218,206,211,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,60,64,272,210,208,208,189,221,215,199,225,196,208,214,201,197,208,187,219,202,193,203,215,205,221,183,183,221,218,206,182,197,205,207,182,211,212,207,194,195,201,194,212,209,186,180,204,193,190,195,194,186,190,191,180,205,181,180,180,200,194,206,194,209,175,211,193,198,194,205,183,180,210,188,208,203,176,202,175,186,185,184,185,180,200,181,189,190,171,172,179,202,177,205,204,199,194,197,186,204,198,191,172,181,203,186,195,189,171,193,173,178,170,196,190,208,196,185,190,55,54,54,55,56,56,57,57,57,58,58,58,58,59,59,59,59,59,59,59,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,60,64,326,206,210,209,199,209,204,197,227,190,217,196,198,220,202,206,196,204,204,188,208,207,188,189,190,223,198,223,199,197,211,216,201,219,206,186,211,184,210,203,189,182,212,201,189,179,218,196,185,203,202,214,208,192,193,176,186,197,202,189,209,196,177,200,176,201,184,181,194,214,200,186,206,209,197,184,203,178,182,173,189,187,173,209,200,209,176,174,181,195,206,188,191,208,192,176,183,195,174,197,194,183,190,200,211,199,199,205,196,181,208,211,189,180,200,178,192,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,35,299,212,209,209,189,205,224,194,190,207,226,210,212,216,223,204,188,211,192,217,212,191,207,218,217,190,184,218,216,195,194,203,189,200,185,223,194,200,207,185,216,193,206,179,184,198,210,197,198,180,195,208,211,180,196,191,195,201,206,206,205,179,211,214,193,182,191,206,214,178,179,187,198,200,182,172,178,189,197,175,210,199,184,184,199,200,208,203,176,197,176,209,205,201,193,200,192,174,194,189,183,196,173,183,204,173,178,201,206,182,195,195,179,193,172,193,188,188,54,55,55,56,56,54,54,56,56,56,56,57,57,57,57,57,56,56,56,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,44,61,380,200,209,208,224,217,212,219,215,211,226,187,194,188,220,187,202,191,196,186,208,210,197,201,216,191,206,207,218,220,198,182,210,190,187,203,181,185,186,182,211,209,184,201,210,212,183,201,183,205,194,186,210,176,176,190,186,176,189,186,211,178,194,175,209,211,197,190,178,178,205,184,183,187,182,191,200,171,203,202,200,199,207,173,197,185,180,205,192,187,187,189,202,200,173,174,177,208,181,186,174,182,199,177,205,201,207,200,204,199,169,171,178,209,207,203,184,189,55,55,55,56,57,57,58,58,59,59,59,59,59,60,59,60,60,58,58,58,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,44,62,371,222,205,206,211,188,221,207,204,189,198,194,221,211,195,219,203,202,218,196,185,192,207,183,202,217,189,191,190,183,197,210,204,216,184,182,201,193,204,181,186,202,182,188,192,190,180,208,206,193,194,206,203,184,189,198,186,204,171,183,173,209,187,175,177,176,197,173,186,204,171,178,202,192,191,199,203,173,173,198,194,204,196,169,188,203,172,202,192,172,169,188,190,183,196,183,191,196,201,201,177,181,205,194,189,178,182,185,186,169,192,173,170,202,186,202,206,188,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,392,208,205,207,193,225,225,214,218,199,191,201,216,215,196,214,186,217,213,178,196,189,188,219,212,192,202,195,202,211,214,216,218,180,207,202,201,185,202,186,196,210,189,180,211,183,175,203,185,176,201,183,194,185,182,194,192,196,184,188,198,196,201,197,180,198,194,207,208,207,184,188,189,175,190,202,175,184,186,195,176,174,206,198,188,188,206,200,180,170,186,178,168,178,181,196,176,190,202,194,171,172,201,194,196,200,198,181,203,185,191,184,179,171,194,207,184,188,55,55,56,54,52,53,53,53,54,54,54,54,54,54,54,55,55,55,55,55,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,56,30,275,215,217,216,219,207,214,198,210,217,197,205,198,220,210,225,233,235,200,213,209,228,213,197,228,229,203,200,216,223,227,230,212,211,195,222,205,200,233,209,233,225,230,211,214,194,203,198,194,230,199,209,215,213,217,229,220,195,210,210,221,196,224,207,195,222,227,193,207,201,214,223,217,219,195,218,200,210,228,199,223,207,219,205,222,226,228,191,219,190,229,222,221,228,212,215,224,209,213,198,218,194,223,204,198,211,210,199,210,210,208,204,232,223,212,56,56,56,57,57,58,58,59,59,60,60,60,60,60,60,60,60,60,58,54,54,54,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,160,309,212,214,212,198,199,214,227,200,223,227,225,225,218,222,219,233,209,217,226,198,219,209,197,212,224,194,210,209,215,222,203,212,207,225,206,211,222,194,214,217,229,198,193,216,196,216,191,207,221,207,204,209,210,199,228,224,216,220,198,197,190,202,191,213,214,204,221,210,213,197,212,220,215,200,214,199,217,210,194,195,195,219,226,203,188,210,191,226,207,192,209,195,203,225,199,191,190,198,214,198,197,196,192,223,190,200,224,206,206,219,217,221,192,209,54,54,54,55,56,56,55,54,54,54,55,55,55,55,55,55,55,55,55,55,55,55,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,57,163,266,215,216,215,209,197,222,232,232,232,198,209,232,195,216,219,231,197,206,203,224,226,195,213,205,197,199,195,202,209,223,213,198,208,227,203,214,226,225,198,195,200,209,213,217,211,212,208,199,202,221,207,216,200,193,202,194,202,196,229,197,227,207,218,230,226,201,198,193,224,219,200,216,217,213,196,206,222,217,218,200,212,222,228,196,199,204,204,208,192,193,216,198,197,213,201,197,201,220,204,214,223,206,202,204,222,228,210,204,212,211,228,221,213,194,194,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,61,517,221,222,220,205,231,238,202,213,205,206,231,208,217,238,209,214,221,235,215,224,215,231,230,217,201,228,220,208,228,202,226,200,230,230,211,224,210,236,206,234,204,202,218,199,223,219,227,227,217,200,212,231,212,200,204,214,227,222,236,221,221,203,217,213,229,222,209,200,215,218,224,201,197,231,230,221,201,209,218,206,224,213,211,200,230,196,222,209,209,227,231,211,209,202,212,203,201,226,201,212,226,223,221,220,197,213,220,229,202,234,219,210,228,226,221,219,57,57,57,57,58,58,59,59,60,60,61,61,61,61,62,62,62,62,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,474,201,221,218,218,204,199,211,205,199,200,210,227,233,237,233,234,213,211,202,215,202,229,233,224,226,223,216,220,211,199,235,233,213,234,202,216,197,212,205,218,234,221,235,204,197,211,233,232,226,223,233,196,210,219,209,207,206,225,222,215,206,233,221,218,197,198,199,229,225,211,215,232,218,221,221,197,230,206,227,223,219,197,204,202,215,194,198,231,199,225,196,229,207,194,229,211,195,223,224,203,198,212,223,202,210,208,218,206,195,200,202,232,228,216,228,216,56,56,54,52,53,53,54,54,54,54,54,55,55,55,56,55,55,55,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,61,512,213,219,218,207,199,203,217,207,209,199,202,236,204,230,227,223,214,215,212,193,204,230,199,217,227,235,202,207,199,212,216,236,235,235,234,204,211,222,209,223,224,210,197,208,205,215,215,199,231,207,198,227,230,200,201,212,207,232,229,212,217,202,204,228,196,227,232,224,208,203,229,201,214,222,195,217,230,198,232,223,195,225,231,196,207,233,231,221,193,212,202,204,210,197,226,222,194,214,231,201,230,212,231,208,225,197,203,200,233,231,211,220,211,207,223,217,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,60,438,198,213,214,218,205,198,228,205,205,218,209,220,217,215,205,221,216,209,217,218,193,222,227,197,196,198,210,216,207,228,196,197,226,212,227,219,225,218,201,219,217,225,208,227,206,210,197,218,202,199,214,219,202,224,223,211,228,225,205,222,207,228,215,198,227,210,220,211,212,214,194,210,209,212,201,202,205,224,225,192,192,216,218,212,209,206,212,222,215,206,212,194,208,198,229,201,210,220,189,216,190,219,212,221,227,194,226,191,230,191,197,227,216,228,227,211,57,56,57,58,59,59,60,60,60,61,61,61,61,61,61,59,59,59,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,423,217,212,214,220,230,228,197,205,196,208,222,207,199,230,223,210,218,213,220,197,206,199,219,212,231,202,228,193,200,201,204,219,209,207,218,213,195,217,202,202,208,223,220,207,204,208,196,208,204,224,224,228,198,227,219,201,207,199,224,216,196,220,225,225,223,210,208,228,213,224,219,229,217,199,193,217,192,219,191,197,222,227,223,196,206,226,203,196,210,213,201,227,215,224,208,205,194,204,201,214,193,218,209,221,229,225,223,191,204,220,228,207,203,209,217,211,57,57,57,58,59,60,61,61,61,53,53,53,53,54,54,54,54,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,60,401,212,211,213,224,228,215,226,193,203,209,204,199,202,193,194,191,204,192,199,216,213,196,231,223,218,195,216,227,196,217,201,209,217,194,192,207,215,196,220,226,194,203,211,212,210,206,192,217,230,214,222,203,208,214,200,200,218,211,202,203,229,209,199,217,218,220,203,223,226,192,193,211,219,209,191,229,219,221,191,228,198,223,205,211,199,223,206,191,212,205,219,219,191,229,198,216,203,195,215,200,225,216,217,201,227,221,206,213,192,201,192,221,202,202,210,212,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,55,31,296,208,209,209,224,210,220,187,187,218,195,214,207,219,225,206,204,207,193,226,227,213,202,204,227,218,192,199,199,221,190,223,194,210,222,190,223,195,217,209,221,203,225,218,202,219,189,225,194,227,214,227,219,216,223,214,217,215,227,219,215,207,208,192,213,201,196,202,197,188,222,225,192,225,227,196,225,219,190,194,214,192,198,196,187,211,206,192,196,189,216,213,203,199,188,220,191,200,200,221,209,190,216,209,218,226,195,223,195,192,214,204,205,219,203,222,197,210,56,56,56,57,58,59,59,59,60,60,60,61,61,61,61,62,63,63,63,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,364,220,207,208,206,209,200,212,204,187,213,216,208,189,200,199,191,224,195,200,203,201,225,196,221,214,196,219,223,219,211,197,196,193,194,194,191,196,209,219,225,191,202,212,223,209,212,197,199,201,209,187,221,214,222,194,203,202,188,190,188,222,199,199,191,191,212,195,196,207,190,220,209,203,219,195,188,207,205,204,204,217,191,220,207,189,210,207,215,198,223,204,209,205,211,186,223,201,185,207,203,212,188,207,195,209,220,212,200,215,197,200,222,189,225,191,217,208,56,57,57,58,59,60,62,60,59,59,59,60,60,60,60,60,60,60,60,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,56,28,439,212,208,208,191,195,201,217,190,224,219,211,188,223,203,198,196,206,213,189,216,226,222,212,209,216,214,210,222,189,224,209,203,199,204,221,200,223,221,205,207,191,216,208,215,218,212,214,196,212,191,191,220,215,187,215,198,217,199,225,224,198,191,222,198,205,192,196,218,193,221,191,218,200,222,214,192,225,209,189,198,197,187,192,200,198,210,213,198,218,198,210,217,197,191,195,201,193,211,211,195,212,197,222,186,206,212,198,218,217,200,204,204,193,227,208,222,210,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,59,441,228,216,217,231,212,228,209,211,231,232,219,203,217,212,214,227,220,228,220,228,211,205,210,214,231,202,207,193,196,231,201,217,225,229,228,212,197,191,196,190,223,194,194,201,218,224,198,194,227,205,221,203,212,218,213,208,190,220,194,189,194,212,185,217,192,214,193,219,198,187,214,210,200,212,200,220,198,204,186,215,215,199,210,211,186,193,191,187,209,186,212,199,209,202,195,212,202,195,198,221,196,200,209,203,209,205,185,194,213,216,224,188,199,216,191,204,55,56,57,58,58,59,59,60,60,60,60,60,60,60,60,60,61,61,61,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,495,223,218,218,226,214,203,200,216,225,200,226,204,217,200,213,203,228,206,201,211,224,215,197,213,231,222,198,227,212,223,213,208,201,198,224,197,204,189,194,218,220,212,230,213,203,213,196,199,193,215,225,229,223,196,219,194,186,202,206,212,221,209,219,194,196,201,196,222,218,215,188,192,193,213,188,209,213,200,222,198,216,189,204,204,187,209,220,221,201,194,186,194,191,201,193,205,223,192,184,214,185,202,221,224,210,195,207,209,196,218,224,204,198,220,204,206,56,57,59,59,59,52,53,53,53,53,53,53,53,53,53,53,53,53,53,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,60,380,214,221,219,197,217,215,198,216,208,206,222,209,209,233,237,228,226,238,190,228,230,216,227,202,218,211,229,199,211,219,225,214,199,197,205,235,208,207,212,204,217,199,216,197,223,223,222,215,225,196,214,203,215,200,222,209,201,210,203,211,191,220,193,210,205,190,215,218,218,225,190,187,211,198,196,195,211,197,216,203,188,194,214,224,223,195,204,212,213,192,189,196,213,210,219,213,192,216,222,214,210,205,219,200,212,216,187,187,222,204,203,209,210,209,201,207,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,37,55,299,223,212,212,196,225,218,204,213,225,193,198,222,203,207,194,213,229,216,226,203,203,221,197,227,224,222,202,191,198,195,191,191,218,214,208,207,204,210,213,220,214,202,225,201,225,202,198,190,207,224,223,206,208,215,206,181,207,191,189,183,206,207,204,211,185,211,208,209,197,209,182,220,184,209,198,189,211,205,210,192,204,198,181,202,210,188,190,190,217,187,210,208,215,184,214,218,201,203,184,210,211,197,183,205,206,218,184,182,212,190,202,191,219,200,211,206,204,55,56,57,58,58,59,59,59,60,60,60,61,61,61,61,62,62,62,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,338,216,214,213,199,197,223,222,205,206,217,227,205,224,214,227,197,212,192,217,227,230,222,192,215,195,221,221,201,198,192,220,218,201,211,222,229,211,205,202,220,196,203,197,194,212,227,194,217,203,225,219,225,225,216,223,201,184,193,212,211,215,192,198,190,185,222,208,216,196,185,184,183,200,195,208,203,185,213,199,220,197,221,205,182,204,215,188,184,208,210,218,203,182,190,182,190,182,216,199,190,193,207,189,221,203,195,193,218,195,217,220,208,208,206,217,219,204,55,55,54,51,52,52,52,53,53,53,53,53,53,53,53,53,53,53,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,36,55,296,222,213,211,198,231,211,212,220,211,207,218,210,217,205,197,210,203,196,206,214,227,201,223,205,197,197,208,226,216,207,198,212,225,218,219,203,227,199,192,212,201,190,211,223,209,188,194,211,187,216,200,187,214,203,187,214,202,194,216,207,219,191,217,200,222,199,201,196,200,217,186,220,199,205,202,220,217,210,195,207,202,199,184,204,220,189,201,194,186,182,204,192,205,201,204,191,194,218,217,217,200,184,201,202,199,217,199,210,204,217,220,185,204,219,214,222,204,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,61,421,219,216,218,202,222,226,226,210,221,214,215,205,219,205,207,234,235,203,228,225,225,230,204,213,218,226,233,200,208,237,233,203,223,235,217,210,221,223,214,237,234,204,213,234,235,203,235,197,226,224,222,196,216,226,196,200,205,219,214,203,210,222,210,225,208,197,225,201,230,211,218,223,229,197,199,204,225,226,195,215,220,222,210,220,224,230,207,214,227,202,221,195,195,215,209,220,198,196,218,218,196,194,205,209,195,213,194,219,216,206,193,200,217,235,205,203,206,218,56,56,58,58,59,59,60,60,60,61,61,61,61,61,61,62,61,56,58,58,58,58,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,393,213,217,218,233,220,209,222,218,235,200,217,213,214,229,217,210,229,209,211,235,209,218,203,214,213,207,234,231,224,212,211,214,230,205,225,217,232,199,214,206,236,198,204,199,228,212,216,235,203,220,234,222,222,218,232,232,234,216,234,219,202,205,206,214,204,202,226,200,206,203,220,199,208,222,197,217,226,215,220,200,211,221,233,216,232,202,221,222,199,232,215,225,216,205,203,205,221,198,210,232,220,223,195,195,219,203,223,218,202,202,205,214,216,203,204,216,220,217,56,53,54,55,55,56,56,57,57,57,57,57,57,57,57,58,58,58,58,58,58,58,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,61,393,201,219,218,217,212,210,215,202,209,216,212,234,203,199,203,215,205,217,199,208,198,230,225,204,207,234,213,208,212,205,208,208,197,207,196,222,203,205,231,205,224,210,206,213,217,201,226,212,204,200,224,214,215,212,231,232,230,213,218,211,232,225,199,206,211,214,217,206,229,220,206,213,221,222,227,199,220,212,210,208,201,204,212,225,195,222,192,203,202,206,197,221,229,214,222,213,215,220,208,218,225,217,192,227,207,194,216,228,226,229,231,207,221,206,219,231,235,216,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,4,61,332,222,215,215,206,227,202,206,202,224,219,224,216,199,206,201,231,211,234,197,234,222,221,203,228,212,226,218,228,217,202,211,227,229,220,229,203,232,223,211,228,232,208,210,219,233,231,196,230,215,208,214,226,215,200,194,213,194,219,228,216,198,219,206,214,204,224,231,216,202,217,197,223,221,209,206,229,224,204,217,217,194,212,194,220,206,208,223,219,215,204,189,214,192,205,225,203,227,214,219,202,223,213,224,223,191,198,222,216,200,193,230,227,211,210,57,57,58,59,60,60,61,61,62,62,62,62,62,62,62,62,62,62,62,62,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,328,224,215,214,196,209,213,222,211,209,210,228,228,205,210,198,224,195,194,200,231,220,218,229,202,197,218,227,195,218,204,212,230,228,224,216,213,224,199,205,206,198,195,220,232,215,202,217,231,217,198,204,199,227,223,224,200,211,219,217,215,219,206,194,210,200,225,191,217,205,204,204,193,196,210,219,209,207,217,203,219,190,191,211,192,198,202,220,219,212,213,220,201,228,192,203,226,205,225,194,192,196,198,189,226,223,218,191,217,191,207,226,197,225,210,55,55,57,57,54,54,54,54,54,55,54,55,55,55,55,55,55,55,55,55,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,62,320,219,218,217,215,223,207,197,198,214,221,224,213,208,198,203,204,220,199,199,208,203,199,233,220,234,211,232,204,220,221,213,201,198,208,202,200,217,230,209,196,233,232,208,220,215,215,217,227,194,225,206,197,202,197,223,212,216,215,231,217,212,215,200,223,209,225,214,222,212,220,226,206,194,210,201,200,226,223,198,203,201,199,214,208,195,219,213,221,209,225,194,212,212,211,200,223,198,199,196,223,190,205,198,215,196,192,203,226,217,209,193,196,229,210,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,59,30,256,211,210,208,227,218,220,198,217,189,214,224,192,216,213,209,198,202,206,204,203,204,218,184,200,187,217,212,211,196,202,205,218,223,223,186,198,198,192,184,214,189,202,196,186,209,186,205,195,208,201,214,207,191,192,202,198,214,219,188,197,195,202,218,203,187,200,179,187,180,194,204,211,218,189,203,183,218,195,215,189,216,215,199,215,193,194,184,212,192,201,188,211,210,198,217,203,211,218,190,197,191,206,193,192,194,217,194,219,189,212,198,230,211,210,57,57,57,58,58,59,60,60,61,61,61,62,62,62,62,63,63,57,58,58,58,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,21,308,206,211,207,203,193,203,209,193,190,193,219,219,193,227,221,208,223,200,190,217,207,195,195,224,225,200,195,220,202,221,211,188,217,195,200,204,200,183,210,190,218,207,198,218,205,197,189,210,183,191,193,183,210,213,204,198,185,198,218,193,202,189,210,193,217,201,200,206,190,194,185,186,184,192,202,199,199,183,193,192,189,209,216,220,202,183,209,195,191,213,184,213,204,218,214,193,215,197,193,199,203,216,198,220,195,196,218,196,201,221,214,214,219,207,57,56,57,58,58,61,59,56,57,57,57,57,57,58,58,57,58,58,59,59,59,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,61,56,286,211,212,209,195,206,219,213,224,213,229,213,213,223,198,222,192,193,184,192,204,194,220,213,199,207,206,195,200,199,192,204,223,193,187,197,216,208,204,183,212,212,213,200,221,194,191,209,219,203,199,190,205,185,184,190,219,220,200,188,216,219,204,198,199,208,189,195,191,199,187,206,194,201,214,212,204,213,213,195,209,192,211,221,198,215,205,205,190,212,185,206,215,205,212,197,187,225,209,208,213,222,207,211,227,207,206,193,193,198,202,229,194,229,211,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,59,0,302,210,207,206,189,193,200,222,204,216,203,208,189,189,193,208,205,216,196,204,191,207,194,207,201,213,222,197,199,203,206,218,191,200,214,205,214,191,210,193,189,213,193,205,208,184,205,182,191,185,189,201,201,202,195,204,217,184,181,196,195,205,182,195,195,194,202,205,190,208,181,198,200,193,186,194,213,196,211,192,219,194,214,189,201,207,193,209,213,212,216,208,212,181,200,193,196,202,195,220,217,192,201,202,207,193,217,196,191,212,193,212,195,218,223,224,209,56,56,57,58,58,59,59,59,60,60,60,60,61,61,60,61,61,61,61,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,0,302,213,207,206,205,217,192,185,219,215,222,190,188,220,222,185,193,221,188,173,189,208,193,198,193,182,185,208,195,199,190,188,192,210,200,216,211,184,181,216,190,202,215,200,213,201,207,188,192,200,191,194,212,183,216,204,199,188,214,214,197,189,205,202,200,199,183,179,208,213,186,205,186,200,209,206,199,178,216,216,183,196,215,200,203,193,190,215,202,179,216,195,195,181,209,212,199,217,207,208,184,210,195,214,182,193,220,191,201,185,214,203,206,208,197,199,205,55,54,55,56,57,52,52,52,53,53,53,53,53,53,53,54,54,54,54,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,60,0,259,215,209,209,201,197,217,192,212,213,193,204,201,223,198,188,194,227,218,176,189,210,207,189,206,202,189,193,201,188,215,217,197,206,220,221,208,199,195,194,194,193,184,203,195,213,205,210,216,202,204,180,191,191,182,193,189,181,202,214,203,196,193,217,201,192,196,197,187,185,199,213,191,199,205,185,214,185,212,189,183,187,185,183,220,204,191,197,197,193,184,215,213,198,182,204,191,210,209,214,206,212,210,198,215,192,211,212,191,224,213,194,192,196,204,194,211,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,59,337,200,197,196,198,183,202,177,204,198,190,204,200,197,204,196,205,188,201,191,176,179,194,181,212,207,201,176,192,190,202,188,195,183,214,205,212,198,183,211,185,202,188,185,209,196,204,193,207,180,207,180,188,208,178,184,191,174,180,181,185,185,196,207,197,185,194,185,187,184,187,178,169,173,208,174,179,181,210,175,177,188,180,193,183,201,200,173,201,179,182,199,201,176,189,191,180,207,184,202,205,205,191,212,184,183,181,206,195,177,184,205,204,211,214,216,186,200,57,56,57,58,59,59,60,60,60,61,61,61,61,58,58,58,58,59,59,59,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,365,211,195,194,187,197,193,199,176,207,199,179,189,186,182,196,175,193,193,201,196,187,194,212,192,179,213,213,178,202,193,200,199,174,203,180,196,186,172,210,173,204,200,205,187,177,189,184,202,179,191,198,175,200,185,206,196,199,202,182,201,170,169,181,182,179,181,202,176,177,172,203,174,190,206,194,180,201,184,182,171,202,199,199,189,201,209,181,192,180,185,183,194,170,190,170,213,176,204,181,180,208,200,208,182,213,188,183,191,191,200,213,187,204,204,184,191,198,56,55,56,55,54,54,54,54,55,55,55,55,55,55,55,55,56,56,56,56,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,59,366,203,197,195,211,184,195,191,205,215,214,193,187,179,180,190,175,211,177,190,178,204,177,175,210,195,199,185,208,204,176,195,204,174,207,195,199,193,183,177,188,199,176,209,194,177,180,205,203,175,182,184,178,202,174,184,197,197,174,200,202,193,208,197,173,177,190,177,175,192,174,194,179,184,179,195,190,202,197,189,205,191,207,201,188,176,198,199,208,172,194,192,202,179,191,177,184,202,185,211,185,196,186,204,190,191,210,215,201,206,186,197,186,193,186,200,187,200,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,57,169,232,198,204,198,209,192,184,200,203,194,190,214,203,206,201,195,201,206,177,183,221,205,182,204,194,202,188,202,200,194,189,184,190,190,212,213,203,191,189,210,184,208,200,185,189,179,213,206,186,212,184,208,203,212,182,181,205,200,201,205,186,197,212,190,180,211,196,182,184,199,177,201,212,208,212,205,184,181,211,198,215,198,214,204,178,181,198,210,178,191,191,207,210,210,193,209,194,204,199,190,213,203,215,219,184,184,190,197,200,203,183,197,199,55,56,57,58,59,59,59,59,59,59,60,60,60,60,61,62,57,57,57,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,2,267,249,200,205,199,191,220,183,190,205,218,216,220,188,208,220,214,197,208,186,207,205,218,205,200,204,218,197,188,217,194,209,209,207,184,184,195,193,219,194,207,186,193,199,184,208,184,190,184,214,203,192,183,213,202,181,178,182,197,187,206,214,184,198,195,202,190,200,215,184,215,195,190,209,190,209,181,196,197,181,213,217,190,187,191,213,196,219,198,199,218,205,194,191,207,213,194,196,218,209,188,202,188,196,189,203,203,202,211,191,219,209,213,203,57,58,59,55,55,55,55,55,55,55,55,55,55,55,55,55,55,55,55,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,57,324,193,200,203,199,188,217,212,188,215,188,204,213,202,206,213,222,197,214,217,190,213,184,186,190,214,200,215,217,195,213,209,192,207,203,210,203,198,208,188,201,200,205,208,182,187,207,206,213,216,196,191,193,187,200,182,184,213,198,214,194,211,206,206,184,176,205,183,194,196,213,186,208,185,178,178,205,206,208,198,200,202,183,183,209,188,184,192,188,204,196,210,200,210,184,194,194,200,195,207,205,204,186,206,210,184,194,211,200,203,207,193,187,194,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,58,294,210,204,204,198,194,194,202,186,211,185,210,209,216,208,202,200,203,203,177,213,215,210,201,203,200,217,189,191,185,208,203,208,212,198,198,199,188,198,185,196,213,218,191,209,210,217,190,186,203,185,212,200,213,183,218,190,209,194,208,218,196,211,203,183,215,215,211,208,220,215,195,214,199,211,193,219,186,204,197,205,210,225,225,207,194,224,201,225,221,222,211,199,198,223,192,208,205,216,213,229,202,215,217,197,210,217,197,199,199,208,224,201,218,213,57,57,59,59,60,61,61,61,61,62,62,62,62,62,62,62,62,62,62,62,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,332,210,203,201,197,184,215,216,214,194,200,194,208,191,218,211,206,186,208,205,193,199,189,190,220,217,204,196,187,213,192,207,187,201,186,181,218,183,199,208,199,193,198,189,212,182,218,211,199,188,214,188,206,180,188,214,183,212,190,194,193,218,185,181,186,216,217,204,212,196,211,189,180,200,186,199,195,191,194,193,185,204,192,206,205,215,202,221,217,207,184,184,220,217,183,203,204,191,192,223,212,223,193,213,195,201,212,200,193,215,220,209,215,192,209,55,55,56,57,58,58,58,57,57,58,58,58,58,58,58,58,58,58,58,58,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,58,279,218,206,205,200,186,183,215,193,193,183,191,200,212,194,194,223,187,223,189,221,207,190,196,184,199,205,202,213,219,202,213,186,218,202,201,209,209,209,187,202,187,211,193,188,211,213,219,206,189,202,196,182,202,209,217,183,215,219,189,191,214,212,198,220,192,221,216,193,190,215,222,202,218,209,188,199,222,223,197,209,191,188,190,195,203,212,226,203,218,192,189,192,212,212,206,220,225,208,221,214,195,193,219,230,229,209,201,205,201,201,196,200,217,214,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,56,327,200,197,201,203,179,218,202,186,208,183,180,194,186,195,215,200,211,196,202,207,207,215,219,218,218,191,215,186,187,178,178,193,208,213,202,210,207,204,198,189,213,196,217,181,181,205,184,210,217,184,215,205,209,192,196,192,184,204,199,205,203,187,205,181,190,203,190,198,185,200,180,184,194,218,210,206,206,211,201,221,190,202,216,224,186,205,187,208,187,203,214,216,198,187,209,227,191,224,200,208,190,198,204,219,225,199,200,193,209,191,194,206,218,210,212,56,56,57,58,59,59,59,60,60,60,61,61,60,61,61,61,63,63,63,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,229,232,197,201,191,213,209,216,200,193,195,193,214,198,196,185,183,216,201,206,195,196,216,204,194,205,191,200,178,204,192,206,180,208,179,189,213,209,189,179,185,193,200,213,210,215,200,184,205,213,204,195,212,196,201,187,202,203,211,191,185,211,186,184,209,206,191,201,196,206,184,183,204,201,200,214,192,195,205,211,188,216,188,197,199,213,221,220,189,204,192,187,201,212,191,206,202,196,206,193,189,209,192,217,191,210,192,220,191,208,215,217,218,214,212,208,56,56,57,59,62,55,55,56,56,56,56,56,56,56,57,56,56,56,56,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,57,333,208,199,204,202,204,215,190,215,204,213,213,185,194,204,210,182,215,217,191,191,196,210,188,214,185,208,217,202,192,219,187,183,199,188,196,216,196,203,200,205,216,195,185,196,219,194,210,207,182,190,192,201,186,187,211,184,216,199,201,195,187,201,211,199,205,211,204,218,197,215,219,194,213,213,216,188,198,201,213,207,215,219,193,223,188,191,225,200,211,213,211,193,209,191,228,202,226,211,230,206,207,225,219,207,231,209,223,208,221,215,227,201,196,197,213,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,61,62,403,207,224,224,206,234,213,207,209,235,223,220,231,238,237,223,239,231,213,222,216,213,223,214,220,209,229,237,213,232,202,225,212,231,224,202,231,230,218,199,227,235,216,210,208,229,200,227,217,214,223,223,212,200,213,198,219,227,223,200,202,217,219,214,208,227,213,217,221,222,227,223,224,223,207,213,204,232,220,228,214,215,216,206,201,211,220,229,227,227,232,222,224,210,232,228,221,206,195,220,207,195,218,198,231,206,217,211,218,227,195,235,231,208,207,198,216,55,56,56,57,58,58,59,59,60,60,60,60,60,60,61,61,62,62,62,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,60,61,462,224,225,224,206,209,233,203,222,238,213,237,234,238,234,241,212,205,241,223,204,239,227,218,205,238,202,230,241,233,219,234,238,227,233,233,228,204,240,226,230,214,233,221,201,210,235,221,211,205,200,238,237,233,224,234,204,201,206,218,232,224,213,220,200,233,213,214,228,206,231,233,212,231,227,233,223,209,227,220,236,218,231,226,202,198,233,210,201,227,203,215,204,206,211,223,213,202,211,225,230,233,209,233,230,212,198,198,216,217,235,219,227,209,235,228,217,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,0,550,225,228,227,219,215,209,229,230,242,204,233,237,204,221,207,235,224,243,230,233,237,229,213,231,220,218,221,223,208,203,215,208,220,216,227,232,211,208,206,224,207,223,203,212,214,207,232,222,204,233,212,225,227,231,223,208,209,237,202,207,231,220,203,209,212,221,236,230,232,226,226,238,212,208,207,236,203,212,223,217,227,223,209,234,218,231,231,216,233,215,224,228,225,203,200,225,227,218,227,216,206,227,198,216,231,208,222,214,198,209,225,233,220,208,200,219,57,57,58,58,59,60,60,60,59,59,59,59,60,60,60,60,61,61,61,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,56,381,205,204,203,195,189,217,208,216,186,219,205,199,184,185,207,218,200,207,199,206,193,202,191,219,197,211,203,184,182,206,209,193,193,212,185,209,191,179,207,189,201,187,204,203,182,179,184,194,197,185,204,177,207,215,184,199,182,202,183,207,207,196,204,212,190,187,199,177,175,190,193,176,177,205,205,213,199,189,190,183,175,208,183,193,196,199,196,199,176,195,202,179,189,207,183,210,184,179,181,184,182,207,209,187,198,206,191,212,187,202,179,180,181,214,201,189,199,56,55,56,57,58,58,59,59,59,59,60,60,60,60,60,60,60,61,61,61,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,441,211,205,203,207,212,184,207,185,200,195,192,191,221,223,201,215,197,186,187,190,211,197,200,216,190,194,218,202,197,186,208,199,196,207,185,195,197,197,207,205,196,201,182,198,192,207,207,214,213,201,210,214,197,212,208,190,209,177,198,176,192,207,208,190,185,194,196,214,213,183,202,175,211,208,182,204,204,186,174,186,182,183,175,210,175,199,198,206,193,206,203,195,173,206,195,203,181,178,184,177,190,192,208,194,200,209,184,216,187,214,181,181,191,192,197,206,193,193,55,56,58,60,55,54,54,55,55,55,55,55,55,55,55,55,54,54,54,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,58,363,195,205,204,183,204,185,187,194,207,214,186,207,214,211,194,213,192,187,190,208,192,208,191,216,215,205,202,185,212,209,209,192,220,202,191,215,205,193,205,182,190,181,200,202,207,177,213,195,213,181,191,183,185,202,195,189,194,197,214,190,179,189,189,186,200,206,180,206,189,193,201,195,182,207,189,197,201,196,175,178,207,184,187,182,207,209,182,184,182,197,181,197,185,199,202,192,182,216,202,209,216,197,188,213,192,214,181,200,180,186,213,187,199,190,211,176,188,188,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,58,316,206,195,195,216,196,191,200,199,198,216,212,188,184,180,178,176,179,205,209,182,203,189,191,186,197,210,183,206,205,179,197,207,187,199,197,191,210,211,200,185,206,185,184,186,209,174,186,177,194,184,209,182,188,178,183,191,174,190,187,212,210,196,204,210,192,204,205,176,179,184,192,181,205,209,184,184,191,179,199,203,185,214,192,211,191,205,201,188,188,211,194,210,207,208,204,215,202,187,210,212,199,187,181,209,191,206,203,207,204,198,214,183,205,219,213,221,201,54,54,55,55,56,56,56,57,57,57,58,58,58,56,56,56,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,59,322,194,196,196,206,201,210,180,215,202,198,205,195,201,183,186,183,202,192,187,215,198,207,179,210,187,188,185,192,189,189,181,214,204,212,204,211,189,196,177,184,207,188,185,203,191,188,194,213,182,207,177,182,208,196,199,181,177,206,180,186,187,207,192,211,211,194,199,212,174,173,200,205,198,212,181,189,188,204,213,188,175,185,196,201,204,198,185,206,179,190,198,194,212,173,176,196,176,194,215,206,186,193,182,181,215,184,214,192,186,181,191,194,185,190,202,185,200,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,308,214,194,195,205,202,193,190,191,208,177,211,182,213,194,176,189,211,180,202,197,190,192,194,203,200,194,202,215,185,202,184,197,197,186,200,205,195,193,198,193,210,177,177,212,210,194,201,187,182,201,176,185,200,185,189,196,203,179,193,187,184,203,200,194,203,187,205,192,177,191,210,199,188,175,210,204,197,177,182,209,177,190,191,187,210,206,189,176,197,203,202,199,209,200,199,201,196,177,197,203,197,181,207,195,193,200,191,203,189,201,179,195,190,191,202,180,199,54,53,50,50,50,50,51,51,51,51,51,51,52,52,52,52,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,57,59,432,200,196,192,189,200,182,182,191,175,187,183,177,175,182,190,185,184,190,192,189,210,197,208,187,176,187,205,185,190,183,190,179,209,185,197,186,175,178,189,203,195,204,188,207,191,196,202,211,211,202,210,180,181,178,174,185,186,192,194,194,204,198,212,216,186,210,205,185,204,194,206,188,202,192,213,200,183,209,205,178,180,194,204,209,195,217,195,198,205,187,186,193,187,215,187,193,199,203,191,182,192,195,185,183,191,211,185,181,198,217,182,196,194,213,179,211,194,54,54,55,55,56,56,57,57,57,58,58,58,58,58,58,61,60,60,60,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,56,57,388,184,196,192,191,196,202,207,211,211,191,174,198,175,179,197,193,182,180,200,181,186,175,180,203,189,205,210,213,181,186,209,174,198,212,199,178,184,208,206,186,179,181,195,198,188,206,185,203,209,194,189,174,204,181,189,182,207,206,187,193,183,214,179,200,211,203,197,213,199,174,177,198,193,179,196,187,197,184,198,186,182,180,181,202,197,215,179,209,201,192,189,210,188,180,190,205,215,212,209,208,185,209,208,205,186,205,220,220,217,209,203,220,183,184,195,187,196,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,384,192,197,194,183,208,213,180,201,200,206,194,205,202,192,177,192,198,213,215,182,212,205,207,192,180,196,210,181,182,178,205,192,195,179,205,181,199,208,211,185,192,176,198,189,188,197,187,193,177,191,199,203,191,200,175,183,204,202,198,218,213,179,212,195,217,189,207,190,205,217,210,206,178,180,193,210,200,212,203,193,195,188,195,191,211,209,185,187,211,184,217,211,181,216,206,198,200,197,197,181,219,198,201,187,209,219,199,202,204,187,195,206,184,202,210,222,55,55,55,57,53,52,52,52,52,53,53,53,53,53,53,53,54,54,54,54,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,59,57,306,206,214,213,225,213,204,210,204,193,197,204,209,225,226,193,210,211,205,233,224,216,213,221,215,202,231,227,217,195,205,222,231,199,202,230,222,197,222,205,227,206,198,202,216,209,198,203,217,201,209,191,192,218,217,218,213,216,199,200,197,221,208,227,225,214,190,200,217,222,208,190,189,190,219,220,219,226,221,190,220,189,198,193,204,208,219,216,223,219,221,191,203,208,224,206,221,226,209,192,227,215,198,222,207,199,231,216,222,198,197,217,216,193,207,212,54,55,56,56,57,58,58,58,58,59,59,59,59,59,59,60,60,60,60,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,57,55,335,215,213,212,195,216,227,219,218,221,190,222,219,212,220,227,209,196,221,199,218,212,226,215,223,206,196,227,209,217,207,198,193,202,216,199,223,215,213,209,216,206,191,190,191,197,198,227,204,213,224,202,197,203,205,222,209,211,195,225,203,207,191,189,205,197,203,204,204,217,199,220,207,204,207,214,223,222,197,207,186,202,201,210,217,219,207,203,218,204,204,193,206,189,205,220,202,221,187,196,193,187,218,192,224,206,221,204,200,208,202,220,203,217,205,210,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,0,381,221,214,213,208,207,224,206,209,202,192,207,192,228,226,214,231,216,232,219,204,227,213,219,229,192,197,221,217,206,217,219,217,201,211,217,221,203,213,219,216,213,211,211,194,192,228,194,227,208,197,215,197,226,221,221,223,194,226,204,200,221,210,212,224,205,203,201,227,210,192,206,222,211,223,189,211,200,190,198,199,198,190,188,203,191,212,213,207,187,199,225,208,213,202,206,201,196,190,194,214,212,205,214,194,204,193,210,220,225,213,232,215,227,226,211,55,56,57,58,54,55,55,55,55,56,56,56,56,56,56,56,56,56,56,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,32,60,167,275,205,207,204,221,209,196,209,214,199,204,190,211,188,189,195,204,198,199,217,223,218,210,184,205,219,208,192,191,217,215,209,189,192,212,185,217,197,198,188,208,217,203,184,195,210,191,185,205,198,213,200,205,194,210,196,220,184,193,214,199,186,196,214,204,184,199,220,206,187,212,195,207,194,203,185,215,181,205,212,222,194,203,194,191,219,191,196,205,217,205,197,218,212,215,189,221,217,199,219,220,195,202,210,216,225,210,201,213,189,225,192,192,224,227,227,212,209,54,54,55,55,56,56,57,57,58,58,58,58,59,58,59,59,57,57,57,57,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,32,59,290,220,207,206,202,194,223,221,191,196,220,207,204,195,213,185,188,220,206,189,208,183,191,222,220,190,194,211,193,188,213,221,203,210,221,189,218,214,196,202,190,217,196,182,196,197,208,204,199,204,189,202,201,220,187,184,216,198,213,207,192,209,202,207,214,193,207,182,214,213,202,196,192,217,195,211,205,188,214,211,219,206,217,191,189,219,219,184,183,209,192,185,203,210,192,215,207,214,212,203,210,185,192,192,204,198,223,192,214,219,197,204,192,205,192,214,220,195,208,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,232,243,205,206,203,197,212,205,191,186,199,201,199,197,189,221,203,197,206,208,212,219,211,201,209,206,217,221,212,202,192,201,186,187,218,184,187,218,195,200,189,218,207,220,187,215,199,209,190,186,184,210,185,216,208,189,194,181,220,200,206,199,191,197,189,190,183,181,189,191,189,205,218,193,218,205,192,185,199,218,197,202,206,216,211,190,208,195,185,208,190,212,200,221,207,221,208,192,189,217,212,216,202,191,219,186,188,199,215,213,209,192,195,204,223,213,226,216,207,56,56,56,57,56,54,54,55,55,55,55,55,56,56,56,56,56,56,56,56,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,58,53,330,216,209,208,208,228,222,191,223,194,204,212,205,200,223,211,201,196,199,202,217,196,223,229,232,208,225,195,207,219,226,213,215,215,201,228,227,230,229,206,208,226,222,203,208,201,222,202,226,205,219,190,194,199,204,209,194,209,222,219,210,219,190,190,219,202,226,213,212,225,222,200,210,201,208,204,225,201,217,220,214,200,201,194,195,192,186,214,187,222,200,203,209,218,199,192,212,200,186,188,185,194,219,205,192,219,188,206,204,220,217,194,204,194,207,55,54,55,55,56,56,57,57,58,58,58,58,59,59,58,60,60,60,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,59,54,316,213,209,209,201,228,210,223,202,228,217,220,211,200,189,191,205,224,213,200,215,206,229,208,204,219,197,228,211,228,199,195,225,214,227,206,207,209,216,218,195,223,200,198,221,223,205,200,197,193,227,229,206,207,196,218,221,188,217,210,200,201,199,226,219,218,220,207,191,216,203,225,213,187,195,197,205,188,223,220,218,196,188,185,222,202,202,200,191,223,215,222,194,188,220,221,211,195,191,188,198,224,206,222,206,215,197,195,197,209,216,222,192,221,207,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,0,323,213,213,212,207,206,225,218,222,203,218,220,226,212,201,231,216,208,203,216,215,204,209,206,236,234,229,236,207,214,226,197,222,223,219,221,234,216,233,195,209,202,226,215,222,225,198,228,228,207,210,207,231,230,229,204,210,193,210,211,215,220,199,201,207,202,223,206,211,198,212,192,205,203,229,228,211,225,210,215,227,205,207,194,190,197,196,210,207,213,210,198,208,227,208,201,222,218,198,219,217,208,215,208,219,203,190,201,223,227,214,220,223,212,210,55,55,53,52,52,52,53,53,53,53,54,54,54,54,54,54,54,54,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,58,444,199,217,218,208,194,202,218,228,204,199,213,212,217,225,211,231,215,215,224,206,217,237,225,202,198,220,217,219,228,218,207,228,221,228,201,214,225,215,212,223,211,207,218,231,211,228,196,214,226,235,209,208,224,196,206,202,200,219,206,196,231,203,191,224,205,217,226,210,218,201,204,219,200,205,220,212,191,190,200,213,197,210,191,219,213,195,199,216,219,201,227,209,209,224,200,198,205,187,226,207,189,200,224,212,190,206,224,197,198,206,205,201,213,202,222,211,54,55,55,56,57,57,58,58,58,58,59,58,59,59,60,61,61,56,56,56,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,418,197,216,217,230,192,221,203,209,211,209,214,231,203,219,210,211,230,211,230,230,219,204,214,226,226,216,214,216,198,200,210,229,205,200,210,222,212,217,209,222,199,210,224,230,195,215,198,226,208,195,191,216,220,217,218,199,231,221,191,194,222,225,190,210,211,212,194,204,189,227,196,189,223,200,191,211,215,220,190,215,222,222,218,214,217,212,199,205,194,210,188,208,195,202,208,207,188,219,197,210,187,202,199,192,194,215,227,208,188,223,202,221,203,198,197,209,56,56,59,53,53,54,54,54,54,54,54,54,54,54,54,54,54,55,55,55,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,59,432,192,216,218,208,198,222,231,218,196,209,197,202,208,208,228,206,222,214,204,219,221,223,226,233,217,218,203,218,220,214,235,198,200,221,209,205,220,206,198,205,198,213,209,211,207,206,201,226,224,199,203,216,203,209,224,208,227,219,205,194,220,218,215,196,196,221,211,205,229,220,201,212,229,218,196,227,218,211,213,192,223,222,202,224,191,211,190,191,194,191,200,198,219,225,192,201,199,190,192,206,208,186,207,193,219,219,211,189,186,197,212,226,209,210,228,210,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,56,24,260,203,201,200,195,203,200,199,198,195,185,189,190,190,211,207,196,194,189,181,200,190,200,208,215,216,186,194,188,189,202,195,213,212,189,193,208,195,194,182,206,201,219,203,188,220,212,192,190,187,205,208,220,211,212,214,192,189,194,195,214,217,218,194,191,227,201,209,190,220,226,212,217,199,213,198,213,211,205,207,192,222,220,229,213,207,215,216,209,219,225,198,224,219,221,207,203,204,221,210,204,211,215,213,214,220,211,204,235,203,201,233,233,236,206,239,220,57,57,57,58,59,59,60,60,61,61,61,61,61,61,61,62,62,62,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,10,302,200,200,197,204,211,203,192,189,206,178,216,195,190,185,207,208,186,210,215,213,199,194,183,184,203,183,193,195,196,199,215,204,187,218,201,190,193,199,190,205,192,182,214,208,183,206,185,191,204,192,184,196,183,216,194,192,203,217,201,219,220,222,188,199,220,217,189,185,207,203,185,213,194,204,201,210,226,219,212,215,219,222,215,189,195,187,225,204,220,192,217,194,218,232,214,202,206,192,197,231,220,227,228,199,230,202,199,200,224,210,220,233,219,231,228,219,57,57,58,59,60,62,62,62,53,53,53,53,53,53,53,53,53,53,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,57,29,271,204,200,198,183,209,205,197,183,181,211,210,192,190,182,189,202,199,199,201,187,206,211,206,179,208,190,191,203,183,214,181,197,212,203,200,191,190,183,182,223,218,205,217,197,201,187,196,206,200,214,186,215,191,194,193,212,222,222,215,201,220,226,207,194,195,207,207,196,186,190,202,187,190,218,209,220,198,227,225,218,223,224,227,195,220,220,190,207,208,191,225,208,210,222,216,234,217,201,214,206,206,209,226,203,213,232,197,210,213,206,237,212,229,236,218,219,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,54,13,406,213,219,218,218,224,220,235,224,217,222,232,204,225,209,229,205,227,221,205,238,209,230,216,238,231,228,231,199,219,232,225,203,219,219,215,216,231,203,208,223,208,231,219,216,218,229,204,216,200,212,218,195,214,233,213,200,227,201,215,230,232,221,226,226,205,233,226,207,202,202,206,194,214,213,229,201,211,213,207,209,218,218,220,212,226,217,217,219,223,220,220,204,205,208,215,237,215,212,243,242,237,243,227,208,221,209,239,231,244,209,229,243,237,244,228,56,55,56,56,57,58,58,59,59,59,60,60,60,60,60,62,62,62,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,482,219,218,217,198,234,232,216,201,205,195,210,201,213,215,233,198,216,200,199,203,201,229,205,206,233,206,228,201,231,210,220,224,207,221,209,205,233,198,202,234,198,228,215,233,224,232,199,221,202,209,208,213,217,216,223,203,212,222,221,195,198,200,195,221,221,207,202,199,231,215,196,196,224,214,222,228,234,205,234,234,229,215,222,211,204,222,210,205,221,195,232,212,207,229,207,217,229,224,213,220,208,219,220,216,231,209,240,235,210,223,238,217,241,227,226,57,56,57,58,60,55,54,55,55,55,55,56,56,56,56,56,56,56,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,54,10,399,206,220,219,218,196,217,226,205,196,226,207,234,228,203,221,213,232,213,237,231,202,206,227,203,204,214,235,208,222,233,216,233,229,223,199,232,211,220,205,227,205,202,234,234,222,230,217,223,213,199,231,229,206,227,211,198,213,231,216,213,219,232,216,212,211,231,234,212,219,215,215,210,200,200,215,216,211,232,238,208,214,221,218,219,207,228,217,225,228,224,221,228,223,202,206,224,211,224,240,207,227,228,226,212,242,211,205,226,238,231,245,213,229,238,227,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,57,389,180,191,189,206,174,199,173,180,186,206,199,174,171,185,173,181,179,189,190,181,193,168,181,185,182,197,166,188,169,172,178,201,171,185,193,192,205,188,181,171,198,165,185,201,164,172,196,200,187,172,196,180,178,181,186,170,198,178,176,202,174,167,188,168,170,188,185,198,163,201,200,200,177,188,173,191,169,196,184,178,171,173,192,190,187,168,198,192,204,185,205,170,179,203,198,178,198,185,198,176,211,197,186,212,198,211,209,180,193,179,189,190,217,194,179,210,198,56,56,57,58,58,59,59,60,60,60,60,60,60,60,61,62,62,62,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,413,194,191,190,172,179,169,197,173,184,193,197,191,207,201,169,186,171,190,184,191,189,198,196,200,196,179,193,175,166,174,171,193,178,205,201,200,173,174,190,204,171,171,203,191,196,172,199,172,183,190,173,183,193,194,170,177,167,168,190,194,192,171,182,179,205,193,205,197,185,173,197,179,194,176,194,183,171,202,173,173,187,191,198,202,195,173,194,172,183,188,204,182,193,194,200,181,190,177,186,205,187,203,185,184,196,204,206,175,192,179,193,177,204,209,192,214,197,54,55,56,58,58,58,58,51,51,52,52,52,52,52,52,52,52,52,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,58,462,197,192,189,171,175,179,171,191,185,191,173,189,196,169,199,198,197,182,182,167,170,186,185,197,185,185,167,169,175,184,194,177,203,204,169,180,177,205,185,192,165,202,199,187,181,179,165,178,202,183,194,170,202,197,199,182,183,196,187,182,194,178,174,170,205,193,183,196,184,181,190,192,186,175,185,184,190,186,184,197,179,202,207,193,201,186,199,181,186,191,188,204,177,207,204,199,172,191,177,200,200,175,195,210,213,182,200,182,184,214,208,200,210,202,195,193,198,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,58,443,190,190,189,192,202,181,193,189,182,182,176,170,170,196,179,190,178,168,168,193,193,206,198,182,200,202,182,205,184,201,205,185,192,167,175,184,200,206,171,180,183,204,177,192,185,178,170,196,177,177,191,168,192,205,168,195,198,171,196,174,184,196,198,202,208,176,177,175,191,187,207,194,182,174,209,192,200,207,207,182,210,208,181,185,214,212,210,196,179,216,193,196,188,189,214,214,203,211,183,216,196,186,202,220,208,199,217,220,200,219,184,203,209,208,222,203,55,55,56,57,57,57,58,58,59,59,59,59,60,60,59,61,60,60,60,60,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,412,180,191,190,195,206,204,201,190,192,173,185,184,186,187,184,182,200,181,203,205,177,201,176,187,189,191,206,203,197,168,204,203,195,174,190,186,206,191,169,189,196,202,181,193,209,178,183,175,172,180,170,193,189,175,193,204,176,177,192,181,181,199,183,208,199,176,191,211,189,174,198,176,181,202,208,191,188,192,212,198,210,186,205,214,185,189,196,182,202,194,204,191,182,203,184,199,195,212,199,191,198,209,180,210,186,215,182,205,193,198,182,197,214,193,182,201,54,54,55,56,56,56,53,53,53,53,53,54,54,54,53,54,54,54,54,54,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,58,446,178,191,192,197,179,204,193,198,185,193,195,187,196,185,187,179,184,184,187,197,193,203,204,189,185,179,176,173,193,173,172,190,183,208,187,172,184,185,182,209,181,191,193,178,175,210,211,200,182,178,207,185,211,208,172,175,207,191,181,190,191,179,190,190,201,191,183,179,186,207,179,191,216,193,196,194,184,201,194,216,187,217,203,188,198,185,191,189,211,202,190,215,213,216,208,214,197,216,183,210,183,218,215,182,205,206,196,186,199,214,214,194,193,205,220,205,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,58,428,190,204,205,194,222,206,204,186,190,212,218,204,189,191,217,217,207,213,190,211,220,205,197,197,223,215,195,202,191,210,203,223,212,212,200,205,226,198,205,223,199,217,187,212,197,223,186,213,216,195,196,218,217,210,198,190,199,207,206,201,222,187,216,188,186,189,191,193,187,218,212,184,207,219,206,196,194,190,188,212,199,213,211,221,198,217,221,197,206,218,192,192,218,192,206,184,224,200,196,187,185,197,191,205,219,190,185,215,208,199,211,212,201,189,196,205,55,55,56,57,57,58,58,59,59,59,60,60,60,60,60,60,60,60,60,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,337,188,204,204,191,212,199,187,206,211,188,217,187,202,194,217,216,211,218,192,198,221,202,199,204,202,211,220,208,191,223,220,188,223,193,201,195,223,196,208,208,212,198,201,203,203,222,202,196,214,201,208,197,218,188,213,199,213,215,218,203,215,190,207,211,210,209,196,223,220,189,215,189,199,211,210,191,189,214,203,214,198,211,188,206,190,219,198,190,195,188,197,215,210,220,214,197,189,203,195,209,190,188,185,193,195,218,189,186,186,194,220,192,188,219,197,205,54,53,49,50,50,50,50,51,51,51,51,51,51,51,51,51,51,51,51,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,58,395,194,206,206,212,200,200,196,221,208,216,207,188,205,202,211,222,191,211,213,194,190,216,189,208,221,206,220,209,212,218,210,203,221,215,215,222,204,218,196,201,227,209,210,191,198,196,197,199,192,204,222,204,206,196,187,209,196,194,218,198,225,190,208,219,219,189,216,199,203,210,221,219,187,202,222,211,203,198,203,224,201,202,186,190,217,207,208,190,189,197,185,197,206,192,200,223,212,208,218,208,190,193,215,199,207,209,212,215,190,224,218,194,217,206,193,208,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,60,415,200,216,216,202,220,208,202,214,213,222,231,201,227,230,233,236,201,232,205,215,228,234,202,216,198,200,226,202,208,199,197,224,236,199,200,234,232,218,204,213,214,212,230,219,217,218,207,195,214,220,227,208,204,211,211,222,226,228,202,225,205,230,206,222,201,198,225,194,205,215,226,212,230,227,229,206,219,201,204,216,229,223,194,201,214,208,203,200,202,211,230,222,227,214,226,218,209,200,223,224,223,208,214,224,199,212,215,203,222,202,200,198,233,230,217,213,56,56,56,57,57,58,58,59,59,59,60,60,60,61,61,61,61,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,406,191,211,211,224,194,199,216,205,211,223,220,224,214,193,225,218,232,196,213,212,216,207,215,222,213,224,218,218,199,223,225,219,203,196,217,230,211,208,220,227,203,223,224,205,201,205,200,231,208,203,199,212,229,216,218,228,218,209,217,227,228,194,190,204,223,212,197,202,192,204,205,217,196,203,191,197,196,228,217,223,211,191,195,200,190,205,195,192,197,208,189,209,212,209,211,205,193,211,218,188,187,200,209,215,221,198,226,213,199,210,202,221,201,197,216,210,55,55,55,53,53,53,54,54,54,54,55,55,55,55,56,56,56,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,59,477,196,213,214,196,222,224,207,227,206,202,203,221,218,232,226,219,219,229,196,231,197,235,236,198,222,217,214,208,224,212,194,216,232,205,210,208,228,206,210,218,216,199,209,207,219,232,234,209,224,205,227,195,213,227,202,219,199,222,229,210,219,208,210,196,193,220,192,203,222,212,200,206,205,216,223,198,196,231,209,231,195,212,192,221,224,197,192,213,207,203,217,217,199,190,206,190,211,203,192,195,210,228,219,199,210,224,212,215,227,210,217,218,216,220,226,212,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,41,38,301,227,221,220,199,205,208,237,232,235,202,205,221,203,206,213,237,237,227,231,216,201,228,221,208,209,212,231,231,219,206,233,226,204,214,237,201,228,213,228,218,204,206,203,203,225,230,220,211,229,210,239,221,211,233,229,220,217,202,235,201,202,224,219,214,230,223,203,219,212,230,225,232,206,204,207,207,206,208,217,213,223,235,234,210,231,211,230,219,221,225,217,233,196,207,210,203,218,202,211,212,224,221,227,228,207,228,205,215,208,212,222,216,210,203,195,214,56,57,58,59,59,59,60,60,60,60,60,61,61,61,61,61,61,61,61,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,340,226,221,219,235,229,233,200,211,220,212,232,230,234,234,231,213,205,235,203,209,203,240,228,229,210,225,209,210,205,212,222,216,201,213,202,203,215,212,211,239,232,219,212,229,205,200,230,222,218,233,234,222,216,204,214,215,226,231,238,221,232,223,199,226,204,210,230,233,201,235,220,211,211,205,231,225,198,210,200,210,200,218,220,197,230,225,214,209,206,223,226,218,224,210,222,198,210,207,198,196,201,210,197,226,222,203,209,211,215,222,203,214,208,199,230,215,55,57,58,60,56,56,57,57,57,57,57,57,57,57,57,57,57,57,57,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,43,37,316,232,222,220,199,208,231,200,208,204,230,228,233,218,223,198,208,206,212,239,237,208,222,219,215,214,232,224,234,220,234,241,204,224,217,231,237,219,230,210,221,220,233,212,236,221,219,205,237,234,236,223,222,221,238,234,229,218,222,215,236,214,233,233,221,231,217,213,220,209,225,234,220,207,202,221,216,208,228,236,232,207,230,215,201,209,235,209,231,197,208,211,225,223,226,202,205,229,225,205,222,214,227,209,226,233,236,216,224,212,192,219,230,232,205,208,215,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,57,61,332,215,213,211,195,217,228,192,230,224,198,221,197,205,201,229,209,227,202,182,222,210,202,223,221,208,225,216,193,192,204,200,214,210,213,207,226,211,219,189,193,213,194,208,198,193,223,220,205,210,208,212,223,201,204,226,218,205,208,197,225,202,210,191,224,200,193,201,205,216,187,194,207,209,190,215,210,191,209,214,218,203,223,197,202,202,201,215,222,189,193,219,200,211,187,212,213,192,210,222,203,213,188,191,213,210,215,211,225,225,194,193,227,197,207,213,192,211,56,56,56,57,58,58,59,59,59,60,60,60,60,60,60,60,60,60,55,55,55,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,58,61,343,220,215,212,230,224,232,223,212,198,209,195,203,205,194,219,196,195,202,213,206,208,219,195,220,209,228,226,218,194,222,208,207,221,215,215,213,220,212,223,194,228,220,202,189,214,224,211,192,228,219,204,223,205,212,226,223,224,219,212,221,200,193,204,211,197,202,226,202,211,192,222,211,211,209,195,188,218,214,200,206,200,195,220,185,222,208,213,211,195,196,207,212,192,196,206,217,215,189,209,201,199,190,203,197,208,214,206,210,213,188,194,225,196,213,219,220,211,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,0,335,223,211,209,200,218,213,204,218,227,201,211,195,221,192,190,191,224,193,210,221,191,219,203,221,211,188,206,210,221,223,217,206,212,223,214,214,201,207,220,212,198,206,208,220,209,197,187,224,196,219,207,197,196,214,224,221,217,195,207,220,207,191,186,186,216,190,219,212,222,217,191,203,214,221,202,217,202,203,196,191,203,216,185,218,211,184,187,211,221,201,196,210,218,203,184,216,200,195,212,223,194,216,194,209,223,201,224,218,205,204,197,198,199,228,220,213,210,55,55,56,57,58,57,54,54,54,55,55,55,55,55,55,55,55,55,55,55,55,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,59,61,302,221,208,207,211,198,192,221,192,204,214,196,223,189,188,210,217,215,196,212,227,220,205,211,214,199,220,197,195,209,219,187,193,226,187,223,208,204,200,223,200,220,202,205,212,209,191,186,225,212,205,194,197,207,221,208,188,185,197,215,189,200,192,191,213,203,197,192,209,209,212,194,195,195,221,210,210,198,218,207,200,209,186,203,187,205,190,182,184,216,194,204,220,205,195,185,217,221,211,208,189,198,223,210,201,195,210,197,220,209,216,203,218,201,203,215,209,55,56,57,57,58,59,59,60,60,60,60,60,60,60,61,61,62,62,62,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,58,61,324,211,207,206,202,219,191,222,221,189,206,217,195,218,207,206,210,218,190,194,206,199,194,201,218,198,220,209,205,218,222,214,205,189,203,223,194,197,196,198,224,223,221,216,207,206,194,220,191,198,213,194,209,203,203,192,209,188,185,189,213,205,183,193,191,204,215,209,203,188,211,203,190,209,184,205,217,212,215,214,194,181,192,183,205,206,214,206,212,199,214,198,187,185,201,205,190,183,210,213,198,186,212,202,193,224,201,186,190,210,190,222,188,206,188,194,207,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,0,344,218,211,209,220,214,207,212,198,223,217,192,209,186,195,223,212,212,224,207,202,212,227,202,221,217,190,198,193,213,211,195,202,191,220,227,226,222,194,195,194,214,212,208,214,218,227,191,212,214,196,225,204,195,222,197,219,227,218,191,217,213,198,198,225,196,226,186,213,190,225,189,187,193,224,192,191,211,223,223,189,220,190,202,218,215,203,193,199,192,198,195,209,201,183,186,199,208,220,188,202,225,200,225,210,192,213,195,205,215,197,216,209,230,198,203,212,56,56,57,58,59,59,60,61,56,55,55,55,55,55,55,55,55,55,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,23,62,464,211,229,228,212,244,207,237,238,238,221,245,208,211,208,219,210,232,240,236,217,217,244,235,224,247,219,211,240,217,235,217,244,236,236,214,237,243,224,221,237,221,240,208,232,237,218,229,244,220,214,207,226,232,216,239,217,241,220,234,245,207,228,226,206,211,227,226,223,229,244,230,225,219,204,225,224,233,231,233,231,212,225,209,217,212,230,228,219,231,232,224,227,204,212,230,220,222,229,206,220,203,226,206,234,206,239,233,220,221,232,230,216,207,224,56,56,56,56,57,58,58,59,59,59,60,60,60,60,60,61,61,61,61,61,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,22,62,359,221,228,227,243,243,243,230,229,212,233,209,207,236,214,240,211,245,241,232,232,242,241,243,239,209,216,222,234,230,216,219,212,218,210,225,208,210,211,244,233,210,212,242,244,237,235,245,221,245,206,207,231,219,239,244,206,228,206,224,218,206,243,210,227,215,212,203,210,215,217,212,227,217,229,232,219,204,232,205,223,221,230,217,222,212,236,203,205,220,232,225,204,221,224,227,227,213,229,220,211,239,205,214,218,216,234,210,231,218,212,221,219,231,224,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,0,472,207,226,225,231,240,225,219,212,236,237,209,238,220,232,230,221,212,240,224,209,226,229,216,241,216,231,215,215,228,222,238,212,243,212,237,205,234,239,222,229,217,222,229,226,236,212,221,220,210,206,208,216,239,206,226,217,227,225,204,218,235,228,231,232,225,232,239,226,205,213,201,225,208,224,201,239,206,231,224,233,206,227,205,204,208,237,234,226,200,210,229,211,223,235,207,226,199,234,216,227,231,207,201,210,213,235,223,217,204,230,239,223,203,220,57,51,52,52,52,53,53,53,54,54,54,54,54,54,54,55,55,55,55,55,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,60,62,413,229,219,219,206,222,232,214,202,225,202,230,209,213,219,234,211,232,235,239,212,226,213,218,212,238,224,232,227,239,201,230,239,207,215,217,235,217,239,206,229,236,203,231,199,213,213,213,228,226,208,217,207,219,224,203,237,213,211,232,236,207,221,216,229,216,199,195,205,214,215,220,192,204,216,193,190,205,199,228,195,189,208,205,216,217,217,211,222,213,209,227,222,208,202,200,235,201,203,223,201,203,232,208,212,217,206,216,198,235,223,223,215,218,208,203,221,56,56,57,58,58,59,59,60,60,61,61,61,61,61,61,63,57,57,57,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,59,60,361,215,217,216,236,213,218,216,225,205,218,224,206,198,228,230,199,207,216,218,231,220,223,199,226,204,206,198,227,202,224,222,214,227,223,196,211,236,199,212,207,224,231,219,208,203,208,215,196,221,226,217,208,220,209,213,233,220,203,228,204,201,217,218,221,220,228,211,221,192,187,189,204,191,193,225,187,191,189,187,188,202,214,205,209,214,226,216,205,206,217,198,211,212,209,219,196,225,195,217,213,225,216,219,195,200,194,192,210,226,216,234,208,201,231,213,217,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,0,367,228,217,217,220,217,206,208,200,201,234,205,210,232,211,234,205,203,203,207,220,230,231,233,215,201,221,217,208,215,214,217,229,202,202,211,225,203,227,211,225,227,223,234,233,203,198,230,232,212,230,214,222,231,198,206,203,212,196,202,234,208,231,220,208,225,200,213,217,189,214,209,198,213,211,188,190,211,192,226,217,205,209,208,219,222,219,211,198,220,216,199,226,230,225,234,235,214,197,205,223,209,220,227,199,197,220,219,233,206,228,220,234,222,230,239,220,57,56,58,59,57,57,57,57,58,58,58,58,58,58,58,59,59,59,59,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,59,508,209,224,225,209,216,204,211,216,222,223,233,205,237,215,211,204,237,241,228,225,228,220,242,218,237,211,216,218,243,242,238,211,224,209,238,236,228,214,217,225,232,218,228,220,207,227,225,224,233,206,202,221,236,222,238,227,220,221,233,235,233,208,201,233,209,211,234,219,215,218,230,228,239,220,222,203,235,210,206,203,224,202,214,235,227,218,203,225,231,207,222,233,230,207,225,229,211,199,205,211,215,235,209,201,213,200,234,229,219,222,232,202,223,240,205,228,220,56,57,58,59,59,60,60,61,61,61,61,61,61,61,61,61,61,61,61,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,469,207,221,224,202,219,219,210,202,238,207,225,230,222,237,205,209,210,235,211,216,204,204,222,235,227,215,237,215,222,229,242,215,239,217,234,236,202,205,228,220,214,218,221,240,236,226,204,211,226,213,230,240,202,206,234,222,201,234,225,218,230,228,232,238,213,238,204,238,217,205,234,223,235,201,231,210,218,213,210,218,228,207,205,217,210,211,216,234,209,237,233,202,200,202,236,203,227,207,229,213,206,220,203,236,217,199,225,211,198,201,201,239,206,231,222,208,219,55,57,57,57,53,53,53,53,54,53,54,54,54,54,54,54,54,54,54,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,60,390,203,225,226,208,221,235,215,231,233,228,235,229,226,218,239,216,231,212,227,214,219,241,224,206,228,224,231,232,232,210,219,211,207,237,217,236,219,208,225,241,211,232,237,208,222,236,205,221,217,213,241,207,230,235,206,223,203,222,229,237,225,238,207,211,202,233,228,241,213,236,216,219,222,206,215,221,230,219,228,207,202,237,214,237,201,218,222,223,201,217,220,207,235,234,201,237,215,221,213,212,216,217,231,211,230,206,228,231,201,228,212,208,224,233,202,238,221,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,58,365,194,209,211,197,199,195,203,191,213,229,193,216,230,221,197,217,210,219,209,193,226,217,196,205,200,202,216,216,203,210,206,227,201,229,216,198,210,195,212,192,192,217,218,217,215,217,224,229,193,201,212,206,230,191,212,206,226,198,193,210,211,218,203,214,196,203,195,212,221,207,190,213,206,191,221,221,192,200,220,225,215,226,222,197,208,209,197,218,223,195,216,218,205,222,226,195,205,201,199,202,190,220,188,206,222,191,211,207,192,194,210,191,215,227,222,228,208,56,55,56,57,57,58,58,59,59,59,60,60,60,60,60,60,62,63,63,63,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,320,224,208,211,228,213,223,195,224,195,191,212,211,227,197,218,194,224,226,208,215,225,205,207,194,231,217,196,208,230,194,191,211,200,197,191,203,222,200,217,197,224,209,210,227,207,227,216,219,202,190,226,196,200,223,216,210,202,191,209,222,211,192,199,227,220,204,197,193,218,216,189,213,202,213,219,211,212,202,215,201,219,219,202,210,225,212,187,213,189,215,206,187,208,212,200,208,193,186,208,203,219,216,219,213,203,222,220,210,195,212,197,223,225,209,217,207,207,56,56,57,57,59,60,57,57,57,58,58,58,59,59,59,59,59,59,59,59,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,60,337,230,206,209,219,215,194,224,188,190,210,203,220,199,219,195,219,189,207,189,195,213,223,208,196,214,199,193,209,214,229,193,213,204,189,207,201,216,222,207,203,193,218,204,212,197,201,208,190,211,217,217,221,228,224,211,214,211,196,208,190,194,195,200,197,188,205,203,191,218,191,207,189,223,218,211,210,208,200,205,195,210,186,224,195,191,224,205,219,207,206,203,184,219,217,192,195,215,208,201,187,184,205,209,193,192,197,200,201,221,198,222,198,192,197,203,206,205,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,14,59,426,196,211,211,226,208,203,211,192,219,224,208,201,213,213,196,215,228,227,223,230,195,201,216,227,206,213,211,229,205,207,222,221,212,203,206,210,225,193,214,204,217,190,190,211,221,208,196,205,224,198,189,218,215,211,193,199,224,207,227,218,218,210,220,211,223,200,201,195,209,216,208,202,206,186,208,210,215,194,206,204,218,198,186,212,221,196,200,212,222,196,201,186,219,215,189,188,212,218,203,203,220,192,212,216,215,195,208,211,209,222,204,199,218,215,205,54,54,54,55,56,56,57,57,57,58,58,58,58,58,58,58,57,52,52,52,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,14,59,417,195,211,211,197,223,202,205,199,194,225,224,205,189,192,213,205,203,228,205,203,206,212,193,228,228,201,227,222,224,224,225,205,201,210,192,193,195,221,223,193,205,217,190,192,201,197,205,212,214,200,222,202,218,188,215,218,206,188,205,208,204,218,221,219,192,222,209,187,191,185,200,220,204,211,186,186,213,198,196,209,186,193,186,221,221,200,219,185,205,212,203,195,187,207,195,204,201,193,188,197,188,209,219,189,217,209,207,223,197,223,197,215,187,200,201,201,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,481,184,208,209,208,193,203,222,193,202,220,224,215,209,209,193,188,209,207,205,210,189,192,188,225,209,199,204,213,195,192,211,215,195,219,195,195,224,192,225,215,223,225,213,189,225,188,224,211,202,224,202,192,213,208,206,214,223,201,218,188,189,203,209,217,189,189,193,215,193,216,204,204,194,223,196,220,217,194,217,195,187,210,185,220,186,184,187,207,214,190,188,208,217,192,200,195,202,188,188,203,197,197,191,208,191,214,190,221,217,221,199,208,221,209,195,195,54,54,55,56,57,57,57,55,56,57,57,58,58,58,58,58,58,58,58,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,312,288,229,225,222,223,208,220,208,220,201,220,235,216,216,217,210,209,207,233,208,242,236,207,228,225,236,232,239,232,225,206,234,238,230,233,211,234,210,222,235,205,237,234,232,203,221,210,218,227,212,208,226,205,219,217,207,211,235,202,234,211,201,229,218,200,220,223,223,230,231,219,234,217,199,221,231,222,215,207,221,201,226,224,200,211,220,215,195,195,217,210,215,222,227,202,230,204,231,210,207,219,227,211,222,214,219,209,234,218,200,223,200,223,209,214,210,234,228,224,226,218,214,233,230,234,200,227,201,213,219,57,59,59,58,58,58,58,58,58,58,58,58,58,58,58,58,58,58,58,58,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,59,333,303,231,224,214,206,209,200,216,232,206,230,214,225,227,198,220,227,237,229,225,213,234,227,223,213,219,204,218,239,203,203,219,229,207,219,215,221,223,221,236,242,227,212,204,203,233,214,231,203,219,205,227,214,208,222,220,227,219,205,233,199,197,218,227,215,202,199,212,212,231,218,207,209,225,215,194,226,212,214,211,224,195,211,197,193,196,192,225,210,201,204,198,229,210,217,195,208,231,230,196,209,221,206,216,210,199,210,218,222,224,200,198,210,214,215,207,212,217,225,235,215,209,217,226,219,213,229,231,234,218,56,58,59,58,59,59,59,59,59,59,59,59,59,59,59,59,59,58,58,58,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,59,329,257,227,218,224,224,224,208,198,216,216,217,219,228,215,202,208,225,226,196,230,230,227,200,202,230,200,206,235,200,212,227,233,204,214,205,233,229,228,223,234,221,234,237,217,208,216,202,226,209,228,229,216,229,211,196,203,223,227,207,230,226,217,227,195,210,214,217,231,216,195,221,211,207,191,198,224,226,201,213,199,194,214,222,192,205,226,190,188,226,220,210,220,221,210,206,208,191,205,205,199,195,201,226,189,200,219,218,197,223,229,229,217,209,207,215,214,193,213,193,223,203,205,198,205,224,211,221,232,227,213,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,0,390,230,230,231,234,243,235,214,232,237,242,218,220,235,248,223,230,224,219,214,254,233,254,224,249,253,219,253,234,253,247,217,251,224,247,219,241,248,224,235,226,216,251,218,247,233,230,215,239,237,231,246,251,220,225,239,223,243,238,241,221,235,254,220,235,253,216,225,232,242,229,236,221,213,228,238,220,217,239,239,211,250,212,234,237,247,246,246,218,227,237,212,247,221,210,210,224,206,211,208,228,241,235,220,221,209,210,226,220,238,231,231,232,241,235,219,228,236,228,241,221,239,237,226,210,222,210,221,219,58,58,53,51,51,51,51,51,51,51,51,51,51,51,51,51,52,52,52,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,60,46,399,230,229,229,246,216,243,240,223,218,216,224,232,222,210,243,226,216,245,235,253,241,230,232,241,221,233,231,225,252,234,249,228,248,252,219,227,235,231,217,229,218,220,219,247,237,217,217,251,226,240,214,220,226,215,249,250,234,227,251,217,236,237,227,249,236,251,221,239,245,223,250,231,233,230,217,229,249,249,225,223,232,225,224,220,212,228,227,230,211,224,219,245,213,242,225,229,207,239,215,238,209,222,225,231,237,209,234,227,229,207,222,216,220,227,239,203,211,204,237,221,232,213,232,222,203,227,235,217,58,58,60,59,59,59,59,59,59,59,59,59,59,59,59,59,60,60,60,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,58,44,373,226,225,226,240,240,232,209,243,220,223,240,216,224,210,243,233,235,220,211,232,240,215,212,222,224,222,242,234,221,245,235,221,240,214,217,238,221,228,232,243,249,226,223,235,226,222,247,231,222,226,215,236,225,218,239,230,241,210,218,219,246,217,220,214,234,239,229,231,222,236,231,228,229,228,223,220,229,206,217,211,232,235,207,208,221,217,243,220,227,233,220,242,225,207,217,212,209,241,205,219,221,215,202,211,233,212,229,232,217,238,219,229,205,235,208,201,213,201,232,200,214,195,231,208,224,204,200,213,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <t>0,0,0,60,59,378,217,218,215,215,215,214,215,214,229,204,206,203,215,205,226,202,200,216,218,209,205,209,205,215,227,218,203,211,201,216,212,229,223,213,225,204,210,226,226,220,216,209,227,202,220,217,222,209,221,223,207,214,226,214,207,216,208,219,210,212,217,226,206,222,218,225,197,206,216,204,203,217,214,213,215,197,206,209,203,216,220,204,217,199,220,200,212,205,219,210,208,220,204,208,222,195,223,199,214,211,214,204,212,218,194,196,223,214,201,208,199,206,205,207,198,208,208,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,60,180,289,220,222,223,223,223,222,222,222,214,208,217,229,226,223,221,217,221,229,224,221,228,226,209,222,216,209,210,211,226,219,226,213,206,221,213,234,232,217,206,226,230,235,207,219,223,226,227,223,226,216,222,208,206,234,212,221,233,209,209,214,231,215,212,207,214,214,206,216,206,221,204,220,226,210,216,219,203,216,222,208,228,232,228,217,210,224,209,230,220,220,207,204,209,227,229,222,223,208,219,226,214,231,204,212,218,204,223,218,218,227,229,227,213,218,227,219,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,399,200,215,212,212,212,212,211,212,223,216,227,204,222,217,204,211,209,198,219,196,217,218,203,205,211,214,214,215,204,205,220,209,218,200,210,208,221,189,204,204,191,216,215,203,211,193,206,195,201,213,193,197,201,198,211,216,191,194,208,198,216,216,206,212,198,205,216,202,214,208,200,205,213,191,197,215,198,205,213,215,205,188,187,204,202,214,208,205,200,193,213,201,185,205,199,186,210,194,190,188,194,191,204,186,194,194,212,199,208,204,209,190,216,213,191,203,204,55,55,54,50,50,50,51,51,51,51,51,51,51,51,52,52,52,52,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,60,459,194,217,214,214,214,214,214,214,217,219,219,225,201,223,214,219,206,201,218,223,209,198,196,214,219,216,205,223,210,224,197,201,218,222,218,202,199,214,214,200,198,200,215,216,207,207,198,210,212,202,203,202,198,210,216,217,211,196,209,192,192,193,192,206,190,212,209,215,202,207,214,204,196,217,188,197,217,197,197,190,215,192,196,213,201,205,204,207,187,202,187,211,197,212,194,203,214,187,187,186,206,203,190,210,206,190,190,192,210,189,194,196,192,214,213,215,207,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,61,353,208,217,220,220,219,220,219,219,224,232,220,234,210,208,213,216,216,213,209,203,211,208,209,203,217,208,204,200,209,216,226,201,227,203,225,224,226,203,209,210,202,214,215,203,211,225,211,217,208,197,204,220,205,198,211,207,218,210,220,219,200,198,219,213,195,220,210,211,212,216,219,205,196,216,203,219,205,218,198,197,219,194,213,215,206,204,222,204,206,197,202,201,218,199,201,204,214,197,218,194,205,192,214,213,200,214,210,219,210,220,205,205,209,202,222,209,209,56,56,56,57,58,58,59,59,60,60,60,61,61,61,61,61,61,62,62,62,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,209,245,215,218,218,218,218,217,218,212,225,214,220,230,228,230,231,228,195,190,200,205,198,209,208,214,225,206,208,224,208,202,213,223,209,218,216,210,212,221,198,203,208,212,222,209,208,217,208,219,207,208,208,200,196,196,221,200,219,215,220,222,197,204,222,212,219,207,193,211,199,208,214,211,210,206,200,204,193,211,221,194,193,217,199,192,215,196,218,194,202,209,209,211,210,204,195,213,198,210,216,193,220,191,216,217,193,208,220,201,216,210,216,216,194,201,212,207,56,57,56,53,53,54,54,54,54,55,55,55,55,55,55,55,56,56,56,56,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,60,206,265,217,222,221,222,222,221,222,225,215,223,235,228,227,235,229,226,232,192,209,230,226,216,222,214,213,208,213,203,215,213,231,219,227,215,215,226,231,211,226,221,216,227,223,227,217,209,212,223,198,201,212,212,199,217,224,201,210,205,226,215,204,200,212,220,221,221,202,213,222,199,220,222,201,198,210,221,210,207,211,198,198,221,213,202,220,195,208,216,205,207,209,221,217,196,203,205,220,206,202,211,207,220,223,219,216,218,222,196,205,196,221,212,207,203,213,211,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,60,64,272,210,208,208,206,206,206,206,206,207,206,211,214,201,193,215,202,215,186,188,215,213,216,212,188,203,217,203,213,189,216,214,203,199,197,206,177,191,209,198,196,195,191,210,211,197,210,195,194,187,186,206,203,196,204,188,195,184,196,183,180,198,197,184,190,196,194,181,183,178,190,192,182,197,173,178,204,204,175,189,200,181,200,199,193,174,185,202,195,186,192,181,191,203,199,182,194,184,203,175,180,198,176,189,198,197,179,187,185,189,191,178,203,195,180,192,190,55,54,54,55,56,56,57,57,57,58,58,58,58,59,59,59,59,59,59,59,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,60,64,326,206,210,209,208,208,207,207,208,199,209,204,203,215,207,216,198,211,187,210,211,217,192,217,204,207,199,192,215,193,201,207,218,204,218,195,189,201,186,206,196,208,195,193,213,205,196,186,206,203,187,187,213,197,184,178,184,207,194,197,195,183,207,189,189,198,195,192,200,209,198,188,186,193,174,203,196,184,192,179,203,190,193,194,197,188,179,190,178,199,178,205,198,205,192,183,184,198,205,186,198,179,193,189,198,184,179,190,196,180,189,196,202,187,190,204,192,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,35,299,212,209,209,207,207,208,207,207,199,199,222,210,202,222,219,197,193,203,211,193,190,206,207,203,189,209,218,215,192,200,195,204,206,197,212,200,204,193,184,204,212,187,186,210,197,208,207,188,190,184,202,206,197,183,203,194,189,185,198,197,202,184,190,184,204,189,188,180,204,194,195,206,201,197,181,193,204,193,200,205,202,182,177,189,176,190,204,183,187,187,199,199,189,186,202,197,197,203,190,198,188,200,186,197,205,191,188,182,184,178,187,186,187,201,189,188,188,54,55,55,56,56,54,54,56,56,56,56,57,57,57,57,57,56,56,56,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,44,61,380,200,209,208,205,205,206,206,206,213,219,212,214,204,198,206,197,217,210,205,207,201,196,206,215,209,210,208,203,208,200,211,188,215,188,202,195,182,198,200,202,196,204,197,208,206,195,202,194,204,189,209,188,182,202,203,201,186,202,194,190,201,205,180,198,184,188,186,201,206,196,198,204,197,193,179,194,184,187,185,188,189,201,180,184,191,188,181,191,200,175,187,176,190,189,196,180,191,187,199,192,183,184,180,201,182,178,184,196,195,195,174,186,202,184,192,183,189,55,55,55,56,57,57,58,58,59,59,59,59,59,60,59,60,60,58,58,58,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,44,62,371,222,205,206,204,204,204,203,203,213,212,211,203,210,217,203,198,210,193,189,193,204,202,188,188,192,206,197,208,212,195,185,201,206,193,198,189,201,189,196,184,181,180,202,201,183,204,198,197,208,179,191,192,196,180,197,173,191,197,190,194,182,195,186,179,187,183,183,194,191,188,181,200,201,183,186,195,201,200,183,177,196,176,177,183,197,190,189,199,189,172,196,190,186,180,179,186,178,173,177,179,177,190,196,196,196,193,197,196,180,202,175,193,180,181,184,179,188,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,392,208,205,207,205,205,205,205,205,219,204,199,193,208,195,192,208,199,201,199,209,196,214,214,192,208,205,213,204,207,207,197,192,186,199,204,194,191,185,189,198,205,205,185,190,206,187,208,198,183,203,198,196,187,181,187,183,196,206,183,200,203,191,181,201,191,180,203,196,179,204,178,178,206,197,182,189,197,175,195,195,187,191,184,179,185,201,180,184,182,176,189,197,200,194,184,181,193,199,199,175,187,176,180,199,179,177,189,183,184,195,197,193,185,192,180,192,188,55,55,56,54,52,53,53,53,54,54,54,54,54,54,54,55,55,55,55,55,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,56,30,275,215,217,216,214,214,215,215,215,201,210,216,209,218,210,206,230,222,221,219,219,225,214,203,210,223,204,208,227,223,205,228,200,211,211,211,202,211,217,227,205,208,205,206,203,199,212,205,225,213,226,227,215,201,225,215,223,210,215,199,224,216,201,218,208,199,203,204,202,217,218,212,212,214,225,215,214,224,213,205,223,208,213,217,216,201,197,203,221,211,208,207,218,214,214,199,207,210,205,208,204,218,207,217,210,217,224,211,223,202,223,200,211,198,212,56,56,56,57,57,58,58,59,59,60,60,60,60,60,60,60,60,60,58,54,54,54,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,160,309,212,214,212,211,212,212,212,212,202,202,205,225,197,225,199,229,208,212,225,220,202,216,224,225,199,202,219,197,198,210,221,225,196,212,221,223,221,222,218,199,211,200,219,223,201,222,206,207,203,221,217,209,216,223,200,202,214,218,219,206,198,197,205,218,200,217,213,193,217,220,208,218,196,216,221,218,201,199,208,203,206,221,210,220,206,205,215,214,205,193,194,215,211,192,208,213,194,197,215,195,218,219,193,204,198,209,196,193,220,223,205,214,197,209,54,54,54,55,56,56,55,54,54,54,55,55,55,55,55,55,55,55,55,55,55,55,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,57,163,266,215,216,215,213,213,213,213,214,219,200,213,228,202,221,219,219,215,217,211,198,207,214,217,225,227,200,217,216,212,208,212,217,225,200,220,215,224,200,205,198,212,220,204,202,206,211,219,213,208,224,225,215,200,215,207,225,205,217,212,201,216,197,201,197,222,221,199,207,198,213,223,202,224,205,201,214,224,213,195,205,198,200,195,221,217,205,218,216,212,205,204,196,204,210,207,213,209,217,196,207,211,200,213,195,211,220,209,207,198,196,218,219,188,194,194,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,61,517,221,222,220,220,220,220,220,220,228,236,210,216,226,216,231,214,211,226,213,225,225,216,204,207,211,229,222,212,211,216,230,230,218,221,224,203,220,204,215,217,203,203,230,218,214,213,206,207,213,213,226,217,216,206,228,222,227,221,231,230,209,220,223,216,226,207,205,201,205,217,216,212,210,201,225,220,214,208,224,225,226,214,229,225,202,207,224,212,213,228,228,222,217,227,214,204,209,208,215,201,201,205,229,225,221,229,230,230,205,229,217,204,211,231,230,219,57,57,57,57,58,58,59,59,60,60,61,61,61,61,62,62,62,62,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,474,201,221,218,218,218,218,218,218,220,210,223,233,220,218,227,206,231,204,219,215,217,216,211,220,229,222,230,204,216,205,218,222,206,224,213,227,211,203,208,203,229,201,204,201,207,201,220,217,208,207,203,212,201,219,214,210,223,226,207,215,213,210,226,229,218,205,203,217,209,207,215,205,219,200,201,208,201,226,224,210,204,211,210,219,211,227,226,227,208,206,224,204,201,213,225,210,204,199,224,215,208,216,221,208,218,205,227,220,204,213,218,227,216,220,222,216,56,56,54,52,53,53,54,54,54,54,54,55,55,55,56,55,55,55,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,61,512,213,219,218,218,218,218,218,218,206,223,229,212,228,206,214,212,208,222,213,225,215,224,202,220,218,226,221,227,229,206,206,225,202,212,210,223,204,224,224,216,208,203,219,201,202,204,213,221,225,215,202,211,220,224,209,215,224,218,216,209,212,222,210,213,211,220,217,219,214,210,213,200,211,227,222,221,221,221,224,222,228,201,209,212,206,201,228,220,202,202,219,209,199,210,202,221,224,197,216,217,204,223,207,198,200,222,220,222,217,224,202,212,208,217,229,217,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,60,438,198,213,214,210,210,210,210,210,205,213,225,209,196,223,223,207,205,221,213,214,218,200,223,225,199,222,224,197,212,216,208,217,219,214,216,205,221,209,214,222,204,209,213,210,199,218,196,209,197,225,211,223,207,222,204,223,222,207,214,213,222,202,196,223,203,203,215,204,219,222,225,208,219,199,212,215,197,210,222,203,202,220,208,198,201,213,210,202,212,215,201,206,204,218,199,221,202,207,216,214,198,214,198,222,221,210,215,225,199,217,220,220,202,209,197,211,57,56,57,58,59,59,60,60,60,61,61,61,61,61,61,59,59,59,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,423,217,212,214,210,211,210,211,211,203,213,223,213,218,222,221,200,202,202,198,198,215,215,224,219,206,211,204,218,200,219,221,220,207,214,212,200,221,218,205,226,201,205,209,204,202,217,201,211,205,210,223,202,195,223,217,211,211,199,225,206,214,207,196,213,211,203,198,221,196,205,221,226,212,218,216,214,214,222,211,207,215,207,197,208,212,206,206,217,210,208,196,201,207,214,216,223,221,196,222,198,223,210,201,196,204,219,197,206,199,200,197,218,199,215,202,211,57,57,57,58,59,60,61,61,61,53,53,53,53,54,54,54,54,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,60,401,212,211,213,210,210,210,210,210,225,204,214,221,220,210,218,223,224,203,213,221,202,219,211,214,204,199,205,224,212,206,219,221,195,222,220,206,216,205,224,204,201,220,211,216,224,205,198,219,206,213,201,197,199,220,206,207,215,220,218,207,201,214,195,205,215,213,205,225,198,218,201,209,220,204,197,212,203,197,215,209,200,197,200,198,205,223,210,202,208,214,210,212,219,206,217,198,195,204,218,205,223,211,204,222,222,221,203,204,219,217,211,227,212,227,212,212,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,55,31,296,208,209,209,206,206,206,206,206,197,212,216,209,204,216,201,201,217,209,202,216,198,221,200,196,196,217,218,216,216,222,207,217,206,222,193,222,211,204,210,202,198,211,213,217,203,200,203,202,220,215,201,211,215,218,220,210,195,199,219,205,212,216,200,209,199,193,216,193,203,200,200,212,219,193,215,215,219,221,195,207,216,210,220,220,220,193,204,201,196,195,215,206,220,220,203,201,197,204,197,203,203,198,195,203,207,201,212,205,205,215,216,215,217,208,212,214,210,56,56,56,57,58,59,59,59,60,60,60,61,61,61,61,62,63,63,63,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,364,220,207,208,206,205,205,205,206,192,212,219,209,196,206,209,197,202,214,209,197,204,204,210,193,210,220,195,213,222,211,214,202,206,194,202,202,201,217,207,217,216,199,194,194,211,204,219,204,196,208,219,210,203,199,217,219,203,194,197,209,197,200,205,202,201,206,200,192,211,196,216,204,201,214,214,196,193,195,209,216,205,194,212,218,197,216,196,215,215,205,204,216,192,205,208,212,196,190,193,212,219,201,219,199,195,202,207,211,207,200,195,197,197,214,207,197,208,56,57,57,58,59,60,62,60,59,59,59,60,60,60,60,60,60,60,60,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,56,28,439,212,208,208,206,206,206,206,205,205,194,212,213,219,211,212,217,207,207,218,218,199,194,194,197,197,210,193,206,213,196,200,201,198,202,215,201,216,209,209,214,216,218,196,216,197,192,195,197,196,220,200,220,212,218,203,199,197,208,199,201,193,210,220,217,192,212,202,195,208,204,207,218,196,205,193,202,212,193,211,200,208,195,205,191,197,197,206,197,201,213,202,192,202,204,214,199,214,207,191,197,207,205,196,197,214,210,196,213,204,204,213,205,193,196,213,209,210,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,59,441,228,216,217,214,214,214,214,214,227,218,201,218,204,222,224,211,205,222,202,204,205,200,214,210,220,212,209,199,204,214,210,225,199,211,214,202,212,213,201,198,195,213,194,203,224,216,201,214,198,211,219,219,203,207,214,214,200,200,198,192,203,194,201,217,204,216,191,218,191,199,212,207,202,197,192,197,192,197,192,213,217,194,209,189,206,208,189,188,192,213,196,203,203,205,196,200,200,217,189,199,211,204,197,216,191,198,215,208,208,202,194,218,216,203,215,204,55,56,57,58,58,59,59,60,60,60,60,60,60,60,60,60,61,61,61,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,495,223,218,218,214,215,215,215,215,225,231,209,222,220,212,215,230,231,224,202,200,217,216,210,226,218,218,207,201,207,207,209,224,203,203,214,218,200,208,223,218,202,204,201,208,205,203,222,206,206,211,197,201,215,211,199,218,201,207,206,196,193,204,191,204,207,210,192,211,195,207,208,213,191,216,202,202,200,207,198,200,200,208,209,219,218,200,195,217,198,206,217,192,197,201,206,216,195,218,202,212,204,198,201,211,217,216,195,193,217,209,192,206,218,203,200,206,56,57,59,59,59,52,53,53,53,53,53,53,53,53,53,53,53,53,53,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,60,380,214,221,219,216,217,216,217,217,207,210,210,208,209,210,231,213,213,217,203,223,211,204,219,211,211,203,227,214,203,228,209,219,220,207,229,220,215,217,215,197,211,222,219,213,198,217,210,216,218,220,196,219,213,198,203,200,205,208,195,222,200,202,202,194,207,199,205,220,219,195,209,202,213,207,199,206,216,213,196,195,202,216,212,210,195,193,217,203,205,203,206,199,196,216,217,209,201,208,211,217,193,206,203,209,207,198,195,192,192,200,215,203,211,222,212,207,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,37,55,299,223,212,212,211,211,211,211,210,202,223,214,197,223,210,197,200,224,215,212,195,204,207,197,211,204,208,212,197,196,204,210,211,202,221,218,208,223,206,199,216,204,198,219,195,206,220,211,210,205,208,218,202,197,203,199,194,206,203,199,213,197,200,202,188,193,190,189,213,188,212,202,190,201,203,188,215,205,199,211,193,210,195,214,193,214,201,202,215,209,195,187,187,209,198,197,201,211,197,203,187,195,190,193,197,194,192,206,209,192,213,209,203,217,207,196,215,204,55,56,57,58,58,59,59,59,60,60,60,61,61,61,61,62,62,62,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,338,216,214,213,212,212,212,212,212,214,215,218,225,226,225,216,225,201,200,198,212,218,201,208,198,205,220,212,219,215,223,197,201,208,218,222,195,200,202,215,208,214,198,212,211,192,215,222,196,202,197,213,197,220,190,191,205,214,204,211,203,205,194,203,189,189,198,206,214,208,208,208,211,207,203,197,216,195,203,210,194,212,203,214,197,215,214,204,190,198,195,194,193,187,213,200,204,195,215,215,214,205,207,197,202,195,209,210,190,194,194,206,209,214,191,196,204,204,55,55,54,51,52,52,52,53,53,53,53,53,53,53,53,53,53,53,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,36,55,296,222,213,211,211,211,211,211,211,199,216,209,216,223,219,226,221,225,210,203,216,215,218,217,205,210,218,212,223,200,222,218,203,213,208,198,211,224,202,211,195,197,196,193,200,197,202,197,221,207,202,198,202,202,218,205,198,188,205,211,207,203,213,216,197,211,196,188,190,196,196,187,191,200,210,207,208,200,214,215,213,200,214,198,205,202,212,194,205,204,205,195,195,191,189,194,197,202,215,186,207,213,211,189,215,199,212,212,197,205,213,187,191,199,194,191,213,204,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,61,421,219,216,218,215,215,215,216,215,213,222,209,230,219,208,204,217,209,204,207,204,224,227,228,214,231,223,204,214,220,222,217,228,207,232,227,213,221,211,204,218,227,224,230,212,212,206,211,216,216,204,203,212,224,205,215,203,225,222,216,211,214,226,227,214,214,226,216,222,218,213,205,217,204,204,225,202,218,212,216,220,208,200,224,209,218,224,206,227,223,221,218,214,209,222,215,221,226,221,222,212,223,208,203,212,199,223,206,219,222,218,217,206,214,234,211,210,212,218,56,56,58,58,59,59,60,60,60,61,61,61,61,61,61,62,61,56,58,58,58,58,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,393,213,217,218,216,216,216,216,216,229,213,213,223,223,226,219,204,218,203,226,223,221,211,225,229,216,206,230,228,220,226,228,214,230,221,212,211,229,213,207,231,222,232,208,227,217,220,203,217,220,215,203,216,202,226,218,221,220,219,229,206,215,226,215,222,205,220,227,204,212,201,206,219,226,210,200,227,214,226,208,219,200,214,208,209,228,222,209,217,211,216,227,217,203,224,220,202,202,206,211,214,206,223,221,207,218,203,220,210,219,206,219,210,212,211,224,227,230,217,56,53,54,55,55,56,56,57,57,57,57,57,57,57,57,58,58,58,58,58,58,58,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,61,393,201,219,218,214,215,215,215,214,202,229,203,211,220,216,215,211,223,209,221,230,211,227,226,208,208,216,223,222,223,203,206,225,227,224,229,228,207,217,224,216,219,217,222,202,214,207,210,215,221,211,214,202,205,207,212,206,206,225,216,226,216,206,201,214,211,218,220,209,215,204,225,213,205,203,226,217,218,216,221,215,213,223,208,204,205,224,218,221,207,215,197,224,210,211,218,206,214,205,205,215,209,199,203,225,217,216,206,197,213,197,204,202,211,225,220,211,210,216,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,4,61,332,222,215,215,211,211,211,212,211,208,227,201,218,214,215,213,207,204,219,225,221,215,229,218,207,222,210,223,229,208,227,220,202,207,228,213,226,222,200,223,220,225,216,218,202,205,200,212,208,205,213,204,227,226,215,198,225,218,200,227,207,221,211,214,211,213,201,214,201,210,213,210,222,226,225,218,201,196,200,213,214,206,215,222,202,203,198,209,218,202,217,207,210,224,214,222,195,220,195,196,211,206,203,218,204,214,209,202,218,211,198,203,201,212,210,57,57,58,59,60,60,61,61,62,62,62,62,62,62,62,62,62,62,62,62,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,328,224,215,214,211,210,211,211,210,221,200,197,204,225,217,209,226,220,217,213,228,224,199,204,214,217,208,213,211,204,227,210,224,200,211,201,208,227,224,204,215,207,226,201,222,204,220,205,205,203,227,209,217,198,203,224,211,197,210,221,223,205,204,221,210,211,201,200,223,225,207,220,224,222,220,216,200,202,207,195,203,224,204,212,213,222,206,214,200,195,211,214,202,211,203,217,203,213,213,221,199,211,196,210,219,196,205,214,218,208,225,208,204,210,210,55,55,57,57,54,54,54,54,54,55,54,55,55,55,55,55,55,55,55,55,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,62,320,219,218,217,213,212,212,213,213,220,203,217,205,223,224,213,213,230,201,213,216,220,203,206,221,208,205,203,206,217,227,223,204,201,221,214,214,210,209,228,213,222,206,202,206,216,219,228,201,203,213,208,202,223,209,218,216,199,218,208,206,211,216,222,214,198,221,206,222,217,216,208,198,226,216,203,199,204,224,203,211,223,202,209,214,212,214,203,207,218,222,209,204,208,204,202,198,199,209,196,221,199,199,216,215,206,199,195,205,217,209,199,220,215,210,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,59,30,256,211,210,208,207,207,207,207,208,215,211,202,202,218,204,197,221,207,187,187,208,200,200,202,204,199,204,190,194,198,211,206,210,213,214,192,207,202,207,204,187,191,195,205,191,188,215,191,215,204,191,200,206,192,188,201,191,194,214,194,213,196,184,193,188,213,197,200,191,210,187,208,195,211,199,209,194,199,205,215,191,189,200,206,215,196,204,211,197,190,201,188,208,191,194,206,209,205,211,218,214,205,211,202,215,204,197,202,202,194,200,221,215,221,210,57,57,57,58,58,59,60,60,61,61,61,62,62,62,62,63,63,57,58,58,58,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,21,308,206,211,207,208,207,208,208,208,202,219,218,197,223,201,219,220,210,209,191,195,215,190,211,214,194,204,200,213,198,214,194,215,217,195,190,206,179,210,213,208,193,203,214,212,204,209,211,202,186,193,197,198,211,188,196,191,192,206,194,192,189,191,209,196,203,213,197,203,214,194,204,193,210,192,192,210,202,192,187,191,195,214,209,206,211,199,207,200,210,199,211,186,215,197,188,194,208,217,200,214,197,213,199,194,217,212,218,220,209,220,207,219,193,207,57,56,57,58,58,61,59,56,57,57,57,57,57,58,58,57,58,58,59,59,59,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,61,56,286,211,212,209,209,209,209,209,209,195,208,195,201,216,215,204,206,200,186,210,200,206,219,211,205,210,211,197,215,206,204,212,207,197,192,208,210,197,204,201,197,200,209,216,194,210,191,188,200,203,193,191,207,197,202,207,204,201,210,206,196,210,205,203,186,211,189,211,196,198,209,190,204,212,204,186,205,195,209,200,205,196,217,201,192,189,207,217,198,211,197,192,204,200,220,200,209,213,212,210,203,199,216,197,219,207,220,223,207,197,220,215,212,214,211,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,59,0,302,210,207,206,205,204,205,205,205,214,205,211,211,203,210,210,206,197,205,199,199,209,207,215,196,197,199,188,207,203,197,199,200,196,193,190,191,213,195,205,193,184,201,194,203,208,187,201,201,198,197,212,188,199,201,183,202,208,194,196,185,199,208,188,184,187,202,203,200,196,191,201,197,200,185,202,201,208,211,191,214,191,192,185,194,193,202,197,190,196,189,209,189,204,207,188,191,187,213,190,208,202,213,200,191,197,212,207,217,213,195,222,215,193,215,209,209,56,56,57,58,58,59,59,59,60,60,60,60,61,61,60,61,61,61,61,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,302,213,207,206,204,204,205,204,204,209,196,202,204,205,206,200,199,212,218,194,203,208,197,199,201,213,200,206,200,203,187,210,206,192,187,208,203,205,199,204,209,202,186,204,196,202,202,203,184,189,188,210,197,203,202,185,188,190,209,188,189,201,201,203,206,202,181,199,208,183,197,208,186,196,184,203,190,186,214,204,207,203,203,197,188,197,198,207,188,197,206,192,198,203,187,203,184,199,203,186,212,210,209,210,198,192,198,207,215,190,211,190,212,203,192,216,205,55,54,55,56,57,52,52,52,53,53,53,53,53,53,53,54,54,54,54,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,60,0,259,215,209,209,207,206,206,206,207,205,211,210,199,216,200,219,201,209,203,187,204,192,193,190,198,212,204,215,218,197,195,204,198,213,195,213,205,209,191,185,190,200,185,201,193,205,211,185,195,197,187,187,187,212,214,196,194,201,208,207,209,207,184,211,184,184,204,200,199,199,184,189,186,212,185,184,202,193,191,206,209,211,194,199,199,205,209,214,189,193,197,215,196,212,193,195,217,216,210,206,200,213,213,191,193,201,215,210,221,196,211,202,196,220,214,206,211,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,59,337,200,197,196,195,195,195,195,195,203,207,196,198,206,210,204,191,194,179,196,182,181,199,198,182,198,196,206,199,189,183,182,197,200,189,191,188,182,177,180,197,183,183,177,197,192,192,198,200,187,180,181,197,196,176,187,190,198,180,190,177,198,186,181,176,177,202,180,202,185,203,184,175,192,190,201,179,197,186,204,201,196,182,175,181,191,177,200,202,185,189,175,183,188,181,195,206,195,187,206,180,197,207,194,207,188,196,207,187,204,186,196,209,205,198,204,188,200,57,56,57,58,59,59,60,60,60,61,61,61,61,58,58,58,58,59,59,59,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,365,211,195,194,193,194,194,194,193,205,188,196,196,208,188,187,188,195,183,187,199,187,207,194,191,196,197,203,206,183,181,189,196,190,206,179,206,199,191,180,176,193,176,197,181,182,203,180,198,176,183,204,183,178,193,193,201,200,175,197,199,188,176,176,179,197,186,196,177,194,177,198,189,200,174,200,182,174,202,195,188,193,186,182,177,179,187,201,189,194,186,200,197,178,177,194,191,183,198,197,206,198,194,196,208,195,191,210,209,207,206,201,204,196,194,190,210,198,56,55,56,55,54,54,54,54,55,55,55,55,55,55,55,55,56,56,56,56,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,59,366,203,197,195,194,195,194,194,195,206,181,187,207,187,190,190,204,197,197,182,185,198,180,201,198,203,184,202,202,206,192,185,188,188,193,189,196,207,183,183,204,204,185,178,199,179,189,189,194,179,193,179,179,188,183,203,191,187,184,189,198,179,175,195,192,186,201,188,201,188,201,194,193,174,189,185,191,189,181,192,202,177,180,200,177,181,186,204,195,177,185,181,184,176,200,198,203,206,204,184,191,181,181,181,186,186,198,195,199,190,202,202,188,188,186,191,201,200,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,57,169,232,198,204,198,198,199,199,200,199,191,208,195,190,193,215,217,204,187,192,189,215,194,213,213,209,214,186,215,189,195,199,214,203,195,190,189,192,200,192,194,201,196,183,184,194,211,198,209,191,190,208,205,193,208,194,194,194,196,203,184,204,185,195,188,198,187,209,181,186,199,189,184,185,209,189,187,199,180,183,191,188,202,203,207,197,198,196,206,194,192,198,190,184,192,187,200,209,197,205,194,201,196,211,209,188,185,199,209,212,208,211,189,199,55,56,57,58,59,59,59,59,59,59,60,60,60,60,61,62,57,57,57,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,2,267,249,200,205,199,201,201,201,201,202,193,215,193,187,210,210,205,209,211,198,204,201,191,199,204,191,190,197,208,202,203,188,189,198,198,217,209,206,214,196,195,211,192,189,204,192,188,192,192,184,190,204,213,191,202,213,197,193,202,200,186,200,188,191,198,207,204,198,209,211,195,191,209,196,208,188,185,185,199,195,197,208,199,206,213,210,186,213,211,204,184,213,195,196,200,201,212,214,203,216,201,192,199,199,204,202,208,198,219,199,213,216,206,203,57,58,59,55,55,55,55,55,55,55,55,55,55,55,55,55,55,55,55,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,57,324,193,200,203,199,198,199,200,200,200,210,213,207,203,218,205,203,197,193,198,206,217,196,192,196,189,205,198,213,199,213,192,208,211,199,204,188,192,203,194,210,203,198,203,185,184,205,191,183,209,183,184,199,195,182,183,189,185,201,197,185,195,209,198,202,210,198,196,196,199,203,199,201,194,200,185,206,187,190,190,213,189,186,204,186,189,202,205,209,201,208,203,206,200,184,189,196,205,199,207,206,211,194,204,201,216,214,212,202,212,216,191,183,194,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,58,294,210,204,204,199,199,199,200,200,192,191,205,189,188,195,199,192,209,204,210,192,213,205,208,198,201,190,213,200,207,207,194,204,198,209,188,215,208,185,211,210,205,211,198,196,187,214,210,185,205,204,197,199,196,196,184,197,187,185,206,207,210,195,209,209,203,214,211,203,210,208,217,191,213,204,190,219,215,191,201,204,210,219,204,213,221,204,210,219,217,195,197,209,214,198,205,207,210,202,218,198,222,199,220,223,211,217,206,217,213,217,224,212,225,213,57,57,59,59,60,61,61,61,61,62,62,62,62,62,62,62,62,62,62,62,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,332,210,203,201,198,198,198,198,199,205,208,208,205,212,193,216,205,207,215,187,213,190,213,213,191,187,194,202,209,203,195,198,211,203,193,200,211,189,208,189,186,184,184,213,209,185,204,212,190,186,194,205,202,196,210,183,199,187,198,204,205,191,195,194,203,202,205,188,204,208,195,195,204,191,212,188,202,187,195,198,217,194,202,201,212,188,211,204,189,203,201,202,206,202,209,217,214,206,195,221,203,215,218,218,211,203,217,205,206,207,207,200,203,221,209,55,55,56,57,58,58,58,57,57,58,58,58,58,58,58,58,58,58,58,58,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,58,279,218,206,205,201,201,201,201,201,203,205,214,189,195,188,192,193,196,213,208,202,212,194,200,200,208,216,195,211,203,210,214,195,216,187,204,214,192,199,196,204,211,198,204,215,210,211,214,191,206,208,210,206,195,186,188,195,211,212,204,219,190,214,204,218,215,193,199,190,202,202,198,215,202,209,207,215,198,214,206,194,219,222,196,208,215,196,194,206,196,222,220,219,222,212,216,208,199,211,214,213,221,216,227,217,225,202,221,225,204,227,220,221,220,214,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,56,327,200,197,201,198,197,198,198,198,207,198,200,210,212,183,194,202,209,215,198,192,212,212,198,206,201,214,195,210,209,194,204,211,211,185,184,200,183,188,183,206,188,211,206,207,195,192,203,208,209,209,207,197,196,182,195,199,185,192,193,204,199,198,187,193,193,206,204,188,188,187,207,201,210,188,192,188,206,195,211,193,204,190,192,204,211,207,195,207,209,198,213,194,196,206,218,218,210,193,221,216,204,220,214,202,200,219,202,202,206,218,201,216,217,222,212,56,56,57,58,59,59,59,60,60,60,61,61,60,61,61,61,63,63,63,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,229,232,197,201,196,197,197,198,198,207,190,188,201,210,202,189,212,197,187,182,211,210,201,200,184,188,190,208,194,192,189,190,196,188,199,201,202,193,210,189,204,194,207,193,203,192,208,204,195,194,193,195,193,184,194,199,191,193,183,198,192,184,209,189,203,187,212,197,209,203,196,200,192,197,205,190,192,193,212,191,193,196,197,207,213,188,189,186,192,186,200,193,213,207,200,191,208,208,208,202,194,215,199,207,216,207,200,215,191,212,220,206,208,198,222,208,56,56,57,59,62,55,55,56,56,56,56,56,56,56,57,56,56,56,56,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,57,333,208,199,204,200,200,200,200,200,191,210,208,189,210,192,188,206,217,213,198,196,195,200,197,213,187,207,196,195,205,212,211,215,188,188,214,187,206,212,189,211,185,195,192,214,210,208,212,208,210,194,207,204,193,193,211,185,204,190,211,194,190,206,191,211,214,196,195,187,201,216,209,196,205,210,190,205,215,209,200,202,207,193,203,198,205,215,202,206,193,218,197,202,210,213,199,211,224,216,198,196,210,209,211,200,207,222,217,206,223,200,204,226,202,210,213,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,61,62,403,207,224,224,219,220,220,219,220,221,216,219,226,212,235,235,214,218,237,218,227,223,229,218,229,208,220,227,212,220,216,229,224,233,233,221,206,216,209,233,219,229,222,217,206,233,222,208,215,230,220,219,217,208,210,211,218,219,214,230,211,222,211,209,212,226,218,219,208,205,221,230,204,206,201,226,215,215,228,213,217,221,202,215,214,225,218,203,218,204,211,215,225,218,222,202,214,225,202,218,201,211,220,203,224,219,226,217,211,218,214,204,221,230,216,220,216,55,56,56,57,58,58,59,59,60,60,60,60,60,60,61,61,62,62,62,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,60,61,462,224,225,224,221,221,221,221,221,230,209,216,237,221,212,233,209,211,215,223,232,212,226,231,234,233,218,235,220,210,216,226,234,234,223,234,217,206,214,206,230,217,207,209,212,211,230,227,215,216,222,221,215,230,211,232,215,224,212,204,232,220,224,221,226,233,225,228,233,226,207,212,203,223,231,224,225,208,213,219,216,227,226,211,215,222,219,206,202,205,208,215,217,230,222,230,202,220,229,209,229,228,206,224,207,205,210,211,212,209,211,225,232,206,211,220,217,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,550,225,228,227,223,223,223,222,223,232,233,227,219,234,215,209,230,233,237,223,234,223,235,236,222,233,234,235,221,229,235,231,234,220,232,236,218,212,231,224,235,221,214,227,234,225,214,221,219,209,224,232,223,215,232,230,229,224,222,214,222,235,220,226,220,227,212,213,207,227,230,228,227,208,220,229,229,215,212,207,224,220,204,215,216,226,227,220,207,220,224,215,208,209,231,216,226,220,225,230,220,219,221,203,231,229,222,210,211,204,218,223,226,205,210,218,219,57,57,58,58,59,60,60,60,59,59,59,59,60,60,60,60,61,61,61,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,56,381,205,204,203,201,202,201,202,202,210,200,209,192,203,208,191,188,198,201,203,189,212,191,196,197,214,190,212,201,194,212,201,199,209,195,215,201,207,198,188,206,206,184,201,191,205,195,205,197,199,187,192,189,206,210,199,207,209,199,203,192,194,181,204,190,205,208,193,190,180,206,200,192,208,200,198,194,204,180,193,188,184,183,206,180,206,199,178,178,203,192,203,184,202,185,206,207,196,209,201,205,199,187,208,197,212,195,190,205,193,186,208,203,213,197,209,209,199,56,55,56,57,58,58,59,59,59,59,60,60,60,60,60,60,60,61,61,61,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,441,211,205,203,202,202,202,202,202,207,214,195,209,198,189,212,200,190,215,191,204,193,205,195,200,198,196,194,209,193,214,213,194,192,193,193,191,195,203,200,187,206,212,187,208,190,194,191,196,191,184,202,183,188,195,190,194,198,182,207,206,183,185,181,198,201,203,186,208,194,181,185,190,206,181,190,199,204,181,202,180,187,188,206,197,194,201,182,205,194,179,183,186,179,198,179,193,194,189,198,188,207,180,196,191,192,182,202,198,204,204,188,186,194,204,187,191,193,193,55,56,58,60,55,54,54,55,55,55,55,55,55,55,55,55,54,54,54,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,58,363,195,205,204,202,203,202,202,203,213,216,209,212,209,194,201,211,188,204,194,188,200,211,204,208,214,195,208,212,198,201,205,200,191,192,198,185,207,178,195,197,200,197,186,192,185,203,193,202,196,193,191,185,193,192,195,205,201,206,196,206,194,187,199,197,197,191,192,185,188,180,207,198,206,192,192,196,197,195,197,183,202,199,189,188,187,183,189,202,185,181,193,181,190,181,199,190,197,201,201,203,191,184,201,189,209,192,205,193,195,201,210,190,213,207,186,199,188,188,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,58,316,206,195,195,196,196,196,196,196,194,193,193,190,187,184,181,203,197,203,197,188,186,182,192,202,210,198,182,199,190,198,195,185,191,203,208,200,209,183,199,190,196,185,191,189,189,190,182,194,203,189,193,182,196,193,189,204,189,191,186,202,186,193,193,204,206,178,207,196,179,184,188,189,199,204,195,205,200,194,206,205,184,203,199,191,205,182,183,209,192,195,208,190,199,201,187,197,193,200,199,198,190,208,211,207,213,199,187,204,190,210,214,189,195,210,200,201,201,54,54,55,55,56,56,56,57,57,57,58,58,58,56,56,56,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,59,322,194,196,196,196,197,196,197,196,207,192,187,201,207,201,185,192,201,197,206,189,207,192,185,183,203,193,193,191,190,189,195,211,191,210,187,208,203,206,199,183,193,199,181,180,188,207,195,206,191,206,196,206,183,185,201,190,179,190,188,190,183,184,196,195,183,205,179,184,193,200,182,205,190,179,198,186,201,207,199,194,181,188,195,179,186,196,184,184,198,196,194,207,196,187,193,205,210,206,192,204,210,201,196,191,200,194,212,196,212,204,206,214,214,211,190,210,200,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,308,214,194,195,195,195,195,195,194,205,181,187,210,205,198,200,204,189,200,174,195,194,206,185,207,209,190,199,196,194,191,191,182,190,187,194,200,183,203,206,203,193,197,191,191,180,206,180,193,190,194,208,205,178,200,192,190,201,204,207,183,203,186,189,201,188,189,179,196,197,186,186,198,205,196,178,190,196,193,184,188,209,203,207,189,185,199,189,192,206,204,190,201,187,187,186,179,206,202,189,196,204,192,188,204,206,203,201,206,198,193,184,203,191,191,189,200,199,54,53,50,50,50,50,51,51,51,51,51,51,52,52,52,52,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,57,59,432,200,196,192,192,192,192,192,192,191,181,181,181,192,205,196,204,179,188,207,179,184,201,204,197,195,207,201,200,202,206,208,208,207,188,181,204,184,181,202,195,188,196,204,198,191,195,183,186,185,186,207,197,202,189,183,200,203,190,186,212,210,186,210,195,188,186,189,198,184,199,181,194,190,209,190,193,200,192,187,185,192,207,200,189,212,196,207,198,183,183,206,196,190,207,201,190,202,190,188,194,199,210,206,188,185,188,212,205,188,212,188,200,196,202,181,189,194,54,54,55,55,56,56,57,57,57,58,58,58,58,58,58,61,60,60,60,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,56,57,388,184,196,192,192,192,192,192,191,192,186,183,179,184,188,194,194,201,196,182,199,181,189,187,201,181,201,186,186,180,183,186,185,207,188,181,203,199,197,189,199,185,187,188,185,198,200,178,189,185,205,200,189,198,198,195,206,201,195,182,206,187,193,189,202,204,203,205,181,199,194,188,196,188,184,185,180,184,190,198,186,183,182,205,202,185,203,185,184,201,185,182,185,181,186,183,182,192,199,195,213,197,188,207,207,187,200,194,198,198,211,206,187,187,195,199,209,196,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,384,192,197,194,194,194,194,194,194,197,202,189,205,194,182,203,199,191,202,194,183,198,189,193,198,190,186,211,185,192,183,209,192,210,197,198,186,187,195,187,209,189,209,205,191,181,191,191,182,209,185,184,195,195,181,191,197,209,195,202,184,188,209,185,184,200,193,189,210,203,194,195,188,189,208,209,205,190,200,191,188,205,212,206,209,191,195,196,212,188,199,202,192,190,196,194,187,212,199,206,192,200,187,201,195,208,210,199,204,210,206,205,192,200,191,202,209,55,55,55,57,53,52,52,52,52,53,53,53,53,53,53,53,54,54,54,54,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,59,57,306,206,214,213,209,209,209,210,209,216,219,195,197,210,219,202,221,218,220,225,221,204,199,202,219,200,205,212,212,199,212,200,201,219,207,206,221,226,226,214,204,205,217,211,201,224,207,201,205,199,218,219,213,198,201,219,206,221,199,215,200,206,204,222,220,213,220,200,195,214,210,209,200,218,217,193,207,221,205,217,209,205,193,207,218,218,199,194,192,200,206,215,211,218,213,199,223,204,211,215,220,205,208,201,209,209,200,214,220,206,201,205,199,199,198,212,54,55,56,56,57,58,58,58,58,59,59,59,59,59,59,60,60,60,60,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,57,55,335,215,213,212,208,208,208,209,208,195,213,207,198,216,208,196,224,224,199,217,223,207,217,210,210,196,223,226,212,213,225,209,202,221,216,201,196,201,202,223,217,199,208,213,203,211,202,201,201,216,201,203,208,200,204,213,216,208,212,203,203,198,219,202,221,197,212,201,208,209,194,205,198,220,212,194,201,201,201,207,214,205,214,203,213,201,219,212,191,212,217,200,192,215,192,207,219,206,192,204,212,199,219,206,200,199,219,214,211,195,219,210,215,223,199,210,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,381,221,214,213,209,209,209,209,209,217,217,198,223,206,210,197,212,203,208,202,208,217,213,220,215,199,205,226,224,226,206,227,215,216,215,220,214,208,202,198,201,208,196,223,204,224,196,208,203,205,218,209,196,196,210,218,213,222,217,217,204,209,214,209,213,200,223,196,206,223,208,211,193,216,215,198,203,199,194,198,206,207,217,204,204,219,201,195,211,218,205,206,191,195,214,211,217,218,213,195,217,198,211,212,195,223,214,214,205,215,210,210,226,211,200,211,55,56,57,58,54,55,55,55,55,56,56,56,56,56,56,56,56,56,56,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,32,60,167,275,205,207,204,205,205,205,205,205,207,193,216,192,195,195,213,200,191,207,200,213,215,210,205,215,191,191,190,198,193,218,201,211,209,211,216,195,194,191,206,205,208,206,202,193,211,218,193,213,214,190,202,210,210,212,203,202,197,204,187,209,212,212,187,214,189,212,202,187,189,204,208,187,191,192,207,209,203,217,202,217,195,208,205,195,195,207,211,189,198,211,214,215,198,200,198,202,212,213,219,196,201,211,194,200,215,197,199,203,200,193,206,202,211,195,213,207,209,54,54,55,55,56,56,57,57,58,58,58,58,59,58,59,59,57,57,57,57,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,32,59,290,220,207,206,202,203,203,203,204,203,199,201,204,196,198,196,201,202,217,206,196,216,209,213,202,188,215,207,188,216,195,215,192,187,213,211,197,186,205,199,214,213,205,213,193,194,187,189,204,195,210,206,192,195,191,203,189,210,186,211,191,208,186,207,190,214,200,201,193,196,199,200,199,189,190,204,202,189,210,204,218,196,216,206,211,188,204,213,202,202,210,206,199,202,208,203,192,197,216,206,205,217,196,216,205,212,211,194,219,202,191,193,219,209,207,213,200,214,208,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,232,243,205,206,203,203,204,204,204,204,198,195,191,195,217,192,214,193,216,197,193,211,211,190,193,206,197,196,211,206,208,207,215,190,206,201,203,191,209,194,192,214,188,188,200,188,216,206,207,196,201,187,193,212,189,196,210,204,214,213,193,214,199,212,199,203,186,207,197,189,202,185,213,205,193,207,204,193,201,191,210,216,202,200,216,189,216,209,213,213,191,209,204,203,197,194,199,210,205,208,212,194,204,212,199,216,211,200,206,215,197,191,209,209,200,221,221,207,207,56,56,56,57,56,54,54,55,55,55,55,55,56,56,56,56,56,56,56,56,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,58,53,330,216,209,208,209,208,209,208,209,216,204,208,212,201,197,204,206,201,203,213,198,210,219,224,216,211,222,207,209,203,218,196,204,226,224,225,198,201,208,212,209,214,211,218,217,213,200,214,222,225,216,200,218,197,217,195,213,194,221,199,195,202,213,199,222,194,207,212,204,193,209,198,209,203,215,218,214,212,203,210,192,201,203,202,198,196,212,216,213,191,206,206,196,200,213,198,203,213,203,213,209,192,220,207,197,193,192,190,201,207,218,211,210,199,207,55,54,55,55,56,56,57,57,58,58,58,58,59,59,58,60,60,60,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,59,54,316,213,209,209,209,209,208,209,209,206,195,207,194,195,199,202,214,204,214,214,208,227,202,223,221,213,199,206,227,220,204,215,199,213,219,208,198,213,215,199,221,210,204,205,215,211,209,205,211,195,211,223,207,204,219,198,196,206,207,216,214,209,200,197,205,206,222,220,202,217,208,208,217,215,207,191,202,205,209,195,206,203,191,194,201,203,199,215,208,195,194,213,208,200,191,202,203,206,214,219,200,195,220,211,220,210,209,201,191,209,214,212,194,197,207,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,323,213,213,212,212,212,212,213,213,206,206,219,226,206,223,226,225,222,208,229,226,227,225,216,227,229,203,223,215,219,231,225,229,211,208,209,210,216,208,227,220,223,204,204,200,217,216,210,199,203,214,222,219,226,222,211,208,200,214,203,201,220,210,218,200,210,212,222,223,205,207,199,215,202,220,206,208,200,197,218,218,208,219,212,199,194,197,203,215,217,197,216,197,214,195,205,218,209,221,202,210,199,205,224,205,222,215,194,208,215,208,200,212,224,210,55,55,53,52,52,52,53,53,53,53,54,54,54,54,54,54,54,54,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,58,444,199,217,218,213,212,213,213,213,218,207,227,222,222,220,222,213,207,208,228,204,220,227,232,216,205,218,208,212,231,206,225,211,215,205,202,226,203,227,212,214,211,201,222,210,220,224,220,214,223,203,199,212,204,223,199,200,211,205,225,209,211,204,213,211,225,214,221,198,208,197,213,216,215,196,215,204,205,215,198,202,207,211,203,207,203,221,212,197,212,193,216,193,204,212,193,206,197,209,197,203,217,192,213,202,218,203,206,221,217,219,223,200,207,218,215,211,54,55,55,56,57,57,58,58,58,58,59,58,59,59,60,61,61,56,56,56,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,418,197,216,217,210,211,210,210,210,198,204,208,209,200,224,200,222,221,211,205,230,225,204,213,214,223,227,230,222,217,224,210,224,221,226,210,200,226,216,220,215,227,202,220,204,200,217,213,221,198,199,213,219,202,212,214,214,198,204,201,211,217,222,195,218,219,208,205,196,199,214,210,213,206,216,206,218,195,211,216,201,208,217,208,215,209,218,204,193,218,203,206,211,192,201,213,190,192,198,200,213,194,202,211,215,208,220,220,210,217,217,204,224,221,205,218,209,56,56,59,53,53,54,54,54,54,54,54,54,54,54,54,54,54,55,55,55,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,59,432,192,216,218,212,212,212,212,212,216,210,213,210,199,221,220,217,221,220,221,210,226,223,225,206,202,224,226,218,202,210,229,225,221,206,220,202,216,213,219,213,200,212,214,200,217,209,224,227,207,208,200,220,220,217,209,216,213,217,223,206,213,196,202,219,204,197,216,215,214,221,199,215,206,215,204,213,205,221,205,214,216,198,214,217,215,199,196,216,221,214,220,211,206,194,209,215,216,198,213,212,220,203,194,202,203,209,196,195,198,216,221,215,206,204,196,210,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,56,24,260,203,201,200,197,198,198,197,198,204,185,210,204,188,198,198,203,214,203,203,214,187,205,188,204,210,187,202,195,205,203,187,212,213,190,187,214,197,207,212,216,218,198,211,217,215,214,191,216,206,206,211,204,214,192,208,206,206,198,219,221,212,196,208,207,195,204,217,216,196,205,215,200,210,194,212,218,217,208,211,205,204,219,213,212,226,219,213,219,212,198,210,221,208,208,218,212,223,224,211,230,211,207,205,212,231,222,209,212,213,229,221,222,229,216,212,220,57,57,57,58,59,59,60,60,61,61,61,61,61,61,61,62,62,62,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,10,302,200,200,197,196,197,196,196,196,201,201,204,190,211,190,197,187,210,191,186,194,213,190,192,199,202,196,205,189,187,185,201,210,201,199,203,196,191,202,202,210,194,195,186,194,196,205,204,208,210,212,188,201,186,208,195,192,194,192,192,215,212,212,197,193,190,197,209,207,206,195,201,197,214,210,213,202,214,196,221,214,200,215,207,219,202,208,200,196,199,203,212,193,212,205,220,213,210,201,204,208,225,213,201,226,213,226,208,222,199,204,225,221,230,223,221,219,57,57,58,59,60,62,62,62,53,53,53,53,53,53,53,53,53,53,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,57,29,271,204,200,198,196,196,196,196,197,196,187,191,194,209,187,201,195,190,184,209,194,207,202,193,208,211,203,210,202,209,185,210,188,188,205,190,206,210,190,205,207,203,216,193,194,207,210,199,217,186,196,206,188,191,194,212,214,189,196,207,221,220,210,219,202,197,208,207,199,217,216,210,212,199,193,194,212,205,214,218,216,217,196,201,208,221,211,196,218,218,210,194,223,201,227,213,201,202,211,214,210,200,221,211,220,207,219,214,222,206,227,208,206,227,231,212,219,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,54,13,406,213,219,218,215,215,215,215,215,203,202,202,221,214,227,213,228,225,232,218,217,219,219,216,232,227,212,223,228,211,206,204,224,218,215,225,208,211,222,215,214,208,218,226,201,205,214,226,209,209,201,201,217,225,210,210,201,211,225,199,204,223,199,213,223,226,214,224,216,222,208,202,218,220,209,209,200,213,215,211,230,222,215,222,221,232,225,225,230,203,220,236,222,207,222,212,219,212,212,233,216,223,224,209,236,224,240,228,237,218,214,218,214,220,240,228,56,55,56,56,57,58,58,59,59,59,60,60,60,60,60,62,62,62,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,482,219,218,217,214,214,214,214,214,218,207,230,204,222,227,213,220,215,233,222,226,215,207,216,228,223,215,216,206,222,207,221,204,219,225,218,221,213,209,230,230,221,222,220,202,215,225,205,224,206,214,208,210,227,200,221,211,216,208,223,224,214,200,215,222,215,204,207,199,209,205,205,212,199,199,222,199,208,225,213,227,216,212,211,201,221,221,222,220,206,199,212,227,222,208,206,206,208,218,213,212,209,220,227,217,211,211,234,217,211,233,234,233,226,224,226,57,56,57,58,60,55,54,55,55,55,55,56,56,56,56,56,56,56,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,54,10,399,206,220,219,216,215,215,215,216,222,218,216,218,200,211,217,204,212,222,205,204,216,208,212,212,212,220,219,226,214,224,221,218,227,214,219,225,218,231,205,211,213,216,208,210,207,201,201,224,201,228,206,219,216,222,210,223,216,222,210,227,227,215,215,204,218,220,226,213,221,204,199,202,224,222,204,204,221,216,232,217,215,208,213,216,207,232,216,227,226,208,224,212,208,217,207,209,223,214,208,237,230,238,237,223,239,235,219,238,213,214,213,221,224,216,227,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,57,389,180,191,189,187,187,186,187,186,202,187,177,188,202,194,200,199,180,174,185,173,193,181,184,175,193,176,193,177,188,180,191,173,175,175,179,182,177,190,196,181,194,192,197,174,178,190,190,197,185,186,178,178,184,183,182,187,168,172,194,187,169,177,170,192,190,185,186,174,180,183,193,187,182,193,182,176,189,200,182,180,180,173,202,196,188,183,191,201,193,175,185,194,183,201,192,201,188,188,204,179,183,207,200,188,204,204,207,200,199,184,208,201,190,211,185,184,198,56,56,57,58,58,59,59,60,60,60,60,60,60,60,61,62,62,62,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,413,194,191,190,188,188,187,188,188,184,185,185,181,203,192,188,178,177,200,181,184,174,197,180,199,173,189,187,191,181,172,179,198,194,180,192,188,171,183,170,193,200,190,192,187,179,191,190,183,181,173,185,174,191,189,189,191,188,194,182,181,200,175,178,176,196,174,186,189,181,191,196,198,199,198,171,172,197,188,188,185,203,196,204,190,175,198,182,201,199,190,188,203,186,183,176,180,193,205,200,198,189,205,199,188,194,184,185,200,187,191,201,191,195,183,204,201,197,54,55,56,58,58,58,58,51,51,52,52,52,52,52,52,52,52,52,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,58,462,197,192,189,188,187,187,187,188,183,198,201,194,190,177,202,197,201,195,182,192,180,189,179,187,193,193,183,175,171,174,198,189,189,171,176,173,175,173,174,171,178,170,191,198,175,187,182,174,174,174,196,183,191,173,174,193,182,197,173,198,182,184,181,176,196,177,196,184,184,187,183,171,190,178,188,181,187,198,191,184,189,202,202,201,204,197,175,204,188,190,176,201,198,193,198,196,194,182,189,191,198,191,195,197,192,204,196,204,189,206,186,186,186,188,208,212,198,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,58,443,190,190,189,186,185,186,185,186,200,194,200,186,187,190,200,199,173,190,193,177,173,188,174,186,178,186,191,173,197,172,191,188,189,198,177,179,175,196,194,198,180,186,192,191,182,197,184,202,179,196,198,186,193,196,180,195,200,205,201,190,177,177,180,200,193,198,182,176,180,195,176,204,208,190,204,195,205,195,184,196,192,211,209,202,190,190,199,194,205,194,190,193,211,193,197,191,200,192,193,200,200,200,213,207,212,210,200,194,189,195,201,201,218,216,206,203,55,55,56,57,57,57,58,58,59,59,59,59,60,60,59,61,60,60,60,60,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,412,180,191,190,186,187,186,187,187,180,180,179,190,197,197,192,202,202,193,196,182,196,174,183,183,175,202,184,185,196,184,189,192,173,184,200,189,199,200,194,188,200,176,198,179,177,181,190,175,201,189,179,182,176,181,187,187,184,189,187,195,208,200,189,196,189,189,190,200,188,196,203,182,185,208,209,186,187,205,204,192,191,188,187,209,181,200,195,183,193,201,208,195,209,210,194,191,183,209,196,206,199,198,191,188,187,210,195,205,189,203,190,194,199,208,213,201,54,54,55,56,56,56,53,53,53,53,53,54,54,54,53,54,54,54,54,54,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,58,446,178,191,192,188,189,188,189,189,180,193,194,188,194,187,199,196,187,193,194,201,204,196,190,176,178,200,202,195,188,202,176,186,175,191,191,175,192,185,174,204,181,195,204,199,180,192,192,200,208,185,204,178,186,199,191,193,183,182,196,207,201,195,185,186,211,210,193,203,198,203,210,182,194,197,188,193,210,185,187,191,203,193,207,194,207,192,205,188,213,198,194,190,199,198,186,211,214,210,201,210,212,207,189,190,200,211,206,203,190,194,217,207,206,197,219,205,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,58,428,190,204,205,205,205,205,205,205,212,196,195,206,219,212,211,193,201,220,218,219,210,197,197,214,220,211,208,209,199,216,215,209,205,208,202,221,202,220,192,215,205,209,201,219,198,203,200,192,209,216,208,201,195,194,219,206,192,197,196,199,217,205,194,194,190,215,218,216,201,216,203,203,194,191,206,197,201,194,188,211,199,187,209,194,208,194,195,190,197,209,213,208,194,200,214,205,197,207,208,200,193,197,209,207,197,191,205,195,204,214,208,199,216,195,198,205,55,55,56,57,57,58,58,59,59,59,60,60,60,60,60,60,60,60,60,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,337,188,204,204,205,204,205,204,204,220,209,217,196,219,197,196,203,214,216,204,204,215,199,216,211,220,196,197,200,213,203,209,202,207,203,210,191,215,201,212,219,206,208,203,217,211,206,201,210,193,192,216,209,208,202,205,194,192,210,193,204,189,201,195,208,204,207,195,193,188,217,208,204,196,189,213,205,188,215,188,206,210,202,195,205,199,203,192,209,192,189,212,210,212,188,208,192,214,210,212,211,190,207,216,205,205,197,219,207,218,189,195,206,210,201,210,205,54,53,49,50,50,50,50,51,51,51,51,51,51,51,51,51,51,51,51,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,58,395,194,206,206,206,207,207,207,207,217,219,198,211,221,193,196,198,210,214,215,209,213,195,199,216,202,215,218,195,210,214,211,200,220,222,209,214,216,198,196,212,194,193,197,218,205,199,204,198,216,202,201,213,210,215,202,197,209,206,204,200,221,199,208,201,200,191,211,216,203,215,218,201,196,195,199,215,205,214,193,208,206,196,190,198,213,215,218,189,210,190,207,213,213,205,195,212,197,199,191,202,191,216,198,217,194,198,194,215,212,218,220,218,223,218,203,208,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,60,415,200,216,216,216,216,216,216,216,207,212,211,215,203,217,221,206,212,232,229,203,228,210,215,206,209,225,205,215,219,207,221,218,216,209,214,224,202,220,204,213,230,227,203,222,204,215,227,200,224,223,205,227,220,229,222,216,222,202,199,209,213,205,215,219,224,225,212,209,211,207,211,226,212,213,198,203,224,208,200,207,202,204,216,226,224,198,224,202,225,205,203,224,220,223,217,222,221,206,199,219,215,208,225,226,197,198,198,219,207,214,209,228,217,219,224,213,56,56,56,57,57,58,58,59,59,59,60,60,60,61,61,61,61,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,406,191,211,211,213,213,213,213,213,202,199,211,200,200,200,204,205,217,211,221,227,222,202,226,209,223,222,208,227,224,217,205,216,228,209,206,198,225,217,222,220,216,204,224,218,217,215,223,220,218,209,226,214,207,204,206,206,220,222,223,223,220,198,198,214,217,196,201,194,200,200,220,205,196,214,219,197,194,204,206,206,207,207,210,209,209,216,202,210,210,200,210,200,210,195,218,199,200,204,200,214,201,196,218,202,210,189,210,204,202,203,223,210,196,217,207,210,55,55,55,53,53,53,54,54,54,54,55,55,55,55,56,56,56,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,59,477,196,213,214,215,215,215,215,216,212,207,208,227,212,219,215,229,212,211,223,227,202,227,226,217,214,219,212,225,204,215,221,218,202,202,214,207,211,215,202,210,211,210,227,214,205,208,224,217,218,218,206,225,199,212,218,226,209,211,217,220,209,210,216,220,217,221,198,200,198,201,222,213,203,226,213,221,206,203,218,212,205,197,201,220,211,208,199,214,199,213,201,210,205,201,198,199,221,216,195,219,202,221,221,207,206,194,205,204,220,204,223,203,208,208,215,212,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,41,38,301,227,221,220,217,217,217,217,217,211,211,211,225,212,212,223,204,209,218,211,228,225,231,212,219,227,210,220,221,226,233,210,207,224,213,222,225,218,223,229,230,226,212,213,210,222,228,207,217,223,227,220,206,218,227,234,229,205,227,225,226,210,213,221,232,216,217,231,224,231,208,202,206,223,225,221,212,221,203,227,204,229,212,204,210,227,224,206,206,227,223,223,206,205,219,203,215,219,203,210,223,226,203,222,217,206,221,208,216,204,210,220,219,208,219,209,214,56,57,58,59,59,59,60,60,60,60,60,61,61,61,61,61,61,61,61,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,340,226,221,219,217,217,217,217,217,219,210,207,222,221,210,228,206,232,217,214,228,213,221,212,207,230,209,223,225,206,210,206,228,226,215,226,207,229,217,209,207,209,224,211,217,229,214,213,229,211,223,222,220,213,208,207,228,218,211,227,224,207,208,223,222,222,208,226,220,229,221,209,203,203,223,209,205,203,225,226,207,223,209,211,210,202,203,215,212,212,219,219,219,210,222,220,217,226,227,224,209,218,227,220,230,215,209,219,227,203,209,203,208,212,211,228,215,55,57,58,60,56,56,57,57,57,57,57,57,57,57,57,57,57,57,57,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,43,37,316,232,222,220,217,217,217,218,218,224,231,213,219,215,212,215,230,234,207,225,230,226,210,228,209,224,233,214,213,208,230,207,217,211,221,220,231,223,211,233,225,221,230,214,232,221,208,219,214,221,234,216,205,227,214,224,218,229,227,216,220,222,219,226,224,208,216,218,207,226,207,217,210,221,216,210,219,205,218,227,223,218,222,227,218,229,218,227,215,205,208,219,214,219,208,228,221,220,211,219,213,229,202,215,222,230,220,218,218,202,204,216,209,216,225,220,215,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,57,61,332,215,213,211,210,210,210,210,210,223,214,213,219,204,196,203,211,201,223,188,202,208,213,219,213,218,211,208,218,206,195,222,216,211,203,210,220,218,219,196,217,205,202,193,214,218,194,200,221,196,221,202,219,201,213,194,195,217,204,208,212,219,192,194,194,215,195,206,212,220,209,199,206,206,217,192,219,217,218,210,211,192,194,213,214,192,211,198,196,214,201,208,189,211,217,200,206,217,198,221,203,214,206,212,214,202,211,199,222,213,220,224,219,213,223,205,225,211,56,56,56,57,58,58,59,59,59,60,60,60,60,60,60,60,60,60,55,55,55,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,58,61,343,220,215,212,212,211,212,212,212,210,226,200,214,207,225,215,210,223,217,202,199,195,198,208,200,198,204,201,206,211,224,201,208,224,208,223,209,224,210,198,205,215,206,221,196,205,210,216,216,205,221,198,220,202,206,194,210,204,213,220,210,200,219,193,199,213,195,213,199,204,200,196,201,210,191,209,197,202,204,214,197,202,217,194,191,210,198,219,195,206,207,204,202,194,197,210,222,208,211,212,220,202,205,195,195,209,213,218,210,195,215,197,196,196,198,203,208,211,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,335,223,211,209,209,209,209,209,209,221,195,206,199,198,221,206,209,197,212,195,211,193,194,205,217,213,209,199,212,193,213,204,208,219,214,221,215,205,205,207,199,205,196,206,204,193,202,193,210,198,209,199,213,215,194,204,194,193,206,195,211,191,195,215,214,196,204,206,195,217,198,218,209,207,205,212,195,191,199,190,200,218,207,205,201,201,200,214,200,208,189,193,190,190,193,200,195,207,212,218,214,221,197,196,220,219,204,197,197,193,217,217,221,205,208,215,216,210,55,55,56,57,58,57,54,54,54,55,55,55,55,55,55,55,55,55,55,55,55,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,59,61,302,221,208,207,204,204,204,204,205,195,203,197,197,197,193,195,202,222,218,215,210,200,200,192,217,213,216,200,215,207,195,218,198,200,200,218,196,213,216,214,215,212,214,201,219,207,216,219,215,203,209,206,209,196,206,205,216,207,195,193,209,196,203,212,209,198,213,200,192,211,210,191,211,191,215,214,206,214,191,194,189,208,196,209,203,196,214,211,202,190,188,206,207,215,214,199,193,200,215,206,207,217,197,199,199,218,215,221,196,214,201,209,202,215,204,215,209,55,56,57,57,58,59,59,60,60,60,60,60,60,60,61,61,62,62,62,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,58,61,324,211,207,206,203,203,203,203,203,197,193,216,204,215,194,207,211,203,216,195,197,201,197,201,219,208,208,207,202,206,213,203,192,218,191,209,211,192,213,217,206,203,211,197,219,218,205,215,196,203,216,208,202,213,200,202,202,197,214,214,198,216,197,215,192,215,214,203,187,210,197,212,199,205,197,207,195,214,212,209,194,212,197,209,209,214,186,192,196,209,195,187,211,189,202,209,194,217,202,195,194,209,216,213,197,219,191,200,211,191,192,208,212,200,211,208,207,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,344,218,211,209,207,207,207,207,207,203,199,193,198,204,212,206,196,219,197,198,221,215,210,212,219,194,210,205,195,215,217,215,197,203,219,214,201,194,201,216,206,222,195,193,212,199,215,214,205,200,208,216,216,204,206,221,219,215,198,194,194,199,196,201,211,195,218,205,208,194,195,191,199,213,219,190,192,210,206,197,216,202,207,198,193,215,216,218,194,200,209,188,205,198,201,192,196,210,205,202,206,205,220,207,217,204,203,200,214,213,223,226,222,216,224,213,212,56,56,57,58,59,59,60,61,56,55,55,55,55,55,55,55,55,55,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,23,62,464,211,229,228,225,225,225,225,225,224,233,240,225,220,229,236,225,219,224,215,225,233,229,234,223,236,242,235,217,233,225,229,224,241,217,229,228,217,228,221,236,214,230,232,215,238,237,235,240,232,240,233,213,212,236,221,219,214,216,221,236,232,240,231,220,226,232,237,212,215,219,220,235,229,209,225,224,220,236,238,225,226,215,232,216,226,226,221,230,223,231,230,235,230,224,224,224,235,220,227,214,230,212,210,217,217,213,215,237,227,224,217,239,231,224,56,56,56,56,57,58,58,59,59,59,60,60,60,60,60,61,61,61,61,61,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,22,62,359,221,228,227,223,223,223,224,224,218,215,232,235,234,230,235,215,226,212,236,222,236,233,222,218,223,226,226,224,234,212,222,216,223,221,211,232,231,235,224,230,230,220,220,231,211,238,229,215,239,224,237,239,219,227,210,214,220,232,218,225,220,231,238,222,210,211,218,216,235,223,226,208,215,231,224,235,223,219,235,224,235,229,210,215,213,219,221,231,229,223,221,214,226,224,229,232,206,224,211,232,234,232,208,222,218,210,215,209,215,238,234,211,239,224,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,472,207,226,225,221,221,221,221,221,213,229,230,221,232,232,226,232,223,232,236,238,212,228,231,215,223,218,222,229,216,236,224,235,222,220,229,231,236,209,231,213,232,210,222,233,225,216,218,224,236,215,226,208,230,213,222,224,214,220,233,216,207,224,211,224,216,226,207,214,223,234,218,212,206,221,206,233,217,230,231,224,214,228,221,224,220,230,229,216,208,212,202,203,227,210,226,226,209,217,227,221,209,233,220,229,228,221,217,213,229,236,221,211,222,220,57,51,52,52,52,53,53,53,54,54,54,54,54,54,54,55,55,55,55,55,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,60,62,413,229,219,219,218,218,218,218,218,230,211,217,216,227,204,227,206,206,219,231,229,234,211,231,212,206,234,206,211,205,208,225,205,230,213,214,224,232,213,234,227,206,210,209,206,231,204,230,206,213,209,219,220,212,226,203,211,230,227,202,230,213,217,222,218,231,217,212,204,224,220,197,212,220,211,216,216,197,213,221,205,208,200,216,207,223,214,206,203,200,214,205,215,199,224,205,224,206,217,225,219,222,231,210,221,224,226,221,230,202,206,224,217,225,210,224,221,56,56,57,58,58,59,59,60,60,61,61,61,61,61,61,63,57,57,57,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,59,60,361,215,217,216,216,216,216,216,216,230,225,221,231,204,216,216,205,222,215,223,223,212,226,225,231,220,212,206,231,222,224,207,209,229,224,226,210,227,227,228,202,208,227,230,204,210,202,217,214,206,207,203,201,206,220,218,228,219,214,211,200,206,212,209,203,201,199,214,200,214,205,200,200,200,194,216,201,193,202,217,196,201,208,209,216,194,219,222,217,199,198,204,207,215,221,220,221,213,209,214,215,199,225,212,200,207,212,214,219,216,217,218,210,226,218,217,217,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,367,228,217,217,217,217,217,217,217,207,222,215,224,209,231,205,228,225,216,231,216,217,230,231,210,227,224,222,216,207,205,211,208,210,232,219,222,211,227,204,206,222,231,214,225,229,204,212,230,218,227,227,224,231,222,204,210,207,205,209,208,207,216,209,208,203,226,197,212,193,219,207,221,193,213,216,212,210,208,205,209,201,197,219,199,207,205,221,220,197,214,209,197,209,210,227,210,231,217,226,208,206,228,223,223,213,221,212,229,217,215,207,231,225,217,226,220,57,56,58,59,57,57,57,57,58,58,58,58,58,58,58,59,59,59,59,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,59,508,209,224,225,221,221,221,221,221,208,209,236,210,221,234,221,212,237,239,229,211,215,209,224,238,226,222,227,215,229,217,228,219,212,210,230,233,219,211,210,234,213,231,222,232,217,223,231,230,232,222,230,235,228,208,211,229,210,235,229,235,215,228,230,218,219,222,227,223,214,229,227,212,220,209,208,223,206,210,229,221,224,232,228,225,226,211,215,211,209,211,223,216,218,208,220,226,203,232,220,231,227,204,216,212,208,230,214,215,229,212,216,232,226,225,229,230,220,56,57,58,59,59,60,60,61,61,61,61,61,61,61,61,61,61,61,61,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,469,207,221,224,220,221,221,221,221,206,231,228,230,219,229,226,233,226,228,209,234,213,215,213,225,224,230,231,216,236,217,213,214,212,224,227,215,224,218,228,218,221,213,220,227,210,211,211,209,227,223,231,219,223,214,224,233,223,235,206,219,221,227,226,234,214,221,206,212,221,219,214,209,215,229,223,211,218,233,225,204,220,223,215,210,219,225,205,215,217,228,220,222,204,217,206,223,226,205,224,223,203,229,218,209,221,224,211,217,226,228,213,216,224,234,232,216,219,55,57,57,57,53,53,53,53,54,53,54,54,54,54,54,54,54,54,54,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,60,390,203,225,226,222,223,223,223,222,222,235,216,229,224,208,227,216,213,225,231,233,234,222,225,230,231,222,220,220,224,229,229,220,227,234,214,217,210,233,232,220,217,238,225,210,234,226,233,232,212,219,237,223,219,224,237,221,233,212,210,218,209,223,236,215,209,210,211,223,221,213,226,209,214,223,216,221,216,206,218,221,209,224,233,207,214,219,217,233,225,227,223,205,223,213,207,206,231,211,218,215,211,211,225,206,228,213,231,220,211,208,213,236,212,232,232,222,221,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,58,365,194,209,211,209,209,210,209,210,221,211,225,217,224,218,202,196,215,220,200,206,212,218,214,198,226,215,215,215,216,201,198,209,204,217,226,203,218,215,212,223,216,212,198,196,224,217,222,222,219,212,206,204,210,196,208,215,208,213,212,224,203,195,221,221,206,198,200,199,212,219,195,211,201,200,215,199,197,206,199,204,198,219,200,209,197,206,217,207,218,211,208,208,204,216,211,196,220,205,206,214,211,212,197,203,202,218,222,201,222,210,198,206,197,215,216,208,208,56,55,56,57,57,58,58,59,59,59,60,60,60,60,60,60,62,63,63,63,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,320,224,208,211,209,209,209,209,209,214,197,224,200,208,211,213,218,217,203,201,221,216,215,211,214,208,222,211,210,206,212,213,200,217,202,204,216,200,208,201,199,219,204,209,197,197,204,204,205,214,207,219,221,211,205,211,199,205,219,219,196,222,194,196,215,204,199,219,219,216,203,222,202,209,198,209,201,213,194,193,197,197,196,200,197,192,193,191,209,198,205,196,215,191,205,217,211,212,199,217,199,215,211,201,205,201,194,214,205,196,204,218,205,212,206,196,203,207,56,56,57,57,59,60,57,57,57,58,58,58,59,59,59,59,59,59,59,59,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,60,337,230,206,209,207,207,207,207,207,198,202,194,209,220,206,202,207,194,216,205,199,207,203,203,195,202,209,199,207,209,210,211,204,200,198,211,203,213,217,218,214,202,208,210,208,198,204,219,201,198,209,205,218,215,213,202,192,202,215,199,220,192,216,197,199,205,209,209,222,206,210,210,210,203,211,200,202,213,206,209,203,195,205,204,194,204,204,191,191,199,218,208,211,197,205,189,213,195,207,207,193,211,197,195,210,198,205,202,213,206,216,193,217,200,220,192,207,205,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,14,59,426,196,211,211,208,207,207,207,207,204,215,196,196,209,204,204,224,218,205,203,218,222,206,198,212,208,202,210,210,214,203,211,210,209,212,206,222,215,202,223,195,201,218,217,203,219,221,216,207,210,221,223,211,211,220,215,209,210,213,203,203,198,214,204,211,192,196,220,212,219,212,205,210,205,203,198,217,218,204,202,207,214,191,203,213,211,209,213,202,195,217,207,210,214,205,199,206,208,188,210,189,194,209,202,189,194,200,210,212,197,191,219,206,195,201,205,54,54,54,55,56,56,57,57,57,58,58,58,58,58,58,58,57,52,52,52,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,14,59,417,195,211,211,206,206,207,206,206,212,197,206,213,194,207,199,205,213,224,196,202,204,201,214,216,211,197,200,215,205,219,222,216,194,217,204,217,199,213,198,218,199,198,198,206,220,207,210,195,206,215,223,203,196,200,220,218,215,215,222,219,212,219,216,209,217,196,200,206,202,198,217,200,215,195,215,198,190,202,201,214,217,196,206,198,203,210,209,189,215,209,201,193,200,187,204,204,189,198,202,214,209,209,213,195,198,216,192,192,216,192,213,212,193,216,201,201,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,481,184,208,209,205,205,205,205,205,201,218,205,198,200,216,191,198,217,198,209,201,219,217,222,204,208,216,204,220,205,194,197,203,194,218,218,193,198,194,209,205,194,215,214,197,210,215,216,203,216,193,194,216,208,218,194,215,192,210,192,198,197,198,208,210,217,209,209,201,200,202,214,200,215,213,212,213,198,190,196,190,208,216,207,200,195,197,207,201,211,195,189,211,198,193,204,203,214,186,207,213,190,212,210,205,205,202,191,205,198,201,205,215,193,210,195,195,54,54,55,56,57,57,57,55,56,57,57,58,58,58,58,58,58,58,58,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,312,288,229,225,224,213,218,219,219,208,212,230,226,227,207,211,224,207,216,225,214,228,211,221,211,220,216,212,222,225,218,230,217,209,221,217,219,210,230,210,216,220,228,214,230,227,215,211,221,216,229,225,208,227,224,208,211,230,208,204,219,203,220,216,228,219,203,222,205,229,201,221,222,221,210,225,214,218,203,225,212,226,221,204,202,202,205,204,203,210,206,222,215,223,220,219,224,204,202,210,208,220,206,206,217,219,230,233,222,223,210,207,224,220,229,227,232,205,223,209,222,218,219,230,219,205,227,217,219,213,219,57,59,59,58,58,58,58,58,58,58,58,58,58,58,58,58,58,58,58,58,0,0</t>
+  </si>
+  <si>
+    <t>0,0,59,333,303,231,224,222,210,217,217,217,233,204,206,228,203,205,220,207,210,218,220,213,218,234,217,223,209,217,232,236,224,234,229,211,207,231,223,214,229,227,234,218,217,215,207,214,229,208,220,200,228,227,214,210,231,228,228,219,218,218,215,226,205,204,216,217,205,205,201,213,213,199,206,209,199,219,223,210,223,228,211,226,211,203,203,219,226,223,209,223,210,217,211,207,214,216,203,213,227,224,226,218,212,212,200,208,223,218,216,227,227,212,215,222,202,224,225,218,210,218,218,209,205,207,231,231,204,220,212,219,221,218,56,58,59,58,59,59,59,59,59,59,59,59,59,59,59,59,59,58,58,58,0,0</t>
+  </si>
+  <si>
+    <t>0,0,59,329,257,227,218,218,207,214,214,214,229,213,199,201,212,203,212,220,206,205,201,205,215,217,228,210,226,213,203,227,209,205,219,226,223,212,219,209,219,209,224,214,209,220,207,210,202,211,226,214,211,215,220,211,203,227,216,228,212,225,222,213,198,204,211,224,225,215,211,221,206,215,205,198,208,196,211,223,201,196,208,206,223,214,214,197,208,222,214,205,202,222,215,203,204,210,215,206,214,224,219,207,204,221,210,208,201,199,208,223,196,202,208,214,198,196,208,225,223,218,216,217,205,218,204,228,200,209,226,202,221,213,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,390,230,230,231,231,231,231,231,230,242,217,223,217,224,225,235,226,238,219,217,227,239,238,238,242,243,231,229,235,241,247,229,226,223,228,221,229,222,237,246,246,236,242,232,220,226,226,236,222,232,237,245,240,244,222,237,223,241,229,240,246,220,232,230,243,243,238,230,226,221,224,235,234,245,232,245,223,232,219,240,221,232,241,245,235,222,217,225,244,223,221,219,242,227,229,215,228,236,214,221,221,233,239,238,229,235,219,219,216,239,210,227,218,230,211,211,223,233,223,231,207,223,213,207,211,208,217,234,219,58,58,53,51,51,51,51,51,51,51,51,51,51,51,51,51,52,52,52,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,60,46,399,230,229,229,230,230,229,229,230,223,229,217,223,240,224,239,230,232,228,225,232,246,241,223,233,245,228,233,228,223,238,239,246,242,228,238,224,219,231,245,223,228,247,248,244,245,229,245,227,242,236,220,237,241,247,221,225,241,239,236,223,248,248,228,220,247,231,225,228,246,246,218,244,234,241,244,218,244,223,221,219,232,223,241,217,240,230,215,228,220,231,227,235,220,241,235,240,222,237,223,232,211,238,209,215,224,232,217,216,213,236,214,216,209,212,223,213,223,228,217,228,225,231,201,225,219,231,223,217,58,58,60,59,59,59,59,59,59,59,59,59,59,59,59,59,60,60,60,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,58,44,373,226,225,226,226,226,226,226,226,233,230,237,239,238,236,209,210,217,211,220,235,241,225,243,237,228,241,245,227,229,233,227,233,233,238,232,223,228,227,225,242,225,231,222,229,219,230,236,223,232,240,242,238,221,234,236,215,233,243,217,221,242,221,224,235,221,227,229,226,228,218,215,240,215,222,236,216,228,237,239,224,219,217,232,214,217,231,222,217,218,225,214,211,210,224,237,237,217,226,217,221,209,214,215,230,209,218,231,213,227,215,216,222,226,217,205,214,228,229,219,226,211,224,224,222,214,206,228,213,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,60,452,198,214,212,212,212,203,220,218,222,213,220,215,207,213,221,220,210,205,210,205,217,209,204,206,218,200,205,211,213,212,208,198,209,204,213,210,198,202,200,202,197,198,202,198,196,211,206,208,202,210,206,202,195,206,200,194,205,203,208,196,203,203,192,204,191,203,206,198,206,206,193,192,195,196,200,205,209,197,197,209,200,200,194,191,199,193,205,195,193,196,207,190,201,192,190,204,199,204,191,197,200,201,194,205,210,198,208,192,208,205,198,203,206,209,210,213,205,56,56,57,58,58,59,60,60,60,61,61,61,61,61,61,61,61,61,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,61,184,249,223,223,223,224,217,230,225,217,216,217,216,221,223,220,217,232,226,233,211,215,222,220,223,229,219,229,218,215,227,214,225,224,212,230,231,222,214,215,214,221,222,228,228,218,229,222,223,212,229,212,216,214,230,223,220,221,224,213,218,216,228,214,218,224,217,226,227,223,216,226,227,214,228,209,211,212,209,219,226,214,214,218,210,222,226,227,228,226,226,218,213,216,211,214,218,223,220,209,222,209,213,227,225,213,217,212,223,226,215,214,214,228,217,220,215,220,55,56,57,58,58,59,59,60,60,60,60,60,60,60,62,63,63,63,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,334,272,225,226,227,235,229,231,227,230,223,224,233,232,230,224,217,220,232,225,221,232,219,217,222,220,219,225,223,221,226,227,219,224,217,222,228,224,218,214,225,222,226,232,226,217,219,230,216,225,217,225,219,226,221,222,215,221,223,223,224,233,214,214,230,226,228,223,228,219,228,214,223,226,226,226,226,220,218,226,212,219,230,222,226,218,222,228,229,220,211,225,221,215,226,217,227,229,227,217,224,215,228,218,220,213,224,223,221,224,231,226,224,229,216,221,232,222,56,57,58,58,59,60,62,62,62,54,55,55,55,55,55,55,55,55,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,61,59,399,222,217,215,211,211,220,220,211,206,212,212,214,209,212,219,211,225,225,216,215,205,206,212,205,222,221,218,211,210,217,210,211,208,220,222,215,213,221,216,206,205,205,222,212,215,210,218,216,217,205,221,209,221,213,213,206,214,208,222,222,220,202,209,203,205,220,208,208,210,214,207,205,218,218,218,204,204,209,200,212,201,212,213,210,201,217,206,219,218,219,203,204,210,210,199,199,214,208,212,210,209,217,207,215,218,211,204,217,201,203,219,211,217,209,223,213,56,55,55,56,57,57,58,58,59,59,60,60,60,60,60,60,61,61,61,61,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,361,210,217,214,223,215,212,211,220,212,212,216,205,221,218,220,209,211,221,202,216,221,210,210,205,206,206,220,222,224,205,207,214,221,213,207,205,215,211,207,203,212,213,217,222,213,210,218,211,214,219,205,213,218,209,204,217,203,216,217,220,217,208,204,215,202,212,210,206,213,212,211,202,218,205,213,200,206,200,202,204,217,212,207,219,201,209,215,213,210,201,209,216,204,206,204,206,211,216,201,215,210,211,205,214,210,215,200,200,199,216,201,207,210,222,222,212,58,57,56,53,53,54,54,55,55,55,55,55,55,56,56,56,56,57,57,57,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,61,59,399,222,217,215,214,215,215,213,226,223,203,209,222,208,224,219,214,215,227,210,203,199,207,216,206,223,201,203,206,229,210,210,221,198,227,220,221,209,227,214,217,217,220,225,208,204,222,210,208,214,206,225,199,210,207,219,227,212,210,226,212,210,211,219,213,221,198,222,213,205,205,199,210,217,199,200,225,197,204,221,206,223,204,222,217,204,202,212,201,218,218,194,220,203,215,207,220,206,216,197,209,215,217,209,202,220,219,215,213,206,221,212,219,211,223,220,213,56,55,55,56,57,57,58,58,59,59,60,60,60,60,60,60,61,61,61,61,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,60,59,378,217,218,215,215,215,214,225,223,219,229,204,201,219,212,228,229,216,222,213,210,229,215,225,210,226,225,223,226,203,217,217,200,217,216,200,205,201,222,214,203,203,223,225,207,216,212,224,207,205,209,213,206,211,210,215,219,221,222,204,224,213,225,199,200,208,225,221,200,209,221,218,225,199,220,220,225,220,223,214,213,200,198,213,201,214,197,209,202,218,217,222,211,199,199,208,199,210,209,195,215,209,200,212,207,209,204,214,207,198,216,201,198,210,225,199,208,208,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,361,210,217,214,215,215,215,217,224,206,208,210,218,201,223,209,219,216,201,211,204,206,200,203,203,209,209,206,217,216,222,207,228,200,220,200,209,207,208,212,215,204,205,205,223,220,207,213,221,208,221,204,201,207,212,212,223,198,217,222,201,221,209,214,223,223,218,222,220,203,214,197,200,196,206,207,208,197,210,209,205,221,207,197,198,219,204,218,196,201,222,201,203,212,215,219,202,219,221,196,202,219,209,202,195,193,196,208,205,210,197,212,219,200,204,201,212,58,57,56,53,53,54,54,55,55,55,55,55,55,56,56,56,56,57,57,57,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,61,184,249,223,223,223,224,224,225,224,228,234,222,239,228,217,231,239,217,228,234,216,228,209,210,229,216,231,221,213,213,213,235,212,210,231,225,229,224,214,225,231,234,230,236,233,210,217,229,219,208,226,219,225,234,223,218,206,218,226,224,206,215,231,228,212,214,231,228,223,205,222,221,211,206,233,223,214,219,230,204,222,230,220,232,215,219,212,209,222,232,207,226,211,229,220,217,218,204,215,207,214,221,205,221,215,230,204,221,209,227,220,218,225,230,228,206,208,220,55,56,57,58,58,59,59,60,60,60,60,60,60,60,62,63,63,63,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,60,180,289,220,222,223,223,223,222,226,211,226,210,222,237,218,226,237,227,211,209,216,214,206,218,233,210,233,209,211,234,226,210,216,230,209,215,207,227,226,223,213,219,206,208,209,219,206,206,221,220,227,215,209,228,209,225,216,220,219,227,205,218,217,213,225,208,214,210,219,232,214,210,215,205,222,223,207,229,216,210,228,209,214,207,217,210,228,220,217,228,212,229,202,204,213,219,219,231,223,228,219,205,224,229,225,207,203,230,202,223,222,231,210,209,208,221,209,219,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,334,272,225,226,227,227,227,228,224,234,237,218,229,241,235,238,234,227,214,239,210,228,219,236,213,238,222,217,230,218,236,221,210,233,237,236,234,215,215,216,218,238,236,238,226,211,224,214,233,236,228,219,212,220,211,233,209,211,211,222,218,216,222,215,226,216,221,210,208,231,230,226,217,236,236,219,229,226,231,210,222,234,224,214,211,227,207,234,214,224,216,226,218,224,212,209,223,224,232,213,232,209,226,207,230,225,213,229,226,218,213,231,217,222,231,235,218,222,56,57,58,58,59,60,62,62,62,54,55,55,55,55,55,55,55,55,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,60,452,198,214,212,212,212,212,214,214,227,221,202,200,216,213,220,215,202,183,209,209,207,203,194,211,200,203,203,199,204,207,199,209,214,206,206,204,221,202,198,189,209,215,208,197,193,192,212,195,192,207,193,189,188,215,190,208,194,201,212,186,209,193,191,213,212,214,211,199,203,204,195,204,201,211,198,200,202,211,189,200,190,214,196,190,196,209,204,203,185,208,186,193,198,191,193,203,190,196,203,211,211,210,211,213,193,199,201,198,203,206,201,197,213,198,213,213,205,56,56,57,58,58,59,60,60,60,61,61,61,61,61,61,61,61,61,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,399,200,215,212,212,212,212,221,205,218,200,221,204,224,198,205,222,212,185,213,196,220,220,204,195,195,221,206,219,210,193,192,208,203,214,201,214,214,196,212,192,206,199,210,210,191,208,204,188,188,201,206,196,198,191,206,201,214,216,201,215,210,194,205,189,194,216,199,208,208,187,193,192,196,202,199,186,204,199,203,189,194,200,196,191,205,192,193,207,214,188,210,193,197,209,204,197,195,208,210,199,212,194,214,212,214,189,200,206,204,198,202,215,192,201,204,196,204,55,55,54,50,50,50,51,51,51,51,51,51,51,51,52,52,52,52,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,60,459,194,217,214,214,214,214,218,216,213,206,207,222,206,207,204,218,225,196,220,222,208,219,217,200,199,219,212,220,199,224,206,206,196,201,203,212,211,199,205,218,221,204,196,198,210,207,207,206,203,205,195,216,212,213,217,214,199,195,195,215,195,209,188,203,199,210,206,206,217,214,217,196,217,197,215,207,193,199,216,190,214,196,195,206,187,192,216,187,210,200,208,198,196,205,188,211,212,201,191,198,203,211,207,196,216,215,215,205,192,197,205,203,213,210,199,199,207,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,61,353,208,217,220,220,219,220,212,232,206,210,233,216,205,212,206,209,219,209,214,216,208,218,222,204,214,207,227,205,218,229,218,203,217,201,210,205,226,219,214,212,221,208,220,220,217,211,220,210,215,222,220,202,219,222,217,202,212,221,225,205,223,224,199,201,198,208,199,206,211,197,204,222,223,221,208,203,196,194,220,196,222,215,213,206,216,222,212,203,194,215,208,212,209,199,202,197,215,217,204,198,198,221,210,205,203,220,222,198,209,201,215,199,195,196,206,219,209,56,56,56,57,58,58,59,59,60,60,60,61,61,61,61,61,61,62,62,62,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,209,245,215,218,218,218,218,220,229,210,209,228,213,215,219,210,207,205,196,209,214,221,219,208,216,220,210,201,225,213,222,198,221,201,212,227,217,220,218,198,203,195,220,216,202,205,219,223,203,219,215,203,199,210,201,216,218,214,223,203,219,202,215,213,197,212,219,220,204,203,206,213,209,221,195,199,199,218,214,212,203,205,199,219,218,200,202,196,216,205,204,194,213,219,210,191,208,194,202,200,191,206,195,198,217,193,193,201,192,211,206,212,203,217,204,208,209,207,56,57,56,53,53,54,54,54,54,55,55,55,55,55,55,55,56,56,56,56,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,60,206,265,217,222,221,222,222,212,214,233,207,218,232,223,234,222,217,234,233,212,203,220,216,203,226,225,203,220,220,225,223,229,215,209,211,214,224,227,205,216,217,221,208,216,215,220,202,217,222,196,217,224,226,200,218,201,208,199,224,213,218,209,204,198,201,220,203,198,216,210,213,207,217,209,217,217,204,212,219,198,196,209,195,209,205,212,208,218,206,211,222,222,210,202,204,216,224,207,220,207,197,201,204,217,197,220,206,219,202,214,216,208,204,224,207,200,215,211,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,60,64,272,210,208,208,206,206,206,192,194,204,210,195,196,206,194,195,213,218,185,210,201,196,193,197,211,198,203,201,211,198,199,211,208,190,193,187,183,187,195,203,185,184,182,200,188,188,200,200,191,182,193,203,191,201,201,176,181,197,199,200,197,194,185,200,199,202,179,205,179,178,200,194,183,206,181,204,204,193,196,190,177,178,182,181,183,203,198,195,188,189,198,203,184,189,196,175,186,183,188,183,195,184,198,200,186,189,193,197,200,202,202,184,192,179,189,203,190,55,54,54,55,56,56,57,57,57,58,58,58,58,59,59,59,59,59,59,59,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,60,64,326,206,210,209,208,208,207,207,221,199,209,196,201,206,197,214,195,198,199,196,205,207,218,205,197,200,201,218,202,199,206,210,190,209,194,198,200,182,210,196,210,188,191,205,203,211,192,192,200,193,199,211,187,210,196,204,185,185,205,195,196,203,196,206,182,184,196,192,186,204,183,194,182,197,184,204,196,178,193,188,201,194,195,177,197,181,180,183,198,190,192,186,202,195,195,204,188,203,181,197,204,184,182,200,199,181,188,201,198,197,179,206,207,206,183,178,192,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,35,299,212,209,209,207,207,208,195,208,209,216,207,206,220,219,222,193,220,188,208,190,194,209,218,203,207,213,210,211,200,205,211,213,208,206,196,189,182,210,207,195,212,203,210,202,190,205,204,197,205,198,186,189,199,183,195,208,207,205,181,202,189,182,201,187,199,203,189,191,192,193,187,186,186,200,202,198,179,201,199,201,180,186,192,199,202,187,189,176,203,192,197,195,176,187,204,175,181,195,191,191,187,180,186,193,187,196,183,202,190,199,197,191,199,195,202,188,188,54,55,55,56,56,54,54,56,56,56,56,57,57,57,57,57,56,56,56,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,44,61,380,200,209,208,205,205,206,205,218,218,200,207,221,208,211,215,213,221,196,209,186,215,199,206,212,192,191,192,211,192,207,200,192,189,189,196,203,207,186,210,204,189,184,200,180,205,201,207,203,198,184,203,199,190,203,187,180,182,185,187,185,206,190,197,194,204,206,194,188,198,177,200,186,191,178,170,178,183,184,192,183,198,201,175,183,200,186,184,190,176,197,196,191,177,178,180,200,192,202,202,189,178,183,199,185,195,186,177,198,196,189,201,199,189,183,184,176,189,55,55,55,56,57,57,58,58,59,59,59,59,59,60,59,60,60,58,58,58,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,44,62,371,222,205,206,204,204,204,199,203,217,200,205,202,198,215,210,204,193,187,188,181,199,199,197,190,192,208,208,188,202,212,211,207,189,211,207,190,185,191,186,197,208,194,196,187,189,207,188,194,193,182,185,205,185,194,205,188,177,182,200,204,180,194,178,193,204,188,202,199,176,191,188,191,185,204,190,188,175,176,180,195,177,173,193,195,198,198,172,182,186,180,182,186,200,175,179,193,191,198,180,179,182,193,184,198,182,183,189,193,175,186,183,181,186,188,189,181,188,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,392,208,205,207,205,205,205,205,191,208,192,208,200,218,194,216,214,215,220,203,204,186,213,197,207,193,193,214,197,187,208,193,197,203,214,193,203,190,191,197,195,188,181,184,191,190,202,195,205,181,179,202,194,207,196,197,176,185,206,183,189,185,194,185,184,204,187,198,196,192,192,188,188,183,192,198,181,176,179,188,193,195,190,174,188,203,178,191,179,189,183,178,192,196,190,193,189,191,183,190,201,188,197,200,181,185,198,174,198,190,173,176,189,177,183,185,201,188,55,55,56,54,52,53,53,53,54,54,54,54,54,54,54,55,55,55,55,55,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,56,30,275,215,217,216,214,214,215,229,218,212,225,224,227,201,225,227,214,217,203,211,221,208,212,204,225,201,213,201,202,212,220,206,208,224,218,223,228,217,203,200,201,208,200,199,226,213,203,209,205,224,201,224,217,212,217,203,207,219,208,226,197,220,214,223,203,197,226,218,210,206,222,203,220,211,224,215,212,207,199,214,204,217,207,202,216,202,198,197,195,203,208,204,212,214,197,215,206,213,195,217,197,215,219,198,205,199,216,200,215,200,219,222,214,205,212,56,56,56,57,57,58,58,59,59,60,60,60,60,60,60,60,60,60,58,54,54,54,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,160,309,212,214,212,211,212,212,216,220,209,208,203,211,224,205,205,208,220,199,225,203,207,204,222,200,204,217,212,215,214,214,196,210,197,212,202,219,210,215,200,217,197,224,219,205,220,220,200,199,198,199,198,225,206,215,219,199,199,219,215,202,209,213,210,202,205,200,221,210,216,200,196,216,213,221,211,209,198,215,194,197,212,198,221,198,204,203,202,193,219,220,199,212,214,196,201,203,218,204,201,204,220,217,217,196,211,215,200,215,199,212,209,201,207,209,54,54,54,55,56,56,55,54,54,54,55,55,55,55,55,55,55,55,55,55,55,55,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,57,163,266,215,216,215,213,213,213,224,228,209,222,227,223,200,224,208,222,202,224,225,216,224,219,207,227,221,227,226,202,223,202,203,207,223,222,225,205,214,202,207,215,216,215,222,218,221,205,203,201,208,201,214,220,203,216,210,223,214,209,218,225,199,214,204,207,215,213,214,219,212,215,216,199,202,200,199,201,222,219,203,223,197,196,203,207,202,211,202,218,213,205,215,204,199,195,209,199,212,216,202,198,215,200,220,198,201,223,209,212,194,223,203,216,185,194,194,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,61,517,221,222,220,220,220,220,229,217,219,207,207,235,229,211,222,228,223,230,209,210,226,227,231,221,220,223,230,225,221,217,224,215,205,229,203,212,230,227,219,226,219,227,206,214,220,225,209,224,224,223,220,217,210,218,207,212,211,218,215,223,219,216,224,217,224,225,225,225,227,227,210,229,230,216,209,208,201,228,205,229,218,229,227,220,222,207,200,217,214,208,209,217,208,219,213,203,225,201,203,200,214,203,207,205,209,223,211,201,206,214,215,213,212,222,232,219,57,57,57,57,58,58,59,59,60,60,61,61,61,61,62,62,62,62,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,474,201,221,218,218,218,218,221,208,222,209,212,222,205,225,215,209,209,211,228,218,230,217,219,227,211,227,212,224,212,203,222,213,213,218,223,204,215,202,229,206,215,229,207,230,218,216,221,207,227,209,204,226,203,208,223,204,206,215,210,205,227,207,217,218,224,224,217,224,219,205,211,200,228,213,209,212,217,217,223,209,208,218,207,223,209,220,227,211,214,225,216,201,202,215,202,207,212,224,226,202,200,226,200,199,216,203,227,205,215,220,200,203,208,213,214,216,56,56,54,52,53,53,54,54,54,54,54,55,55,55,56,55,55,55,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,61,512,213,219,218,218,218,218,221,216,207,231,220,215,222,231,208,205,225,204,226,200,209,231,216,203,202,213,225,206,213,211,216,215,220,212,217,211,227,222,227,204,211,230,207,202,210,222,200,217,205,229,203,202,228,227,210,206,225,206,228,205,228,202,216,210,211,211,221,209,220,226,215,216,206,223,206,224,206,204,220,212,211,215,216,205,227,204,227,218,211,210,204,200,225,224,223,208,225,225,226,211,205,217,209,212,201,202,209,217,222,222,225,206,224,224,227,217,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,60,438,198,213,214,210,210,210,203,215,199,200,211,213,201,220,217,208,206,222,216,208,210,226,205,213,216,220,225,199,204,203,201,204,206,208,227,199,216,201,224,221,206,205,220,205,217,206,208,206,202,213,215,217,205,222,201,204,207,223,212,200,215,217,200,223,215,221,210,223,213,210,201,220,215,200,219,212,223,210,222,217,223,207,219,201,224,220,211,199,216,196,219,221,199,217,217,195,214,201,213,214,198,204,205,200,224,196,201,206,220,208,215,222,222,211,201,211,57,56,57,58,59,59,60,60,60,61,61,61,61,61,61,59,59,59,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,423,217,212,214,210,211,210,215,210,224,219,201,203,223,201,216,226,209,220,226,202,206,226,225,207,209,200,218,225,219,204,206,208,211,214,216,200,223,206,197,219,204,215,202,203,208,201,209,219,225,211,214,209,200,209,219,196,219,220,214,199,200,210,208,204,196,204,219,218,221,202,211,199,207,200,216,206,204,222,199,209,201,210,205,223,206,212,216,207,218,205,196,210,206,207,224,221,210,219,203,210,208,216,212,210,200,205,198,224,206,202,199,215,203,213,226,211,57,57,57,58,59,60,61,61,61,53,53,53,53,54,54,54,54,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,60,401,212,211,213,210,210,210,217,211,214,216,209,211,225,212,197,198,215,223,200,202,225,211,209,212,223,209,203,225,205,206,209,219,203,210,212,215,199,206,203,212,224,221,225,212,212,209,207,211,213,204,213,219,212,209,215,210,208,196,203,225,219,197,220,214,199,216,220,224,202,199,223,218,203,220,205,207,200,218,224,222,208,217,197,223,225,207,196,198,197,194,208,199,212,214,207,210,214,213,223,216,222,208,204,199,202,215,223,219,202,219,206,222,210,223,222,212,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,55,31,296,208,209,209,206,206,206,219,202,217,208,222,218,198,215,199,213,206,222,215,217,198,196,221,211,194,201,221,214,222,211,208,209,198,214,208,210,223,217,218,211,221,201,214,198,220,218,202,199,216,220,202,197,210,200,199,199,214,219,202,198,198,214,203,218,207,214,207,200,215,196,219,209,214,193,213,221,218,218,196,200,206,199,220,207,215,197,216,212,207,206,209,196,212,196,206,213,199,204,192,206,220,211,199,205,202,202,210,214,203,197,209,210,214,203,211,201,210,56,56,56,57,58,59,59,59,60,60,60,61,61,61,61,62,63,63,63,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,364,220,207,208,206,205,205,204,220,214,214,209,196,210,217,208,205,216,208,199,210,196,211,200,209,219,218,197,199,215,210,194,206,201,196,204,206,204,201,207,217,198,203,196,205,211,203,211,221,215,216,219,203,199,215,214,212,216,199,193,219,195,214,220,219,213,220,197,196,219,205,205,197,196,220,213,202,210,209,205,203,190,197,205,216,191,191,198,195,219,192,213,218,218,217,194,191,191,193,205,202,204,212,193,198,211,219,220,220,220,192,216,201,205,200,199,202,208,56,57,57,58,59,60,62,60,59,59,59,60,60,60,60,60,60,60,60,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,56,28,439,212,208,208,206,206,206,201,201,197,214,206,198,201,208,207,218,207,210,218,196,223,223,199,222,216,192,193,198,197,213,200,217,218,201,203,193,213,213,203,199,218,216,220,202,218,221,200,200,202,213,204,194,196,220,218,200,206,201,210,216,217,214,194,199,200,194,202,219,193,220,197,203,200,193,211,201,193,210,217,221,197,197,209,201,207,212,207,218,200,201,213,198,217,202,196,196,211,211,202,217,218,219,200,197,201,216,215,218,218,197,206,195,221,203,214,220,210,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,59,441,228,216,217,214,214,214,226,214,207,205,202,226,212,210,225,229,221,201,216,225,216,215,201,212,220,213,214,225,207,204,227,215,226,210,205,226,212,205,205,197,202,214,214,203,210,197,205,203,201,214,202,199,205,206,202,209,191,217,217,193,200,200,214,207,210,198,218,218,205,203,201,212,192,203,218,201,212,203,194,198,205,194,206,217,213,196,210,216,213,206,190,191,210,206,200,204,199,208,194,206,213,196,217,190,206,213,209,211,206,209,208,196,205,219,193,204,55,56,57,58,58,59,59,60,60,60,60,60,60,60,60,60,61,61,61,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,495,223,218,218,214,215,215,205,229,206,220,211,203,226,210,227,208,204,209,191,218,214,207,210,212,206,217,211,214,204,217,200,206,205,204,218,214,215,204,202,207,195,197,225,204,210,198,216,212,218,206,199,221,197,197,220,205,208,213,196,213,194,191,213,215,208,204,195,208,208,201,201,218,200,211,206,208,213,208,207,212,216,219,195,199,199,214,206,213,196,212,212,191,213,218,208,206,208,206,194,189,196,218,211,218,204,214,211,196,216,213,194,212,194,194,201,206,56,57,59,59,59,52,53,53,53,53,53,53,53,53,53,53,53,53,53,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,60,380,214,221,219,216,217,216,226,231,217,209,226,211,203,220,209,226,234,221,209,213,227,216,206,207,224,229,213,207,211,227,201,216,227,202,225,220,199,199,206,197,211,217,222,225,227,206,207,219,213,214,207,208,224,202,199,210,212,220,200,210,211,209,195,199,197,210,222,217,209,197,196,204,197,211,217,194,204,210,202,203,219,204,207,220,193,200,195,203,213,202,204,217,200,218,207,196,192,203,196,195,194,203,203,202,199,216,204,216,207,216,213,212,216,222,218,207,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,37,55,299,223,212,212,211,211,211,211,209,216,208,205,197,198,212,220,205,198,193,195,197,217,198,216,214,218,213,195,222,214,220,212,205,218,202,223,218,205,211,195,216,216,200,214,216,217,191,221,197,210,216,214,210,199,200,203,193,205,204,198,197,201,195,195,209,202,215,195,203,204,195,215,199,195,192,194,192,211,199,212,196,212,190,203,193,195,191,200,204,196,187,186,199,187,210,214,188,214,201,191,188,204,194,197,204,202,202,216,207,186,213,213,212,213,215,194,200,204,55,56,57,58,58,59,59,59,60,60,60,61,61,61,61,62,62,62,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,338,216,214,213,212,212,212,221,224,200,218,218,199,200,224,204,214,209,204,198,201,211,207,223,224,196,203,213,210,208,219,199,224,215,196,205,213,202,215,195,200,216,201,208,209,214,206,215,200,199,213,205,196,215,214,208,197,190,215,211,213,194,218,217,208,217,216,209,193,209,214,197,195,217,206,190,217,195,206,191,211,212,189,192,197,203,193,193,210,213,187,211,204,216,188,198,192,204,189,210,186,208,187,213,196,195,189,199,198,210,193,209,210,218,212,196,191,204,55,55,54,51,52,52,52,53,53,53,53,53,53,53,53,53,53,53,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,36,55,296,222,213,211,211,211,211,212,222,222,219,221,205,205,206,210,207,208,206,225,196,220,206,196,199,196,221,195,222,203,218,205,221,202,203,202,208,201,203,209,195,197,196,215,216,205,216,202,206,221,219,217,214,204,220,193,203,208,189,201,196,205,208,209,209,189,206,210,205,205,204,198,189,210,200,204,201,187,200,203,205,206,206,216,190,191,212,215,196,207,208,210,199,200,195,195,214,210,202,211,212,212,203,196,201,209,188,187,204,198,208,192,193,190,191,194,199,204,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,61,421,219,216,218,215,215,215,225,209,211,207,202,230,216,224,216,210,230,228,227,226,215,213,229,228,219,231,221,222,227,222,230,233,203,222,217,206,208,206,222,207,208,205,217,203,215,215,224,216,226,219,218,204,215,203,223,214,217,218,205,202,227,216,209,202,207,219,200,206,222,216,222,218,200,228,212,219,222,207,225,207,228,215,217,226,228,199,206,215,227,221,220,203,219,219,216,220,207,201,201,201,225,205,204,225,199,205,214,214,224,225,225,210,216,229,231,225,213,218,56,56,58,58,59,59,60,60,60,61,61,61,61,61,61,62,61,56,58,58,58,58,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,393,213,217,218,216,216,216,220,214,220,219,211,230,231,203,224,225,215,218,221,222,224,217,230,208,230,207,232,225,222,221,207,218,231,214,229,220,228,227,219,224,214,226,215,225,226,227,228,217,223,228,211,214,212,221,226,211,227,203,211,217,207,215,216,224,226,218,220,209,217,206,228,214,227,212,228,214,215,222,220,219,213,202,227,211,202,217,209,208,200,218,207,205,228,218,209,217,219,221,211,212,222,210,224,209,215,210,228,224,204,215,228,211,217,221,218,216,220,217,56,53,54,55,55,56,56,57,57,57,57,57,57,57,57,58,58,58,58,58,58,58,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,61,393,201,219,218,214,215,215,229,209,201,226,208,204,217,212,215,206,206,215,224,214,217,225,215,210,233,224,231,210,206,223,211,232,224,215,204,219,223,208,223,225,227,205,203,209,223,201,208,208,199,224,227,226,227,218,226,204,227,206,206,205,217,228,205,213,218,225,208,201,201,211,208,205,218,225,219,198,226,207,219,226,205,220,222,211,220,199,224,219,212,223,207,222,224,212,206,202,207,218,223,205,218,204,223,198,208,199,200,198,207,207,199,201,205,223,206,216,225,216,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,4,61,332,222,215,215,211,211,211,209,226,224,210,210,201,206,206,208,216,224,203,216,217,204,229,202,211,218,223,205,218,215,227,215,226,201,201,204,224,220,218,221,209,212,224,210,209,204,221,225,208,223,213,222,206,200,202,226,224,215,206,215,213,203,198,199,224,199,209,212,225,209,224,203,224,199,203,212,199,198,220,205,201,212,220,225,211,202,215,220,194,194,209,222,204,222,200,220,202,220,204,218,218,209,217,208,204,204,214,206,218,198,205,222,206,221,210,57,57,58,59,60,60,61,61,62,62,62,62,62,62,62,62,62,62,62,62,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,328,224,215,214,211,210,211,203,200,223,202,212,209,206,199,218,221,205,223,221,202,222,211,225,211,200,224,228,208,207,208,219,223,216,219,224,225,199,216,211,223,220,207,209,217,215,223,217,212,224,209,203,204,206,215,218,219,197,217,222,208,210,221,215,201,225,206,208,205,225,199,206,207,217,215,216,219,215,202,196,216,224,201,200,205,206,221,199,199,207,208,218,207,219,197,215,196,222,205,218,220,196,196,195,196,216,210,210,196,218,219,203,211,202,210,55,55,57,57,54,54,54,54,54,55,54,55,55,55,55,55,55,55,55,55,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,62,320,219,218,217,213,212,212,225,219,202,203,222,198,219,206,228,205,214,212,206,220,226,219,224,221,206,227,223,212,213,210,220,207,229,212,207,207,211,225,211,206,217,223,209,206,202,211,227,217,224,201,214,220,206,222,209,204,225,218,222,201,218,202,214,206,214,202,198,202,211,202,224,218,221,220,200,201,203,215,207,204,198,222,219,198,205,215,223,195,213,217,209,204,217,211,198,216,196,198,202,220,221,204,196,215,216,223,207,209,219,209,207,212,213,210,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,59,30,256,211,210,208,207,207,207,195,209,202,217,223,210,195,198,205,216,210,204,193,210,215,200,190,197,206,202,213,209,189,207,190,204,210,202,197,195,183,195,190,205,201,215,186,196,197,204,187,197,191,202,207,209,209,196,197,205,195,190,197,211,198,205,205,210,188,198,191,199,198,212,184,196,205,213,190,198,203,202,211,216,212,190,203,217,191,198,197,193,198,191,200,206,208,215,214,198,212,193,207,207,201,197,224,208,197,207,222,222,220,197,202,223,220,210,57,57,57,58,58,59,60,60,61,61,61,62,62,62,62,63,63,57,58,58,58,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,21,308,206,211,207,208,207,208,200,202,202,212,207,216,216,199,208,212,207,204,195,213,213,190,190,212,191,201,192,192,200,205,194,218,204,202,207,211,185,210,199,189,203,215,186,210,203,189,191,214,198,203,213,201,204,195,197,201,198,189,208,203,188,195,190,200,212,186,188,208,213,194,188,190,196,204,189,193,208,205,215,212,214,193,212,191,191,209,206,197,207,208,204,191,198,191,199,199,207,201,205,215,205,213,217,221,220,196,194,195,195,214,202,207,212,207,57,56,57,58,58,61,59,56,57,57,57,57,57,58,58,57,58,58,59,59,59,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,61,56,286,211,212,209,209,209,209,199,210,196,207,198,199,206,198,213,201,204,198,214,198,217,194,198,214,194,203,216,204,215,217,201,200,194,205,213,198,187,195,208,208,196,203,189,188,207,207,209,189,198,214,192,195,202,207,201,191,209,197,189,206,199,205,214,211,194,202,212,200,191,202,201,192,202,193,194,199,212,209,210,194,217,196,216,218,202,198,206,196,207,203,199,215,205,194,220,207,214,202,200,212,212,206,196,206,206,209,204,197,203,222,205,201,199,211,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,59,0,302,210,207,206,205,204,205,208,219,209,202,201,211,212,193,201,201,202,219,200,212,199,194,195,187,201,205,213,216,213,194,198,215,195,201,215,192,210,197,211,191,205,189,191,197,187,192,187,213,190,198,191,203,204,211,200,197,205,187,191,197,210,195,191,206,190,190,184,183,186,186,202,183,184,191,190,183,193,208,208,198,198,211,189,214,206,205,212,191,192,207,212,201,203,214,212,189,192,189,208,204,200,202,200,207,197,203,205,194,210,219,194,205,202,214,214,209,56,56,57,58,58,59,59,59,60,60,60,60,61,61,60,61,61,61,61,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,302,213,207,206,204,204,205,205,208,192,210,217,201,215,200,193,210,204,195,179,214,201,206,189,209,187,215,194,215,197,204,204,192,206,214,209,202,192,207,202,195,208,204,186,185,201,192,199,212,205,201,201,199,199,186,205,191,197,203,188,182,186,188,183,191,192,196,198,193,183,186,193,209,189,194,187,194,204,189,190,200,190,210,183,198,183,195,199,184,189,194,200,208,203,188,202,206,188,210,189,194,202,206,193,202,215,202,201,189,198,203,207,198,209,215,205,205,55,54,55,56,57,52,52,52,53,53,53,53,53,53,53,54,54,54,54,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,60,0,259,215,209,209,207,206,206,194,211,215,198,196,204,201,211,192,199,215,211,192,208,198,215,196,213,215,216,212,207,196,198,203,192,191,209,209,200,197,206,190,199,185,208,193,202,197,204,198,201,186,202,213,211,189,198,193,210,199,205,204,206,201,201,205,199,210,209,207,194,207,193,187,184,198,189,212,198,208,191,203,192,187,204,194,198,190,197,188,193,207,199,197,187,212,203,190,195,204,193,205,209,203,207,199,215,219,212,216,217,198,221,205,206,209,209,199,211,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,59,337,200,197,196,195,195,195,193,200,205,188,204,209,188,196,209,207,185,191,197,203,203,195,194,193,196,195,194,201,202,193,206,208,181,201,198,185,193,204,187,179,196,194,190,191,192,193,196,199,177,181,203,183,196,184,194,201,187,192,203,183,183,199,200,195,196,194,193,184,186,176,174,190,187,195,194,180,188,180,203,182,179,183,195,204,189,199,189,177,182,179,201,195,182,185,200,193,203,193,190,182,185,193,179,203,202,195,181,187,194,206,206,184,186,198,206,192,200,57,56,57,58,59,59,60,60,60,61,61,61,61,58,58,58,58,59,59,59,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,365,211,195,194,193,194,194,189,206,199,187,192,191,205,209,203,179,193,173,197,187,186,186,205,188,202,185,208,202,195,201,203,190,184,203,181,184,194,196,179,182,181,177,204,188,189,195,185,196,195,202,175,199,199,182,198,203,179,179,195,199,182,189,176,182,185,183,193,183,192,181,181,177,187,194,180,181,197,186,198,193,194,187,185,180,191,176,189,194,194,204,183,178,200,184,199,190,183,195,199,187,191,187,197,179,183,209,196,189,193,186,209,208,199,192,211,190,198,56,55,56,55,54,54,54,54,55,55,55,55,55,55,55,55,56,56,56,56,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,59,366,203,197,195,194,195,194,188,195,192,194,201,200,182,183,199,193,192,201,202,183,195,199,207,182,203,181,190,181,198,195,193,187,199,208,180,200,189,175,177,180,190,199,194,179,202,197,180,187,201,197,177,191,180,193,181,189,203,184,200,192,190,190,195,194,191,175,185,181,191,189,180,199,197,177,175,174,188,200,177,188,182,192,195,192,193,200,181,202,188,203,204,202,183,201,200,182,210,211,182,201,187,183,191,199,203,209,199,201,210,192,206,213,186,213,215,212,200,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,57,169,232,198,204,198,198,199,199,198,200,189,198,198,202,201,189,194,190,198,183,200,214,197,188,209,210,189,192,203,195,215,205,187,194,194,194,202,209,201,198,200,206,208,191,212,191,182,188,206,190,185,198,192,199,190,194,191,192,206,184,184,189,209,192,191,203,195,181,180,200,205,192,180,184,182,182,183,197,201,205,187,204,182,200,197,186,208,191,208,199,210,182,210,199,210,200,207,197,204,188,196,200,192,209,198,185,190,213,190,209,213,208,190,199,55,56,57,58,59,59,59,59,59,59,60,60,60,60,61,62,57,57,57,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,2,267,249,200,205,199,201,201,201,205,198,215,203,196,190,196,206,197,213,192,190,216,207,215,201,215,192,190,200,209,205,189,199,189,211,212,190,193,189,201,188,186,214,193,189,191,194,200,197,198,191,203,199,184,210,199,208,207,198,212,211,201,208,212,196,209,206,198,212,199,183,184,203,188,194,183,182,192,198,208,204,215,207,214,206,191,192,194,185,208,197,195,186,196,205,208,191,201,207,189,209,200,197,205,204,210,202,207,195,207,218,202,193,208,203,57,58,59,55,55,55,55,55,55,55,55,55,55,55,55,55,55,55,55,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,57,324,193,200,203,199,198,199,200,187,200,207,185,213,190,208,195,194,201,216,184,213,188,211,189,187,202,209,209,188,201,190,215,191,215,211,207,212,214,198,182,210,184,213,198,184,187,195,198,210,207,191,207,200,190,197,205,200,186,192,212,194,198,211,187,204,207,198,209,198,183,204,193,194,186,202,206,189,188,193,189,205,212,208,209,210,204,184,198,192,195,208,183,200,186,192,208,185,216,189,198,207,217,202,216,217,193,193,197,203,201,215,182,180,194,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,58,294,210,204,204,199,199,199,210,202,196,210,214,188,186,202,191,195,205,203,184,215,189,188,197,212,195,202,189,193,195,215,211,192,203,213,200,201,202,190,197,200,189,213,185,213,211,212,211,214,203,204,203,190,210,190,198,205,188,198,201,197,195,213,190,189,194,206,191,197,202,210,205,200,216,200,212,214,196,196,196,201,197,217,202,220,215,206,214,207,212,216,194,191,220,207,202,210,209,216,217,214,210,219,223,213,202,214,222,200,214,205,215,200,214,213,57,57,59,59,60,61,61,61,61,62,62,62,62,62,62,62,62,62,62,62,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,332,210,203,201,198,198,198,212,186,196,200,190,205,194,214,201,194,192,190,186,196,196,194,206,205,202,213,195,200,190,206,214,211,195,195,201,214,191,197,198,201,197,190,213,210,189,213,190,202,207,205,204,209,201,210,200,190,207,188,191,198,208,207,185,214,214,209,201,199,210,211,211,191,206,200,200,187,208,215,216,209,215,188,202,215,215,202,217,190,198,208,209,189,200,216,198,192,215,194,220,206,210,209,221,209,197,220,213,208,209,197,212,196,217,209,55,55,56,57,58,58,58,57,57,58,58,58,58,58,58,58,58,58,58,58,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,58,279,218,206,205,201,201,201,202,194,217,200,212,196,193,211,211,203,219,206,183,190,210,195,206,208,208,204,198,205,207,205,198,190,210,214,202,203,187,187,204,202,193,190,211,200,215,213,196,206,212,213,206,215,192,194,190,200,199,186,200,202,216,213,197,217,217,206,210,194,202,208,189,211,207,188,201,207,209,203,200,205,213,193,215,217,197,200,213,195,214,222,200,215,216,211,215,226,216,204,211,222,213,227,226,214,220,209,197,208,201,221,227,208,209,214,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,56,327,200,197,201,198,197,198,191,192,212,200,199,189,184,184,195,200,192,197,179,197,198,202,203,203,203,213,187,199,192,197,183,185,200,197,206,212,209,196,186,196,193,185,193,196,187,208,194,184,185,197,204,186,203,197,196,185,200,207,198,205,202,202,203,191,191,189,192,199,200,203,187,197,213,204,214,197,189,205,201,201,213,202,190,219,206,191,206,201,212,209,192,192,215,190,196,200,208,198,221,205,212,201,211,213,219,219,202,222,211,206,224,216,220,206,212,56,56,57,58,59,59,59,60,60,60,61,61,60,61,61,61,63,63,63,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,229,232,197,201,196,197,197,203,212,211,197,203,183,204,197,205,206,205,212,177,197,200,197,211,203,195,187,207,209,185,197,205,206,199,187,208,203,202,210,200,188,187,208,194,206,211,187,197,207,193,210,191,203,182,197,183,188,196,186,208,203,209,200,205,209,202,190,191,199,206,204,183,207,210,198,211,200,198,200,204,215,212,215,213,200,216,188,192,210,201,197,205,200,210,198,206,206,195,214,215,212,209,196,194,208,221,198,208,206,220,197,212,211,222,208,208,56,56,57,59,62,55,55,56,56,56,56,56,56,56,57,56,56,56,56,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,57,333,208,199,204,200,200,200,198,189,189,208,201,215,201,209,214,200,207,189,183,188,199,215,209,195,195,210,200,204,205,207,205,190,200,195,200,209,196,195,204,189,196,204,197,186,198,192,200,202,212,205,206,202,197,198,213,214,193,198,211,192,204,201,213,209,194,213,213,207,197,200,192,210,188,198,208,193,206,216,193,219,215,211,206,211,214,202,210,206,218,199,219,207,202,213,199,212,208,208,199,205,208,211,197,201,221,210,216,208,201,202,223,213,214,213,213,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,61,62,403,207,224,224,219,220,220,226,214,226,212,220,228,235,218,207,235,215,237,207,207,217,206,213,217,220,230,220,214,223,213,209,231,210,221,216,205,215,211,231,211,208,219,229,211,219,227,222,210,205,233,217,225,220,209,230,216,230,208,232,208,206,221,209,205,223,210,228,206,222,228,214,209,213,214,222,213,211,211,213,224,216,227,228,220,216,224,219,205,227,219,205,201,214,207,216,222,202,208,200,220,212,221,218,207,218,204,217,209,227,214,215,205,224,208,214,216,55,56,56,57,58,58,59,59,60,60,60,60,60,60,61,61,62,62,62,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,60,61,462,224,225,224,221,221,221,221,231,213,228,231,213,231,227,223,233,221,217,206,234,210,233,210,206,227,208,231,212,229,224,207,212,225,211,213,217,224,217,207,214,233,230,233,210,231,209,223,222,210,229,210,205,231,228,211,205,231,231,228,225,222,209,224,225,231,229,218,213,213,230,213,216,211,215,210,232,225,211,214,232,206,214,220,228,216,229,217,210,206,210,228,211,214,210,213,227,230,227,201,227,223,223,231,222,221,202,211,227,213,202,222,211,218,216,207,217,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,550,225,228,227,223,223,223,210,225,213,213,217,225,237,209,216,227,230,227,204,219,230,209,214,227,234,209,216,210,225,208,216,233,230,224,213,207,213,232,228,227,234,226,231,217,225,214,214,216,219,208,209,234,230,229,234,226,225,230,214,221,219,228,211,218,230,226,234,231,228,212,208,221,232,217,219,215,211,212,208,228,225,231,231,222,206,231,231,215,218,221,204,226,222,223,218,208,230,223,219,201,209,205,203,215,229,231,209,207,213,223,226,223,211,216,233,219,57,57,58,58,59,60,60,60,59,59,59,59,60,60,60,60,61,61,61,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,56,381,205,204,203,201,202,201,211,200,190,194,196,189,212,209,210,189,212,214,183,190,206,186,193,199,207,203,209,192,195,211,196,209,186,195,208,198,190,192,210,204,207,212,207,212,202,184,204,193,190,183,204,200,203,181,193,190,185,209,198,200,200,195,201,209,200,194,183,208,199,180,197,200,180,192,202,194,183,190,204,207,196,190,184,205,204,179,183,183,201,185,201,196,200,186,181,203,204,195,206,205,206,184,184,189,200,208,207,212,184,205,199,196,190,198,203,187,199,56,55,56,57,58,58,59,59,59,59,60,60,60,60,60,60,60,61,61,61,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,441,211,205,203,202,202,202,217,195,212,205,200,197,197,198,199,196,193,215,198,193,210,206,210,210,186,214,207,199,196,195,206,195,191,207,214,202,201,205,188,189,196,194,209,184,191,206,203,190,208,199,210,206,195,181,192,202,192,184,202,192,194,193,209,188,192,190,195,184,205,200,198,205,202,205,194,185,190,206,185,204,179,190,195,187,197,179,180,182,192,190,202,189,197,191,181,208,182,185,195,195,202,190,199,208,192,206,209,183,183,208,210,202,187,198,200,188,193,193,55,56,58,60,55,54,54,55,55,55,55,55,55,55,55,55,54,54,54,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,58,363,195,205,204,202,203,202,215,203,209,210,216,194,218,212,200,198,205,197,192,207,201,195,190,192,189,202,213,192,215,207,213,196,186,214,193,207,196,183,188,195,205,206,209,191,185,209,203,185,183,190,198,210,182,193,186,187,184,184,194,182,192,201,196,188,192,199,185,183,183,190,185,204,196,191,180,193,209,206,208,189,209,185,179,200,183,189,191,207,198,197,189,189,194,200,182,196,183,199,190,189,201,188,203,200,210,190,194,191,212,188,192,207,193,194,207,191,188,188,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,58,316,206,195,195,196,196,196,183,189,200,182,206,204,206,186,194,207,193,190,202,180,203,189,187,194,197,184,182,206,185,190,185,184,209,201,208,207,209,185,196,184,180,208,182,202,205,208,189,186,182,189,194,181,200,186,191,200,205,204,203,202,198,200,186,195,178,187,184,181,198,190,203,178,179,186,194,196,204,204,181,196,189,202,191,201,201,209,210,199,189,187,186,204,197,208,185,196,205,182,207,190,198,184,194,198,206,198,206,203,185,212,208,193,195,192,198,207,201,54,54,55,55,56,56,56,57,57,57,58,58,58,56,56,56,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,59,322,194,196,196,196,197,196,197,186,193,202,201,195,193,209,192,182,182,194,200,192,204,200,209,188,204,186,190,186,209,210,182,192,185,188,186,189,207,203,201,197,195,191,208,198,206,196,202,199,197,204,200,195,182,208,203,190,199,197,190,204,205,187,202,185,197,200,207,183,187,191,192,199,179,190,188,178,202,196,201,185,202,186,193,182,181,194,208,190,200,180,194,201,197,187,190,180,185,202,188,183,196,195,198,206,183,192,187,200,186,192,199,204,214,192,192,209,200,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,308,214,194,195,195,195,195,184,197,191,183,185,197,181,205,199,201,189,197,181,180,181,183,203,191,185,192,207,194,199,190,197,190,203,198,201,200,203,181,195,207,201,196,206,208,193,192,196,201,205,202,207,197,193,185,190,200,178,178,207,191,195,186,206,189,188,185,192,198,183,201,191,203,179,194,202,191,192,196,194,186,198,201,194,195,184,205,180,208,183,181,193,203,205,181,199,200,201,190,192,206,191,196,188,202,207,208,183,201,196,193,187,208,206,196,212,210,199,54,53,50,50,50,50,51,51,51,51,51,51,52,52,52,52,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,57,59,432,200,196,192,192,192,192,197,200,184,179,189,182,195,186,186,182,188,187,186,198,193,205,190,197,194,204,201,185,184,186,209,200,198,199,189,184,204,207,189,198,204,192,188,201,182,208,198,191,185,185,200,195,189,207,200,191,180,205,205,194,187,184,185,196,183,206,185,200,210,204,181,181,210,195,204,201,181,191,199,184,186,202,208,197,206,201,197,192,191,184,199,211,194,190,182,187,211,197,198,190,206,187,212,204,203,203,198,202,196,194,212,212,207,201,185,183,194,54,54,55,55,56,56,57,57,57,58,58,58,58,58,58,61,60,60,60,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,56,57,388,184,196,192,192,192,192,181,191,196,182,202,178,198,192,188,206,203,179,200,198,192,190,204,195,179,196,180,191,197,207,187,189,181,207,200,205,180,184,208,206,202,197,197,202,180,199,184,207,186,178,178,201,187,181,198,203,193,202,205,202,207,182,182,190,186,193,195,202,180,185,179,206,184,191,190,184,203,183,184,184,193,184,193,187,197,205,208,184,201,190,210,208,192,196,197,196,198,200,197,206,185,209,197,207,186,192,186,206,197,202,208,204,198,194,199,190,196,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,384,192,197,194,194,194,194,180,203,186,206,184,206,184,193,198,189,199,208,211,193,206,185,182,198,205,189,196,183,209,207,202,198,187,194,194,194,207,208,207,193,185,188,189,189,196,192,183,194,184,189,203,193,192,192,181,183,185,191,189,198,199,189,201,206,187,188,207,190,184,193,198,209,188,186,208,201,201,183,185,208,198,198,194,192,197,204,189,201,204,203,198,204,191,203,187,199,199,186,194,188,214,208,195,197,206,209,205,212,193,214,189,210,199,192,193,211,55,55,55,57,53,52,52,52,52,53,53,53,53,53,53,53,54,54,54,54,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,59,57,306,206,214,213,209,209,209,221,220,214,220,201,199,199,208,203,225,225,213,207,225,205,203,213,204,216,210,202,213,214,211,199,200,224,216,224,211,210,220,205,226,207,208,219,215,205,215,223,224,205,201,203,206,217,209,204,200,206,196,211,209,197,212,221,210,217,220,210,202,209,202,197,205,201,199,202,193,202,198,197,204,217,206,208,217,197,220,191,204,210,218,195,215,202,214,212,223,201,209,195,221,201,218,197,200,220,223,218,196,219,198,201,199,213,224,212,54,55,56,56,57,58,58,58,58,59,59,59,59,59,59,60,60,60,60,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,57,55,335,215,213,212,208,208,208,204,201,200,220,200,200,210,201,203,206,219,224,225,199,209,211,213,219,225,218,222,214,202,205,215,200,202,219,206,219,218,199,204,214,218,205,207,211,215,216,215,208,195,206,212,211,199,216,196,203,197,200,217,215,206,194,209,194,196,212,194,195,222,195,195,205,195,208,195,219,217,210,217,214,217,218,199,206,214,207,196,193,219,198,207,218,208,201,201,221,200,205,198,194,218,203,201,218,201,209,219,193,197,202,211,221,205,208,210,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,381,221,214,213,209,209,209,211,204,212,196,201,202,196,206,216,225,210,208,205,209,200,222,204,220,204,215,207,212,200,197,211,201,214,206,220,196,198,223,204,207,197,211,203,202,200,217,215,217,222,207,223,211,201,199,203,199,196,219,207,223,211,196,223,220,196,219,220,214,206,215,215,222,210,210,210,210,197,215,207,216,207,219,212,205,202,216,218,199,200,194,207,210,208,219,210,210,211,221,207,208,220,206,210,201,209,202,194,197,218,216,198,208,215,224,211,55,56,57,58,54,55,55,55,55,56,56,56,56,56,56,56,56,56,56,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,32,60,167,275,205,207,204,205,205,205,210,212,208,210,209,213,204,196,195,219,206,190,209,192,216,202,200,194,215,192,204,197,193,211,203,212,209,192,211,200,206,201,206,204,208,191,197,191,204,193,216,198,214,205,212,213,197,213,210,207,201,216,197,216,201,204,192,194,192,195,197,203,210,196,198,209,212,189,189,200,189,210,200,201,188,196,208,210,199,188,196,194,198,192,195,189,214,208,195,216,214,196,195,208,190,219,202,193,192,198,200,191,193,203,197,203,216,211,208,221,209,54,54,55,55,56,56,57,57,58,58,58,58,59,58,59,59,57,57,57,57,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,32,59,290,220,207,206,202,203,203,203,202,199,215,219,195,193,216,214,201,193,210,200,207,196,208,191,198,195,197,202,198,197,187,200,213,193,210,205,215,208,195,189,211,207,197,199,216,208,189,196,212,198,204,214,189,211,190,215,197,207,195,196,195,202,185,215,188,195,211,210,214,205,206,214,195,209,195,195,212,193,202,201,212,196,196,210,202,193,212,199,197,205,203,207,203,200,194,210,208,201,217,210,198,212,218,204,211,196,203,217,214,190,200,214,213,196,219,201,205,213,208,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,232,243,205,206,203,203,204,204,204,190,200,214,216,199,203,214,195,216,194,198,207,204,209,209,201,215,205,216,191,213,217,216,217,192,192,200,192,202,212,200,208,193,208,190,187,188,188,209,194,209,214,195,208,211,196,214,192,186,199,201,215,203,192,193,214,200,196,211,206,191,212,213,195,190,192,191,211,186,203,203,213,203,217,189,216,190,210,207,203,190,193,211,192,217,190,216,203,205,203,218,208,200,203,212,206,213,209,195,208,201,207,195,203,214,212,210,193,197,207,56,56,56,57,56,54,54,55,55,55,55,55,56,56,56,56,56,56,56,56,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,58,53,330,216,209,208,209,208,209,196,222,218,205,201,209,200,222,211,210,197,217,226,221,221,201,227,210,226,203,220,226,208,199,218,210,219,213,196,197,199,212,205,214,220,218,202,222,218,222,220,202,213,206,212,204,210,210,195,202,196,202,218,220,208,200,208,221,203,219,214,220,219,220,196,216,220,214,219,191,214,211,193,207,219,214,194,215,216,203,190,219,190,216,195,209,207,200,189,218,192,213,213,198,210,212,215,192,208,209,197,206,207,194,203,201,214,207,55,54,55,55,56,56,57,57,58,58,58,58,59,59,58,60,60,60,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,59,54,316,213,209,209,209,209,208,223,198,205,209,209,212,214,198,215,207,204,201,215,205,205,206,227,206,225,219,223,209,224,198,223,216,224,223,220,222,224,222,201,206,211,205,215,218,206,203,204,218,209,195,223,196,214,195,220,210,206,207,209,201,205,202,207,197,221,220,209,211,215,218,193,204,208,213,211,212,218,194,193,199,210,197,198,192,196,219,214,217,200,197,196,212,206,217,203,193,218,198,218,199,211,192,202,205,217,192,192,198,211,222,200,196,210,207,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,323,213,213,212,212,212,212,218,210,218,217,204,220,222,216,223,216,221,202,202,229,208,209,209,224,212,207,214,219,223,227,229,201,217,218,212,225,212,229,216,220,221,207,229,207,204,224,223,209,220,227,208,212,209,211,221,208,211,224,222,208,199,207,214,201,210,200,210,207,217,221,197,207,217,201,200,213,206,211,214,217,213,213,195,198,206,217,222,218,200,221,196,199,197,222,205,204,194,215,201,207,218,200,208,215,224,215,215,213,224,210,221,220,197,210,55,55,53,52,52,52,53,53,53,53,54,54,54,54,54,54,54,54,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,58,444,199,217,218,213,212,213,201,201,210,227,225,221,211,202,210,226,208,221,223,225,219,218,223,225,222,226,221,232,221,224,202,226,205,216,206,202,216,221,230,208,210,212,230,225,209,204,211,210,202,201,201,215,201,220,199,205,209,205,202,223,208,200,221,211,201,198,224,217,200,212,214,212,212,213,197,214,203,201,202,212,215,216,206,219,203,203,222,221,208,205,208,196,212,198,205,193,195,205,201,208,213,216,213,194,212,221,198,197,203,205,218,207,218,219,200,211,54,55,55,56,57,57,58,58,58,58,59,58,59,59,60,61,61,56,56,56,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,418,197,216,217,210,211,210,204,196,225,205,221,220,214,221,204,211,214,228,211,202,214,222,231,214,207,221,201,216,221,213,209,200,218,212,224,216,215,223,203,209,218,216,211,203,220,227,215,223,204,208,206,222,212,222,214,215,215,201,209,221,197,204,200,197,204,199,200,219,209,195,198,221,198,198,217,214,193,200,203,211,199,205,212,214,192,192,191,209,203,199,210,207,194,198,206,196,193,209,195,194,189,191,196,196,219,195,193,197,201,198,212,214,219,223,218,209,56,56,59,53,53,54,54,54,54,54,54,54,54,54,54,54,54,55,55,55,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,59,432,192,216,218,212,212,212,207,199,209,223,213,203,208,198,205,210,229,221,222,214,221,204,221,223,228,215,224,204,228,228,227,216,215,204,210,226,220,210,219,226,204,199,213,206,217,229,205,217,208,208,213,226,199,220,205,225,221,201,201,221,201,221,214,206,213,218,214,196,211,218,215,201,197,224,208,213,204,213,218,212,223,216,200,202,219,208,215,217,214,205,219,198,205,204,203,213,193,199,216,209,217,218,221,217,212,213,196,207,200,207,218,216,205,208,213,210,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,56,24,260,203,201,200,197,198,198,185,194,206,207,213,213,202,185,211,200,211,210,189,204,204,203,197,212,194,212,196,197,200,187,206,205,210,212,192,187,189,200,209,205,217,213,190,194,205,194,194,207,200,197,198,194,218,205,205,215,212,211,219,219,208,206,211,220,222,217,221,215,200,212,218,214,213,221,209,208,201,209,203,222,218,204,198,206,218,200,217,216,202,223,206,211,200,224,230,217,215,209,219,222,211,208,222,209,232,206,216,226,216,204,208,226,214,223,216,220,57,57,57,58,59,59,60,60,61,61,61,61,61,61,61,62,62,62,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,10,302,200,200,197,196,197,196,207,185,210,191,208,189,190,190,195,202,200,187,189,187,198,208,192,202,197,192,196,189,202,203,210,191,184,203,209,195,211,191,192,208,201,211,214,187,191,193,198,200,204,196,192,196,212,203,197,213,215,216,194,201,205,198,198,206,194,213,197,196,197,213,213,211,215,215,214,200,206,203,198,196,200,212,204,218,219,216,213,217,208,216,209,220,215,221,203,210,224,206,210,211,219,198,200,219,210,228,202,223,217,226,209,206,211,229,212,219,57,57,58,59,60,62,62,62,53,53,53,53,53,53,53,53,53,53,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,57,29,271,204,200,198,196,196,196,201,186,208,194,199,206,195,186,190,188,209,200,194,187,186,198,187,207,192,191,202,212,207,211,190,188,202,212,204,210,186,209,184,210,196,216,206,202,207,214,198,188,185,200,208,193,214,187,192,208,211,195,216,203,195,213,208,197,201,217,210,220,208,213,218,220,205,202,213,217,224,204,198,218,216,209,197,206,195,206,211,207,206,213,209,217,214,200,211,229,227,218,209,214,210,227,227,217,228,230,208,207,210,201,227,214,222,227,209,219,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,54,13,406,213,219,218,215,215,215,225,205,230,204,222,203,210,211,212,231,204,226,213,210,221,223,225,205,228,208,228,212,208,215,205,221,202,218,228,226,203,209,227,212,201,217,210,228,211,226,207,228,218,208,217,220,224,200,202,220,215,229,228,220,201,199,204,216,208,200,226,199,223,223,217,224,215,198,221,222,208,220,228,226,204,206,223,214,218,219,221,205,211,214,213,207,207,232,228,222,220,227,218,211,227,235,220,214,239,225,219,235,223,228,232,240,233,235,228,56,55,56,56,57,58,58,59,59,59,60,60,60,60,60,62,62,62,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,482,219,218,217,214,214,214,218,202,221,203,215,211,223,216,206,214,204,227,212,224,230,224,220,212,231,207,209,212,217,227,203,230,230,210,225,223,210,212,209,209,222,214,216,208,211,203,202,220,209,213,213,220,223,206,207,200,213,208,226,223,209,202,206,221,221,213,210,219,204,204,218,227,210,222,213,216,216,216,205,223,219,224,210,209,220,214,221,204,207,200,220,207,204,206,206,224,234,210,220,205,218,224,212,232,233,219,230,215,235,211,219,219,230,235,226,57,56,57,58,60,55,54,55,55,55,55,56,56,56,56,56,56,56,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,54,10,399,206,220,219,216,215,215,229,219,217,212,215,221,204,218,229,227,231,215,219,208,211,218,227,218,214,211,231,204,223,231,207,231,212,217,204,223,223,220,213,206,217,212,229,216,225,206,230,220,221,227,205,216,226,205,205,208,215,225,225,211,213,204,212,217,229,218,226,203,218,205,216,219,225,199,211,203,229,230,217,227,213,218,218,229,217,224,225,205,207,223,230,221,206,225,217,209,237,220,230,229,214,235,222,233,216,220,212,229,234,233,217,226,238,220,227,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,57,389,180,191,189,187,187,186,180,184,180,176,176,196,184,195,176,198,196,173,190,172,186,190,187,181,175,182,170,190,197,181,185,183,177,170,193,183,181,175,177,175,177,196,193,189,192,175,193,185,182,184,197,168,192,187,192,191,182,178,189,175,191,174,188,198,181,197,183,172,195,181,177,190,189,181,180,168,192,189,185,188,192,199,198,178,193,199,189,194,175,200,183,191,199,174,201,200,196,206,182,182,200,189,182,194,185,199,192,186,192,200,202,210,195,185,211,211,198,56,56,57,58,58,59,59,60,60,60,60,60,60,60,61,62,62,62,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,413,194,191,190,188,188,187,202,186,177,193,198,196,197,200,175,186,190,196,182,172,174,191,199,181,198,200,175,187,196,200,174,176,179,182,171,199,175,198,178,185,194,171,193,185,181,197,184,176,176,197,191,189,193,188,188,185,194,177,196,187,200,176,195,173,180,198,173,200,176,185,179,197,171,180,184,193,176,200,202,179,189,181,190,204,178,188,182,194,199,184,185,195,182,197,185,187,193,185,186,189,206,182,180,181,204,204,200,190,193,202,190,194,210,190,205,210,197,54,55,56,58,58,58,58,51,51,52,52,52,52,52,52,52,52,52,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,58,462,197,192,189,188,187,187,184,200,201,198,181,199,183,185,197,190,203,179,201,176,178,197,191,185,199,197,193,175,199,199,179,172,185,198,189,177,172,197,178,188,199,173,196,177,195,191,198,176,176,192,179,177,189,190,184,180,186,190,191,172,197,179,194,195,173,195,180,194,191,194,171,188,183,195,189,198,179,182,192,189,188,203,187,199,181,202,191,204,179,194,192,196,195,188,187,193,194,182,207,199,181,191,200,189,203,206,200,181,198,187,181,190,204,187,184,193,198,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,58,443,190,190,189,186,185,186,175,198,175,190,182,173,173,179,199,190,183,193,173,200,189,180,194,196,190,183,200,175,190,186,184,188,197,187,187,202,185,174,182,175,178,180,182,179,185,191,193,197,186,191,198,184,194,183,202,188,195,193,178,184,190,197,186,177,201,191,184,188,206,187,198,204,184,192,197,180,187,207,199,207,184,194,193,186,187,193,205,202,183,211,186,210,190,208,207,198,201,186,212,209,197,209,206,210,188,190,200,198,203,187,204,212,205,214,203,203,55,55,56,57,57,57,58,58,59,59,59,59,60,60,59,61,60,60,60,60,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,412,180,191,190,186,187,186,181,175,186,176,189,198,195,193,202,185,184,179,199,182,177,201,199,189,173,193,187,173,184,194,182,173,200,173,182,175,201,191,185,176,176,178,194,187,181,204,176,182,183,190,204,194,191,178,194,200,182,191,189,195,185,198,194,200,188,194,201,185,192,204,205,207,192,184,197,192,187,181,202,188,191,195,199,183,197,200,181,202,182,180,196,182,209,188,199,210,197,192,186,195,187,187,212,197,206,193,209,211,211,204,189,187,194,211,212,201,54,54,55,56,56,56,53,53,53,53,53,54,54,54,53,54,54,54,54,54,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,58,446,178,191,192,188,189,188,191,191,202,176,198,189,184,184,195,204,201,193,190,177,198,188,186,195,191,197,202,190,199,201,187,185,188,180,188,201,187,183,182,180,190,195,186,189,190,180,188,180,207,179,192,183,179,193,191,190,206,201,201,191,199,196,185,195,203,181,205,187,209,183,192,192,187,205,187,189,207,206,192,211,193,203,213,205,198,201,195,198,206,195,185,194,185,197,185,205,190,203,211,199,212,193,188,188,206,206,211,206,204,216,197,216,209,215,202,205,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,58,428,190,204,205,205,205,205,191,214,197,198,217,213,216,217,208,212,213,211,216,210,197,215,211,199,196,200,203,214,197,221,196,197,198,217,219,192,200,202,192,206,204,214,217,200,214,220,194,217,201,209,201,218,201,204,211,202,209,203,206,207,199,190,204,196,196,217,214,217,217,207,203,200,200,198,194,205,210,214,209,216,201,208,201,188,214,194,207,191,206,205,193,209,208,187,187,212,203,205,197,200,217,190,212,211,191,218,214,210,201,201,190,216,196,198,217,205,55,55,56,57,57,58,58,59,59,59,60,60,60,60,60,60,60,60,60,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,337,188,204,204,205,204,205,206,198,203,198,202,192,193,196,194,197,220,216,199,212,219,213,199,218,209,193,205,219,217,221,203,216,204,192,200,197,216,204,207,206,211,196,207,212,210,218,193,194,207,196,201,191,216,210,190,212,205,209,206,190,208,201,200,190,201,192,195,196,189,191,189,206,191,188,216,188,193,189,211,199,189,187,192,199,205,207,205,200,202,203,190,192,206,197,200,212,215,203,196,191,200,218,217,193,197,197,206,207,198,191,196,216,199,195,208,205,54,53,49,50,50,50,50,51,51,51,51,51,51,51,51,51,51,51,51,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,58,395,194,206,206,206,207,207,215,217,211,195,197,208,209,217,208,206,193,209,201,199,205,196,214,211,203,201,209,215,195,213,195,221,194,218,210,203,211,219,194,200,223,204,201,198,203,197,199,218,216,207,192,206,206,220,196,195,203,203,219,204,207,209,196,194,203,205,202,214,210,202,207,219,197,209,218,215,198,196,197,215,192,189,202,218,197,202,190,218,198,204,190,206,193,194,211,212,204,213,217,214,204,192,208,218,218,208,209,214,209,208,196,197,212,220,215,208,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,60,415,200,216,216,216,216,216,230,223,224,219,208,204,226,207,227,229,229,227,210,225,232,223,229,207,210,213,221,217,230,205,219,203,220,228,214,209,201,204,231,224,213,212,211,207,208,201,215,200,210,222,203,228,217,206,222,208,204,212,211,207,211,216,206,204,214,216,217,212,198,204,215,203,217,223,201,223,223,213,221,197,220,214,210,201,205,212,213,210,196,219,209,215,221,203,203,200,216,205,197,195,217,209,202,207,222,203,225,210,204,225,220,204,207,207,213,213,56,56,56,57,57,58,58,59,59,59,60,60,60,61,61,61,61,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,406,191,211,211,213,213,213,228,224,212,226,208,222,225,205,222,218,201,223,228,219,227,227,226,217,204,224,222,222,208,214,204,199,212,210,219,203,214,221,201,218,222,220,224,197,198,216,203,206,225,203,213,208,211,210,205,216,210,201,217,199,202,214,203,211,220,222,223,215,195,195,210,211,204,195,198,217,205,213,222,199,213,201,200,213,218,214,196,218,200,203,194,195,208,205,213,221,209,218,213,214,215,193,194,213,201,201,203,218,196,219,219,208,202,201,216,210,55,55,55,53,53,53,54,54,54,54,55,55,55,55,56,56,56,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,59,477,196,213,214,215,215,215,227,203,209,225,223,212,202,209,209,226,217,223,201,208,210,229,231,213,201,209,204,211,222,208,220,223,229,229,222,201,226,226,211,224,208,226,217,205,200,212,215,199,223,221,217,228,219,217,225,214,223,228,201,201,212,225,215,207,205,226,204,210,210,197,208,217,212,201,201,221,225,208,214,202,208,202,226,205,205,213,208,197,198,218,210,209,198,222,224,201,197,195,214,223,214,217,213,198,201,198,221,213,224,220,213,223,215,211,211,212,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,41,38,301,227,221,220,217,217,217,217,204,222,230,229,216,227,226,218,224,205,233,209,231,235,221,206,210,225,208,218,229,206,228,206,232,222,211,220,222,211,227,219,205,208,225,220,207,212,205,205,232,234,216,211,223,224,226,208,218,216,212,228,205,209,228,211,203,213,228,230,230,216,202,221,226,217,202,207,206,209,224,226,214,217,210,205,218,206,223,201,211,203,214,207,211,204,200,211,204,209,211,199,224,209,207,200,229,211,205,203,211,197,212,220,218,208,208,227,214,56,57,58,59,59,59,60,60,60,60,60,61,61,61,61,61,61,61,61,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,340,226,221,219,217,217,217,232,211,227,224,206,209,224,209,212,216,219,228,217,208,227,213,219,228,214,233,231,215,218,222,208,225,229,231,210,230,208,220,224,212,208,230,207,206,214,211,215,215,215,233,233,233,213,206,233,219,223,208,212,233,208,205,205,219,216,219,226,217,229,209,219,231,221,222,215,201,222,218,228,218,229,201,216,207,211,222,208,207,229,220,211,227,206,219,211,217,224,211,204,224,214,206,215,204,211,208,226,215,215,219,211,201,203,223,226,215,55,57,58,60,56,56,57,57,57,57,57,57,57,57,57,57,57,57,57,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,43,37,316,232,222,220,217,217,217,232,233,212,232,220,213,204,228,219,233,228,219,214,226,227,229,224,225,212,213,224,224,208,229,210,220,209,220,211,219,221,210,235,235,223,219,233,206,218,218,215,234,229,219,210,226,207,219,218,224,231,210,205,217,205,226,223,205,230,216,230,217,227,223,227,221,217,222,214,232,212,203,219,202,224,211,230,203,208,226,205,203,206,206,207,212,227,219,228,214,225,204,225,217,211,221,205,208,205,226,212,222,225,220,216,214,220,215,226,215,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,57,61,332,215,213,211,210,210,210,208,209,196,196,211,202,197,225,217,201,204,220,187,204,201,214,220,203,221,211,207,210,203,207,219,211,208,194,208,213,222,215,196,197,207,218,195,220,195,215,219,206,213,220,203,205,213,215,199,211,202,216,218,193,193,205,213,191,201,215,216,214,198,201,197,218,205,208,208,217,193,210,195,208,193,213,197,201,193,204,190,208,194,198,200,211,200,188,209,194,218,206,205,208,216,215,211,197,205,196,195,213,205,198,209,213,220,217,214,208,211,56,56,56,57,58,58,59,59,59,60,60,60,60,60,60,60,60,60,55,55,55,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,58,61,343,220,215,212,212,211,212,226,227,213,208,222,225,221,220,220,221,203,202,212,211,201,218,215,203,206,201,199,199,207,196,195,196,220,217,199,195,212,200,220,213,220,203,201,213,206,195,201,198,204,200,219,199,195,222,203,215,212,210,193,202,200,193,199,200,197,211,221,194,199,208,195,218,200,192,201,203,197,202,196,215,191,196,202,205,198,217,217,191,195,201,196,208,199,210,217,215,213,193,200,217,203,207,197,216,212,209,205,204,195,222,202,203,199,216,223,217,211,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,335,223,211,209,209,209,209,217,209,215,211,202,207,214,218,212,193,213,222,206,196,198,203,211,219,211,213,208,216,202,213,200,214,221,221,219,219,201,221,217,221,215,192,207,197,193,201,216,212,208,194,208,216,204,200,192,216,196,217,190,215,213,192,210,213,201,193,193,219,208,198,202,197,198,195,208,196,189,215,208,203,198,208,199,208,212,202,198,192,208,200,203,194,200,214,194,201,216,221,208,208,193,205,217,216,218,218,205,196,219,210,216,206,209,220,196,198,210,55,55,56,57,58,57,54,54,54,55,55,55,55,55,55,55,55,55,55,55,55,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,59,61,302,221,208,207,204,204,204,190,219,211,208,196,206,209,209,194,218,208,196,205,205,198,212,206,205,214,212,209,195,202,199,199,220,200,194,197,210,220,219,195,220,199,211,213,217,211,217,197,195,220,210,202,200,220,211,196,198,204,210,203,197,214,216,208,214,212,204,203,217,214,196,212,208,197,193,213,200,218,189,209,192,212,192,211,187,189,188,211,203,193,210,193,200,193,210,190,215,216,211,214,201,211,217,190,204,213,207,207,213,218,216,212,210,216,195,223,209,55,56,57,57,58,59,59,60,60,60,60,60,60,60,61,61,62,62,62,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,58,61,324,211,207,206,203,203,203,214,209,200,217,194,208,202,207,193,207,205,211,211,211,207,198,217,212,215,201,218,192,216,205,191,193,203,195,219,215,195,199,196,216,198,202,195,204,194,197,208,198,203,210,215,192,207,192,202,208,205,197,194,198,192,196,196,215,200,199,210,210,198,208,195,197,190,206,208,212,206,189,201,205,206,204,191,193,209,200,209,209,190,196,187,206,202,188,206,198,208,217,201,202,204,219,208,193,197,203,194,192,197,195,214,216,220,214,212,207,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,344,218,211,209,207,207,207,208,210,215,216,213,218,207,192,214,214,198,207,198,220,210,209,210,196,199,203,211,212,201,202,202,223,195,204,206,199,207,220,202,213,208,219,201,204,205,203,219,193,207,207,202,217,204,218,195,217,219,209,207,221,193,200,194,202,203,215,192,217,221,201,199,198,213,214,213,204,208,214,195,206,196,199,213,190,194,207,206,199,214,195,214,208,208,217,189,208,197,199,201,217,194,210,201,222,220,225,205,211,195,215,199,201,199,212,221,212,56,56,57,58,59,59,60,61,56,55,55,55,55,55,55,55,55,55,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,23,62,464,211,229,228,225,225,225,227,213,239,237,232,226,211,231,233,227,237,240,240,233,224,241,218,236,235,238,237,227,222,241,216,224,217,215,232,222,222,234,239,224,234,223,219,227,241,222,222,220,237,219,224,233,229,234,235,217,229,228,214,233,216,229,226,237,213,227,210,233,218,220,213,238,235,232,223,233,220,214,210,222,211,216,210,234,222,230,229,231,221,217,229,233,212,213,211,226,211,209,227,222,234,237,216,213,223,237,213,210,211,228,219,210,236,224,56,56,56,56,57,58,58,59,59,59,60,60,60,60,60,61,61,61,61,61,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,22,62,359,221,228,227,223,223,223,222,230,232,220,233,209,214,213,235,223,225,221,226,221,228,240,232,224,216,213,226,223,235,227,224,223,235,228,236,241,237,239,235,225,213,221,228,217,229,230,233,224,233,232,227,215,221,227,211,230,233,220,220,211,237,226,219,218,234,225,222,223,219,227,228,229,230,221,237,233,217,227,212,212,233,218,235,216,217,210,233,226,209,228,206,218,215,222,221,210,226,221,223,216,232,222,214,229,213,237,223,236,213,226,225,212,210,224,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,472,207,226,225,221,221,221,220,227,236,229,221,224,214,235,221,238,214,224,226,215,226,218,214,236,234,218,213,211,212,214,214,214,237,232,224,211,223,224,234,216,212,234,222,234,212,208,225,220,236,212,217,216,226,236,212,216,221,217,227,217,225,226,230,213,213,207,210,218,234,232,229,209,221,210,207,205,216,213,230,219,218,224,230,205,217,228,222,231,223,225,221,224,213,213,212,216,232,223,223,211,223,224,208,213,223,223,230,224,210,228,209,211,215,220,57,51,52,52,52,53,53,53,54,54,54,54,54,54,54,55,55,55,55,55,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,60,62,413,229,219,219,218,218,218,229,217,212,214,214,209,223,231,225,224,229,213,233,230,226,225,229,214,216,227,210,209,217,222,221,233,217,210,228,226,212,230,211,227,213,206,220,220,211,223,215,210,220,210,220,214,207,203,222,218,224,220,216,222,226,222,230,215,228,208,206,216,210,221,199,219,204,197,196,196,215,216,199,207,219,205,223,224,197,212,220,224,205,208,211,220,204,222,220,226,221,208,220,204,213,232,226,212,224,226,202,220,204,211,231,218,230,232,208,221,56,56,57,58,58,59,59,60,60,61,61,61,61,61,61,63,57,57,57,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,59,60,361,215,217,216,216,216,216,219,224,226,219,207,205,211,207,214,224,205,222,210,230,206,229,218,222,225,224,229,207,208,208,209,206,220,211,213,224,212,221,204,211,212,207,205,229,228,213,215,230,224,214,208,202,216,225,205,218,204,202,200,228,227,219,206,220,207,206,199,218,208,212,217,199,200,203,221,219,217,192,193,216,194,217,200,196,215,215,203,216,199,215,205,222,200,225,214,201,204,217,205,218,206,219,220,205,221,216,210,198,214,212,219,215,203,211,223,217,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,367,228,217,217,217,217,217,219,221,216,230,211,221,226,202,230,204,219,223,205,206,220,225,234,226,221,215,215,224,224,230,209,216,211,209,210,215,219,226,221,221,211,204,219,224,226,215,210,206,202,226,212,213,207,229,209,227,216,221,207,229,203,210,223,204,228,209,205,204,211,217,198,196,206,206,216,198,201,217,206,204,193,193,216,218,205,217,216,199,213,210,225,220,214,211,219,226,209,229,211,231,214,221,230,212,224,219,221,218,230,206,219,225,206,225,229,220,57,56,58,59,57,57,57,57,58,58,58,58,58,58,58,59,59,59,59,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,59,508,209,224,225,221,221,221,226,219,217,219,214,231,230,211,216,216,235,239,230,215,210,222,226,216,233,234,222,238,219,218,238,228,222,219,235,227,212,229,210,226,231,236,220,212,232,212,225,236,212,234,232,214,214,225,229,214,218,218,214,207,226,229,224,228,214,207,231,224,212,232,208,215,214,221,222,223,213,220,227,219,220,204,232,207,212,229,214,228,211,211,231,228,213,224,208,215,230,227,222,206,227,224,220,206,225,226,215,217,218,219,210,209,229,235,221,232,220,56,57,58,59,59,60,60,61,61,61,61,61,61,61,61,61,61,61,61,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,469,207,221,224,220,221,221,219,223,219,230,216,226,212,213,211,217,210,219,235,226,225,216,233,216,215,211,219,217,218,218,211,232,231,221,214,237,212,219,227,215,235,228,217,223,222,217,229,210,221,219,221,215,232,207,234,213,206,225,219,227,206,235,224,231,208,219,208,213,207,205,214,215,226,224,233,210,212,215,222,216,209,217,233,209,222,216,220,231,226,218,206,228,227,207,204,230,221,207,217,222,202,228,232,205,232,225,209,230,213,224,215,214,215,207,213,217,219,55,57,57,57,53,53,53,53,54,53,54,54,54,54,54,54,54,54,54,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,60,390,203,225,226,222,223,223,233,231,213,236,225,218,220,221,207,218,232,237,218,220,219,211,227,236,236,210,232,212,215,221,238,228,212,221,214,234,216,213,212,215,211,209,221,216,215,226,233,233,209,237,236,220,212,226,217,214,231,237,222,229,217,230,212,208,207,208,214,229,236,210,233,215,219,207,206,223,213,222,206,230,217,234,206,209,225,206,231,211,205,218,231,206,221,229,233,209,207,225,213,217,206,218,213,231,218,207,211,223,213,214,221,219,229,233,214,208,221,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,58,365,194,209,211,209,209,210,223,197,199,215,208,203,218,199,216,215,200,197,212,214,218,214,211,217,209,215,219,223,227,221,198,207,219,218,214,215,210,202,222,196,225,217,215,219,215,221,205,217,197,202,202,210,199,199,225,215,199,215,219,223,218,208,222,211,220,223,224,210,201,203,216,218,197,211,206,210,213,196,211,213,211,208,205,213,206,203,201,194,217,216,193,221,220,215,216,214,205,196,191,194,207,204,220,220,216,219,202,206,221,209,214,212,198,200,219,203,208,56,55,56,57,57,58,58,59,59,59,60,60,60,60,60,60,62,63,63,63,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,320,224,208,211,209,209,209,204,202,221,205,207,199,218,206,223,205,219,201,221,206,199,198,220,215,197,201,221,210,226,204,199,216,217,210,204,212,201,210,217,210,211,200,221,219,200,203,221,217,213,224,210,215,199,204,199,192,197,198,196,210,213,197,216,197,219,213,218,213,219,194,201,204,216,207,199,209,192,203,196,201,220,204,211,217,212,204,195,205,192,210,197,194,212,192,202,217,191,207,201,191,192,208,209,219,216,203,217,195,211,203,191,193,196,200,204,205,207,56,56,57,57,59,60,57,57,57,58,58,58,59,59,59,59,59,59,59,59,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,60,337,230,206,209,207,207,207,195,221,196,203,209,215,209,220,219,204,194,209,210,217,207,204,221,221,213,199,222,203,223,201,208,215,223,202,204,197,209,212,215,221,223,221,204,201,218,212,213,221,210,210,220,220,221,218,218,214,209,208,207,193,219,208,205,199,216,219,212,220,217,198,197,209,220,207,205,193,212,209,219,198,205,209,190,200,194,196,214,218,214,189,215,206,207,202,202,218,215,208,199,214,201,215,192,195,211,203,213,190,202,193,202,200,203,217,217,196,205,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,14,59,426,196,211,211,208,207,207,195,220,219,207,220,211,197,205,210,197,205,196,203,200,208,225,206,200,220,225,200,224,201,195,198,213,197,216,222,222,215,207,220,209,217,223,205,221,212,219,206,194,194,212,206,219,209,222,213,213,210,195,197,196,205,198,199,213,193,206,197,204,205,194,202,200,207,214,195,198,197,211,191,192,205,195,215,191,196,217,213,207,210,218,202,198,216,215,204,205,213,214,190,209,213,211,200,214,210,214,194,217,201,201,214,214,214,213,205,54,54,54,55,56,56,57,57,57,58,58,58,58,58,58,58,57,52,52,52,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,14,59,417,195,211,211,206,206,207,205,197,194,199,216,213,192,200,210,213,206,206,216,217,216,206,203,202,215,218,221,221,202,205,194,211,209,212,220,217,195,210,201,220,195,221,197,214,204,198,219,196,195,200,207,200,209,194,215,222,207,208,209,199,193,220,221,214,197,221,218,218,217,211,191,216,211,201,200,196,217,198,198,206,190,210,201,203,203,189,218,203,197,192,200,208,216,194,207,198,207,215,204,216,206,190,192,215,189,207,206,194,189,212,193,194,194,192,201,201,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,481,184,208,209,205,205,205,195,219,220,213,218,217,193,190,202,198,216,213,203,218,204,218,217,216,195,200,210,218,219,194,213,210,217,202,201,198,211,205,209,193,216,195,201,198,207,214,200,211,204,209,200,208,221,208,215,191,202,199,206,202,203,212,194,202,200,197,204,189,202,206,215,212,216,198,188,217,199,216,216,208,199,197,212,193,209,207,196,193,187,197,188,207,188,189,187,188,204,190,201,209,194,196,186,191,213,195,191,197,214,200,195,212,194,203,195,195,54,54,55,56,57,57,57,55,56,57,57,58,58,58,58,58,58,58,58,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,312,288,229,225,224,213,218,231,221,229,228,226,216,204,212,213,209,236,214,224,230,230,228,232,213,225,231,215,213,235,214,208,232,212,218,227,210,214,228,232,222,230,233,217,210,207,234,218,224,222,208,220,219,224,227,231,219,221,208,206,232,220,224,225,209,231,208,210,209,219,207,215,223,208,212,227,212,228,205,202,217,220,225,205,208,208,204,225,202,200,201,221,215,210,206,216,220,201,206,221,208,211,206,228,223,207,227,212,225,214,207,226,221,209,205,225,232,219,203,222,221,222,220,222,229,232,230,208,206,223,219,57,59,59,58,58,58,58,58,58,58,58,58,58,58,58,58,58,58,58,58,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,59,333,303,231,224,222,210,217,216,224,209,225,204,225,211,218,223,234,225,226,231,207,225,236,210,235,229,216,233,226,230,230,211,212,208,221,231,221,214,236,232,225,223,229,229,233,231,216,210,209,230,222,221,205,216,211,213,222,220,220,216,217,207,201,208,224,213,230,200,224,216,218,223,228,202,226,198,216,214,210,213,218,221,204,217,205,227,225,213,223,214,210,216,216,222,211,226,206,228,198,202,222,224,223,225,223,222,210,226,225,209,198,220,201,214,202,222,228,217,214,212,211,211,210,229,208,222,217,231,233,230,218,56,58,59,58,59,59,59,59,59,59,59,59,59,59,59,59,59,58,58,58,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,59,329,257,227,218,218,207,214,218,200,218,201,226,225,212,222,216,210,217,206,216,231,231,225,216,210,222,229,214,215,217,232,207,217,203,207,227,223,210,209,232,217,223,230,230,230,212,216,213,201,225,210,206,224,207,210,211,211,220,221,204,199,202,215,206,200,214,210,211,223,222,218,214,218,207,203,207,196,208,222,195,214,198,217,215,217,195,202,223,206,195,210,208,219,203,211,219,209,212,223,223,211,203,213,206,207,202,209,211,220,214,202,215,216,199,196,225,214,214,208,225,205,226,205,224,208,212,201,219,225,220,213,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,390,230,230,231,231,231,231,229,226,236,235,220,245,232,226,232,218,237,233,229,249,242,239,242,251,232,232,242,223,221,233,235,249,242,238,222,245,246,244,231,244,241,238,248,231,244,230,243,234,221,232,236,220,248,232,243,232,236,220,222,236,249,243,235,240,235,242,244,233,239,224,240,228,243,236,232,229,235,218,244,232,216,244,224,235,238,240,220,242,225,220,233,241,236,227,225,224,233,227,224,231,235,230,224,219,211,231,222,219,222,239,220,219,227,210,237,207,231,215,219,217,231,230,204,233,214,232,234,219,58,58,53,51,51,51,51,51,51,51,51,51,51,51,51,51,52,52,52,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,60,46,399,230,229,229,230,230,229,242,222,233,238,235,234,222,214,228,226,213,221,237,229,221,248,226,230,222,244,243,233,221,230,248,233,244,230,243,246,227,224,247,233,223,234,235,221,233,241,219,243,224,238,230,237,247,234,239,219,243,230,220,224,230,237,238,223,240,245,227,241,243,226,240,241,235,221,238,231,216,233,234,230,221,241,238,240,236,226,220,239,218,223,226,232,242,231,235,221,233,223,238,239,219,229,235,236,225,234,213,221,225,235,233,232,232,221,231,217,206,220,224,233,216,230,215,226,222,205,221,217,58,58,60,59,59,59,59,59,59,59,59,59,59,59,59,59,60,60,60,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,58,44,373,226,225,226,226,226,226,233,234,233,231,213,238,213,227,237,208,228,231,226,237,217,244,232,225,235,235,223,237,232,215,219,215,229,237,240,231,231,237,226,224,221,243,243,215,243,236,239,225,243,218,239,221,235,230,234,236,221,218,227,219,223,219,229,234,244,216,228,227,240,226,225,229,218,233,237,220,239,233,230,237,231,237,235,226,229,234,233,211,239,233,239,230,216,224,232,216,234,223,207,222,208,223,233,211,224,235,217,207,235,227,218,226,213,217,228,222,221,225,221,218,225,223,215,214,227,221,215,213,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1931,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>277</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -1954,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>278</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -1977,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>279</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -2023,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>280</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -2046,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>281</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -2069,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>282</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -2115,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>283</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
@@ -2138,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>284</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
@@ -2161,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>285</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
@@ -2207,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>286</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -2230,7 +2765,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>287</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -2253,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>156</v>
+        <v>288</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -2299,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>289</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
@@ -2322,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>158</v>
+        <v>290</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -2345,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -2391,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>160</v>
+        <v>292</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
@@ -2414,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>161</v>
+        <v>293</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
@@ -2437,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>162</v>
+        <v>294</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -2483,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>163</v>
+        <v>295</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>5</v>
@@ -2506,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>164</v>
+        <v>296</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
@@ -2529,7 +3064,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>165</v>
+        <v>297</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>5</v>
@@ -2575,7 +3110,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>166</v>
+        <v>298</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>10</v>
@@ -2598,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>167</v>
+        <v>299</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>10</v>
@@ -2621,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>10</v>
@@ -2667,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>301</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>11</v>
@@ -2690,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>170</v>
+        <v>302</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>11</v>
@@ -2713,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>171</v>
+        <v>303</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>11</v>
@@ -2759,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>172</v>
+        <v>304</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>5</v>
@@ -2782,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>173</v>
+        <v>305</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>5</v>
@@ -2805,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>174</v>
+        <v>306</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>5</v>
@@ -2851,7 +3386,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>175</v>
+        <v>307</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>5</v>
@@ -2874,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>176</v>
+        <v>308</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>5</v>
@@ -2897,7 +3432,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>177</v>
+        <v>309</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>5</v>
@@ -2943,7 +3478,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>178</v>
+        <v>310</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
@@ -2966,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>179</v>
+        <v>311</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
@@ -2989,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>180</v>
+        <v>312</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
@@ -3035,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>181</v>
+        <v>313</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>7</v>
@@ -3058,7 +3593,7 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>182</v>
+        <v>314</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>7</v>
@@ -3081,7 +3616,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>183</v>
+        <v>315</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>7</v>
@@ -3127,7 +3662,7 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>184</v>
+        <v>316</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>6</v>
@@ -3150,7 +3685,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>185</v>
+        <v>317</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>6</v>
@@ -3173,7 +3708,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>186</v>
+        <v>318</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>6</v>
@@ -3219,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>187</v>
+        <v>319</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>6</v>
@@ -3242,7 +3777,7 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>188</v>
+        <v>320</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>6</v>
@@ -3265,7 +3800,7 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>189</v>
+        <v>321</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>6</v>
@@ -3311,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>190</v>
+        <v>322</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>9</v>
@@ -3334,7 +3869,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>191</v>
+        <v>323</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>9</v>
@@ -3357,7 +3892,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>192</v>
+        <v>324</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>9</v>
@@ -3403,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>193</v>
+        <v>325</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>9</v>
@@ -3426,7 +3961,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>194</v>
+        <v>326</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>9</v>
@@ -3449,7 +3984,7 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>195</v>
+        <v>327</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>9</v>
@@ -3495,7 +4030,7 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>196</v>
+        <v>328</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>60</v>
@@ -3518,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>197</v>
+        <v>329</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>60</v>
@@ -3541,7 +4076,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>198</v>
+        <v>330</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>60</v>
@@ -3587,7 +4122,7 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>199</v>
+        <v>331</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>10</v>
@@ -3610,7 +4145,7 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>200</v>
+        <v>332</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>10</v>
@@ -3633,7 +4168,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>201</v>
+        <v>333</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>10</v>
@@ -3679,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>202</v>
+        <v>334</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>11</v>
@@ -3702,7 +4237,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>203</v>
+        <v>335</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>11</v>
@@ -3725,7 +4260,7 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>204</v>
+        <v>336</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>11</v>
@@ -3771,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>205</v>
+        <v>337</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>9</v>
@@ -3794,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>206</v>
+        <v>338</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>9</v>
@@ -3817,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>207</v>
+        <v>339</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>9</v>
@@ -3863,7 +4398,7 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>208</v>
+        <v>340</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>9</v>
@@ -3886,7 +4421,7 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>209</v>
+        <v>341</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>9</v>
@@ -3909,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>210</v>
+        <v>342</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>9</v>
@@ -3955,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>211</v>
+        <v>343</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>13</v>
@@ -3978,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>212</v>
+        <v>344</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>13</v>
@@ -4001,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>213</v>
+        <v>345</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>13</v>
@@ -4047,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>214</v>
+        <v>346</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>6</v>
@@ -4070,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>215</v>
+        <v>347</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>6</v>
@@ -4093,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>216</v>
+        <v>348</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>6</v>
@@ -4139,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>217</v>
+        <v>349</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>5</v>
@@ -4162,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>218</v>
+        <v>350</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>5</v>
@@ -4185,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>219</v>
+        <v>351</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>5</v>
@@ -4231,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="s">
-        <v>220</v>
+        <v>352</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>8</v>
@@ -4254,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>8</v>
@@ -4277,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>222</v>
+        <v>354</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>8</v>
@@ -4323,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="C106" t="s">
-        <v>223</v>
+        <v>355</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>13</v>
@@ -4346,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>224</v>
+        <v>356</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>13</v>
@@ -4369,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="C108" t="s">
-        <v>225</v>
+        <v>357</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>13</v>
@@ -4415,7 +4950,7 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>226</v>
+        <v>358</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>6</v>
@@ -4438,7 +4973,7 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>227</v>
+        <v>359</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>6</v>
@@ -4461,7 +4996,7 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>228</v>
+        <v>360</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>6</v>
@@ -4507,7 +5042,7 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>229</v>
+        <v>361</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>10</v>
@@ -4530,7 +5065,7 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>230</v>
+        <v>362</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>10</v>
@@ -4553,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>231</v>
+        <v>363</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>10</v>
@@ -4599,7 +5134,7 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>232</v>
+        <v>364</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>13</v>
@@ -4622,7 +5157,7 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>233</v>
+        <v>365</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>13</v>
@@ -4645,7 +5180,7 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>234</v>
+        <v>366</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>13</v>
@@ -4691,7 +5226,7 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>235</v>
+        <v>367</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>5</v>
@@ -4714,7 +5249,7 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>236</v>
+        <v>368</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>5</v>
@@ -4737,7 +5272,7 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>237</v>
+        <v>369</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>5</v>
@@ -4783,7 +5318,7 @@
         <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>238</v>
+        <v>370</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>6</v>
@@ -4806,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>239</v>
+        <v>371</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>6</v>
@@ -4829,7 +5364,7 @@
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>240</v>
+        <v>372</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>6</v>
@@ -4875,7 +5410,7 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>241</v>
+        <v>373</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>5</v>
@@ -4898,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>242</v>
+        <v>374</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>5</v>
@@ -4921,7 +5456,7 @@
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>243</v>
+        <v>375</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>5</v>
@@ -4967,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>244</v>
+        <v>376</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>11</v>
@@ -4990,7 +5525,7 @@
         <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>245</v>
+        <v>377</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>11</v>
@@ -5013,7 +5548,7 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>246</v>
+        <v>378</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>11</v>
@@ -5059,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>247</v>
+        <v>379</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>10</v>
@@ -5082,7 +5617,7 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>248</v>
+        <v>380</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>10</v>
@@ -5105,7 +5640,7 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>249</v>
+        <v>381</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>10</v>
@@ -5151,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="C142" t="s">
-        <v>250</v>
+        <v>382</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>7</v>
@@ -5174,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="C143" t="s">
-        <v>251</v>
+        <v>383</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>7</v>
@@ -5197,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="C144" t="s">
-        <v>252</v>
+        <v>384</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>7</v>
@@ -5243,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="s">
-        <v>253</v>
+        <v>385</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>6</v>
@@ -5266,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="C147" t="s">
-        <v>254</v>
+        <v>386</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>6</v>
@@ -5289,7 +5824,7 @@
         <v>0</v>
       </c>
       <c r="C148" t="s">
-        <v>255</v>
+        <v>387</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>6</v>
@@ -5335,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="C150" t="s">
-        <v>256</v>
+        <v>388</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>5</v>
@@ -5358,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="C151" t="s">
-        <v>257</v>
+        <v>389</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>5</v>
@@ -5381,7 +5916,7 @@
         <v>0</v>
       </c>
       <c r="C152" t="s">
-        <v>258</v>
+        <v>390</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>5</v>
@@ -5427,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="C154" t="s">
-        <v>259</v>
+        <v>391</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>7</v>
@@ -5450,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="C155" t="s">
-        <v>260</v>
+        <v>392</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>7</v>
@@ -5473,7 +6008,7 @@
         <v>0</v>
       </c>
       <c r="C156" t="s">
-        <v>261</v>
+        <v>393</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>7</v>
@@ -5519,7 +6054,7 @@
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>262</v>
+        <v>394</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>6</v>
@@ -5542,7 +6077,7 @@
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>263</v>
+        <v>395</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>6</v>
@@ -5565,7 +6100,7 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>264</v>
+        <v>396</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>6</v>
@@ -5611,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>265</v>
+        <v>397</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>9</v>
@@ -5634,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>266</v>
+        <v>398</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>9</v>
@@ -5657,7 +6192,7 @@
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>267</v>
+        <v>399</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>9</v>
@@ -5703,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="s">
-        <v>268</v>
+        <v>400</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>6</v>
@@ -5726,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="C167" t="s">
-        <v>269</v>
+        <v>401</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>6</v>
@@ -5749,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="C168" t="s">
-        <v>270</v>
+        <v>402</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>6</v>
@@ -5795,7 +6330,7 @@
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>271</v>
+        <v>403</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>133</v>
@@ -5818,7 +6353,7 @@
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>272</v>
+        <v>404</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>133</v>
@@ -5841,7 +6376,7 @@
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>273</v>
+        <v>405</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>133</v>
@@ -5887,7 +6422,7 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>274</v>
+        <v>406</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>12</v>
@@ -5910,7 +6445,7 @@
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>275</v>
+        <v>407</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>12</v>
@@ -5933,7 +6468,7 @@
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>276</v>
+        <v>408</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>12</v>
@@ -5976,4 +6511,2512 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E747ACB-15E8-4064-8CB5-3E02188815D0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74658956-AB5D-42D5-B110-0FFF1608F8B7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D0A49B-935C-4A06-BE33-D8184D77A0B0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887BB88F-A3F4-4E5C-8E6C-49176FBF0332}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3E3F18-9ED8-41C5-B049-57C7B36FB9FE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15FFFC0-DB59-46E7-BD38-7A573DDDFACA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B98A017-2B24-41B5-8734-EB231CA271C7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D382264D-C0B0-4CB3-BAA7-014F4C426BD1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6D9E78-4133-471B-A33F-68A60CB6780D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9701D76F-1163-4C67-AC68-4F0C943C0973}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57E9D79-4BED-4827-82B4-D0EDDA92A57C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A074A9A-A5E3-4F3C-8B7A-2EEAA837F0A7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2A26AD-A085-46A1-BAEB-24ACD33E6C87}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6DA933-13F0-4472-98AA-F26BD8B9BF70}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC7D3D5-5FAA-4CEB-A2FD-C1BF56CE1284}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEF47BD-2B47-4DA6-890F-905F57552A60}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D6BEEA-7666-4506-8B91-CC6F0195309F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2410E9CF-10E3-4750-9F8A-FCE472B072B8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B7B635-A8C3-4A81-8ED5-109EACF8EED3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B69A668-1B44-467B-9FDB-5EA706CF6509}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5612E203-371A-4387-8AEA-8C89F6D54919}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1598EC-DEF5-4D9D-8120-CBCADBD1433C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FF0E2F-786E-4363-8639-18FDEEC40ACD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3D05C6-DFB2-41B8-B04B-A46D52BD9025}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F358B73C-E13D-4F47-B195-7C23600B5DD3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999E6E91-B4CF-4B02-B582-78780A98BAA6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23454817-172F-497C-AFDA-4565A418F8E2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD85121-4A1B-4F32-AFAE-39A0B1405F9F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EE4D53-9EC1-4D32-9605-36BF88E826B3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399E8AFF-FB5A-45BF-B436-3A1526E914A9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E5810A-A9A3-478E-B9F6-2D9065DBEE8E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20D7F4F-2D5D-4DD0-93C4-5DD68CB5ACDE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D5637F-BB2B-48EA-A476-E12C5019A61F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9209B5-1094-4289-AFB0-BBAEED259F33}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet130.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A947A76-2A69-488B-96D6-B88BF541E2DF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet131.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D11E7B-C3C0-4432-86C5-34970228EF59}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet132.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C89F9F-2F94-45BB-9664-A939F3A1F31E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet133.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE45D41-BA50-48A4-810A-800D3AE79564}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7135028F-9579-4E82-BA3E-3C451FDC5284}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8DD08A-C539-4D25-B5ED-23A0C915064D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF6BFD4-9AEA-41A0-A78D-BFDE8FD55E63}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85766883-51BC-48DA-8172-D78672107868}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29417BAF-BA80-4F8B-97AD-79B01FDD397F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A0F067-8B53-41DE-9D2A-18A870FA1F32}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55044B3C-B730-40D6-A9A2-B74B7053922A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785F4E9B-C604-4A81-AB9A-BACAE9D224C0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382F220D-5287-4C9E-87D6-052C55CF5EDB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EDDE93-8CAA-4913-A014-181A1F42E87C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C1DE07-9D58-4D15-BB2F-25F3EA0E07EA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED9462C-701A-4C2B-AE2E-356D3C718405}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7A2BF7-6AEC-4319-AABD-1E98FBBA831E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C8FA56-3C00-40E6-8B16-7E6E4E353C4F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7C7A7D-7687-4B8F-ADEE-303C2ED7FC0A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA4EFC7-901F-4EFE-B1E4-F4F936869708}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7368570-81C4-4D79-9934-584CEE2DA541}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1066D1-5FE0-4BD7-B986-18D4C3AA8999}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FC58EE-64EC-4A96-9881-82EE39BFD1FA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBDE700-F583-4640-B4DF-CA07B76E8B32}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E0AA82-E9C4-4FCB-A65A-FA27B9FA00A3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581F7F4B-7E90-452F-AA45-1BA5F6BEF445}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4785C989-7E31-42BE-AE5B-CCAD622EF743}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58960248-5BB6-4741-B9DC-CC69E42BB241}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0AD8FF-6FD4-4FBD-91D1-98839B637F94}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB409DC4-9F2D-4E11-B759-A1EBE4DD85BF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14383709-0CD4-46A4-9DC7-D8E5F8F06404}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02181AD-0B4C-4D9F-9D6E-F2896B9FF320}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5167733C-CB1B-47ED-A5FD-D1DD02D6B1A0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C513A08E-B7B1-480B-9F07-B0EA6515772F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01327083-FABC-46AB-BD46-EBA2E96A99D9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFECB199-A5FD-431D-A6AB-58E2956B7304}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43E5BCF-3B67-431D-B26F-CD9A2EB8014C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D74AE5A-9BB1-4C3E-9516-7C9D798D4055}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36C80BC-88E9-4BAC-AD5B-AB49CEE11488}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BF7DC9-5946-4C7E-A6DE-7ADDFC477E6C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDF6310-45C7-4EEE-BF4D-1ED39195E785}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE836284-9BF5-4A66-ABA8-D708AA27CB8A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FFF99C-CAD8-4A6C-95DC-731A9E9B5315}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9B3A27-83C7-4DAD-8655-BE7B8B97492F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81151E1F-51CD-4208-AF9E-F0A94B97AB36}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91961657-0680-4CF1-8C88-0B087485CDAA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40714A1B-98B4-4A9C-83B0-21D59E835434}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BA7D35-56AE-4D29-8DB9-6E15BE4F24CB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FD1B51-C007-485B-942A-2DD16BEC550F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0A711D-2AA6-4CE1-A080-AF28E721A5CB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF68E01-4484-4B70-8278-ACB4ED0A4E1E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D449D2F6-DBFA-44D3-8CF2-422BD6D2DB54}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B045E14D-EC12-4D89-AFCB-295236C423EE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5DA225-6704-40C5-A929-93656D29BB0B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE80CF38-C4BE-4223-8D94-F2D678BB5F50}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91025B3-48F3-48E2-86E2-EC7BDA21B82F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F94C6C1-26FB-490A-9492-1179FF906477}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AFB4FA1-D5BA-4451-A94D-1870EAE62ADE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9ECBD5C-CECA-4404-8D3C-03AFF483EE89}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136CD0D0-1098-425E-A070-E2FAB1AB4B7D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186D41F4-8223-46AA-B067-A88C0BEB340C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0465C378-EA80-49EE-9E95-E5C725FB160C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678D6312-548D-4F6F-B5D0-9B325EDD4794}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439207E9-A143-4FB9-A65D-5F8AB3EE4A26}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47B9EF1-2AC0-421A-8F53-7BC005A62E4C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9460D269-BAE0-4AB1-80F5-5BD5B76D9DA8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A74CE873-76EC-4537-A2B0-7BB037BBC28E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5814A2-D153-4D37-A136-CDC1A8BB9D69}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C068072B-D564-40D0-8920-33F3FA07D386}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA5A31-D8C5-42E1-847F-404DA85E350D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0127BACC-9EC5-4543-832B-48EED6A18ED2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAD6C7D-9D3F-494C-87B0-6485ED79CA2A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A504020-0664-4D9A-8CFA-5B288596A8FF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252AFE32-1B95-417D-98AA-7CB42C79D77C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A75A894-F200-4660-92E3-C9D6B0B1EF3A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7133C3-3B13-459A-857C-51DDD169ECA2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14151BBE-69CE-4D2B-87B1-A7CCCA336385}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F030B35D-D0F5-4FA4-929F-51606748C562}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC75E9D-743A-4832-BE56-F13DA68078E3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9010D3-1AE6-4592-98C2-D02E7A2A870D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C23B6E-BF87-4D10-8C27-73903D8CA853}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E90432-D783-45AE-AF4E-BF81843285AF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E570695-8BA6-42D5-B1D5-5AA2DB7982F8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC626614-1CD6-41D1-B606-8F3AFDB2D4E0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A97644-D999-4C6A-82A6-DE183B238808}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0674AA-9DF1-497D-88A8-678B828A3CC9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EB68FC-A8AD-4012-A69C-B1D6BF9FF1F1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD973CE-2F77-4516-B4E1-2723C7C4175C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B95B19E-8BA8-40E6-842D-98FDE81C5C76}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A145796F-827F-4C1B-A4A1-B34408C072A6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE396960-14AD-4D5D-B0E9-4683D4E76029}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD45F12-0EC7-4747-B368-C823564F17FC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10F18AE-AD5E-40E4-984A-DE0275804B24}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECEC613-947B-46AE-85A3-C9033934D525}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AED807-B069-4345-BE94-60389B1715CE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A7E363-C54B-4D7D-AC58-17C48D64C0D5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D061DF9-E1A4-4573-A1E7-A776C1AE3777}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE685DD4-0E40-48DC-90C7-56EFA317B36D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>